--- a/2024.01.02.김경수부장/LXDTP_플랫폼1차_개선 현황표_2024.03.11(월).xlsx
+++ b/2024.01.02.김경수부장/LXDTP_플랫폼1차_개선 현황표_2024.03.11(월).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/softm/Work/onpoom/2024.01.02.김경수부장/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9A5210-BD54-D443-9D6B-54EAC9E9E82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3843D289-710F-9242-B317-308778003BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="500" windowWidth="29400" windowHeight="20500" tabRatio="680" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="680" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="12" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10801" uniqueCount="2215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10816" uniqueCount="2216">
   <si>
     <t>IND</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8422,6 +8422,10 @@
   </si>
   <si>
     <t>2024.03.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8727,7 +8731,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8863,12 +8867,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9996,7 +9994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="495">
+  <cellXfs count="513">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11150,12 +11148,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -11187,9 +11179,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11224,31 +11213,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11281,6 +11249,75 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11310,54 +11347,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11410,11 +11399,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11425,31 +11414,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11467,22 +11435,25 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11492,9 +11463,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14661,7 +14713,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -14682,7 +14734,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-">
-                  <c:v>49</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15297,13 +15349,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15447,13 +15499,13 @@
                   <c:v>0.26666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1125</c:v>
+                  <c:v>0.21249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13865546218487396</c:v>
+                  <c:v>0.1638655462184874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13066666666666665</c:v>
+                  <c:v>0.16800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16123,7 +16175,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -16144,7 +16196,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-">
-                  <c:v>49</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16303,7 +16355,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15151515151515152</c:v>
+                  <c:v>0.5757575757575758</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -16324,7 +16376,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13066666666666665</c:v>
+                  <c:v>0.16800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21376,15 +21428,15 @@
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
-      <c r="E1" s="394"/>
-      <c r="F1" s="394"/>
-      <c r="G1" s="394"/>
-      <c r="H1" s="394"/>
-      <c r="I1" s="394"/>
-      <c r="J1" s="394"/>
-      <c r="K1" s="394"/>
-      <c r="L1" s="394"/>
-      <c r="M1" s="394"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
+      <c r="H1" s="391"/>
+      <c r="I1" s="391"/>
+      <c r="J1" s="391"/>
+      <c r="K1" s="391"/>
+      <c r="L1" s="391"/>
+      <c r="M1" s="391"/>
       <c r="N1" s="76"/>
       <c r="O1" s="76"/>
       <c r="P1" s="76"/>
@@ -21415,15 +21467,15 @@
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
-      <c r="E2" s="394"/>
-      <c r="F2" s="394"/>
-      <c r="G2" s="394"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="394"/>
-      <c r="J2" s="394"/>
-      <c r="K2" s="394"/>
-      <c r="L2" s="394"/>
-      <c r="M2" s="394"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="391"/>
+      <c r="G2" s="391"/>
+      <c r="H2" s="391"/>
+      <c r="I2" s="391"/>
+      <c r="J2" s="391"/>
+      <c r="K2" s="391"/>
+      <c r="L2" s="391"/>
+      <c r="M2" s="391"/>
       <c r="N2" s="76"/>
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
@@ -21454,15 +21506,15 @@
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
       <c r="D3" s="76"/>
-      <c r="E3" s="394"/>
-      <c r="F3" s="394"/>
-      <c r="G3" s="394"/>
-      <c r="H3" s="394"/>
-      <c r="I3" s="394"/>
-      <c r="J3" s="394"/>
-      <c r="K3" s="394"/>
-      <c r="L3" s="394"/>
-      <c r="M3" s="394"/>
+      <c r="E3" s="391"/>
+      <c r="F3" s="391"/>
+      <c r="G3" s="391"/>
+      <c r="H3" s="391"/>
+      <c r="I3" s="391"/>
+      <c r="J3" s="391"/>
+      <c r="K3" s="391"/>
+      <c r="L3" s="391"/>
+      <c r="M3" s="391"/>
       <c r="N3" s="76"/>
       <c r="O3" s="76"/>
       <c r="P3" s="76"/>
@@ -21493,15 +21545,15 @@
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
-      <c r="E4" s="394"/>
-      <c r="F4" s="394"/>
-      <c r="G4" s="394"/>
-      <c r="H4" s="394"/>
-      <c r="I4" s="394"/>
-      <c r="J4" s="394"/>
-      <c r="K4" s="394"/>
-      <c r="L4" s="394"/>
-      <c r="M4" s="394"/>
+      <c r="E4" s="391"/>
+      <c r="F4" s="391"/>
+      <c r="G4" s="391"/>
+      <c r="H4" s="391"/>
+      <c r="I4" s="391"/>
+      <c r="J4" s="391"/>
+      <c r="K4" s="391"/>
+      <c r="L4" s="391"/>
+      <c r="M4" s="391"/>
       <c r="N4" s="76"/>
       <c r="O4" s="76"/>
       <c r="P4" s="76"/>
@@ -21532,15 +21584,15 @@
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
       <c r="D5" s="76"/>
-      <c r="E5" s="394"/>
-      <c r="F5" s="394"/>
-      <c r="G5" s="394"/>
-      <c r="H5" s="394"/>
-      <c r="I5" s="394"/>
-      <c r="J5" s="394"/>
-      <c r="K5" s="394"/>
-      <c r="L5" s="394"/>
-      <c r="M5" s="394"/>
+      <c r="E5" s="391"/>
+      <c r="F5" s="391"/>
+      <c r="G5" s="391"/>
+      <c r="H5" s="391"/>
+      <c r="I5" s="391"/>
+      <c r="J5" s="391"/>
+      <c r="K5" s="391"/>
+      <c r="L5" s="391"/>
+      <c r="M5" s="391"/>
       <c r="N5" s="76"/>
       <c r="O5" s="76"/>
       <c r="P5" s="76"/>
@@ -21571,15 +21623,15 @@
       <c r="B6" s="76"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
-      <c r="E6" s="394"/>
-      <c r="F6" s="394"/>
-      <c r="G6" s="394"/>
-      <c r="H6" s="394"/>
-      <c r="I6" s="394"/>
-      <c r="J6" s="394"/>
-      <c r="K6" s="394"/>
-      <c r="L6" s="394"/>
-      <c r="M6" s="394"/>
+      <c r="E6" s="391"/>
+      <c r="F6" s="391"/>
+      <c r="G6" s="391"/>
+      <c r="H6" s="391"/>
+      <c r="I6" s="391"/>
+      <c r="J6" s="391"/>
+      <c r="K6" s="391"/>
+      <c r="L6" s="391"/>
+      <c r="M6" s="391"/>
       <c r="N6" s="76"/>
       <c r="O6" s="76"/>
       <c r="P6" s="76"/>
@@ -21610,15 +21662,15 @@
       <c r="B7" s="79"/>
       <c r="C7" s="79"/>
       <c r="D7" s="79"/>
-      <c r="E7" s="394"/>
-      <c r="F7" s="394"/>
-      <c r="G7" s="394"/>
-      <c r="H7" s="394"/>
-      <c r="I7" s="394"/>
-      <c r="J7" s="394"/>
-      <c r="K7" s="394"/>
-      <c r="L7" s="394"/>
-      <c r="M7" s="394"/>
+      <c r="E7" s="391"/>
+      <c r="F7" s="391"/>
+      <c r="G7" s="391"/>
+      <c r="H7" s="391"/>
+      <c r="I7" s="391"/>
+      <c r="J7" s="391"/>
+      <c r="K7" s="391"/>
+      <c r="L7" s="391"/>
+      <c r="M7" s="391"/>
       <c r="N7" s="79"/>
       <c r="O7" s="79"/>
       <c r="P7" s="79"/>
@@ -21690,15 +21742,15 @@
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
       <c r="D9" s="76"/>
-      <c r="E9" s="394"/>
-      <c r="F9" s="394"/>
-      <c r="G9" s="394"/>
-      <c r="H9" s="394"/>
-      <c r="I9" s="394"/>
-      <c r="J9" s="394"/>
-      <c r="K9" s="394"/>
-      <c r="L9" s="394"/>
-      <c r="M9" s="394"/>
+      <c r="E9" s="391"/>
+      <c r="F9" s="391"/>
+      <c r="G9" s="391"/>
+      <c r="H9" s="391"/>
+      <c r="I9" s="391"/>
+      <c r="J9" s="391"/>
+      <c r="K9" s="391"/>
+      <c r="L9" s="391"/>
+      <c r="M9" s="391"/>
       <c r="N9" s="76"/>
       <c r="O9" s="76"/>
       <c r="P9" s="76"/>
@@ -22013,27 +22065,27 @@
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
       <c r="K17" s="76"/>
-      <c r="L17" s="393"/>
-      <c r="M17" s="393"/>
-      <c r="N17" s="393"/>
-      <c r="O17" s="393"/>
-      <c r="P17" s="393"/>
-      <c r="Q17" s="393"/>
-      <c r="R17" s="393"/>
-      <c r="S17" s="393"/>
-      <c r="T17" s="393"/>
-      <c r="U17" s="393"/>
-      <c r="V17" s="393"/>
-      <c r="W17" s="393"/>
-      <c r="X17" s="393"/>
-      <c r="Y17" s="393"/>
-      <c r="Z17" s="393"/>
-      <c r="AA17" s="393"/>
-      <c r="AB17" s="393"/>
-      <c r="AC17" s="393"/>
-      <c r="AD17" s="393"/>
-      <c r="AE17" s="393"/>
-      <c r="AF17" s="393"/>
+      <c r="L17" s="390"/>
+      <c r="M17" s="390"/>
+      <c r="N17" s="390"/>
+      <c r="O17" s="390"/>
+      <c r="P17" s="390"/>
+      <c r="Q17" s="390"/>
+      <c r="R17" s="390"/>
+      <c r="S17" s="390"/>
+      <c r="T17" s="390"/>
+      <c r="U17" s="390"/>
+      <c r="V17" s="390"/>
+      <c r="W17" s="390"/>
+      <c r="X17" s="390"/>
+      <c r="Y17" s="390"/>
+      <c r="Z17" s="390"/>
+      <c r="AA17" s="390"/>
+      <c r="AB17" s="390"/>
+      <c r="AC17" s="390"/>
+      <c r="AD17" s="390"/>
+      <c r="AE17" s="390"/>
+      <c r="AF17" s="390"/>
       <c r="AG17" s="76"/>
       <c r="AH17" s="76"/>
       <c r="AI17" s="76"/>
@@ -22052,27 +22104,27 @@
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
       <c r="K18" s="76"/>
-      <c r="L18" s="393"/>
-      <c r="M18" s="393"/>
-      <c r="N18" s="393"/>
-      <c r="O18" s="393"/>
-      <c r="P18" s="393"/>
-      <c r="Q18" s="393"/>
-      <c r="R18" s="393"/>
-      <c r="S18" s="393"/>
-      <c r="T18" s="393"/>
-      <c r="U18" s="393"/>
-      <c r="V18" s="393"/>
-      <c r="W18" s="393"/>
-      <c r="X18" s="393"/>
-      <c r="Y18" s="393"/>
-      <c r="Z18" s="393"/>
-      <c r="AA18" s="393"/>
-      <c r="AB18" s="393"/>
-      <c r="AC18" s="393"/>
-      <c r="AD18" s="393"/>
-      <c r="AE18" s="393"/>
-      <c r="AF18" s="393"/>
+      <c r="L18" s="390"/>
+      <c r="M18" s="390"/>
+      <c r="N18" s="390"/>
+      <c r="O18" s="390"/>
+      <c r="P18" s="390"/>
+      <c r="Q18" s="390"/>
+      <c r="R18" s="390"/>
+      <c r="S18" s="390"/>
+      <c r="T18" s="390"/>
+      <c r="U18" s="390"/>
+      <c r="V18" s="390"/>
+      <c r="W18" s="390"/>
+      <c r="X18" s="390"/>
+      <c r="Y18" s="390"/>
+      <c r="Z18" s="390"/>
+      <c r="AA18" s="390"/>
+      <c r="AB18" s="390"/>
+      <c r="AC18" s="390"/>
+      <c r="AD18" s="390"/>
+      <c r="AE18" s="390"/>
+      <c r="AF18" s="390"/>
       <c r="AG18" s="76"/>
       <c r="AH18" s="76"/>
       <c r="AI18" s="76"/>
@@ -22095,14 +22147,14 @@
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
       <c r="O19" s="89"/>
-      <c r="P19" s="395"/>
-      <c r="Q19" s="395"/>
-      <c r="R19" s="395"/>
-      <c r="S19" s="395"/>
-      <c r="T19" s="395"/>
-      <c r="U19" s="395"/>
-      <c r="V19" s="395"/>
-      <c r="W19" s="395"/>
+      <c r="P19" s="392"/>
+      <c r="Q19" s="392"/>
+      <c r="R19" s="392"/>
+      <c r="S19" s="392"/>
+      <c r="T19" s="392"/>
+      <c r="U19" s="392"/>
+      <c r="V19" s="392"/>
+      <c r="W19" s="392"/>
       <c r="X19" s="89"/>
       <c r="Y19" s="89"/>
       <c r="Z19" s="89"/>
@@ -22134,16 +22186,16 @@
       <c r="M20" s="76"/>
       <c r="N20" s="76"/>
       <c r="O20" s="76"/>
-      <c r="P20" s="393"/>
-      <c r="Q20" s="393"/>
-      <c r="R20" s="393"/>
-      <c r="S20" s="393"/>
-      <c r="T20" s="393"/>
-      <c r="U20" s="393"/>
-      <c r="V20" s="393"/>
-      <c r="W20" s="393"/>
-      <c r="X20" s="393"/>
-      <c r="Y20" s="393"/>
+      <c r="P20" s="390"/>
+      <c r="Q20" s="390"/>
+      <c r="R20" s="390"/>
+      <c r="S20" s="390"/>
+      <c r="T20" s="390"/>
+      <c r="U20" s="390"/>
+      <c r="V20" s="390"/>
+      <c r="W20" s="390"/>
+      <c r="X20" s="390"/>
+      <c r="Y20" s="390"/>
       <c r="Z20" s="76"/>
       <c r="AA20" s="76"/>
       <c r="AB20" s="76"/>
@@ -22173,16 +22225,16 @@
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
       <c r="O21" s="76"/>
-      <c r="P21" s="393"/>
-      <c r="Q21" s="393"/>
-      <c r="R21" s="393"/>
-      <c r="S21" s="393"/>
-      <c r="T21" s="393"/>
-      <c r="U21" s="393"/>
-      <c r="V21" s="393"/>
-      <c r="W21" s="393"/>
-      <c r="X21" s="393"/>
-      <c r="Y21" s="393"/>
+      <c r="P21" s="390"/>
+      <c r="Q21" s="390"/>
+      <c r="R21" s="390"/>
+      <c r="S21" s="390"/>
+      <c r="T21" s="390"/>
+      <c r="U21" s="390"/>
+      <c r="V21" s="390"/>
+      <c r="W21" s="390"/>
+      <c r="X21" s="390"/>
+      <c r="Y21" s="390"/>
       <c r="Z21" s="76"/>
       <c r="AA21" s="76"/>
       <c r="AB21" s="76"/>
@@ -22212,16 +22264,16 @@
       <c r="M22" s="76"/>
       <c r="N22" s="76"/>
       <c r="O22" s="76"/>
-      <c r="P22" s="393"/>
-      <c r="Q22" s="393"/>
-      <c r="R22" s="393"/>
-      <c r="S22" s="393"/>
-      <c r="T22" s="393"/>
-      <c r="U22" s="393"/>
-      <c r="V22" s="393"/>
-      <c r="W22" s="393"/>
-      <c r="X22" s="393"/>
-      <c r="Y22" s="393"/>
+      <c r="P22" s="390"/>
+      <c r="Q22" s="390"/>
+      <c r="R22" s="390"/>
+      <c r="S22" s="390"/>
+      <c r="T22" s="390"/>
+      <c r="U22" s="390"/>
+      <c r="V22" s="390"/>
+      <c r="W22" s="390"/>
+      <c r="X22" s="390"/>
+      <c r="Y22" s="390"/>
       <c r="Z22" s="76"/>
       <c r="AA22" s="76"/>
       <c r="AB22" s="76"/>
@@ -22251,16 +22303,16 @@
       <c r="M23" s="76"/>
       <c r="N23" s="76"/>
       <c r="O23" s="76"/>
-      <c r="P23" s="393"/>
-      <c r="Q23" s="393"/>
-      <c r="R23" s="393"/>
-      <c r="S23" s="393"/>
-      <c r="T23" s="393"/>
-      <c r="U23" s="393"/>
-      <c r="V23" s="393"/>
-      <c r="W23" s="393"/>
-      <c r="X23" s="393"/>
-      <c r="Y23" s="393"/>
+      <c r="P23" s="390"/>
+      <c r="Q23" s="390"/>
+      <c r="R23" s="390"/>
+      <c r="S23" s="390"/>
+      <c r="T23" s="390"/>
+      <c r="U23" s="390"/>
+      <c r="V23" s="390"/>
+      <c r="W23" s="390"/>
+      <c r="X23" s="390"/>
+      <c r="Y23" s="390"/>
       <c r="Z23" s="76"/>
       <c r="AA23" s="76"/>
       <c r="AB23" s="76"/>
@@ -22820,69 +22872,69 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="491" t="s">
+      <c r="A2" s="482" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="491" t="s">
+      <c r="B2" s="482" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="487" t="s">
+      <c r="C2" s="484" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="487" t="s">
+      <c r="D2" s="484" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="487" t="s">
+      <c r="E2" s="484" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="493" t="s">
+      <c r="F2" s="486" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="493" t="s">
+      <c r="G2" s="486" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="487" t="s">
+      <c r="H2" s="484" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="487" t="s">
+      <c r="I2" s="484" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="487" t="s">
+      <c r="J2" s="484" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="485" t="s">
+      <c r="K2" s="487" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="486"/>
-      <c r="M2" s="487" t="s">
+      <c r="L2" s="488"/>
+      <c r="M2" s="484" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="485" t="s">
+      <c r="N2" s="487" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="486"/>
+      <c r="O2" s="488"/>
       <c r="P2" s="489" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
-      <c r="A3" s="492"/>
-      <c r="B3" s="492"/>
-      <c r="C3" s="488"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="488"/>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="488"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="488"/>
+      <c r="A3" s="483"/>
+      <c r="B3" s="483"/>
+      <c r="C3" s="485"/>
+      <c r="D3" s="485"/>
+      <c r="E3" s="485"/>
+      <c r="F3" s="485"/>
+      <c r="G3" s="485"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="485"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="488"/>
+      <c r="M3" s="485"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
@@ -25217,11 +25269,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:O2"/>
@@ -25231,6 +25278,11 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25259,69 +25311,69 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="491" t="s">
+      <c r="A2" s="482" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="491" t="s">
+      <c r="B2" s="482" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="487" t="s">
+      <c r="C2" s="484" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="487" t="s">
+      <c r="D2" s="484" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="487" t="s">
+      <c r="E2" s="484" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="493" t="s">
+      <c r="F2" s="486" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="493" t="s">
+      <c r="G2" s="486" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="487" t="s">
+      <c r="H2" s="484" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="487" t="s">
+      <c r="I2" s="484" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="487" t="s">
+      <c r="J2" s="484" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="485" t="s">
+      <c r="K2" s="487" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="486"/>
-      <c r="M2" s="487" t="s">
+      <c r="L2" s="488"/>
+      <c r="M2" s="484" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="485" t="s">
+      <c r="N2" s="487" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="486"/>
+      <c r="O2" s="488"/>
       <c r="P2" s="489" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
-      <c r="A3" s="492"/>
-      <c r="B3" s="492"/>
-      <c r="C3" s="488"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="488"/>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="488"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="488"/>
+      <c r="A3" s="483"/>
+      <c r="B3" s="483"/>
+      <c r="C3" s="485"/>
+      <c r="D3" s="485"/>
+      <c r="E3" s="485"/>
+      <c r="F3" s="485"/>
+      <c r="G3" s="485"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="485"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="488"/>
+      <c r="M3" s="485"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
@@ -27266,11 +27318,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:O2"/>
@@ -27280,6 +27327,11 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27310,69 +27362,69 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="491" t="s">
+      <c r="A2" s="482" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="487" t="s">
+      <c r="B2" s="484" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="487" t="s">
+      <c r="C2" s="484" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="487" t="s">
+      <c r="D2" s="484" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="487" t="s">
+      <c r="E2" s="484" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="493" t="s">
+      <c r="F2" s="486" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="493" t="s">
+      <c r="G2" s="486" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="487" t="s">
+      <c r="H2" s="484" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="487" t="s">
+      <c r="I2" s="484" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="487" t="s">
+      <c r="J2" s="484" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="485" t="s">
+      <c r="K2" s="487" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="486"/>
-      <c r="M2" s="487" t="s">
+      <c r="L2" s="488"/>
+      <c r="M2" s="484" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="485" t="s">
+      <c r="N2" s="487" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="486"/>
+      <c r="O2" s="488"/>
       <c r="P2" s="489" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
-      <c r="A3" s="492"/>
-      <c r="B3" s="488"/>
-      <c r="C3" s="488"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="488"/>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="488"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="488"/>
+      <c r="A3" s="483"/>
+      <c r="B3" s="485"/>
+      <c r="C3" s="485"/>
+      <c r="D3" s="485"/>
+      <c r="E3" s="485"/>
+      <c r="F3" s="485"/>
+      <c r="G3" s="485"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="485"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="488"/>
+      <c r="M3" s="485"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
@@ -30801,11 +30853,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:O2"/>
@@ -30815,6 +30862,11 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30848,69 +30900,69 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="491" t="s">
+      <c r="A2" s="482" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="491" t="s">
+      <c r="B2" s="482" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="487" t="s">
+      <c r="C2" s="484" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="487" t="s">
+      <c r="D2" s="484" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="487" t="s">
+      <c r="E2" s="484" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="493" t="s">
+      <c r="F2" s="486" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="493" t="s">
+      <c r="G2" s="486" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="487" t="s">
+      <c r="H2" s="484" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="487" t="s">
+      <c r="I2" s="484" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="487" t="s">
+      <c r="J2" s="484" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="485" t="s">
+      <c r="K2" s="487" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="486"/>
-      <c r="M2" s="487" t="s">
+      <c r="L2" s="488"/>
+      <c r="M2" s="484" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="485" t="s">
+      <c r="N2" s="487" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="486"/>
+      <c r="O2" s="488"/>
       <c r="P2" s="489" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" hidden="1" thickBot="1">
-      <c r="A3" s="492"/>
-      <c r="B3" s="492"/>
-      <c r="C3" s="488"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="488"/>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="488"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="488"/>
+      <c r="A3" s="483"/>
+      <c r="B3" s="483"/>
+      <c r="C3" s="485"/>
+      <c r="D3" s="485"/>
+      <c r="E3" s="485"/>
+      <c r="F3" s="485"/>
+      <c r="G3" s="485"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="485"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="488"/>
+      <c r="M3" s="485"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
@@ -40925,11 +40977,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
@@ -40939,6 +40986,11 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40972,7 +41024,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" thickTop="1">
-      <c r="A4" s="396" t="s">
+      <c r="A4" s="393" t="s">
         <v>243</v>
       </c>
       <c r="B4" s="95" t="s">
@@ -40981,22 +41033,22 @@
       <c r="C4" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="D4" s="398" t="s">
+      <c r="D4" s="395" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" thickBot="1">
-      <c r="A5" s="397"/>
+      <c r="A5" s="394"/>
       <c r="B5" s="96" t="s">
         <v>2210</v>
       </c>
       <c r="C5" s="96" t="s">
         <v>2211</v>
       </c>
-      <c r="D5" s="399"/>
+      <c r="D5" s="396"/>
     </row>
     <row r="6" spans="1:4" ht="115" thickTop="1">
-      <c r="A6" s="400" t="s">
+      <c r="A6" s="397" t="s">
         <v>957</v>
       </c>
       <c r="B6" s="97" t="s">
@@ -41010,7 +41062,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="96">
-      <c r="A7" s="401"/>
+      <c r="A7" s="398"/>
       <c r="B7" s="99" t="s">
         <v>2175</v>
       </c>
@@ -41020,31 +41072,31 @@
       <c r="D7" s="100"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="401"/>
+      <c r="A8" s="398"/>
       <c r="B8" s="101"/>
       <c r="C8" s="102"/>
       <c r="D8" s="100"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="401"/>
+      <c r="A9" s="398"/>
       <c r="B9" s="101"/>
       <c r="C9" s="101"/>
       <c r="D9" s="100"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="401"/>
+      <c r="A10" s="398"/>
       <c r="B10" s="101"/>
       <c r="C10" s="103"/>
       <c r="D10" s="100"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="401"/>
+      <c r="A11" s="398"/>
       <c r="B11" s="104"/>
       <c r="C11" s="102"/>
       <c r="D11" s="100"/>
     </row>
     <row r="12" spans="1:4" ht="128">
-      <c r="A12" s="401"/>
+      <c r="A12" s="398"/>
       <c r="B12" s="120" t="s">
         <v>2186</v>
       </c>
@@ -41054,7 +41106,7 @@
       <c r="D12" s="100"/>
     </row>
     <row r="13" spans="1:4" ht="48">
-      <c r="A13" s="401"/>
+      <c r="A13" s="398"/>
       <c r="B13" s="101" t="s">
         <v>256</v>
       </c>
@@ -41062,24 +41114,24 @@
       <c r="D13" s="100"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="401"/>
+      <c r="A14" s="398"/>
       <c r="C14" s="101"/>
       <c r="D14" s="100"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="401"/>
+      <c r="A15" s="398"/>
       <c r="B15" s="106"/>
       <c r="C15" s="101"/>
       <c r="D15" s="100"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="401"/>
+      <c r="A16" s="398"/>
       <c r="B16" s="106"/>
       <c r="C16" s="101"/>
       <c r="D16" s="100"/>
     </row>
     <row r="17" spans="1:4" ht="144">
-      <c r="A17" s="401"/>
+      <c r="A17" s="398"/>
       <c r="B17" s="120" t="s">
         <v>2188</v>
       </c>
@@ -41089,7 +41141,7 @@
       <c r="D17" s="100"/>
     </row>
     <row r="18" spans="1:4" ht="32">
-      <c r="A18" s="401"/>
+      <c r="A18" s="398"/>
       <c r="B18" s="101" t="s">
         <v>248</v>
       </c>
@@ -41097,25 +41149,25 @@
       <c r="D18" s="100"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="401"/>
+      <c r="A19" s="398"/>
       <c r="B19" s="103"/>
       <c r="C19" s="103"/>
       <c r="D19" s="100"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="401"/>
+      <c r="A20" s="398"/>
       <c r="B20" s="103"/>
       <c r="C20" s="103"/>
       <c r="D20" s="100"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="401"/>
+      <c r="A21" s="398"/>
       <c r="B21" s="99"/>
       <c r="C21" s="99"/>
       <c r="D21" s="100"/>
     </row>
     <row r="22" spans="1:4" ht="256">
-      <c r="A22" s="401"/>
+      <c r="A22" s="398"/>
       <c r="B22" s="99" t="s">
         <v>2196</v>
       </c>
@@ -41125,31 +41177,31 @@
       <c r="D22" s="100"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="401"/>
+      <c r="A23" s="398"/>
       <c r="B23" s="101"/>
       <c r="C23" s="103"/>
       <c r="D23" s="100"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="401"/>
+      <c r="A24" s="398"/>
       <c r="B24" s="103"/>
       <c r="C24" s="103"/>
       <c r="D24" s="100"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="401"/>
+      <c r="A25" s="398"/>
       <c r="B25" s="103"/>
       <c r="C25" s="103"/>
       <c r="D25" s="100"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="401"/>
+      <c r="A26" s="398"/>
       <c r="B26" s="103"/>
       <c r="C26" s="103"/>
       <c r="D26" s="100"/>
     </row>
     <row r="27" spans="1:4" ht="18">
-      <c r="A27" s="401"/>
+      <c r="A27" s="398"/>
       <c r="B27" s="97" t="s">
         <v>249</v>
       </c>
@@ -41159,7 +41211,7 @@
       <c r="D27" s="100"/>
     </row>
     <row r="28" spans="1:4" ht="32">
-      <c r="A28" s="401"/>
+      <c r="A28" s="398"/>
       <c r="B28" s="103"/>
       <c r="C28" s="103" t="s">
         <v>255</v>
@@ -41167,31 +41219,31 @@
       <c r="D28" s="100"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="401"/>
+      <c r="A29" s="398"/>
       <c r="B29" s="103"/>
       <c r="C29" s="103"/>
       <c r="D29" s="100"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="401"/>
+      <c r="A30" s="398"/>
       <c r="B30" s="103"/>
       <c r="C30" s="103"/>
       <c r="D30" s="100"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="401"/>
+      <c r="A31" s="398"/>
       <c r="B31" s="103"/>
       <c r="C31" s="103"/>
       <c r="D31" s="100"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="401"/>
+      <c r="A32" s="398"/>
       <c r="B32" s="107"/>
       <c r="C32" s="108"/>
       <c r="D32" s="109"/>
     </row>
     <row r="33" spans="1:4" ht="18">
-      <c r="A33" s="402"/>
+      <c r="A33" s="399"/>
       <c r="B33" s="97" t="s">
         <v>956</v>
       </c>
@@ -41201,25 +41253,25 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="401"/>
+      <c r="A34" s="398"/>
       <c r="B34" s="111"/>
       <c r="C34" s="111"/>
       <c r="D34" s="100"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="401"/>
+      <c r="A35" s="398"/>
       <c r="B35" s="103"/>
       <c r="C35" s="103"/>
       <c r="D35" s="100"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="401"/>
+      <c r="A36" s="398"/>
       <c r="B36" s="112"/>
       <c r="C36" s="113"/>
       <c r="D36" s="100"/>
     </row>
     <row r="37" spans="1:4" ht="18" thickBot="1">
-      <c r="A37" s="403"/>
+      <c r="A37" s="400"/>
       <c r="B37" s="114"/>
       <c r="C37" s="115"/>
       <c r="D37" s="116"/>
@@ -45289,52 +45341,52 @@
     <row r="3" spans="1:10">
       <c r="I3" s="48">
         <f ca="1">TODAY()</f>
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A4" s="412" t="s">
+      <c r="A4" s="401" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="412" t="s">
+      <c r="B4" s="401" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="412" t="s">
+      <c r="C4" s="401" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="417" t="s">
+      <c r="D4" s="407" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="415" t="s">
+      <c r="E4" s="405" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="413" t="s">
+      <c r="F4" s="403" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="419" t="s">
+      <c r="G4" s="409" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="421" t="s">
+      <c r="H4" s="411" t="s">
         <v>228</v>
       </c>
-      <c r="I4" s="412" t="s">
+      <c r="I4" s="401" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A5" s="412"/>
-      <c r="B5" s="412"/>
-      <c r="C5" s="412"/>
-      <c r="D5" s="418"/>
-      <c r="E5" s="416"/>
-      <c r="F5" s="414"/>
-      <c r="G5" s="420"/>
-      <c r="H5" s="422"/>
-      <c r="I5" s="412"/>
+      <c r="A5" s="401"/>
+      <c r="B5" s="401"/>
+      <c r="C5" s="401"/>
+      <c r="D5" s="408"/>
+      <c r="E5" s="406"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="410"/>
+      <c r="H5" s="412"/>
+      <c r="I5" s="401"/>
     </row>
     <row r="6" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A6" s="406" t="s">
+      <c r="A6" s="402" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="70" t="s">
@@ -45366,7 +45418,7 @@
       <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A7" s="406"/>
+      <c r="A7" s="402"/>
       <c r="B7" s="70" t="s">
         <v>142</v>
       </c>
@@ -45396,7 +45448,7 @@
       <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A8" s="406"/>
+      <c r="A8" s="402"/>
       <c r="B8" s="70" t="s">
         <v>509</v>
       </c>
@@ -45426,7 +45478,7 @@
       <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A9" s="406"/>
+      <c r="A9" s="402"/>
       <c r="B9" s="70" t="s">
         <v>509</v>
       </c>
@@ -45456,7 +45508,7 @@
       <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A10" s="406"/>
+      <c r="A10" s="402"/>
       <c r="B10" s="70" t="s">
         <v>509</v>
       </c>
@@ -45486,7 +45538,7 @@
       <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A11" s="406"/>
+      <c r="A11" s="402"/>
       <c r="B11" s="70" t="s">
         <v>509</v>
       </c>
@@ -45516,7 +45568,7 @@
       <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A12" s="406"/>
+      <c r="A12" s="402"/>
       <c r="B12" s="70" t="s">
         <v>509</v>
       </c>
@@ -45546,7 +45598,7 @@
       <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A13" s="406"/>
+      <c r="A13" s="402"/>
       <c r="B13" s="70" t="s">
         <v>509</v>
       </c>
@@ -45576,7 +45628,7 @@
       <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A14" s="406"/>
+      <c r="A14" s="402"/>
       <c r="B14" s="70" t="s">
         <v>509</v>
       </c>
@@ -45606,11 +45658,11 @@
       <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:10" ht="23" customHeight="1">
-      <c r="A15" s="404" t="s">
+      <c r="A15" s="413" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="405"/>
-      <c r="C15" s="405"/>
+      <c r="B15" s="414"/>
+      <c r="C15" s="414"/>
       <c r="D15" s="60">
         <f>SUM(D6:D14)</f>
         <v>13</v>
@@ -45634,7 +45686,7 @@
       <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A16" s="406" t="s">
+      <c r="A16" s="402" t="s">
         <v>188</v>
       </c>
       <c r="B16" s="70" t="s">
@@ -45666,7 +45718,7 @@
       <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A17" s="406"/>
+      <c r="A17" s="402"/>
       <c r="B17" s="71" t="s">
         <v>193</v>
       </c>
@@ -45696,7 +45748,7 @@
       <c r="I17" s="63"/>
     </row>
     <row r="18" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A18" s="406"/>
+      <c r="A18" s="402"/>
       <c r="B18" s="71" t="s">
         <v>18</v>
       </c>
@@ -45728,7 +45780,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A19" s="406"/>
+      <c r="A19" s="402"/>
       <c r="B19" s="71" t="s">
         <v>19</v>
       </c>
@@ -45758,7 +45810,7 @@
       <c r="I19" s="63"/>
     </row>
     <row r="20" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A20" s="406"/>
+      <c r="A20" s="402"/>
       <c r="B20" s="71" t="s">
         <v>194</v>
       </c>
@@ -45788,7 +45840,7 @@
       <c r="I20" s="63"/>
     </row>
     <row r="21" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A21" s="406"/>
+      <c r="A21" s="402"/>
       <c r="B21" s="71" t="s">
         <v>23</v>
       </c>
@@ -45820,11 +45872,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="23" customHeight="1">
-      <c r="A22" s="404" t="s">
+      <c r="A22" s="413" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="405"/>
-      <c r="C22" s="405"/>
+      <c r="B22" s="414"/>
+      <c r="C22" s="414"/>
       <c r="D22" s="60">
         <f>SUM(D16:D21)</f>
         <v>10</v>
@@ -45848,7 +45900,7 @@
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A23" s="406" t="s">
+      <c r="A23" s="402" t="s">
         <v>189</v>
       </c>
       <c r="B23" s="68" t="s">
@@ -45880,7 +45932,7 @@
       <c r="I23" s="63"/>
     </row>
     <row r="24" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A24" s="406"/>
+      <c r="A24" s="402"/>
       <c r="B24" s="68" t="s">
         <v>35</v>
       </c>
@@ -45912,7 +45964,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A25" s="406"/>
+      <c r="A25" s="402"/>
       <c r="B25" s="68" t="s">
         <v>39</v>
       </c>
@@ -45942,7 +45994,7 @@
       <c r="I25" s="63"/>
     </row>
     <row r="26" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A26" s="406"/>
+      <c r="A26" s="402"/>
       <c r="B26" s="68" t="s">
         <v>197</v>
       </c>
@@ -45972,7 +46024,7 @@
       <c r="I26" s="63"/>
     </row>
     <row r="27" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A27" s="406"/>
+      <c r="A27" s="402"/>
       <c r="B27" s="68" t="s">
         <v>41</v>
       </c>
@@ -46004,7 +46056,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A28" s="406"/>
+      <c r="A28" s="402"/>
       <c r="B28" s="68" t="s">
         <v>45</v>
       </c>
@@ -46036,7 +46088,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A29" s="406"/>
+      <c r="A29" s="402"/>
       <c r="B29" s="68" t="s">
         <v>48</v>
       </c>
@@ -46068,7 +46120,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A30" s="406"/>
+      <c r="A30" s="402"/>
       <c r="B30" s="52" t="s">
         <v>198</v>
       </c>
@@ -46100,11 +46152,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="23" customHeight="1">
-      <c r="A31" s="404" t="s">
+      <c r="A31" s="413" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="405"/>
-      <c r="C31" s="405"/>
+      <c r="B31" s="414"/>
+      <c r="C31" s="414"/>
       <c r="D31" s="60">
         <f t="shared" ref="D31:G31" si="8">SUM(D23:D30)</f>
         <v>10</v>
@@ -46128,10 +46180,10 @@
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A32" s="406" t="s">
+      <c r="A32" s="402" t="s">
         <v>191</v>
       </c>
-      <c r="B32" s="407" t="s">
+      <c r="B32" s="417" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="72" t="s">
@@ -46160,8 +46212,8 @@
       <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A33" s="406"/>
-      <c r="B33" s="408"/>
+      <c r="A33" s="402"/>
+      <c r="B33" s="418"/>
       <c r="C33" s="70" t="s">
         <v>229</v>
       </c>
@@ -46188,8 +46240,8 @@
       <c r="I33" s="63"/>
     </row>
     <row r="34" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A34" s="406"/>
-      <c r="B34" s="409"/>
+      <c r="A34" s="402"/>
+      <c r="B34" s="419"/>
       <c r="C34" s="70" t="s">
         <v>230</v>
       </c>
@@ -46216,8 +46268,8 @@
       <c r="I34" s="63"/>
     </row>
     <row r="35" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A35" s="406"/>
-      <c r="B35" s="407" t="s">
+      <c r="A35" s="402"/>
+      <c r="B35" s="417" t="s">
         <v>204</v>
       </c>
       <c r="C35" s="70" t="s">
@@ -46246,8 +46298,8 @@
       <c r="I35" s="63"/>
     </row>
     <row r="36" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A36" s="406"/>
-      <c r="B36" s="408"/>
+      <c r="A36" s="402"/>
+      <c r="B36" s="418"/>
       <c r="C36" s="70" t="s">
         <v>210</v>
       </c>
@@ -46274,8 +46326,8 @@
       <c r="I36" s="63"/>
     </row>
     <row r="37" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A37" s="406"/>
-      <c r="B37" s="408"/>
+      <c r="A37" s="402"/>
+      <c r="B37" s="418"/>
       <c r="C37" s="70" t="s">
         <v>266</v>
       </c>
@@ -46302,8 +46354,8 @@
       <c r="I37" s="63"/>
     </row>
     <row r="38" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A38" s="406"/>
-      <c r="B38" s="409"/>
+      <c r="A38" s="402"/>
+      <c r="B38" s="419"/>
       <c r="C38" s="70" t="s">
         <v>223</v>
       </c>
@@ -46330,8 +46382,8 @@
       <c r="I38" s="63"/>
     </row>
     <row r="39" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A39" s="406"/>
-      <c r="B39" s="407" t="s">
+      <c r="A39" s="402"/>
+      <c r="B39" s="417" t="s">
         <v>203</v>
       </c>
       <c r="C39" s="70" t="s">
@@ -46360,8 +46412,8 @@
       <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A40" s="406"/>
-      <c r="B40" s="408"/>
+      <c r="A40" s="402"/>
+      <c r="B40" s="418"/>
       <c r="C40" s="70" t="s">
         <v>212</v>
       </c>
@@ -46388,8 +46440,8 @@
       <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A41" s="406"/>
-      <c r="B41" s="409"/>
+      <c r="A41" s="402"/>
+      <c r="B41" s="419"/>
       <c r="C41" s="70" t="s">
         <v>71</v>
       </c>
@@ -46416,7 +46468,7 @@
       <c r="I41" s="59"/>
     </row>
     <row r="42" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A42" s="406"/>
+      <c r="A42" s="402"/>
       <c r="B42" s="72" t="s">
         <v>72</v>
       </c>
@@ -46446,8 +46498,8 @@
       <c r="I42" s="63"/>
     </row>
     <row r="43" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A43" s="406"/>
-      <c r="B43" s="407" t="s">
+      <c r="A43" s="402"/>
+      <c r="B43" s="417" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="70" t="s">
@@ -46478,8 +46530,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A44" s="406"/>
-      <c r="B44" s="408"/>
+      <c r="A44" s="402"/>
+      <c r="B44" s="418"/>
       <c r="C44" s="70" t="s">
         <v>76</v>
       </c>
@@ -46508,8 +46560,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A45" s="406"/>
-      <c r="B45" s="408"/>
+      <c r="A45" s="402"/>
+      <c r="B45" s="418"/>
       <c r="C45" s="70" t="s">
         <v>213</v>
       </c>
@@ -46538,8 +46590,8 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A46" s="406"/>
-      <c r="B46" s="408"/>
+      <c r="A46" s="402"/>
+      <c r="B46" s="418"/>
       <c r="C46" s="70" t="s">
         <v>78</v>
       </c>
@@ -46568,8 +46620,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A47" s="406"/>
-      <c r="B47" s="409"/>
+      <c r="A47" s="402"/>
+      <c r="B47" s="419"/>
       <c r="C47" s="70" t="s">
         <v>231</v>
       </c>
@@ -46596,8 +46648,8 @@
       <c r="I47" s="63"/>
     </row>
     <row r="48" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A48" s="406"/>
-      <c r="B48" s="407" t="s">
+      <c r="A48" s="402"/>
+      <c r="B48" s="417" t="s">
         <v>202</v>
       </c>
       <c r="C48" s="70" t="s">
@@ -46626,8 +46678,8 @@
       <c r="I48" s="63"/>
     </row>
     <row r="49" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A49" s="406"/>
-      <c r="B49" s="408"/>
+      <c r="A49" s="402"/>
+      <c r="B49" s="418"/>
       <c r="C49" s="70" t="s">
         <v>82</v>
       </c>
@@ -46654,8 +46706,8 @@
       <c r="I49" s="63"/>
     </row>
     <row r="50" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A50" s="406"/>
-      <c r="B50" s="409"/>
+      <c r="A50" s="402"/>
+      <c r="B50" s="419"/>
       <c r="C50" s="70" t="s">
         <v>84</v>
       </c>
@@ -46682,8 +46734,8 @@
       <c r="I50" s="63"/>
     </row>
     <row r="51" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A51" s="406"/>
-      <c r="B51" s="407" t="s">
+      <c r="A51" s="402"/>
+      <c r="B51" s="417" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="70" t="s">
@@ -46712,8 +46764,8 @@
       <c r="I51" s="59"/>
     </row>
     <row r="52" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A52" s="406"/>
-      <c r="B52" s="408"/>
+      <c r="A52" s="402"/>
+      <c r="B52" s="418"/>
       <c r="C52" s="70" t="s">
         <v>185</v>
       </c>
@@ -46740,8 +46792,8 @@
       <c r="I52" s="59"/>
     </row>
     <row r="53" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A53" s="406"/>
-      <c r="B53" s="409"/>
+      <c r="A53" s="402"/>
+      <c r="B53" s="419"/>
       <c r="C53" s="70" t="s">
         <v>215</v>
       </c>
@@ -46768,8 +46820,8 @@
       <c r="I53" s="59"/>
     </row>
     <row r="54" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A54" s="406"/>
-      <c r="B54" s="407" t="s">
+      <c r="A54" s="402"/>
+      <c r="B54" s="417" t="s">
         <v>201</v>
       </c>
       <c r="C54" s="70" t="s">
@@ -46800,8 +46852,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A55" s="406"/>
-      <c r="B55" s="408"/>
+      <c r="A55" s="402"/>
+      <c r="B55" s="418"/>
       <c r="C55" s="70" t="s">
         <v>217</v>
       </c>
@@ -46830,8 +46882,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A56" s="406"/>
-      <c r="B56" s="408"/>
+      <c r="A56" s="402"/>
+      <c r="B56" s="418"/>
       <c r="C56" s="70" t="s">
         <v>218</v>
       </c>
@@ -46860,8 +46912,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A57" s="406"/>
-      <c r="B57" s="409"/>
+      <c r="A57" s="402"/>
+      <c r="B57" s="419"/>
       <c r="C57" s="70" t="s">
         <v>219</v>
       </c>
@@ -46890,8 +46942,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A58" s="406"/>
-      <c r="B58" s="407" t="s">
+      <c r="A58" s="402"/>
+      <c r="B58" s="417" t="s">
         <v>200</v>
       </c>
       <c r="C58" s="70" t="s">
@@ -46922,8 +46974,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A59" s="406"/>
-      <c r="B59" s="409"/>
+      <c r="A59" s="402"/>
+      <c r="B59" s="419"/>
       <c r="C59" s="70" t="s">
         <v>221</v>
       </c>
@@ -46952,8 +47004,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A60" s="406"/>
-      <c r="B60" s="407" t="s">
+      <c r="A60" s="402"/>
+      <c r="B60" s="417" t="s">
         <v>497</v>
       </c>
       <c r="C60" s="70" t="s">
@@ -46984,8 +47036,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A61" s="406"/>
-      <c r="B61" s="409"/>
+      <c r="A61" s="402"/>
+      <c r="B61" s="419"/>
       <c r="C61" s="70" t="s">
         <v>522</v>
       </c>
@@ -47014,8 +47066,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A62" s="406"/>
-      <c r="B62" s="407" t="s">
+      <c r="A62" s="402"/>
+      <c r="B62" s="417" t="s">
         <v>199</v>
       </c>
       <c r="C62" s="70" t="s">
@@ -47044,8 +47096,8 @@
       <c r="I62" s="63"/>
     </row>
     <row r="63" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A63" s="406"/>
-      <c r="B63" s="408"/>
+      <c r="A63" s="402"/>
+      <c r="B63" s="418"/>
       <c r="C63" s="70" t="s">
         <v>199</v>
       </c>
@@ -47072,8 +47124,8 @@
       <c r="I63" s="63"/>
     </row>
     <row r="64" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A64" s="406"/>
-      <c r="B64" s="409"/>
+      <c r="A64" s="402"/>
+      <c r="B64" s="419"/>
       <c r="C64" s="70" t="s">
         <v>233</v>
       </c>
@@ -47100,11 +47152,11 @@
       <c r="I64" s="63"/>
     </row>
     <row r="65" spans="1:11" ht="23" customHeight="1">
-      <c r="A65" s="404" t="s">
+      <c r="A65" s="413" t="s">
         <v>235</v>
       </c>
-      <c r="B65" s="405"/>
-      <c r="C65" s="405"/>
+      <c r="B65" s="414"/>
+      <c r="C65" s="414"/>
       <c r="D65" s="60">
         <f>SUM(D32:D64)</f>
         <v>36</v>
@@ -47128,11 +47180,11 @@
       <c r="I65" s="62"/>
     </row>
     <row r="66" spans="1:11" ht="23" customHeight="1">
-      <c r="A66" s="410" t="s">
+      <c r="A66" s="415" t="s">
         <v>236</v>
       </c>
-      <c r="B66" s="411"/>
-      <c r="C66" s="411"/>
+      <c r="B66" s="416"/>
+      <c r="C66" s="416"/>
       <c r="D66" s="64">
         <f>SUM(D65,D31,D22,D15)</f>
         <v>69</v>
@@ -47160,6 +47212,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:A64"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B64"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="F4:F5"/>
@@ -47170,24 +47240,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:A64"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47227,61 +47279,61 @@
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" thickBot="1">
       <c r="C1" s="26"/>
-      <c r="D1" s="433" t="s">
+      <c r="D1" s="430" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="433"/>
-      <c r="F1" s="433"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="425" t="s">
+      <c r="B2" s="438" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="428" t="s">
+      <c r="C2" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="428" t="s">
+      <c r="D2" s="441" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="428" t="s">
+      <c r="E2" s="441" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="428" t="s">
+      <c r="F2" s="441" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="431" t="s">
+      <c r="G2" s="444" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="428" t="s">
+      <c r="H2" s="441" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="423" t="s">
+      <c r="I2" s="436" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="427" t="s">
+      <c r="J2" s="440" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="428"/>
-      <c r="L2" s="428"/>
-      <c r="M2" s="428"/>
-      <c r="N2" s="429"/>
+      <c r="K2" s="441"/>
+      <c r="L2" s="441"/>
+      <c r="M2" s="441"/>
+      <c r="N2" s="442"/>
     </row>
     <row r="3" spans="1:14" ht="36">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="426"/>
-      <c r="C3" s="430"/>
-      <c r="D3" s="430"/>
-      <c r="E3" s="430"/>
-      <c r="F3" s="430"/>
-      <c r="G3" s="432"/>
-      <c r="H3" s="430"/>
-      <c r="I3" s="424"/>
+      <c r="B3" s="439"/>
+      <c r="C3" s="443"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="443"/>
+      <c r="F3" s="443"/>
+      <c r="G3" s="445"/>
+      <c r="H3" s="443"/>
+      <c r="I3" s="437"/>
       <c r="J3" s="41" t="s">
         <v>160</v>
       </c>
@@ -49506,7 +49558,7 @@
       <c r="C68" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="D68" s="444" t="s">
+      <c r="D68" s="435" t="s">
         <v>26</v>
       </c>
       <c r="E68" s="28" t="s">
@@ -49544,7 +49596,7 @@
       <c r="C69" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D69" s="436"/>
+      <c r="D69" s="425"/>
       <c r="E69" s="29" t="s">
         <v>26</v>
       </c>
@@ -49580,7 +49632,7 @@
       <c r="C70" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="436"/>
+      <c r="D70" s="425"/>
       <c r="E70" s="29" t="s">
         <v>26</v>
       </c>
@@ -49616,7 +49668,7 @@
       <c r="C71" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D71" s="436"/>
+      <c r="D71" s="425"/>
       <c r="E71" s="29" t="s">
         <v>26</v>
       </c>
@@ -49652,7 +49704,7 @@
       <c r="C72" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D72" s="436"/>
+      <c r="D72" s="425"/>
       <c r="E72" s="29" t="s">
         <v>26</v>
       </c>
@@ -49688,7 +49740,7 @@
       <c r="C73" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D73" s="436"/>
+      <c r="D73" s="425"/>
       <c r="E73" s="123" t="s">
         <v>26</v>
       </c>
@@ -49718,7 +49770,7 @@
       <c r="C74" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="436"/>
+      <c r="D74" s="425"/>
       <c r="E74" s="123" t="s">
         <v>26</v>
       </c>
@@ -49748,7 +49800,7 @@
       <c r="C75" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="437"/>
+      <c r="D75" s="429"/>
       <c r="E75" s="123" t="s">
         <v>26</v>
       </c>
@@ -49778,7 +49830,7 @@
       <c r="C76" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="435" t="s">
+      <c r="D76" s="424" t="s">
         <v>35</v>
       </c>
       <c r="E76" s="29" t="s">
@@ -49816,7 +49868,7 @@
       <c r="C77" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D77" s="436"/>
+      <c r="D77" s="425"/>
       <c r="E77" s="31" t="s">
         <v>35</v>
       </c>
@@ -49846,7 +49898,7 @@
       <c r="C78" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D78" s="436"/>
+      <c r="D78" s="425"/>
       <c r="E78" s="29" t="s">
         <v>35</v>
       </c>
@@ -49882,7 +49934,7 @@
       <c r="C79" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="437"/>
+      <c r="D79" s="429"/>
       <c r="E79" s="29" t="s">
         <v>35</v>
       </c>
@@ -49994,7 +50046,7 @@
       <c r="C82" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D82" s="441" t="s">
+      <c r="D82" s="427" t="s">
         <v>41</v>
       </c>
       <c r="E82" s="157" t="s">
@@ -50026,7 +50078,7 @@
       <c r="C83" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D83" s="442"/>
+      <c r="D83" s="434"/>
       <c r="E83" s="157" t="s">
         <v>41</v>
       </c>
@@ -50056,7 +50108,7 @@
       <c r="C84" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D84" s="442"/>
+      <c r="D84" s="434"/>
       <c r="E84" s="157" t="s">
         <v>41</v>
       </c>
@@ -50088,7 +50140,7 @@
       <c r="C85" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D85" s="443"/>
+      <c r="D85" s="428"/>
       <c r="E85" s="157" t="s">
         <v>41</v>
       </c>
@@ -50118,7 +50170,7 @@
       <c r="C86" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D86" s="441" t="s">
+      <c r="D86" s="427" t="s">
         <v>45</v>
       </c>
       <c r="E86" s="157" t="s">
@@ -50150,7 +50202,7 @@
       <c r="C87" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D87" s="442"/>
+      <c r="D87" s="434"/>
       <c r="E87" s="157" t="s">
         <v>45</v>
       </c>
@@ -50180,7 +50232,7 @@
       <c r="C88" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D88" s="443"/>
+      <c r="D88" s="428"/>
       <c r="E88" s="157" t="s">
         <v>45</v>
       </c>
@@ -50210,7 +50262,7 @@
       <c r="C89" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="441" t="s">
+      <c r="D89" s="427" t="s">
         <v>48</v>
       </c>
       <c r="E89" s="31" t="s">
@@ -50242,7 +50294,7 @@
       <c r="C90" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D90" s="442"/>
+      <c r="D90" s="434"/>
       <c r="E90" s="31" t="s">
         <v>48</v>
       </c>
@@ -50272,7 +50324,7 @@
       <c r="C91" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D91" s="442"/>
+      <c r="D91" s="434"/>
       <c r="E91" s="31" t="s">
         <v>48</v>
       </c>
@@ -50302,7 +50354,7 @@
       <c r="C92" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D92" s="442"/>
+      <c r="D92" s="434"/>
       <c r="E92" s="31" t="s">
         <v>48</v>
       </c>
@@ -50332,7 +50384,7 @@
       <c r="C93" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D93" s="443"/>
+      <c r="D93" s="428"/>
       <c r="E93" s="31" t="s">
         <v>48</v>
       </c>
@@ -50392,7 +50444,7 @@
       <c r="C95" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="D95" s="447" t="s">
+      <c r="D95" s="422" t="s">
         <v>55</v>
       </c>
       <c r="E95" s="28" t="s">
@@ -50430,7 +50482,7 @@
       <c r="C96" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="434"/>
+      <c r="D96" s="423"/>
       <c r="E96" s="29" t="s">
         <v>229</v>
       </c>
@@ -50466,7 +50518,7 @@
       <c r="C97" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D97" s="434"/>
+      <c r="D97" s="423"/>
       <c r="E97" s="29" t="s">
         <v>230</v>
       </c>
@@ -50502,7 +50554,7 @@
       <c r="C98" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="438" t="s">
+      <c r="D98" s="431" t="s">
         <v>204</v>
       </c>
       <c r="E98" s="32" t="s">
@@ -50540,7 +50592,7 @@
       <c r="C99" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D99" s="439"/>
+      <c r="D99" s="432"/>
       <c r="E99" s="32" t="s">
         <v>209</v>
       </c>
@@ -50576,7 +50628,7 @@
       <c r="C100" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D100" s="439"/>
+      <c r="D100" s="432"/>
       <c r="E100" s="32" t="s">
         <v>210</v>
       </c>
@@ -50612,7 +50664,7 @@
       <c r="C101" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D101" s="439"/>
+      <c r="D101" s="432"/>
       <c r="E101" s="32" t="s">
         <v>210</v>
       </c>
@@ -50648,7 +50700,7 @@
       <c r="C102" s="29" t="s">
         <v>673</v>
       </c>
-      <c r="D102" s="439"/>
+      <c r="D102" s="432"/>
       <c r="E102" s="32" t="s">
         <v>210</v>
       </c>
@@ -50684,7 +50736,7 @@
       <c r="C103" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D103" s="439"/>
+      <c r="D103" s="432"/>
       <c r="E103" s="32" t="s">
         <v>210</v>
       </c>
@@ -50720,7 +50772,7 @@
       <c r="C104" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D104" s="439"/>
+      <c r="D104" s="432"/>
       <c r="E104" s="32" t="s">
         <v>266</v>
       </c>
@@ -50756,7 +50808,7 @@
       <c r="C105" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D105" s="440"/>
+      <c r="D105" s="433"/>
       <c r="E105" s="32" t="s">
         <v>223</v>
       </c>
@@ -50792,7 +50844,7 @@
       <c r="C106" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D106" s="435" t="s">
+      <c r="D106" s="424" t="s">
         <v>203</v>
       </c>
       <c r="E106" s="29" t="s">
@@ -50830,7 +50882,7 @@
       <c r="C107" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D107" s="436"/>
+      <c r="D107" s="425"/>
       <c r="E107" s="29" t="s">
         <v>212</v>
       </c>
@@ -50866,7 +50918,7 @@
       <c r="C108" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D108" s="436"/>
+      <c r="D108" s="425"/>
       <c r="E108" s="29" t="s">
         <v>212</v>
       </c>
@@ -50902,7 +50954,7 @@
       <c r="C109" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D109" s="437"/>
+      <c r="D109" s="429"/>
       <c r="E109" s="29" t="s">
         <v>71</v>
       </c>
@@ -50976,7 +51028,7 @@
       <c r="C111" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D111" s="434" t="s">
+      <c r="D111" s="423" t="s">
         <v>74</v>
       </c>
       <c r="E111" s="29" t="s">
@@ -51008,7 +51060,7 @@
       <c r="C112" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D112" s="434"/>
+      <c r="D112" s="423"/>
       <c r="E112" s="29" t="s">
         <v>75</v>
       </c>
@@ -51038,7 +51090,7 @@
       <c r="C113" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D113" s="434"/>
+      <c r="D113" s="423"/>
       <c r="E113" s="29" t="s">
         <v>75</v>
       </c>
@@ -51068,7 +51120,7 @@
       <c r="C114" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D114" s="434"/>
+      <c r="D114" s="423"/>
       <c r="E114" s="31" t="s">
         <v>75</v>
       </c>
@@ -51098,7 +51150,7 @@
       <c r="C115" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D115" s="434"/>
+      <c r="D115" s="423"/>
       <c r="E115" s="29" t="s">
         <v>75</v>
       </c>
@@ -51138,7 +51190,7 @@
       <c r="C116" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D116" s="434"/>
+      <c r="D116" s="423"/>
       <c r="E116" s="31" t="s">
         <v>75</v>
       </c>
@@ -51170,7 +51222,7 @@
       <c r="C117" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D117" s="434"/>
+      <c r="D117" s="423"/>
       <c r="E117" s="29" t="s">
         <v>75</v>
       </c>
@@ -51210,7 +51262,7 @@
       <c r="C118" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D118" s="434"/>
+      <c r="D118" s="423"/>
       <c r="E118" s="29" t="s">
         <v>75</v>
       </c>
@@ -51240,7 +51292,7 @@
       <c r="C119" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D119" s="434"/>
+      <c r="D119" s="423"/>
       <c r="E119" s="31" t="s">
         <v>76</v>
       </c>
@@ -51272,7 +51324,7 @@
       <c r="C120" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D120" s="434"/>
+      <c r="D120" s="423"/>
       <c r="E120" s="31" t="s">
         <v>213</v>
       </c>
@@ -51302,7 +51354,7 @@
       <c r="C121" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D121" s="434"/>
+      <c r="D121" s="423"/>
       <c r="E121" s="123" t="s">
         <v>78</v>
       </c>
@@ -51332,7 +51384,7 @@
       <c r="C122" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D122" s="434"/>
+      <c r="D122" s="423"/>
       <c r="E122" s="123" t="s">
         <v>78</v>
       </c>
@@ -51362,7 +51414,7 @@
       <c r="C123" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D123" s="434"/>
+      <c r="D123" s="423"/>
       <c r="E123" s="123" t="s">
         <v>78</v>
       </c>
@@ -51392,7 +51444,7 @@
       <c r="C124" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D124" s="434"/>
+      <c r="D124" s="423"/>
       <c r="E124" s="123" t="s">
         <v>78</v>
       </c>
@@ -51422,7 +51474,7 @@
       <c r="C125" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D125" s="434"/>
+      <c r="D125" s="423"/>
       <c r="E125" s="29" t="s">
         <v>231</v>
       </c>
@@ -51458,7 +51510,7 @@
       <c r="C126" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D126" s="434" t="s">
+      <c r="D126" s="423" t="s">
         <v>202</v>
       </c>
       <c r="E126" s="29" t="s">
@@ -51500,7 +51552,7 @@
       <c r="C127" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D127" s="434"/>
+      <c r="D127" s="423"/>
       <c r="E127" s="29" t="s">
         <v>82</v>
       </c>
@@ -51540,7 +51592,7 @@
       <c r="C128" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D128" s="434"/>
+      <c r="D128" s="423"/>
       <c r="E128" s="29" t="s">
         <v>84</v>
       </c>
@@ -51580,7 +51632,7 @@
       <c r="C129" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D129" s="435" t="s">
+      <c r="D129" s="424" t="s">
         <v>86</v>
       </c>
       <c r="E129" s="29" t="s">
@@ -51618,7 +51670,7 @@
       <c r="C130" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D130" s="436"/>
+      <c r="D130" s="425"/>
       <c r="E130" s="29" t="s">
         <v>87</v>
       </c>
@@ -51654,7 +51706,7 @@
       <c r="C131" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D131" s="436"/>
+      <c r="D131" s="425"/>
       <c r="E131" s="29" t="s">
         <v>87</v>
       </c>
@@ -51690,7 +51742,7 @@
       <c r="C132" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D132" s="436"/>
+      <c r="D132" s="425"/>
       <c r="E132" s="29" t="s">
         <v>87</v>
       </c>
@@ -51726,7 +51778,7 @@
       <c r="C133" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D133" s="436"/>
+      <c r="D133" s="425"/>
       <c r="E133" s="29" t="s">
         <v>87</v>
       </c>
@@ -51762,7 +51814,7 @@
       <c r="C134" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D134" s="436"/>
+      <c r="D134" s="425"/>
       <c r="E134" s="29" t="s">
         <v>185</v>
       </c>
@@ -51798,7 +51850,7 @@
       <c r="C135" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D135" s="436"/>
+      <c r="D135" s="425"/>
       <c r="E135" s="29" t="s">
         <v>185</v>
       </c>
@@ -51834,7 +51886,7 @@
       <c r="C136" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D136" s="436"/>
+      <c r="D136" s="425"/>
       <c r="E136" s="29" t="s">
         <v>185</v>
       </c>
@@ -51870,7 +51922,7 @@
       <c r="C137" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="436"/>
+      <c r="D137" s="425"/>
       <c r="E137" s="29" t="s">
         <v>215</v>
       </c>
@@ -51909,7 +51961,7 @@
       <c r="C138" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D138" s="436"/>
+      <c r="D138" s="425"/>
       <c r="E138" s="29" t="s">
         <v>215</v>
       </c>
@@ -51948,7 +52000,7 @@
       <c r="C139" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D139" s="437"/>
+      <c r="D139" s="429"/>
       <c r="E139" s="29" t="s">
         <v>215</v>
       </c>
@@ -51987,7 +52039,7 @@
       <c r="C140" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D140" s="445" t="s">
+      <c r="D140" s="420" t="s">
         <v>201</v>
       </c>
       <c r="E140" s="31" t="s">
@@ -52019,7 +52071,7 @@
       <c r="C141" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D141" s="445"/>
+      <c r="D141" s="420"/>
       <c r="E141" s="31" t="s">
         <v>217</v>
       </c>
@@ -52049,7 +52101,7 @@
       <c r="C142" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D142" s="445"/>
+      <c r="D142" s="420"/>
       <c r="E142" s="31" t="s">
         <v>217</v>
       </c>
@@ -52079,7 +52131,7 @@
       <c r="C143" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D143" s="445"/>
+      <c r="D143" s="420"/>
       <c r="E143" s="31" t="s">
         <v>218</v>
       </c>
@@ -52109,7 +52161,7 @@
       <c r="C144" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D144" s="445"/>
+      <c r="D144" s="420"/>
       <c r="E144" s="31" t="s">
         <v>218</v>
       </c>
@@ -52139,7 +52191,7 @@
       <c r="C145" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D145" s="445"/>
+      <c r="D145" s="420"/>
       <c r="E145" s="31" t="s">
         <v>218</v>
       </c>
@@ -52169,7 +52221,7 @@
       <c r="C146" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D146" s="445"/>
+      <c r="D146" s="420"/>
       <c r="E146" s="31" t="s">
         <v>219</v>
       </c>
@@ -52199,7 +52251,7 @@
       <c r="C147" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D147" s="445"/>
+      <c r="D147" s="420"/>
       <c r="E147" s="31" t="s">
         <v>219</v>
       </c>
@@ -52229,7 +52281,7 @@
       <c r="C148" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D148" s="445"/>
+      <c r="D148" s="420"/>
       <c r="E148" s="31" t="s">
         <v>219</v>
       </c>
@@ -52259,7 +52311,7 @@
       <c r="C149" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D149" s="446" t="s">
+      <c r="D149" s="421" t="s">
         <v>200</v>
       </c>
       <c r="E149" s="32" t="s">
@@ -52291,7 +52343,7 @@
       <c r="C150" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D150" s="446"/>
+      <c r="D150" s="421"/>
       <c r="E150" s="32" t="s">
         <v>221</v>
       </c>
@@ -52323,7 +52375,7 @@
       <c r="C151" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D151" s="446"/>
+      <c r="D151" s="421"/>
       <c r="E151" s="32" t="s">
         <v>221</v>
       </c>
@@ -52355,7 +52407,7 @@
       <c r="C152" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D152" s="446"/>
+      <c r="D152" s="421"/>
       <c r="E152" s="32" t="s">
         <v>221</v>
       </c>
@@ -52387,7 +52439,7 @@
       <c r="C153" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D153" s="441" t="s">
+      <c r="D153" s="427" t="s">
         <v>497</v>
       </c>
       <c r="E153" s="31" t="s">
@@ -52419,7 +52471,7 @@
       <c r="C154" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D154" s="443"/>
+      <c r="D154" s="428"/>
       <c r="E154" s="31" t="s">
         <v>499</v>
       </c>
@@ -52449,7 +52501,7 @@
       <c r="C155" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D155" s="435" t="s">
+      <c r="D155" s="424" t="s">
         <v>199</v>
       </c>
       <c r="E155" s="29" t="s">
@@ -52487,7 +52539,7 @@
       <c r="C156" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D156" s="436"/>
+      <c r="D156" s="425"/>
       <c r="E156" s="29" t="s">
         <v>199</v>
       </c>
@@ -52523,7 +52575,7 @@
       <c r="C157" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D157" s="436"/>
+      <c r="D157" s="425"/>
       <c r="E157" s="29" t="s">
         <v>199</v>
       </c>
@@ -52559,7 +52611,7 @@
       <c r="C158" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D158" s="448"/>
+      <c r="D158" s="426"/>
       <c r="E158" s="30" t="s">
         <v>233</v>
       </c>
@@ -53170,12 +53222,15 @@
   </sheetData>
   <autoFilter ref="C3:I158" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="25">
-    <mergeCell ref="D140:D148"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="D155:D158"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="D129:D139"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D111:D125"/>
     <mergeCell ref="D126:D128"/>
@@ -53186,15 +53241,12 @@
     <mergeCell ref="D76:D79"/>
     <mergeCell ref="D68:D75"/>
     <mergeCell ref="D82:D85"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="D140:D148"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="D155:D158"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D129:D139"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F36">
@@ -53268,10 +53320,10 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A2" s="454" t="s">
+      <c r="A2" s="451" t="s">
         <v>955</v>
       </c>
-      <c r="B2" s="455"/>
+      <c r="B2" s="452"/>
       <c r="C2" s="278" t="s">
         <v>1910</v>
       </c>
@@ -53340,8 +53392,8 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="18" thickBot="1">
-      <c r="A3" s="456"/>
-      <c r="B3" s="457"/>
+      <c r="A3" s="453"/>
+      <c r="B3" s="454"/>
       <c r="C3" s="280" t="s">
         <v>1928</v>
       </c>
@@ -53410,50 +53462,50 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="458" t="s">
+      <c r="A4" s="455" t="s">
         <v>1950</v>
       </c>
-      <c r="B4" s="460" t="s">
+      <c r="B4" s="457" t="s">
         <v>1951</v>
       </c>
       <c r="C4" s="282" t="s">
         <v>1952</v>
       </c>
-      <c r="D4" s="460" t="s">
+      <c r="D4" s="457" t="s">
         <v>1953</v>
       </c>
-      <c r="E4" s="460"/>
-      <c r="F4" s="460"/>
-      <c r="G4" s="462"/>
-      <c r="H4" s="463" t="s">
+      <c r="E4" s="457"/>
+      <c r="F4" s="457"/>
+      <c r="G4" s="459"/>
+      <c r="H4" s="460" t="s">
         <v>1954</v>
       </c>
-      <c r="I4" s="463"/>
-      <c r="J4" s="463"/>
-      <c r="K4" s="464"/>
-      <c r="L4" s="465" t="s">
+      <c r="I4" s="460"/>
+      <c r="J4" s="460"/>
+      <c r="K4" s="461"/>
+      <c r="L4" s="462" t="s">
         <v>1955</v>
       </c>
-      <c r="M4" s="465"/>
-      <c r="N4" s="465"/>
-      <c r="O4" s="465"/>
-      <c r="P4" s="465"/>
-      <c r="Q4" s="449" t="s">
+      <c r="M4" s="462"/>
+      <c r="N4" s="462"/>
+      <c r="O4" s="462"/>
+      <c r="P4" s="462"/>
+      <c r="Q4" s="446" t="s">
         <v>1956</v>
       </c>
-      <c r="R4" s="450"/>
-      <c r="S4" s="450"/>
-      <c r="T4" s="451"/>
-      <c r="U4" s="452" t="s">
+      <c r="R4" s="447"/>
+      <c r="S4" s="447"/>
+      <c r="T4" s="448"/>
+      <c r="U4" s="449" t="s">
         <v>1957</v>
       </c>
-      <c r="V4" s="452"/>
-      <c r="W4" s="452"/>
-      <c r="X4" s="453"/>
+      <c r="V4" s="449"/>
+      <c r="W4" s="449"/>
+      <c r="X4" s="450"/>
     </row>
     <row r="5" spans="1:24" ht="20" customHeight="1">
-      <c r="A5" s="459"/>
-      <c r="B5" s="461"/>
+      <c r="A5" s="456"/>
+      <c r="B5" s="458"/>
       <c r="C5" s="283" t="s">
         <v>1958</v>
       </c>
@@ -53941,69 +53993,69 @@
     <row r="3" spans="1:22">
       <c r="L3" s="48">
         <f ca="1">TODAY()</f>
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A4" s="412" t="s">
+      <c r="A4" s="401" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="412" t="s">
+      <c r="B4" s="401" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="412" t="s">
+      <c r="C4" s="401" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="412" t="s">
+      <c r="D4" s="401" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="417" t="s">
+      <c r="E4" s="407" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="482" t="s">
+      <c r="F4" s="472" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="482"/>
-      <c r="H4" s="483" t="s">
+      <c r="G4" s="472"/>
+      <c r="H4" s="473" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="484"/>
-      <c r="J4" s="480" t="s">
+      <c r="I4" s="474"/>
+      <c r="J4" s="470" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="481"/>
-      <c r="L4" s="412" t="s">
+      <c r="K4" s="471"/>
+      <c r="L4" s="401" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="473" t="s">
+      <c r="N4" s="479" t="s">
         <v>2042</v>
       </c>
-      <c r="O4" s="473" t="s">
+      <c r="O4" s="479" t="s">
         <v>2043</v>
       </c>
-      <c r="P4" s="474" t="s">
+      <c r="P4" s="480" t="s">
         <v>2044</v>
       </c>
-      <c r="Q4" s="475"/>
-      <c r="R4" s="474" t="s">
+      <c r="Q4" s="481"/>
+      <c r="R4" s="480" t="s">
         <v>2047</v>
       </c>
-      <c r="S4" s="475"/>
-      <c r="T4" s="474" t="s">
+      <c r="S4" s="481"/>
+      <c r="T4" s="480" t="s">
         <v>2050</v>
       </c>
-      <c r="U4" s="475"/>
-      <c r="V4" s="466" t="s">
+      <c r="U4" s="481"/>
+      <c r="V4" s="468" t="s">
         <v>2051</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A5" s="412"/>
-      <c r="B5" s="412"/>
-      <c r="C5" s="412"/>
-      <c r="D5" s="412"/>
-      <c r="E5" s="418"/>
+      <c r="A5" s="401"/>
+      <c r="B5" s="401"/>
+      <c r="C5" s="401"/>
+      <c r="D5" s="401"/>
+      <c r="E5" s="408"/>
       <c r="F5" s="49" t="s">
         <v>181</v>
       </c>
@@ -54022,9 +54074,9 @@
       <c r="K5" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="L5" s="412"/>
-      <c r="N5" s="473"/>
-      <c r="O5" s="473"/>
+      <c r="L5" s="401"/>
+      <c r="N5" s="479"/>
+      <c r="O5" s="479"/>
       <c r="P5" s="298" t="s">
         <v>2045</v>
       </c>
@@ -54043,10 +54095,10 @@
       <c r="U5" s="298" t="s">
         <v>2049</v>
       </c>
-      <c r="V5" s="467"/>
+      <c r="V5" s="469"/>
     </row>
     <row r="6" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A6" s="406" t="s">
+      <c r="A6" s="402" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="52" t="s">
@@ -54096,7 +54148,7 @@
       </c>
       <c r="P6" s="260">
         <f>COUNTIFS('0.전체'!J4:J463,'0.수행관리'!N6,'0.전체'!N4:N463,"O")</f>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="260">
         <f>COUNTIFS('0.전체'!J4:J463,'0.수행관리'!N6,'0.전체'!O4:O463,"O")</f>
@@ -54104,7 +54156,7 @@
       </c>
       <c r="R6" s="260">
         <f>O6-P6</f>
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="S6" s="260">
         <f>O6-Q6</f>
@@ -54112,7 +54164,7 @@
       </c>
       <c r="T6" s="372">
         <f>P6/O6</f>
-        <v>0.15606936416184972</v>
+        <v>0.23699421965317918</v>
       </c>
       <c r="U6" s="372">
         <f>Q6/O6</f>
@@ -54121,7 +54173,7 @@
       <c r="V6" s="260"/>
     </row>
     <row r="7" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A7" s="406"/>
+      <c r="A7" s="402"/>
       <c r="B7" s="52" t="s">
         <v>142</v>
       </c>
@@ -54194,7 +54246,7 @@
       <c r="V7" s="260"/>
     </row>
     <row r="8" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A8" s="406"/>
+      <c r="A8" s="402"/>
       <c r="B8" s="52" t="s">
         <v>509</v>
       </c>
@@ -54267,12 +54319,12 @@
       <c r="V8" s="260"/>
     </row>
     <row r="9" spans="1:22" ht="20" customHeight="1">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="413" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="405"/>
-      <c r="C9" s="405"/>
-      <c r="D9" s="479"/>
+      <c r="B9" s="414"/>
+      <c r="C9" s="414"/>
+      <c r="D9" s="478"/>
       <c r="E9" s="60">
         <f>SUM(E6:E8)</f>
         <v>42</v>
@@ -54313,10 +54365,10 @@
       <c r="V9" s="260"/>
     </row>
     <row r="10" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A10" s="406" t="s">
+      <c r="A10" s="402" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="406" t="s">
+      <c r="B10" s="402" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="52" t="s">
@@ -54363,7 +54415,7 @@
       </c>
       <c r="P10" s="169">
         <f t="shared" ref="P10:S10" si="16">SUM(P6:P9)</f>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="169">
         <f t="shared" si="16"/>
@@ -54371,7 +54423,7 @@
       </c>
       <c r="R10" s="169">
         <f t="shared" si="16"/>
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="S10" s="169">
         <f t="shared" si="16"/>
@@ -54379,7 +54431,7 @@
       </c>
       <c r="T10" s="373">
         <f t="shared" ref="T10" si="17">P10/O10</f>
-        <v>0.13066666666666665</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="U10" s="373">
         <f t="shared" ref="U10" si="18">Q10/O10</f>
@@ -54388,8 +54440,8 @@
       <c r="V10" s="169"/>
     </row>
     <row r="11" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A11" s="406"/>
-      <c r="B11" s="406"/>
+      <c r="A11" s="402"/>
+      <c r="B11" s="402"/>
       <c r="C11" s="52" t="s">
         <v>547</v>
       </c>
@@ -54427,8 +54479,8 @@
       <c r="L11" s="58"/>
     </row>
     <row r="12" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A12" s="406"/>
-      <c r="B12" s="406"/>
+      <c r="A12" s="402"/>
+      <c r="B12" s="402"/>
       <c r="C12" s="52" t="s">
         <v>547</v>
       </c>
@@ -54466,8 +54518,8 @@
       <c r="L12" s="58"/>
     </row>
     <row r="13" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A13" s="406"/>
-      <c r="B13" s="406"/>
+      <c r="A13" s="402"/>
+      <c r="B13" s="402"/>
       <c r="C13" s="52" t="s">
         <v>547</v>
       </c>
@@ -54505,8 +54557,8 @@
       <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A14" s="406"/>
-      <c r="B14" s="406"/>
+      <c r="A14" s="402"/>
+      <c r="B14" s="402"/>
       <c r="C14" s="52" t="s">
         <v>547</v>
       </c>
@@ -54544,8 +54596,8 @@
       <c r="L14" s="58"/>
     </row>
     <row r="15" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A15" s="406"/>
-      <c r="B15" s="406"/>
+      <c r="A15" s="402"/>
+      <c r="B15" s="402"/>
       <c r="C15" s="52" t="s">
         <v>547</v>
       </c>
@@ -54583,7 +54635,7 @@
       <c r="L15" s="58"/>
     </row>
     <row r="16" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A16" s="406"/>
+      <c r="A16" s="402"/>
       <c r="B16" s="223" t="s">
         <v>193</v>
       </c>
@@ -54624,8 +54676,8 @@
       <c r="L16" s="63"/>
     </row>
     <row r="17" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A17" s="406"/>
-      <c r="B17" s="477" t="s">
+      <c r="A17" s="402"/>
+      <c r="B17" s="476" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="52" t="s">
@@ -54665,8 +54717,8 @@
       <c r="L17" s="63"/>
     </row>
     <row r="18" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A18" s="406"/>
-      <c r="B18" s="478"/>
+      <c r="A18" s="402"/>
+      <c r="B18" s="477"/>
       <c r="C18" s="57" t="s">
         <v>590</v>
       </c>
@@ -54704,12 +54756,12 @@
       <c r="L18" s="58"/>
     </row>
     <row r="19" spans="1:12" ht="20" customHeight="1" collapsed="1">
-      <c r="A19" s="404" t="s">
+      <c r="A19" s="413" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="405"/>
-      <c r="C19" s="405"/>
-      <c r="D19" s="479"/>
+      <c r="B19" s="414"/>
+      <c r="C19" s="414"/>
+      <c r="D19" s="478"/>
       <c r="E19" s="60">
         <f>SUM(E10:E18)</f>
         <v>15</v>
@@ -54741,7 +54793,7 @@
       <c r="L19" s="62"/>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A20" s="406" t="s">
+      <c r="A20" s="402" t="s">
         <v>189</v>
       </c>
       <c r="B20" s="68" t="s">
@@ -54784,7 +54836,7 @@
       <c r="L20" s="63"/>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A21" s="406"/>
+      <c r="A21" s="402"/>
       <c r="B21" s="68" t="s">
         <v>26</v>
       </c>
@@ -54800,7 +54852,7 @@
       </c>
       <c r="F21" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A20,'0.전체'!E4:E463,'0.수행관리'!D21,'0.전체'!N4:N463,"O")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A20,'0.전체'!E4:E463,'0.수행관리'!D21,'0.전체'!O4:O463,"O")</f>
@@ -54808,7 +54860,7 @@
       </c>
       <c r="H21" s="54">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I21" s="54">
         <f t="shared" si="20"/>
@@ -54816,7 +54868,7 @@
       </c>
       <c r="J21" s="55">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K21" s="55">
         <f t="shared" si="3"/>
@@ -54825,7 +54877,7 @@
       <c r="L21" s="63"/>
     </row>
     <row r="22" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A22" s="406"/>
+      <c r="A22" s="402"/>
       <c r="B22" s="68" t="s">
         <v>26</v>
       </c>
@@ -54866,7 +54918,7 @@
       <c r="L22" s="63"/>
     </row>
     <row r="23" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A23" s="406"/>
+      <c r="A23" s="402"/>
       <c r="B23" s="68" t="s">
         <v>26</v>
       </c>
@@ -54882,7 +54934,7 @@
       </c>
       <c r="F23" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A20,'0.전체'!E4:E463,'0.수행관리'!D23,'0.전체'!N4:N463,"O")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A20,'0.전체'!E4:E463,'0.수행관리'!D23,'0.전체'!O4:O463,"O")</f>
@@ -54890,7 +54942,7 @@
       </c>
       <c r="H23" s="54">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23" s="54">
         <f t="shared" si="20"/>
@@ -54898,7 +54950,7 @@
       </c>
       <c r="J23" s="55">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K23" s="55">
         <f t="shared" si="22"/>
@@ -54907,7 +54959,7 @@
       <c r="L23" s="63"/>
     </row>
     <row r="24" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A24" s="406"/>
+      <c r="A24" s="402"/>
       <c r="B24" s="68" t="s">
         <v>26</v>
       </c>
@@ -54948,7 +55000,7 @@
       <c r="L24" s="63"/>
     </row>
     <row r="25" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A25" s="406"/>
+      <c r="A25" s="402"/>
       <c r="B25" s="68" t="s">
         <v>35</v>
       </c>
@@ -54964,7 +55016,7 @@
       </c>
       <c r="F25" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A20,'0.전체'!E4:E463,'0.수행관리'!D25,'0.전체'!N4:N463,"O")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A20,'0.전체'!E4:E463,'0.수행관리'!D25,'0.전체'!O4:O463,"O")</f>
@@ -54972,7 +55024,7 @@
       </c>
       <c r="H25" s="54">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" s="54">
         <f t="shared" si="20"/>
@@ -54980,7 +55032,7 @@
       </c>
       <c r="J25" s="55">
         <f t="shared" ref="J25" si="25">F25/E25</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K25" s="55">
         <f t="shared" ref="K25" si="26">G25/E25</f>
@@ -54989,7 +55041,7 @@
       <c r="L25" s="63"/>
     </row>
     <row r="26" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A26" s="406"/>
+      <c r="A26" s="402"/>
       <c r="B26" s="68" t="s">
         <v>35</v>
       </c>
@@ -55005,7 +55057,7 @@
       </c>
       <c r="F26" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A20,'0.전체'!E4:E463,'0.수행관리'!D26,'0.전체'!N4:N463,"O")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A20,'0.전체'!E4:E463,'0.수행관리'!D26,'0.전체'!O4:O463,"O")</f>
@@ -55013,7 +55065,7 @@
       </c>
       <c r="H26" s="54">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I26" s="54">
         <f t="shared" si="20"/>
@@ -55021,7 +55073,7 @@
       </c>
       <c r="J26" s="55">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="K26" s="55">
         <f t="shared" si="24"/>
@@ -55030,7 +55082,7 @@
       <c r="L26" s="63"/>
     </row>
     <row r="27" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A27" s="406"/>
+      <c r="A27" s="402"/>
       <c r="B27" s="68" t="s">
         <v>35</v>
       </c>
@@ -55071,7 +55123,7 @@
       <c r="L27" s="63"/>
     </row>
     <row r="28" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A28" s="406"/>
+      <c r="A28" s="402"/>
       <c r="B28" s="68" t="s">
         <v>39</v>
       </c>
@@ -55112,7 +55164,7 @@
       <c r="L28" s="63"/>
     </row>
     <row r="29" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A29" s="406"/>
+      <c r="A29" s="402"/>
       <c r="B29" s="68" t="s">
         <v>40</v>
       </c>
@@ -55128,7 +55180,7 @@
       </c>
       <c r="F29" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A20,'0.전체'!E4:E463,'0.수행관리'!D29,'0.전체'!N4:N463,"O")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G29" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A20,'0.전체'!E4:E463,'0.수행관리'!D29,'0.전체'!O4:O463,"O")</f>
@@ -55136,7 +55188,7 @@
       </c>
       <c r="H29" s="54">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I29" s="54">
         <f t="shared" si="20"/>
@@ -55144,7 +55196,7 @@
       </c>
       <c r="J29" s="55">
         <f t="shared" si="2"/>
-        <v>0.11764705882352941</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="K29" s="55">
         <f t="shared" si="3"/>
@@ -55153,19 +55205,19 @@
       <c r="L29" s="63"/>
     </row>
     <row r="30" spans="1:12" ht="20" customHeight="1">
-      <c r="A30" s="404" t="s">
+      <c r="A30" s="413" t="s">
         <v>234</v>
       </c>
-      <c r="B30" s="405"/>
-      <c r="C30" s="405"/>
-      <c r="D30" s="479"/>
+      <c r="B30" s="414"/>
+      <c r="C30" s="414"/>
+      <c r="D30" s="478"/>
       <c r="E30" s="60">
         <f>SUM(E20:E29)</f>
         <v>80</v>
       </c>
       <c r="F30" s="60">
         <f>SUM(F20:F29)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G30" s="60">
         <f>SUM(G20:G29)</f>
@@ -55173,7 +55225,7 @@
       </c>
       <c r="H30" s="60">
         <f>SUM(H20:H29)</f>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I30" s="60">
         <f>SUM(I20:I29)</f>
@@ -55181,7 +55233,7 @@
       </c>
       <c r="J30" s="61">
         <f t="shared" ref="J30:J68" si="27">F30/E30</f>
-        <v>0.1125</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="K30" s="61">
         <f t="shared" ref="K30:K68" si="28">G30/E30</f>
@@ -55190,7 +55242,7 @@
       <c r="L30" s="62"/>
     </row>
     <row r="31" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A31" s="406" t="s">
+      <c r="A31" s="402" t="s">
         <v>191</v>
       </c>
       <c r="B31" s="68" t="s">
@@ -55233,7 +55285,7 @@
       <c r="L31" s="63"/>
     </row>
     <row r="32" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A32" s="406"/>
+      <c r="A32" s="402"/>
       <c r="B32" s="68" t="s">
         <v>55</v>
       </c>
@@ -55249,7 +55301,7 @@
       </c>
       <c r="F32" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D32,'0.전체'!N4:N463,"O")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D32,'0.전체'!O4:O463,"O")</f>
@@ -55257,7 +55309,7 @@
       </c>
       <c r="H32" s="54">
         <f t="shared" ref="H32:H66" si="30">E32-F32</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" s="54">
         <f t="shared" ref="I32:I66" si="31">E32-G32</f>
@@ -55265,7 +55317,7 @@
       </c>
       <c r="J32" s="55">
         <f t="shared" ref="J32:J66" si="32">F32/E32</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K32" s="55">
         <f t="shared" ref="K32:K66" si="33">G32/E32</f>
@@ -55274,7 +55326,7 @@
       <c r="L32" s="63"/>
     </row>
     <row r="33" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A33" s="406"/>
+      <c r="A33" s="402"/>
       <c r="B33" s="68" t="s">
         <v>55</v>
       </c>
@@ -55290,7 +55342,7 @@
       </c>
       <c r="F33" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D33,'0.전체'!N4:N463,"O")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D33,'0.전체'!O4:O463,"O")</f>
@@ -55298,7 +55350,7 @@
       </c>
       <c r="H33" s="54">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="54">
         <f t="shared" si="31"/>
@@ -55306,7 +55358,7 @@
       </c>
       <c r="J33" s="55">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K33" s="55">
         <f t="shared" si="33"/>
@@ -55315,7 +55367,7 @@
       <c r="L33" s="63"/>
     </row>
     <row r="34" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A34" s="406"/>
+      <c r="A34" s="402"/>
       <c r="B34" s="68" t="s">
         <v>204</v>
       </c>
@@ -55356,7 +55408,7 @@
       <c r="L34" s="63"/>
     </row>
     <row r="35" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A35" s="406"/>
+      <c r="A35" s="402"/>
       <c r="B35" s="68" t="s">
         <v>204</v>
       </c>
@@ -55397,7 +55449,7 @@
       <c r="L35" s="63"/>
     </row>
     <row r="36" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A36" s="406"/>
+      <c r="A36" s="402"/>
       <c r="B36" s="68" t="s">
         <v>204</v>
       </c>
@@ -55438,7 +55490,7 @@
       <c r="L36" s="63"/>
     </row>
     <row r="37" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A37" s="406"/>
+      <c r="A37" s="402"/>
       <c r="B37" s="68" t="s">
         <v>204</v>
       </c>
@@ -55454,7 +55506,7 @@
       </c>
       <c r="F37" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D37,'0.전체'!N4:N463,"O")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D37,'0.전체'!O4:O463,"O")</f>
@@ -55462,7 +55514,7 @@
       </c>
       <c r="H37" s="54">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="54">
         <f t="shared" si="31"/>
@@ -55470,7 +55522,7 @@
       </c>
       <c r="J37" s="55">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="55">
         <f t="shared" si="33"/>
@@ -55479,7 +55531,7 @@
       <c r="L37" s="63"/>
     </row>
     <row r="38" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A38" s="406"/>
+      <c r="A38" s="402"/>
       <c r="B38" s="68" t="s">
         <v>204</v>
       </c>
@@ -55495,7 +55547,7 @@
       </c>
       <c r="F38" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D38,'0.전체'!N4:N463,"O")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D38,'0.전체'!O4:O463,"O")</f>
@@ -55503,7 +55555,7 @@
       </c>
       <c r="H38" s="54">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="54">
         <f t="shared" si="31"/>
@@ -55511,7 +55563,7 @@
       </c>
       <c r="J38" s="55">
         <f t="shared" si="32"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="K38" s="55">
         <f t="shared" si="33"/>
@@ -55520,7 +55572,7 @@
       <c r="L38" s="63"/>
     </row>
     <row r="39" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A39" s="406"/>
+      <c r="A39" s="402"/>
       <c r="B39" s="68" t="s">
         <v>204</v>
       </c>
@@ -55536,7 +55588,7 @@
       </c>
       <c r="F39" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D39,'0.전체'!N4:N463,"O")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D39,'0.전체'!O4:O463,"O")</f>
@@ -55544,7 +55596,7 @@
       </c>
       <c r="H39" s="54">
         <f t="shared" si="30"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I39" s="54">
         <f t="shared" si="31"/>
@@ -55552,7 +55604,7 @@
       </c>
       <c r="J39" s="55">
         <f t="shared" si="32"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K39" s="55">
         <f t="shared" si="33"/>
@@ -55561,7 +55613,7 @@
       <c r="L39" s="63"/>
     </row>
     <row r="40" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A40" s="406"/>
+      <c r="A40" s="402"/>
       <c r="B40" s="68" t="s">
         <v>204</v>
       </c>
@@ -55577,7 +55629,7 @@
       </c>
       <c r="F40" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D40,'0.전체'!N4:N463,"O")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D40,'0.전체'!O4:O463,"O")</f>
@@ -55585,7 +55637,7 @@
       </c>
       <c r="H40" s="54">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="54">
         <f t="shared" si="31"/>
@@ -55593,7 +55645,7 @@
       </c>
       <c r="J40" s="55">
         <f t="shared" si="32"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K40" s="55">
         <f t="shared" si="33"/>
@@ -55602,7 +55654,7 @@
       <c r="L40" s="63"/>
     </row>
     <row r="41" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A41" s="406"/>
+      <c r="A41" s="402"/>
       <c r="B41" s="68" t="s">
         <v>204</v>
       </c>
@@ -55643,7 +55695,7 @@
       <c r="L41" s="63"/>
     </row>
     <row r="42" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A42" s="406"/>
+      <c r="A42" s="402"/>
       <c r="B42" s="68" t="s">
         <v>203</v>
       </c>
@@ -55684,7 +55736,7 @@
       <c r="L42" s="59"/>
     </row>
     <row r="43" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A43" s="406"/>
+      <c r="A43" s="402"/>
       <c r="B43" s="68" t="s">
         <v>203</v>
       </c>
@@ -55725,7 +55777,7 @@
       <c r="L43" s="59"/>
     </row>
     <row r="44" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A44" s="406"/>
+      <c r="A44" s="402"/>
       <c r="B44" s="68" t="s">
         <v>203</v>
       </c>
@@ -55766,7 +55818,7 @@
       <c r="L44" s="59"/>
     </row>
     <row r="45" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A45" s="406"/>
+      <c r="A45" s="402"/>
       <c r="B45" s="68" t="s">
         <v>203</v>
       </c>
@@ -55807,7 +55859,7 @@
       <c r="L45" s="59"/>
     </row>
     <row r="46" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A46" s="406"/>
+      <c r="A46" s="402"/>
       <c r="B46" s="68" t="s">
         <v>789</v>
       </c>
@@ -55848,7 +55900,7 @@
       <c r="L46" s="63"/>
     </row>
     <row r="47" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A47" s="406"/>
+      <c r="A47" s="402"/>
       <c r="B47" s="68" t="s">
         <v>74</v>
       </c>
@@ -55889,7 +55941,7 @@
       <c r="L47" s="63"/>
     </row>
     <row r="48" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A48" s="406"/>
+      <c r="A48" s="402"/>
       <c r="B48" s="255" t="s">
         <v>202</v>
       </c>
@@ -55930,7 +55982,7 @@
       <c r="L48" s="254"/>
     </row>
     <row r="49" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A49" s="406"/>
+      <c r="A49" s="402"/>
       <c r="B49" s="255" t="s">
         <v>202</v>
       </c>
@@ -55971,7 +56023,7 @@
       <c r="L49" s="254"/>
     </row>
     <row r="50" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A50" s="406"/>
+      <c r="A50" s="402"/>
       <c r="B50" s="255" t="s">
         <v>202</v>
       </c>
@@ -56012,7 +56064,7 @@
       <c r="L50" s="254"/>
     </row>
     <row r="51" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A51" s="406"/>
+      <c r="A51" s="402"/>
       <c r="B51" s="68" t="s">
         <v>86</v>
       </c>
@@ -56053,7 +56105,7 @@
       <c r="L51" s="59"/>
     </row>
     <row r="52" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A52" s="406"/>
+      <c r="A52" s="402"/>
       <c r="B52" s="68" t="s">
         <v>86</v>
       </c>
@@ -56094,7 +56146,7 @@
       <c r="L52" s="59"/>
     </row>
     <row r="53" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A53" s="406"/>
+      <c r="A53" s="402"/>
       <c r="B53" s="68" t="s">
         <v>86</v>
       </c>
@@ -56135,7 +56187,7 @@
       <c r="L53" s="59"/>
     </row>
     <row r="54" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A54" s="406"/>
+      <c r="A54" s="402"/>
       <c r="B54" s="68" t="s">
         <v>86</v>
       </c>
@@ -56176,7 +56228,7 @@
       <c r="L54" s="59"/>
     </row>
     <row r="55" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A55" s="406"/>
+      <c r="A55" s="402"/>
       <c r="B55" s="68" t="s">
         <v>86</v>
       </c>
@@ -56217,7 +56269,7 @@
       <c r="L55" s="59"/>
     </row>
     <row r="56" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A56" s="406"/>
+      <c r="A56" s="402"/>
       <c r="B56" s="68" t="s">
         <v>86</v>
       </c>
@@ -56258,7 +56310,7 @@
       <c r="L56" s="59"/>
     </row>
     <row r="57" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A57" s="406"/>
+      <c r="A57" s="402"/>
       <c r="B57" s="68" t="s">
         <v>86</v>
       </c>
@@ -56299,7 +56351,7 @@
       <c r="L57" s="59"/>
     </row>
     <row r="58" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A58" s="406"/>
+      <c r="A58" s="402"/>
       <c r="B58" s="68" t="s">
         <v>86</v>
       </c>
@@ -56340,7 +56392,7 @@
       <c r="L58" s="59"/>
     </row>
     <row r="59" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A59" s="406"/>
+      <c r="A59" s="402"/>
       <c r="B59" s="255" t="s">
         <v>86</v>
       </c>
@@ -56381,7 +56433,7 @@
       <c r="L59" s="259"/>
     </row>
     <row r="60" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A60" s="406"/>
+      <c r="A60" s="402"/>
       <c r="B60" s="255" t="s">
         <v>86</v>
       </c>
@@ -56422,7 +56474,7 @@
       <c r="L60" s="259"/>
     </row>
     <row r="61" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A61" s="406"/>
+      <c r="A61" s="402"/>
       <c r="B61" s="255" t="s">
         <v>86</v>
       </c>
@@ -56463,7 +56515,7 @@
       <c r="L61" s="259"/>
     </row>
     <row r="62" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A62" s="406"/>
+      <c r="A62" s="402"/>
       <c r="B62" s="68" t="s">
         <v>200</v>
       </c>
@@ -56504,7 +56556,7 @@
       <c r="L62" s="59"/>
     </row>
     <row r="63" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A63" s="406"/>
+      <c r="A63" s="402"/>
       <c r="B63" s="68" t="s">
         <v>199</v>
       </c>
@@ -56545,7 +56597,7 @@
       <c r="L63" s="59"/>
     </row>
     <row r="64" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A64" s="406"/>
+      <c r="A64" s="402"/>
       <c r="B64" s="68" t="s">
         <v>199</v>
       </c>
@@ -56586,7 +56638,7 @@
       <c r="L64" s="59"/>
     </row>
     <row r="65" spans="1:14" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A65" s="406"/>
+      <c r="A65" s="402"/>
       <c r="B65" s="68" t="s">
         <v>199</v>
       </c>
@@ -56627,7 +56679,7 @@
       <c r="L65" s="59"/>
     </row>
     <row r="66" spans="1:14" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A66" s="406"/>
+      <c r="A66" s="402"/>
       <c r="B66" s="68" t="s">
         <v>199</v>
       </c>
@@ -56668,19 +56720,19 @@
       <c r="L66" s="63"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="404" t="s">
+      <c r="A67" s="413" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="405"/>
-      <c r="C67" s="405"/>
-      <c r="D67" s="479"/>
+      <c r="B67" s="414"/>
+      <c r="C67" s="414"/>
+      <c r="D67" s="478"/>
       <c r="E67" s="60">
         <f>SUM(E31:E66)</f>
         <v>238</v>
       </c>
       <c r="F67" s="60">
         <f>SUM(F31:F66)</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G67" s="60">
         <f>SUM(G31:G66)</f>
@@ -56688,7 +56740,7 @@
       </c>
       <c r="H67" s="60">
         <f>SUM(H31:H66)</f>
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I67" s="60">
         <f>SUM(I31:I66)</f>
@@ -56696,7 +56748,7 @@
       </c>
       <c r="J67" s="61">
         <f t="shared" si="27"/>
-        <v>0.13865546218487396</v>
+        <v>0.1638655462184874</v>
       </c>
       <c r="K67" s="61">
         <f t="shared" si="28"/>
@@ -56705,19 +56757,19 @@
       <c r="L67" s="62"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="410" t="s">
+      <c r="A68" s="415" t="s">
         <v>236</v>
       </c>
-      <c r="B68" s="411"/>
-      <c r="C68" s="411"/>
-      <c r="D68" s="476"/>
+      <c r="B68" s="416"/>
+      <c r="C68" s="416"/>
+      <c r="D68" s="475"/>
       <c r="E68" s="64">
         <f t="shared" ref="E68:I68" si="38">SUM(E9+E19+E30+E67)</f>
         <v>375</v>
       </c>
       <c r="F68" s="64">
         <f t="shared" si="38"/>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G68" s="64">
         <f t="shared" si="38"/>
@@ -56725,7 +56777,7 @@
       </c>
       <c r="H68" s="64">
         <f t="shared" si="38"/>
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="I68" s="64">
         <f t="shared" si="38"/>
@@ -56733,7 +56785,7 @@
       </c>
       <c r="J68" s="65">
         <f t="shared" si="27"/>
-        <v>0.13066666666666665</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="K68" s="65">
         <f t="shared" si="28"/>
@@ -56745,7 +56797,7 @@
       <c r="N69" s="67"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="E70" s="466" t="s">
+      <c r="E70" s="468" t="s">
         <v>955</v>
       </c>
       <c r="F70" s="169">
@@ -56772,7 +56824,7 @@
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="E71" s="467"/>
+      <c r="E71" s="469"/>
       <c r="F71" s="169" t="s">
         <v>1011</v>
       </c>
@@ -56990,16 +57042,16 @@
       <c r="J81" s="276"/>
       <c r="K81" s="276"/>
       <c r="L81" s="276"/>
-      <c r="M81" s="471" t="s">
+      <c r="M81" s="463" t="s">
         <v>2160</v>
       </c>
-      <c r="N81" s="471"/>
-      <c r="O81" s="471"/>
-      <c r="P81" s="471"/>
-      <c r="Q81" s="471"/>
-      <c r="R81" s="471"/>
-      <c r="S81" s="471"/>
-      <c r="T81" s="471"/>
+      <c r="N81" s="463"/>
+      <c r="O81" s="463"/>
+      <c r="P81" s="463"/>
+      <c r="Q81" s="463"/>
+      <c r="R81" s="463"/>
+      <c r="S81" s="463"/>
+      <c r="T81" s="463"/>
     </row>
     <row r="82" spans="3:20">
       <c r="C82" t="s">
@@ -57025,14 +57077,14 @@
       <c r="J82" s="276"/>
       <c r="K82" s="276"/>
       <c r="L82" s="276"/>
-      <c r="M82" s="472"/>
-      <c r="N82" s="472"/>
-      <c r="O82" s="472"/>
-      <c r="P82" s="472"/>
-      <c r="Q82" s="472"/>
-      <c r="R82" s="472"/>
-      <c r="S82" s="472"/>
-      <c r="T82" s="472"/>
+      <c r="M82" s="464"/>
+      <c r="N82" s="464"/>
+      <c r="O82" s="464"/>
+      <c r="P82" s="464"/>
+      <c r="Q82" s="464"/>
+      <c r="R82" s="464"/>
+      <c r="S82" s="464"/>
+      <c r="T82" s="464"/>
     </row>
     <row r="83" spans="3:20">
       <c r="C83" t="s">
@@ -57058,10 +57110,10 @@
       <c r="J83" s="276"/>
       <c r="K83" s="276"/>
       <c r="L83" s="276"/>
-      <c r="M83" s="468" t="s">
+      <c r="M83" s="465" t="s">
         <v>1967</v>
       </c>
-      <c r="N83" s="470" t="s">
+      <c r="N83" s="467" t="s">
         <v>1962</v>
       </c>
       <c r="O83" s="368" t="s">
@@ -57079,7 +57131,7 @@
       <c r="S83" s="368" t="s">
         <v>1965</v>
       </c>
-      <c r="T83" s="470" t="s">
+      <c r="T83" s="467" t="s">
         <v>1964</v>
       </c>
     </row>
@@ -57107,8 +57159,8 @@
       <c r="J84" s="276"/>
       <c r="K84" s="276"/>
       <c r="L84" s="276"/>
-      <c r="M84" s="469"/>
-      <c r="N84" s="469"/>
+      <c r="M84" s="466"/>
+      <c r="N84" s="466"/>
       <c r="O84" s="368">
         <v>0</v>
       </c>
@@ -57125,7 +57177,7 @@
         <f>SUM(O84:R84)</f>
         <v>60</v>
       </c>
-      <c r="T84" s="469"/>
+      <c r="T84" s="466"/>
     </row>
     <row r="85" spans="3:20">
       <c r="C85" t="s">
@@ -57140,11 +57192,11 @@
       </c>
       <c r="F85" s="276">
         <f>COUNTIFS('0.전체'!G4:G463,'0.수행관리'!D85,'0.전체'!N4:N463,"O")</f>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G85" s="374">
         <f t="shared" si="40"/>
-        <v>0.15151515151515152</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H85" s="275"/>
       <c r="I85" s="275"/>
@@ -57451,40 +57503,40 @@
       </c>
       <c r="F92" s="275">
         <f>SUM(F81:F91)</f>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G92" s="374">
         <f t="shared" si="40"/>
-        <v>0.13066666666666665</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="H92" s="275"/>
       <c r="I92" s="275"/>
-      <c r="M92" s="471" t="s">
+      <c r="M92" s="463" t="s">
         <v>2129</v>
       </c>
-      <c r="N92" s="471"/>
-      <c r="O92" s="471"/>
-      <c r="P92" s="471"/>
-      <c r="Q92" s="471"/>
-      <c r="R92" s="471"/>
-      <c r="S92" s="471"/>
-      <c r="T92" s="471"/>
+      <c r="N92" s="463"/>
+      <c r="O92" s="463"/>
+      <c r="P92" s="463"/>
+      <c r="Q92" s="463"/>
+      <c r="R92" s="463"/>
+      <c r="S92" s="463"/>
+      <c r="T92" s="463"/>
     </row>
     <row r="93" spans="3:20">
-      <c r="M93" s="472"/>
-      <c r="N93" s="472"/>
-      <c r="O93" s="472"/>
-      <c r="P93" s="472"/>
-      <c r="Q93" s="472"/>
-      <c r="R93" s="472"/>
-      <c r="S93" s="472"/>
-      <c r="T93" s="472"/>
+      <c r="M93" s="464"/>
+      <c r="N93" s="464"/>
+      <c r="O93" s="464"/>
+      <c r="P93" s="464"/>
+      <c r="Q93" s="464"/>
+      <c r="R93" s="464"/>
+      <c r="S93" s="464"/>
+      <c r="T93" s="464"/>
     </row>
     <row r="94" spans="3:20">
-      <c r="M94" s="468" t="s">
+      <c r="M94" s="465" t="s">
         <v>955</v>
       </c>
-      <c r="N94" s="470" t="s">
+      <c r="N94" s="467" t="s">
         <v>1011</v>
       </c>
       <c r="O94" s="368" t="s">
@@ -57502,13 +57554,13 @@
       <c r="S94" s="368" t="s">
         <v>1965</v>
       </c>
-      <c r="T94" s="470" t="s">
+      <c r="T94" s="467" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="95" spans="3:20">
-      <c r="M95" s="469"/>
-      <c r="N95" s="469"/>
+      <c r="M95" s="466"/>
+      <c r="N95" s="466"/>
       <c r="O95" s="368">
         <v>24</v>
       </c>
@@ -57519,7 +57571,7 @@
         <f>SUM(O95:R95)</f>
         <v>24</v>
       </c>
-      <c r="T95" s="469"/>
+      <c r="T95" s="466"/>
     </row>
     <row r="96" spans="3:20">
       <c r="M96" s="367" t="s">
@@ -57780,11 +57832,11 @@
       </c>
       <c r="F128">
         <f>F30</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G128" s="375">
         <f>J30</f>
-        <v>0.1125</v>
+        <v>0.21249999999999999</v>
       </c>
     </row>
     <row r="129" spans="4:7">
@@ -57797,11 +57849,11 @@
       </c>
       <c r="F129">
         <f>F67</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G129" s="375">
         <f>J67</f>
-        <v>0.13865546218487396</v>
+        <v>0.1638655462184874</v>
       </c>
     </row>
     <row r="130" spans="4:7">
@@ -57814,29 +57866,25 @@
       </c>
       <c r="F130">
         <f>F68</f>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G130" s="375">
         <f>J68</f>
-        <v>0.13066666666666665</v>
+        <v>0.16800000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M92:T93"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="N94:N95"/>
-    <mergeCell ref="T94:T95"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="T83:T84"/>
+    <mergeCell ref="M81:T82"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B17:B18"/>
@@ -57848,16 +57896,20 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="T83:T84"/>
-    <mergeCell ref="M81:T82"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M92:T93"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="N94:N95"/>
+    <mergeCell ref="T94:T95"/>
+    <mergeCell ref="E70:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -57870,9 +57922,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M214" sqref="M214:Z215"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="92" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L313" sqref="L313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -57883,7 +57935,7 @@
     <col min="5" max="5" width="30.1640625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="65.83203125" style="390" customWidth="1"/>
+    <col min="8" max="8" width="103.5" style="388" customWidth="1"/>
     <col min="9" max="9" width="58.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -57891,69 +57943,69 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="491" t="s">
+      <c r="A2" s="482" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="491" t="s">
+      <c r="B2" s="482" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="487" t="s">
+      <c r="C2" s="484" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="487" t="s">
+      <c r="D2" s="484" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="487" t="s">
+      <c r="E2" s="484" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="493" t="s">
+      <c r="F2" s="486" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="493" t="s">
+      <c r="G2" s="486" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="493" t="s">
+      <c r="H2" s="486" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="487" t="s">
+      <c r="I2" s="484" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="487" t="s">
+      <c r="J2" s="484" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="485" t="s">
+      <c r="K2" s="487" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="486"/>
-      <c r="M2" s="487" t="s">
+      <c r="L2" s="488"/>
+      <c r="M2" s="484" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="485" t="s">
+      <c r="N2" s="487" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="486"/>
+      <c r="O2" s="488"/>
       <c r="P2" s="489" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" hidden="1" thickBot="1">
-      <c r="A3" s="492"/>
-      <c r="B3" s="492"/>
-      <c r="C3" s="488"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="488"/>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="488"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="488"/>
+      <c r="A3" s="483"/>
+      <c r="B3" s="483"/>
+      <c r="C3" s="485"/>
+      <c r="D3" s="485"/>
+      <c r="E3" s="485"/>
+      <c r="F3" s="485"/>
+      <c r="G3" s="485"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="485"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="488"/>
+      <c r="M3" s="485"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
@@ -60164,7 +60216,7 @@
       <c r="O55" s="272"/>
       <c r="P55" s="273"/>
     </row>
-    <row r="56" spans="1:16" s="274" customFormat="1" ht="32">
+    <row r="56" spans="1:16" s="274" customFormat="1">
       <c r="A56" s="376">
         <v>228</v>
       </c>
@@ -60252,7 +60304,7 @@
       <c r="O57" s="272"/>
       <c r="P57" s="273"/>
     </row>
-    <row r="58" spans="1:16" s="274" customFormat="1" ht="32">
+    <row r="58" spans="1:16" s="274" customFormat="1">
       <c r="A58" s="224">
         <v>265</v>
       </c>
@@ -60634,7 +60686,7 @@
       <c r="O66" s="231"/>
       <c r="P66" s="232"/>
     </row>
-    <row r="67" spans="1:16" ht="32">
+    <row r="67" spans="1:16">
       <c r="A67" s="224">
         <v>311</v>
       </c>
@@ -60722,51 +60774,51 @@
       <c r="O68" s="231"/>
       <c r="P68" s="232"/>
     </row>
-    <row r="69" spans="1:16" s="385" customFormat="1" ht="32">
-      <c r="A69" s="386">
+    <row r="69" spans="1:16" s="383" customFormat="1" ht="32">
+      <c r="A69" s="384">
         <v>55</v>
       </c>
-      <c r="B69" s="380" t="s">
+      <c r="B69" s="378" t="s">
         <v>1883</v>
       </c>
-      <c r="C69" s="387" t="s">
+      <c r="C69" s="385" t="s">
         <v>1896</v>
       </c>
-      <c r="D69" s="387" t="s">
+      <c r="D69" s="385" t="s">
         <v>2185</v>
       </c>
-      <c r="E69" s="387" t="s">
+      <c r="E69" s="385" t="s">
         <v>1896</v>
       </c>
-      <c r="F69" s="387" t="s">
+      <c r="F69" s="385" t="s">
         <v>1158</v>
       </c>
-      <c r="G69" s="387" t="s">
+      <c r="G69" s="385" t="s">
         <v>1167</v>
       </c>
-      <c r="H69" s="382" t="s">
+      <c r="H69" s="380" t="s">
         <v>1013</v>
       </c>
-      <c r="I69" s="387" t="s">
+      <c r="I69" s="385" t="s">
         <v>1902</v>
       </c>
-      <c r="J69" s="383" t="s">
+      <c r="J69" s="381" t="s">
         <v>1968</v>
       </c>
-      <c r="K69" s="383" t="s">
+      <c r="K69" s="381" t="s">
         <v>2036</v>
       </c>
-      <c r="L69" s="383" t="s">
+      <c r="L69" s="381" t="s">
         <v>2036</v>
       </c>
-      <c r="M69" s="383">
+      <c r="M69" s="381">
         <v>2024.0315000000001</v>
       </c>
-      <c r="N69" s="383" t="s">
+      <c r="N69" s="381" t="s">
         <v>2162</v>
       </c>
-      <c r="O69" s="383"/>
-      <c r="P69" s="384"/>
+      <c r="O69" s="381"/>
+      <c r="P69" s="382"/>
     </row>
     <row r="70" spans="1:16" hidden="1">
       <c r="A70" s="224">
@@ -60856,51 +60908,51 @@
       <c r="O71" s="231"/>
       <c r="P71" s="232"/>
     </row>
-    <row r="72" spans="1:16" s="385" customFormat="1" ht="32">
-      <c r="A72" s="386">
+    <row r="72" spans="1:16" s="383" customFormat="1">
+      <c r="A72" s="384">
         <v>65</v>
       </c>
-      <c r="B72" s="380" t="s">
+      <c r="B72" s="378" t="s">
         <v>1289</v>
       </c>
-      <c r="C72" s="388" t="s">
+      <c r="C72" s="386" t="s">
         <v>1290</v>
       </c>
-      <c r="D72" s="388" t="s">
+      <c r="D72" s="386" t="s">
         <v>2187</v>
       </c>
-      <c r="E72" s="389" t="s">
+      <c r="E72" s="387" t="s">
         <v>605</v>
       </c>
-      <c r="F72" s="389" t="s">
+      <c r="F72" s="387" t="s">
         <v>1158</v>
       </c>
-      <c r="G72" s="389" t="s">
+      <c r="G72" s="387" t="s">
         <v>1167</v>
       </c>
-      <c r="H72" s="382" t="s">
+      <c r="H72" s="380" t="s">
         <v>1174</v>
       </c>
-      <c r="I72" s="381" t="s">
+      <c r="I72" s="379" t="s">
         <v>607</v>
       </c>
-      <c r="J72" s="383" t="s">
+      <c r="J72" s="381" t="s">
         <v>1968</v>
       </c>
-      <c r="K72" s="383" t="s">
+      <c r="K72" s="381" t="s">
         <v>2036</v>
       </c>
-      <c r="L72" s="383" t="s">
+      <c r="L72" s="381" t="s">
         <v>2036</v>
       </c>
-      <c r="M72" s="383">
+      <c r="M72" s="381">
         <v>2024.0315000000001</v>
       </c>
-      <c r="N72" s="383" t="s">
+      <c r="N72" s="381" t="s">
         <v>2162</v>
       </c>
-      <c r="O72" s="383"/>
-      <c r="P72" s="384"/>
+      <c r="O72" s="381"/>
+      <c r="P72" s="382"/>
     </row>
     <row r="73" spans="1:16" hidden="1">
       <c r="A73" s="224">
@@ -62174,7 +62226,7 @@
       <c r="O102" s="231"/>
       <c r="P102" s="232"/>
     </row>
-    <row r="103" spans="1:16" ht="32">
+    <row r="103" spans="1:16">
       <c r="A103" s="224">
         <v>211</v>
       </c>
@@ -63158,7 +63210,7 @@
       <c r="O125" s="231"/>
       <c r="P125" s="232"/>
     </row>
-    <row r="126" spans="1:16" ht="64">
+    <row r="126" spans="1:16" ht="48">
       <c r="A126" s="377">
         <v>289</v>
       </c>
@@ -63204,7 +63256,7 @@
       <c r="O126" s="231"/>
       <c r="P126" s="232"/>
     </row>
-    <row r="127" spans="1:16" ht="48">
+    <row r="127" spans="1:16" ht="32">
       <c r="A127" s="224">
         <v>292</v>
       </c>
@@ -64564,7 +64616,7 @@
       <c r="O158" s="231"/>
       <c r="P158" s="232"/>
     </row>
-    <row r="159" spans="1:16" ht="32">
+    <row r="159" spans="1:16">
       <c r="A159" s="377">
         <v>299</v>
       </c>
@@ -64734,49 +64786,49 @@
       <c r="O162" s="231"/>
       <c r="P162" s="232"/>
     </row>
-    <row r="163" spans="1:16" ht="48">
-      <c r="A163" s="379">
+    <row r="163" spans="1:16" s="507" customFormat="1" ht="32">
+      <c r="A163" s="502">
         <v>156</v>
       </c>
-      <c r="B163" s="380" t="s">
+      <c r="B163" s="266" t="s">
         <v>190</v>
       </c>
-      <c r="C163" s="381" t="s">
+      <c r="C163" s="226" t="s">
         <v>1585</v>
       </c>
-      <c r="D163" s="381" t="s">
+      <c r="D163" s="226" t="s">
         <v>1585</v>
       </c>
-      <c r="E163" s="381" t="s">
+      <c r="E163" s="226" t="s">
         <v>1586</v>
       </c>
-      <c r="F163" s="381"/>
-      <c r="G163" s="381" t="s">
+      <c r="F163" s="226"/>
+      <c r="G163" s="226" t="s">
         <v>1377</v>
       </c>
-      <c r="H163" s="382" t="s">
+      <c r="H163" s="503" t="s">
         <v>685</v>
       </c>
-      <c r="I163" s="381" t="s">
+      <c r="I163" s="226" t="s">
         <v>1617</v>
       </c>
-      <c r="J163" s="383" t="s">
+      <c r="J163" s="504" t="s">
         <v>1968</v>
       </c>
-      <c r="K163" s="383" t="s">
+      <c r="K163" s="504" t="s">
         <v>2039</v>
       </c>
-      <c r="L163" s="383" t="s">
+      <c r="L163" s="504" t="s">
         <v>2039</v>
       </c>
-      <c r="M163" s="383">
-        <v>2024.0315000000001</v>
-      </c>
-      <c r="N163" s="383" t="s">
+      <c r="M163" s="505">
+        <v>45366</v>
+      </c>
+      <c r="N163" s="504" t="s">
         <v>2162</v>
       </c>
-      <c r="O163" s="383"/>
-      <c r="P163" s="384"/>
+      <c r="O163" s="504"/>
+      <c r="P163" s="506"/>
     </row>
     <row r="164" spans="1:16" hidden="1">
       <c r="A164" s="224">
@@ -65442,96 +65494,96 @@
       <c r="O179" s="231"/>
       <c r="P179" s="232"/>
     </row>
-    <row r="180" spans="1:17">
-      <c r="A180" s="386">
+    <row r="180" spans="1:17" s="507" customFormat="1">
+      <c r="A180" s="508">
         <v>158</v>
       </c>
-      <c r="B180" s="380" t="s">
+      <c r="B180" s="266" t="s">
         <v>190</v>
       </c>
-      <c r="C180" s="387" t="s">
+      <c r="C180" s="264" t="s">
         <v>1585</v>
       </c>
-      <c r="D180" s="387" t="s">
+      <c r="D180" s="264" t="s">
         <v>1585</v>
       </c>
-      <c r="E180" s="387" t="s">
+      <c r="E180" s="264" t="s">
         <v>1586</v>
       </c>
-      <c r="F180" s="387"/>
-      <c r="G180" s="387" t="s">
+      <c r="F180" s="264"/>
+      <c r="G180" s="264" t="s">
         <v>1616</v>
       </c>
-      <c r="H180" s="382" t="s">
+      <c r="H180" s="503" t="s">
         <v>688</v>
       </c>
-      <c r="I180" s="387" t="s">
+      <c r="I180" s="264" t="s">
         <v>1617</v>
       </c>
-      <c r="J180" s="383" t="s">
+      <c r="J180" s="504" t="s">
         <v>1968</v>
       </c>
-      <c r="K180" s="383" t="s">
+      <c r="K180" s="504" t="s">
         <v>2141</v>
       </c>
-      <c r="L180" s="383" t="s">
+      <c r="L180" s="504" t="s">
         <v>2141</v>
       </c>
-      <c r="M180" s="383">
-        <v>2024.0315000000001</v>
-      </c>
-      <c r="N180" s="383" t="s">
+      <c r="M180" s="505">
+        <v>45366</v>
+      </c>
+      <c r="N180" s="504" t="s">
         <v>2162</v>
       </c>
-      <c r="O180" s="383"/>
-      <c r="P180" s="384"/>
-    </row>
-    <row r="181" spans="1:17" ht="32">
-      <c r="A181" s="224">
+      <c r="O180" s="504"/>
+      <c r="P180" s="506"/>
+    </row>
+    <row r="181" spans="1:17" s="507" customFormat="1">
+      <c r="A181" s="509">
         <v>197</v>
       </c>
-      <c r="B181" s="225" t="s">
+      <c r="B181" s="266" t="s">
         <v>190</v>
       </c>
-      <c r="C181" s="225" t="s">
+      <c r="C181" s="266" t="s">
         <v>1643</v>
       </c>
-      <c r="D181" s="225" t="s">
+      <c r="D181" s="266" t="s">
         <v>1665</v>
       </c>
-      <c r="E181" s="240" t="s">
+      <c r="E181" s="264" t="s">
         <v>1678</v>
       </c>
-      <c r="F181" s="240" t="s">
+      <c r="F181" s="264" t="s">
         <v>1419</v>
       </c>
-      <c r="G181" s="240" t="s">
+      <c r="G181" s="264" t="s">
         <v>1616</v>
       </c>
-      <c r="H181" s="238" t="s">
+      <c r="H181" s="503" t="s">
         <v>1405</v>
       </c>
-      <c r="I181" s="225" t="s">
+      <c r="I181" s="266" t="s">
         <v>1681</v>
       </c>
-      <c r="J181" s="231" t="s">
+      <c r="J181" s="504" t="s">
         <v>1968</v>
       </c>
-      <c r="K181" s="231" t="s">
+      <c r="K181" s="504" t="s">
         <v>2143</v>
       </c>
-      <c r="L181" s="231" t="s">
+      <c r="L181" s="504" t="s">
         <v>2143</v>
       </c>
-      <c r="M181" s="494">
-        <v>2024.0319</v>
-      </c>
-      <c r="N181" s="494" t="s">
+      <c r="M181" s="505">
+        <v>45369</v>
+      </c>
+      <c r="N181" s="504" t="s">
         <v>2162</v>
       </c>
-      <c r="O181" s="231"/>
-      <c r="P181" s="232"/>
-      <c r="Q181" t="str">
+      <c r="O181" s="504"/>
+      <c r="P181" s="506"/>
+      <c r="Q181" s="507" t="str">
         <f>"오류수정."&amp;B181&amp;"."&amp;A181&amp;"."&amp;I181 &amp;"-" &amp;F181</f>
         <v>오류수정.4.서비스.197.02. 문화재공간분석_2024.01.03 11page-검색 가이드 문구 변경</v>
       </c>
@@ -66210,152 +66262,152 @@
       <c r="O197" s="231"/>
       <c r="P197" s="232"/>
     </row>
-    <row r="198" spans="1:17" ht="32">
-      <c r="A198" s="229">
+    <row r="198" spans="1:17" s="507" customFormat="1">
+      <c r="A198" s="510">
         <v>237</v>
       </c>
-      <c r="B198" s="225" t="s">
+      <c r="B198" s="266" t="s">
         <v>190</v>
       </c>
-      <c r="C198" s="240" t="s">
+      <c r="C198" s="264" t="s">
         <v>1710</v>
       </c>
-      <c r="D198" s="240" t="s">
+      <c r="D198" s="264" t="s">
         <v>770</v>
       </c>
-      <c r="E198" s="230" t="s">
+      <c r="E198" s="226" t="s">
         <v>769</v>
       </c>
-      <c r="F198" s="230" t="s">
+      <c r="F198" s="226" t="s">
         <v>1428</v>
       </c>
-      <c r="G198" s="230" t="s">
+      <c r="G198" s="226" t="s">
         <v>1616</v>
       </c>
-      <c r="H198" s="238" t="s">
+      <c r="H198" s="503" t="s">
         <v>774</v>
       </c>
-      <c r="I198" s="240" t="s">
+      <c r="I198" s="264" t="s">
         <v>1746</v>
       </c>
-      <c r="J198" s="231" t="s">
+      <c r="J198" s="504" t="s">
         <v>1968</v>
       </c>
-      <c r="K198" s="231" t="s">
+      <c r="K198" s="504" t="s">
         <v>2143</v>
       </c>
-      <c r="L198" s="231" t="s">
+      <c r="L198" s="504" t="s">
         <v>2143</v>
       </c>
-      <c r="M198" s="494">
-        <v>2024.0319</v>
-      </c>
-      <c r="N198" s="494" t="s">
+      <c r="M198" s="505">
+        <v>45370</v>
+      </c>
+      <c r="N198" s="504" t="s">
         <v>2162</v>
       </c>
-      <c r="O198" s="231"/>
-      <c r="P198" s="232"/>
-      <c r="Q198" t="str">
+      <c r="O198" s="504"/>
+      <c r="P198" s="506"/>
+      <c r="Q198" s="507" t="str">
         <f>"오류수정."&amp;B198&amp;"."&amp;A198&amp;"."&amp;I198 &amp;"-" &amp;F198</f>
         <v>오류수정.4.서비스.237.03. 도로점용인허가_2024.01.09 14page-불법도로점용관리 기능 개선</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
-      <c r="A199" s="224">
+    <row r="199" spans="1:17" s="507" customFormat="1">
+      <c r="A199" s="509">
         <v>49</v>
       </c>
-      <c r="B199" s="268" t="s">
+      <c r="B199" s="266" t="s">
         <v>1883</v>
       </c>
-      <c r="C199" s="271" t="s">
+      <c r="C199" s="264" t="s">
         <v>1896</v>
       </c>
-      <c r="D199" s="271" t="s">
+      <c r="D199" s="264" t="s">
         <v>1896</v>
       </c>
-      <c r="E199" s="270" t="s">
+      <c r="E199" s="226" t="s">
         <v>1896</v>
       </c>
-      <c r="F199" s="270" t="s">
+      <c r="F199" s="226" t="s">
         <v>1897</v>
       </c>
-      <c r="G199" s="270" t="s">
+      <c r="G199" s="226" t="s">
         <v>1165</v>
       </c>
-      <c r="H199" s="391" t="s">
+      <c r="H199" s="503" t="s">
         <v>583</v>
       </c>
-      <c r="I199" s="271" t="s">
+      <c r="I199" s="264" t="s">
         <v>1898</v>
       </c>
-      <c r="J199" s="272" t="s">
+      <c r="J199" s="504" t="s">
         <v>1968</v>
       </c>
-      <c r="K199" s="272" t="s">
+      <c r="K199" s="504" t="s">
         <v>2145</v>
       </c>
-      <c r="L199" s="272" t="s">
+      <c r="L199" s="504" t="s">
         <v>2145</v>
       </c>
-      <c r="M199" s="494">
-        <v>2024.0319</v>
-      </c>
-      <c r="N199" s="494" t="s">
+      <c r="M199" s="505">
+        <v>45370</v>
+      </c>
+      <c r="N199" s="504" t="s">
         <v>2162</v>
       </c>
-      <c r="O199" s="272"/>
-      <c r="P199" s="273"/>
-      <c r="Q199" t="str">
+      <c r="O199" s="504"/>
+      <c r="P199" s="506"/>
+      <c r="Q199" s="507" t="str">
         <f>"오류수정."&amp;B199&amp;"."&amp;A199&amp;"."&amp;I199 &amp;"-" &amp;F199</f>
         <v>오류수정.2.기능.49.02. 3D라이브러리_2023.11.14 2페이지-라이브러리 기능 개선</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
-      <c r="A200" s="224">
+    <row r="200" spans="1:17" s="507" customFormat="1">
+      <c r="A200" s="509">
         <v>53</v>
       </c>
-      <c r="B200" s="268" t="s">
+      <c r="B200" s="266" t="s">
         <v>1883</v>
       </c>
-      <c r="C200" s="271" t="s">
+      <c r="C200" s="264" t="s">
         <v>1896</v>
       </c>
-      <c r="D200" s="271" t="s">
+      <c r="D200" s="264" t="s">
         <v>1896</v>
       </c>
-      <c r="E200" s="270" t="s">
+      <c r="E200" s="226" t="s">
         <v>1896</v>
       </c>
-      <c r="F200" s="270" t="s">
+      <c r="F200" s="226" t="s">
         <v>1897</v>
       </c>
-      <c r="G200" s="270" t="s">
+      <c r="G200" s="226" t="s">
         <v>1165</v>
       </c>
-      <c r="H200" s="391" t="s">
+      <c r="H200" s="503" t="s">
         <v>587</v>
       </c>
-      <c r="I200" s="271" t="s">
+      <c r="I200" s="264" t="s">
         <v>1902</v>
       </c>
-      <c r="J200" s="272" t="s">
+      <c r="J200" s="504" t="s">
         <v>1968</v>
       </c>
-      <c r="K200" s="272" t="s">
+      <c r="K200" s="504" t="s">
         <v>2145</v>
       </c>
-      <c r="L200" s="272" t="s">
+      <c r="L200" s="504" t="s">
         <v>2145</v>
       </c>
-      <c r="M200" s="494">
-        <v>2024.0319</v>
-      </c>
-      <c r="N200" s="494" t="s">
+      <c r="M200" s="505">
+        <v>45370</v>
+      </c>
+      <c r="N200" s="504" t="s">
         <v>2162</v>
       </c>
-      <c r="O200" s="272"/>
-      <c r="P200" s="273"/>
-      <c r="Q200" t="str">
+      <c r="O200" s="504"/>
+      <c r="P200" s="506"/>
+      <c r="Q200" s="507" t="str">
         <f>"오류수정."&amp;B200&amp;"."&amp;A200&amp;"."&amp;I200 &amp;"-" &amp;F200</f>
         <v>오류수정.2.기능.53.02. 3D라이브러리_2023.11.14 5페이지-라이브러리 기능 개선</v>
       </c>
@@ -66490,52 +66542,52 @@
       <c r="O203" s="231"/>
       <c r="P203" s="232"/>
     </row>
-    <row r="204" spans="1:17">
-      <c r="A204" s="377">
+    <row r="204" spans="1:17" s="507" customFormat="1">
+      <c r="A204" s="508">
         <v>64</v>
       </c>
-      <c r="B204" s="225" t="s">
+      <c r="B204" s="266" t="s">
         <v>1289</v>
       </c>
-      <c r="C204" s="378" t="s">
+      <c r="C204" s="511" t="s">
         <v>1290</v>
       </c>
-      <c r="D204" s="378" t="s">
+      <c r="D204" s="511" t="s">
         <v>1290</v>
       </c>
-      <c r="E204" s="63" t="s">
+      <c r="E204" s="267" t="s">
         <v>605</v>
       </c>
-      <c r="F204" s="63" t="s">
+      <c r="F204" s="267" t="s">
         <v>1163</v>
       </c>
-      <c r="G204" s="63" t="s">
+      <c r="G204" s="267" t="s">
         <v>1165</v>
       </c>
-      <c r="H204" s="238" t="s">
+      <c r="H204" s="503" t="s">
         <v>1297</v>
       </c>
-      <c r="I204" s="230" t="s">
+      <c r="I204" s="226" t="s">
         <v>1293</v>
       </c>
-      <c r="J204" s="231" t="s">
+      <c r="J204" s="504" t="s">
         <v>1968</v>
       </c>
-      <c r="K204" s="231" t="s">
+      <c r="K204" s="504" t="s">
         <v>2040</v>
       </c>
-      <c r="L204" s="231" t="s">
+      <c r="L204" s="504" t="s">
         <v>2040</v>
       </c>
-      <c r="M204" s="494">
-        <v>2024.0319</v>
-      </c>
-      <c r="N204" s="494" t="s">
+      <c r="M204" s="505">
+        <v>45370</v>
+      </c>
+      <c r="N204" s="504" t="s">
         <v>2162</v>
       </c>
-      <c r="O204" s="231"/>
-      <c r="P204" s="232"/>
-      <c r="Q204" t="str">
+      <c r="O204" s="504"/>
+      <c r="P204" s="506"/>
+      <c r="Q204" s="507" t="str">
         <f>"오류수정."&amp;B204&amp;"."&amp;A204&amp;"."&amp;I204 &amp;"-" &amp;F204</f>
         <v>오류수정.3.분석.64.01. 지형분석_2023.12.08 1페이지-[공통]텍스트,숫자 입력 또는 표기방식 개선</v>
       </c>
@@ -66792,52 +66844,52 @@
       <c r="O210" s="231"/>
       <c r="P210" s="232"/>
     </row>
-    <row r="211" spans="1:17">
-      <c r="A211" s="376">
+    <row r="211" spans="1:17" s="507" customFormat="1">
+      <c r="A211" s="502">
         <v>66</v>
       </c>
-      <c r="B211" s="225" t="s">
+      <c r="B211" s="266" t="s">
         <v>1289</v>
       </c>
-      <c r="C211" s="378" t="s">
+      <c r="C211" s="511" t="s">
         <v>1290</v>
       </c>
-      <c r="D211" s="378" t="s">
+      <c r="D211" s="511" t="s">
         <v>1290</v>
       </c>
-      <c r="E211" s="63" t="s">
+      <c r="E211" s="267" t="s">
         <v>605</v>
       </c>
-      <c r="F211" s="63" t="s">
+      <c r="F211" s="267" t="s">
         <v>1163</v>
       </c>
-      <c r="G211" s="63" t="s">
+      <c r="G211" s="267" t="s">
         <v>1165</v>
       </c>
-      <c r="H211" s="238" t="s">
+      <c r="H211" s="503" t="s">
         <v>1298</v>
       </c>
-      <c r="I211" s="230" t="s">
+      <c r="I211" s="226" t="s">
         <v>1299</v>
       </c>
-      <c r="J211" s="231" t="s">
+      <c r="J211" s="504" t="s">
         <v>1968</v>
       </c>
-      <c r="K211" s="231" t="s">
+      <c r="K211" s="504" t="s">
         <v>2040</v>
       </c>
-      <c r="L211" s="231" t="s">
+      <c r="L211" s="504" t="s">
         <v>2040</v>
       </c>
-      <c r="M211" s="494">
-        <v>2024.0319</v>
-      </c>
-      <c r="N211" s="494" t="s">
+      <c r="M211" s="505">
+        <v>45370</v>
+      </c>
+      <c r="N211" s="504" t="s">
         <v>2162</v>
       </c>
-      <c r="O211" s="231"/>
-      <c r="P211" s="232"/>
-      <c r="Q211" t="str">
+      <c r="O211" s="504"/>
+      <c r="P211" s="506"/>
+      <c r="Q211" s="507" t="str">
         <f>"오류수정."&amp;B211&amp;"."&amp;A211&amp;"."&amp;I211 &amp;"-" &amp;F211</f>
         <v>오류수정.3.분석.66.01. 지형분석_2023.12.08 2페이지-[공통]텍스트,숫자 입력 또는 표기방식 개선</v>
       </c>
@@ -66886,144 +66938,152 @@
       <c r="O212" s="231"/>
       <c r="P212" s="232"/>
     </row>
-    <row r="213" spans="1:17">
-      <c r="A213" s="229">
+    <row r="213" spans="1:17" s="507" customFormat="1">
+      <c r="A213" s="510">
         <v>69</v>
       </c>
-      <c r="B213" s="225" t="s">
+      <c r="B213" s="266" t="s">
         <v>1289</v>
       </c>
-      <c r="C213" s="230" t="s">
+      <c r="C213" s="226" t="s">
         <v>1290</v>
       </c>
-      <c r="D213" s="230" t="s">
+      <c r="D213" s="226" t="s">
         <v>1290</v>
       </c>
-      <c r="E213" s="230" t="s">
+      <c r="E213" s="226" t="s">
         <v>605</v>
       </c>
-      <c r="F213" s="230" t="s">
+      <c r="F213" s="226" t="s">
         <v>1163</v>
       </c>
-      <c r="G213" s="230" t="s">
+      <c r="G213" s="226" t="s">
         <v>1165</v>
       </c>
-      <c r="H213" s="238" t="s">
+      <c r="H213" s="503" t="s">
         <v>1301</v>
       </c>
-      <c r="I213" s="230" t="s">
+      <c r="I213" s="226" t="s">
         <v>1299</v>
       </c>
-      <c r="J213" s="231" t="s">
+      <c r="J213" s="504" t="s">
         <v>1968</v>
       </c>
-      <c r="K213" s="231" t="s">
+      <c r="K213" s="504" t="s">
         <v>2040</v>
       </c>
-      <c r="L213" s="231" t="s">
+      <c r="L213" s="504" t="s">
         <v>2040</v>
       </c>
-      <c r="M213" s="494">
-        <v>2024.0319</v>
-      </c>
-      <c r="N213" s="494" t="s">
+      <c r="M213" s="505">
+        <v>45370</v>
+      </c>
+      <c r="N213" s="504" t="s">
         <v>2162</v>
       </c>
-      <c r="O213" s="231"/>
-      <c r="P213" s="232"/>
-      <c r="Q213" t="str">
+      <c r="O213" s="504"/>
+      <c r="P213" s="506"/>
+      <c r="Q213" s="507" t="str">
         <f>"오류수정."&amp;B213&amp;"."&amp;A213&amp;"."&amp;I213 &amp;"-" &amp;F213</f>
         <v>오류수정.3.분석.69.01. 지형분석_2023.12.08 2페이지-[공통]텍스트,숫자 입력 또는 표기방식 개선</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
-      <c r="A214" s="224">
+    <row r="214" spans="1:17" s="507" customFormat="1">
+      <c r="A214" s="509">
         <v>83</v>
       </c>
-      <c r="B214" s="225" t="s">
+      <c r="B214" s="266" t="s">
         <v>1289</v>
       </c>
-      <c r="C214" s="378" t="s">
+      <c r="C214" s="511" t="s">
         <v>1290</v>
       </c>
-      <c r="D214" s="378" t="s">
+      <c r="D214" s="511" t="s">
         <v>1290</v>
       </c>
-      <c r="E214" s="378" t="s">
+      <c r="E214" s="511" t="s">
         <v>606</v>
       </c>
-      <c r="F214" s="378" t="s">
+      <c r="F214" s="511" t="s">
         <v>1163</v>
       </c>
-      <c r="G214" s="378" t="s">
+      <c r="G214" s="511" t="s">
         <v>1165</v>
       </c>
-      <c r="H214" s="378" t="s">
+      <c r="H214" s="511" t="s">
         <v>1309</v>
       </c>
-      <c r="I214" s="378" t="s">
+      <c r="I214" s="511" t="s">
         <v>1306</v>
       </c>
-      <c r="J214" s="231" t="s">
+      <c r="J214" s="504" t="s">
         <v>1968</v>
       </c>
-      <c r="K214" s="231" t="s">
+      <c r="K214" s="504" t="s">
         <v>1970</v>
       </c>
-      <c r="L214" s="231" t="s">
+      <c r="L214" s="504" t="s">
         <v>1970</v>
       </c>
-      <c r="M214" s="231"/>
-      <c r="N214" s="231"/>
-      <c r="O214" s="231"/>
-      <c r="P214" s="232"/>
-      <c r="Q214" t="str">
+      <c r="M214" s="505">
+        <v>45372</v>
+      </c>
+      <c r="N214" s="504" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O214" s="504"/>
+      <c r="P214" s="506"/>
+      <c r="Q214" s="507" t="str">
         <f>"오류수정."&amp;B214&amp;"."&amp;A214&amp;"."&amp;I214 &amp;"-" &amp;F214</f>
         <v>오류수정.3.분석.83.01. 지형분석_2023.12.08 7페이지-[공통]텍스트,숫자 입력 또는 표기방식 개선</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
-      <c r="A215" s="224">
+    <row r="215" spans="1:17" s="507" customFormat="1">
+      <c r="A215" s="509">
         <v>88</v>
       </c>
-      <c r="B215" s="225" t="s">
+      <c r="B215" s="266" t="s">
         <v>1289</v>
       </c>
-      <c r="C215" s="378" t="s">
+      <c r="C215" s="511" t="s">
         <v>1290</v>
       </c>
-      <c r="D215" s="378" t="s">
+      <c r="D215" s="511" t="s">
         <v>1290</v>
       </c>
-      <c r="E215" s="378" t="s">
+      <c r="E215" s="511" t="s">
         <v>1313</v>
       </c>
-      <c r="F215" s="378" t="s">
+      <c r="F215" s="511" t="s">
         <v>1163</v>
       </c>
-      <c r="G215" s="378" t="s">
+      <c r="G215" s="511" t="s">
         <v>1165</v>
       </c>
-      <c r="H215" s="230" t="s">
+      <c r="H215" s="226" t="s">
         <v>1297</v>
       </c>
-      <c r="I215" s="378" t="s">
+      <c r="I215" s="511" t="s">
         <v>1314</v>
       </c>
-      <c r="J215" s="231" t="s">
+      <c r="J215" s="504" t="s">
         <v>1968</v>
       </c>
-      <c r="K215" s="231" t="s">
+      <c r="K215" s="504" t="s">
         <v>1970</v>
       </c>
-      <c r="L215" s="231" t="s">
+      <c r="L215" s="504" t="s">
         <v>1970</v>
       </c>
-      <c r="M215" s="231"/>
-      <c r="N215" s="231"/>
-      <c r="O215" s="231"/>
-      <c r="P215" s="232"/>
-      <c r="Q215" t="str">
+      <c r="M215" s="505">
+        <v>45372</v>
+      </c>
+      <c r="N215" s="504" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O215" s="504"/>
+      <c r="P215" s="506"/>
+      <c r="Q215" s="507" t="str">
         <f>"오류수정."&amp;B215&amp;"."&amp;A215&amp;"."&amp;I215 &amp;"-" &amp;F215</f>
         <v>오류수정.3.분석.88.01. 지형분석_2023.12.08 9페이지-[공통]텍스트,숫자 입력 또는 표기방식 개선</v>
       </c>
@@ -67108,48 +67168,52 @@
       <c r="O217" s="231"/>
       <c r="P217" s="232"/>
     </row>
-    <row r="218" spans="1:17">
-      <c r="A218" s="224">
+    <row r="218" spans="1:17" s="507" customFormat="1">
+      <c r="A218" s="509">
         <v>100</v>
       </c>
-      <c r="B218" s="225" t="s">
+      <c r="B218" s="266" t="s">
         <v>1289</v>
       </c>
-      <c r="C218" s="378" t="s">
+      <c r="C218" s="511" t="s">
         <v>638</v>
       </c>
-      <c r="D218" s="378" t="s">
+      <c r="D218" s="511" t="s">
         <v>638</v>
       </c>
-      <c r="E218" s="230" t="s">
+      <c r="E218" s="226" t="s">
         <v>638</v>
       </c>
-      <c r="F218" s="230" t="s">
+      <c r="F218" s="226" t="s">
         <v>1163</v>
       </c>
-      <c r="G218" s="230" t="s">
+      <c r="G218" s="226" t="s">
         <v>1165</v>
       </c>
-      <c r="H218" s="230" t="s">
+      <c r="H218" s="226" t="s">
         <v>1327</v>
       </c>
-      <c r="I218" s="378" t="s">
+      <c r="I218" s="511" t="s">
         <v>1328</v>
       </c>
-      <c r="J218" s="231" t="s">
+      <c r="J218" s="504" t="s">
         <v>1968</v>
       </c>
-      <c r="K218" s="231" t="s">
+      <c r="K218" s="504" t="s">
         <v>1970</v>
       </c>
-      <c r="L218" s="231" t="s">
+      <c r="L218" s="504" t="s">
         <v>1970</v>
       </c>
-      <c r="M218" s="231"/>
-      <c r="N218" s="231"/>
-      <c r="O218" s="231"/>
-      <c r="P218" s="232"/>
-      <c r="Q218" t="str">
+      <c r="M218" s="505">
+        <v>45373</v>
+      </c>
+      <c r="N218" s="504" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O218" s="504"/>
+      <c r="P218" s="506"/>
+      <c r="Q218" s="507" t="str">
         <f>"오류수정."&amp;B218&amp;"."&amp;A218&amp;"."&amp;I218 &amp;"-" &amp;F218</f>
         <v>오류수정.3.분석.100.02. 가시권분석_2023.12.08 1페이지-[공통]텍스트,숫자 입력 또는 표기방식 개선</v>
       </c>
@@ -67448,47 +67512,51 @@
       <c r="O225" s="231"/>
       <c r="P225" s="232"/>
     </row>
-    <row r="226" spans="1:17" hidden="1">
-      <c r="A226" s="224">
-        <v>223</v>
-      </c>
-      <c r="B226" s="225" t="s">
-        <v>190</v>
-      </c>
-      <c r="C226" s="230" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D226" s="230" t="s">
-        <v>743</v>
-      </c>
-      <c r="E226" s="230" t="s">
-        <v>1715</v>
-      </c>
-      <c r="F226" s="230" t="s">
-        <v>1716</v>
-      </c>
-      <c r="G226" s="230" t="s">
+    <row r="226" spans="1:17">
+      <c r="A226" s="502">
+        <v>105</v>
+      </c>
+      <c r="B226" s="266" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C226" s="511" t="s">
+        <v>638</v>
+      </c>
+      <c r="D226" s="511" t="s">
+        <v>638</v>
+      </c>
+      <c r="E226" s="226" t="s">
+        <v>639</v>
+      </c>
+      <c r="F226" s="226" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G226" s="226" t="s">
         <v>1165</v>
       </c>
-      <c r="H226" s="230" t="s">
-        <v>1727</v>
-      </c>
-      <c r="I226" s="230" t="s">
-        <v>1726</v>
-      </c>
-      <c r="J226" s="231" t="s">
+      <c r="H226" s="226" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I226" s="511" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J226" s="504" t="s">
         <v>1968</v>
       </c>
-      <c r="K226" s="231" t="s">
-        <v>1974</v>
-      </c>
-      <c r="L226" s="231" t="s">
-        <v>1974</v>
-      </c>
-      <c r="M226" s="231"/>
-      <c r="N226" s="231"/>
-      <c r="O226" s="231"/>
-      <c r="P226" s="232"/>
+      <c r="K226" s="504" t="s">
+        <v>1971</v>
+      </c>
+      <c r="L226" s="504" t="s">
+        <v>1971</v>
+      </c>
+      <c r="M226" s="505">
+        <v>45373</v>
+      </c>
+      <c r="N226" s="504" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O226" s="504"/>
+      <c r="P226" s="506"/>
     </row>
     <row r="227" spans="1:17" hidden="1">
       <c r="A227" s="224">
@@ -67662,50 +67730,54 @@
       <c r="O230" s="231"/>
       <c r="P230" s="232"/>
     </row>
-    <row r="231" spans="1:17">
-      <c r="A231" s="229">
-        <v>105</v>
-      </c>
-      <c r="B231" s="225" t="s">
+    <row r="231" spans="1:17" s="507" customFormat="1">
+      <c r="A231" s="499">
+        <v>107</v>
+      </c>
+      <c r="B231" s="492" t="s">
         <v>1289</v>
       </c>
-      <c r="C231" s="378" t="s">
+      <c r="C231" s="500" t="s">
         <v>638</v>
       </c>
-      <c r="D231" s="378" t="s">
+      <c r="D231" s="500" t="s">
         <v>638</v>
       </c>
-      <c r="E231" s="230" t="s">
+      <c r="E231" s="498" t="s">
         <v>639</v>
       </c>
-      <c r="F231" s="230" t="s">
+      <c r="F231" s="498" t="s">
         <v>1163</v>
       </c>
-      <c r="G231" s="230" t="s">
+      <c r="G231" s="498" t="s">
         <v>1165</v>
       </c>
-      <c r="H231" s="230" t="s">
-        <v>1332</v>
-      </c>
-      <c r="I231" s="378" t="s">
-        <v>1331</v>
-      </c>
-      <c r="J231" s="231" t="s">
+      <c r="H231" s="498" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I231" s="500" t="s">
+        <v>1333</v>
+      </c>
+      <c r="J231" s="493" t="s">
         <v>1968</v>
       </c>
-      <c r="K231" s="231" t="s">
+      <c r="K231" s="493" t="s">
         <v>1971</v>
       </c>
-      <c r="L231" s="231" t="s">
+      <c r="L231" s="493" t="s">
         <v>1971</v>
       </c>
-      <c r="M231" s="231"/>
-      <c r="N231" s="231"/>
-      <c r="O231" s="231"/>
-      <c r="P231" s="232"/>
-      <c r="Q231" t="str">
+      <c r="M231" s="494">
+        <v>45376</v>
+      </c>
+      <c r="N231" s="493" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O231" s="493"/>
+      <c r="P231" s="495"/>
+      <c r="Q231" s="507" t="str">
         <f>"오류수정."&amp;B231&amp;"."&amp;A231&amp;"."&amp;I231 &amp;"-" &amp;F231</f>
-        <v>오류수정.3.분석.105.02. 가시권분석_2023.12.08 2페이지-[공통]텍스트,숫자 입력 또는 표기방식 개선</v>
+        <v>오류수정.3.분석.107.02. 가시권분석_2023.12.08 3페이지-[공통]텍스트,숫자 입력 또는 표기방식 개선</v>
       </c>
     </row>
     <row r="232" spans="1:17" hidden="1">
@@ -68048,50 +68120,52 @@
       <c r="O239" s="231"/>
       <c r="P239" s="232"/>
     </row>
-    <row r="240" spans="1:17">
-      <c r="A240" s="377">
-        <v>107</v>
-      </c>
-      <c r="B240" s="225" t="s">
+    <row r="240" spans="1:17" s="496" customFormat="1">
+      <c r="A240" s="499">
+        <v>112</v>
+      </c>
+      <c r="B240" s="492" t="s">
         <v>1289</v>
       </c>
-      <c r="C240" s="378" t="s">
+      <c r="C240" s="500" t="s">
         <v>638</v>
       </c>
-      <c r="D240" s="378" t="s">
+      <c r="D240" s="500" t="s">
         <v>638</v>
       </c>
-      <c r="E240" s="230" t="s">
-        <v>639</v>
-      </c>
-      <c r="F240" s="230" t="s">
+      <c r="E240" s="498" t="s">
+        <v>640</v>
+      </c>
+      <c r="F240" s="498" t="s">
         <v>1163</v>
       </c>
-      <c r="G240" s="230" t="s">
+      <c r="G240" s="498" t="s">
         <v>1165</v>
       </c>
-      <c r="H240" s="230" t="s">
-        <v>1334</v>
-      </c>
-      <c r="I240" s="378" t="s">
-        <v>1333</v>
-      </c>
-      <c r="J240" s="231" t="s">
+      <c r="H240" s="498" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I240" s="500" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J240" s="493" t="s">
         <v>1968</v>
       </c>
-      <c r="K240" s="231" t="s">
+      <c r="K240" s="493" t="s">
         <v>1971</v>
       </c>
-      <c r="L240" s="231" t="s">
+      <c r="L240" s="493" t="s">
         <v>1971</v>
       </c>
-      <c r="M240" s="231"/>
-      <c r="N240" s="231"/>
-      <c r="O240" s="231"/>
-      <c r="P240" s="232"/>
-      <c r="Q240" t="str">
+      <c r="M240" s="512" t="s">
+        <v>2215</v>
+      </c>
+      <c r="N240" s="493"/>
+      <c r="O240" s="493"/>
+      <c r="P240" s="495"/>
+      <c r="Q240" s="507" t="str">
         <f>"오류수정."&amp;B240&amp;"."&amp;A240&amp;"."&amp;I240 &amp;"-" &amp;F240</f>
-        <v>오류수정.3.분석.107.02. 가시권분석_2023.12.08 3페이지-[공통]텍스트,숫자 입력 또는 표기방식 개선</v>
+        <v>오류수정.3.분석.112.02. 가시권분석_2023.12.08 5페이지-[공통]텍스트,숫자 입력 또는 표기방식 개선</v>
       </c>
     </row>
     <row r="241" spans="1:17" hidden="1">
@@ -68354,50 +68428,54 @@
       <c r="O246" s="231"/>
       <c r="P246" s="232"/>
     </row>
-    <row r="247" spans="1:17">
-      <c r="A247" s="224">
-        <v>112</v>
-      </c>
-      <c r="B247" s="225" t="s">
+    <row r="247" spans="1:17" s="496" customFormat="1">
+      <c r="A247" s="501">
+        <v>123</v>
+      </c>
+      <c r="B247" s="492" t="s">
         <v>1289</v>
       </c>
-      <c r="C247" s="378" t="s">
-        <v>638</v>
-      </c>
-      <c r="D247" s="378" t="s">
-        <v>638</v>
-      </c>
-      <c r="E247" s="230" t="s">
-        <v>640</v>
-      </c>
-      <c r="F247" s="230" t="s">
+      <c r="C247" s="500" t="s">
+        <v>641</v>
+      </c>
+      <c r="D247" s="500" t="s">
+        <v>641</v>
+      </c>
+      <c r="E247" s="498" t="s">
+        <v>641</v>
+      </c>
+      <c r="F247" s="498" t="s">
         <v>1163</v>
       </c>
-      <c r="G247" s="230" t="s">
+      <c r="G247" s="498" t="s">
         <v>1165</v>
       </c>
-      <c r="H247" s="230" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I247" s="378" t="s">
-        <v>1337</v>
-      </c>
-      <c r="J247" s="231" t="s">
+      <c r="H247" s="498" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I247" s="500" t="s">
+        <v>1343</v>
+      </c>
+      <c r="J247" s="493" t="s">
         <v>1968</v>
       </c>
-      <c r="K247" s="231" t="s">
-        <v>1971</v>
-      </c>
-      <c r="L247" s="231" t="s">
-        <v>1971</v>
-      </c>
-      <c r="M247" s="231"/>
-      <c r="N247" s="231"/>
-      <c r="O247" s="231"/>
-      <c r="P247" s="232"/>
-      <c r="Q247" t="str">
+      <c r="K247" s="493" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L247" s="493" t="s">
+        <v>1972</v>
+      </c>
+      <c r="M247" s="494">
+        <v>45376</v>
+      </c>
+      <c r="N247" s="493" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O247" s="493"/>
+      <c r="P247" s="495"/>
+      <c r="Q247" s="507" t="str">
         <f>"오류수정."&amp;B247&amp;"."&amp;A247&amp;"."&amp;I247 &amp;"-" &amp;F247</f>
-        <v>오류수정.3.분석.112.02. 가시권분석_2023.12.08 5페이지-[공통]텍스트,숫자 입력 또는 표기방식 개선</v>
+        <v>오류수정.3.분석.123.04. 음영분석_2023.12.08 1페이지-[공통]텍스트,숫자 입력 또는 표기방식 개선</v>
       </c>
     </row>
     <row r="248" spans="1:17" hidden="1">
@@ -69198,92 +69276,104 @@
       <c r="O266" s="231"/>
       <c r="P266" s="232"/>
     </row>
-    <row r="267" spans="1:17" hidden="1">
-      <c r="A267" s="229">
-        <v>264</v>
-      </c>
-      <c r="B267" s="225" t="s">
-        <v>190</v>
-      </c>
-      <c r="C267" s="230" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D267" s="230" t="s">
-        <v>794</v>
-      </c>
-      <c r="E267" s="230" t="s">
-        <v>1763</v>
-      </c>
-      <c r="F267" s="230" t="s">
-        <v>1460</v>
-      </c>
-      <c r="G267" s="230" t="s">
+    <row r="267" spans="1:17">
+      <c r="A267" s="499">
+        <v>124</v>
+      </c>
+      <c r="B267" s="492" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C267" s="500" t="s">
+        <v>641</v>
+      </c>
+      <c r="D267" s="500" t="s">
+        <v>641</v>
+      </c>
+      <c r="E267" s="498" t="s">
+        <v>641</v>
+      </c>
+      <c r="F267" s="498" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G267" s="498" t="s">
         <v>1165</v>
       </c>
-      <c r="H267" s="230" t="s">
-        <v>1766</v>
-      </c>
-      <c r="I267" s="230" t="s">
-        <v>1472</v>
-      </c>
-      <c r="J267" s="231" t="s">
+      <c r="H267" s="498" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I267" s="500" t="s">
+        <v>1343</v>
+      </c>
+      <c r="J267" s="493" t="s">
         <v>1968</v>
       </c>
-      <c r="K267" s="231" t="s">
-        <v>1975</v>
-      </c>
-      <c r="L267" s="231" t="s">
-        <v>1975</v>
-      </c>
-      <c r="M267" s="231"/>
-      <c r="N267" s="231"/>
-      <c r="O267" s="231"/>
-      <c r="P267" s="232"/>
-    </row>
-    <row r="268" spans="1:17" s="385" customFormat="1">
-      <c r="A268" s="376">
-        <v>123</v>
-      </c>
-      <c r="B268" s="225" t="s">
+      <c r="K267" s="493" t="s">
+        <v>1972</v>
+      </c>
+      <c r="L267" s="493" t="s">
+        <v>1972</v>
+      </c>
+      <c r="M267" s="494">
+        <v>45376</v>
+      </c>
+      <c r="N267" s="493" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O267" s="493"/>
+      <c r="P267" s="495"/>
+      <c r="Q267" s="507" t="str">
+        <f t="shared" ref="Q267:Q268" si="0">"오류수정."&amp;B267&amp;"."&amp;A267&amp;"."&amp;I267 &amp;"-" &amp;F267</f>
+        <v>오류수정.3.분석.124.04. 음영분석_2023.12.08 1페이지-음영분석 서비스 개선</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" s="496" customFormat="1">
+      <c r="A268" s="501">
+        <v>132</v>
+      </c>
+      <c r="B268" s="492" t="s">
         <v>1289</v>
       </c>
-      <c r="C268" s="378" t="s">
+      <c r="C268" s="498" t="s">
         <v>641</v>
       </c>
-      <c r="D268" s="378" t="s">
+      <c r="D268" s="498" t="s">
         <v>641</v>
       </c>
-      <c r="E268" s="230" t="s">
+      <c r="E268" s="498" t="s">
         <v>641</v>
       </c>
-      <c r="F268" s="230" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G268" s="230" t="s">
+      <c r="F268" s="498" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G268" s="498" t="s">
         <v>1165</v>
       </c>
-      <c r="H268" s="230" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I268" s="378" t="s">
-        <v>1343</v>
-      </c>
-      <c r="J268" s="231" t="s">
+      <c r="H268" s="498" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I268" s="498" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J268" s="493" t="s">
         <v>1968</v>
       </c>
-      <c r="K268" s="231" t="s">
+      <c r="K268" s="493" t="s">
         <v>1972</v>
       </c>
-      <c r="L268" s="231" t="s">
+      <c r="L268" s="493" t="s">
         <v>1972</v>
       </c>
-      <c r="M268" s="231"/>
-      <c r="N268" s="231"/>
-      <c r="O268" s="231"/>
-      <c r="P268" s="232"/>
-      <c r="Q268" t="str">
-        <f>"오류수정."&amp;B268&amp;"."&amp;A268&amp;"."&amp;I268 &amp;"-" &amp;F268</f>
-        <v>오류수정.3.분석.123.04. 음영분석_2023.12.08 1페이지-[공통]텍스트,숫자 입력 또는 표기방식 개선</v>
+      <c r="M268" s="494">
+        <v>45376</v>
+      </c>
+      <c r="N268" s="493" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O268" s="493"/>
+      <c r="P268" s="495"/>
+      <c r="Q268" s="507" t="str">
+        <f t="shared" si="0"/>
+        <v>오류수정.3.분석.132.04. 음영분석_2023.12.08 4페이지-음영분석 서비스 개선</v>
       </c>
     </row>
     <row r="269" spans="1:17" hidden="1">
@@ -69412,53 +69502,55 @@
       <c r="O271" s="231"/>
       <c r="P271" s="232"/>
     </row>
-    <row r="272" spans="1:17" s="385" customFormat="1">
-      <c r="A272" s="224">
-        <v>124</v>
-      </c>
-      <c r="B272" s="225" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C272" s="378" t="s">
-        <v>641</v>
-      </c>
-      <c r="D272" s="378" t="s">
-        <v>641</v>
-      </c>
-      <c r="E272" s="230" t="s">
-        <v>641</v>
-      </c>
-      <c r="F272" s="230" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G272" s="230" t="s">
+    <row r="272" spans="1:17" s="496" customFormat="1">
+      <c r="A272" s="491">
+        <v>160</v>
+      </c>
+      <c r="B272" s="492" t="s">
+        <v>190</v>
+      </c>
+      <c r="C272" s="498" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D272" s="498" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E272" s="498" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F272" s="498"/>
+      <c r="G272" s="498" t="s">
         <v>1165</v>
       </c>
-      <c r="H272" s="230" t="s">
-        <v>1265</v>
-      </c>
-      <c r="I272" s="378" t="s">
-        <v>1343</v>
-      </c>
-      <c r="J272" s="231" t="s">
+      <c r="H272" s="498" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I272" s="498" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J272" s="493" t="s">
         <v>1968</v>
       </c>
-      <c r="K272" s="231" t="s">
-        <v>1972</v>
-      </c>
-      <c r="L272" s="231" t="s">
-        <v>1972</v>
-      </c>
-      <c r="M272" s="231"/>
-      <c r="N272" s="231"/>
-      <c r="O272" s="231"/>
-      <c r="P272" s="232"/>
-      <c r="Q272" t="str">
+      <c r="K272" s="493" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L272" s="493" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M272" s="494">
+        <v>45376</v>
+      </c>
+      <c r="N272" s="493" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O272" s="493"/>
+      <c r="P272" s="495"/>
+      <c r="Q272" s="507" t="str">
         <f>"오류수정."&amp;B272&amp;"."&amp;A272&amp;"."&amp;I272 &amp;"-" &amp;F272</f>
-        <v>오류수정.3.분석.124.04. 음영분석_2023.12.08 1페이지-음영분석 서비스 개선</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16" hidden="1">
+        <v>오류수정.4.서비스.160.01. 건축인허가_2024.01.03 8페이지-</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" hidden="1">
       <c r="A273" s="229">
         <v>270</v>
       </c>
@@ -69500,7 +69592,7 @@
       <c r="O273" s="231"/>
       <c r="P273" s="232"/>
     </row>
-    <row r="274" spans="1:16" hidden="1">
+    <row r="274" spans="1:17" hidden="1">
       <c r="A274" s="224">
         <v>271</v>
       </c>
@@ -69542,7 +69634,7 @@
       <c r="O274" s="231"/>
       <c r="P274" s="232"/>
     </row>
-    <row r="275" spans="1:16" hidden="1">
+    <row r="275" spans="1:17" hidden="1">
       <c r="A275" s="224">
         <v>272</v>
       </c>
@@ -69588,7 +69680,7 @@
       <c r="O275" s="231"/>
       <c r="P275" s="232"/>
     </row>
-    <row r="276" spans="1:16" hidden="1">
+    <row r="276" spans="1:17" hidden="1">
       <c r="A276" s="229">
         <v>273</v>
       </c>
@@ -69630,7 +69722,7 @@
       <c r="O276" s="231"/>
       <c r="P276" s="232"/>
     </row>
-    <row r="277" spans="1:16" hidden="1">
+    <row r="277" spans="1:17" hidden="1">
       <c r="A277" s="224">
         <v>274</v>
       </c>
@@ -69672,7 +69764,7 @@
       <c r="O277" s="231"/>
       <c r="P277" s="232"/>
     </row>
-    <row r="278" spans="1:16" hidden="1">
+    <row r="278" spans="1:17" hidden="1">
       <c r="A278" s="224">
         <v>275</v>
       </c>
@@ -69714,7 +69806,7 @@
       <c r="O278" s="231"/>
       <c r="P278" s="232"/>
     </row>
-    <row r="279" spans="1:16" hidden="1">
+    <row r="279" spans="1:17" hidden="1">
       <c r="A279" s="229">
         <v>276</v>
       </c>
@@ -69756,7 +69848,7 @@
       <c r="O279" s="231"/>
       <c r="P279" s="232"/>
     </row>
-    <row r="280" spans="1:16" hidden="1">
+    <row r="280" spans="1:17" hidden="1">
       <c r="A280" s="224">
         <v>277</v>
       </c>
@@ -69798,7 +69890,7 @@
       <c r="O280" s="231"/>
       <c r="P280" s="232"/>
     </row>
-    <row r="281" spans="1:16" hidden="1">
+    <row r="281" spans="1:17" hidden="1">
       <c r="A281" s="224">
         <v>278</v>
       </c>
@@ -69844,49 +69936,55 @@
       <c r="O281" s="231"/>
       <c r="P281" s="232"/>
     </row>
-    <row r="282" spans="1:16" hidden="1">
-      <c r="A282" s="229">
-        <v>279</v>
-      </c>
-      <c r="B282" s="225" t="s">
+    <row r="282" spans="1:17">
+      <c r="A282" s="497">
+        <v>177</v>
+      </c>
+      <c r="B282" s="492" t="s">
         <v>190</v>
       </c>
-      <c r="C282" s="230" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D282" s="230" t="s">
-        <v>805</v>
-      </c>
-      <c r="E282" s="230" t="s">
-        <v>1773</v>
-      </c>
-      <c r="F282" s="230" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G282" s="230" t="s">
+      <c r="C282" s="500" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D282" s="500" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E282" s="500" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F282" s="500"/>
+      <c r="G282" s="500" t="s">
         <v>1165</v>
       </c>
-      <c r="H282" s="230" t="s">
-        <v>1777</v>
-      </c>
-      <c r="I282" s="230" t="s">
-        <v>1778</v>
-      </c>
-      <c r="J282" s="231" t="s">
+      <c r="H282" s="498" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I282" s="500" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J282" s="493" t="s">
         <v>1968</v>
       </c>
-      <c r="K282" s="231" t="s">
-        <v>1975</v>
-      </c>
-      <c r="L282" s="231" t="s">
-        <v>1975</v>
-      </c>
-      <c r="M282" s="231"/>
-      <c r="N282" s="231"/>
-      <c r="O282" s="231"/>
-      <c r="P282" s="232"/>
-    </row>
-    <row r="283" spans="1:16" hidden="1">
+      <c r="K282" s="493" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L282" s="493" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M282" s="494">
+        <v>45376</v>
+      </c>
+      <c r="N282" s="493" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O282" s="493"/>
+      <c r="P282" s="495"/>
+      <c r="Q282" s="507" t="str">
+        <f>"오류수정."&amp;B282&amp;"."&amp;A282&amp;"."&amp;I282 &amp;"-" &amp;F282</f>
+        <v>오류수정.4.서비스.177.01. 건축인허가_2024.01.03 11페이지-</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" hidden="1">
       <c r="A283" s="224">
         <v>280</v>
       </c>
@@ -69928,7 +70026,7 @@
       <c r="O283" s="231"/>
       <c r="P283" s="232"/>
     </row>
-    <row r="284" spans="1:16" hidden="1">
+    <row r="284" spans="1:17" hidden="1">
       <c r="A284" s="224">
         <v>281</v>
       </c>
@@ -69970,7 +70068,7 @@
       <c r="O284" s="231"/>
       <c r="P284" s="232"/>
     </row>
-    <row r="285" spans="1:16" hidden="1">
+    <row r="285" spans="1:17" hidden="1">
       <c r="A285" s="229">
         <v>282</v>
       </c>
@@ -70012,7 +70110,7 @@
       <c r="O285" s="231"/>
       <c r="P285" s="232"/>
     </row>
-    <row r="286" spans="1:16" hidden="1">
+    <row r="286" spans="1:17" hidden="1">
       <c r="A286" s="224">
         <v>283</v>
       </c>
@@ -70052,7 +70150,7 @@
       <c r="O286" s="231"/>
       <c r="P286" s="232"/>
     </row>
-    <row r="287" spans="1:16" hidden="1">
+    <row r="287" spans="1:17" hidden="1">
       <c r="A287" s="224">
         <v>284</v>
       </c>
@@ -70092,7 +70190,7 @@
       <c r="O287" s="231"/>
       <c r="P287" s="232"/>
     </row>
-    <row r="288" spans="1:16" hidden="1">
+    <row r="288" spans="1:17" hidden="1">
       <c r="A288" s="229">
         <v>285</v>
       </c>
@@ -70172,45 +70270,53 @@
       <c r="O289" s="231"/>
       <c r="P289" s="232"/>
     </row>
-    <row r="290" spans="1:17" hidden="1">
-      <c r="A290" s="224">
-        <v>287</v>
-      </c>
-      <c r="B290" s="225" t="s">
+    <row r="290" spans="1:17">
+      <c r="A290" s="501">
+        <v>195</v>
+      </c>
+      <c r="B290" s="492" t="s">
         <v>190</v>
       </c>
-      <c r="C290" s="230" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D290" s="230" t="s">
-        <v>805</v>
-      </c>
-      <c r="E290" s="230" t="s">
-        <v>1786</v>
-      </c>
-      <c r="F290" s="230"/>
-      <c r="G290" s="230" t="s">
+      <c r="C290" s="500" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D290" s="500" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E290" s="498" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F290" s="498"/>
+      <c r="G290" s="498" t="s">
         <v>1165</v>
       </c>
-      <c r="H290" s="230" t="s">
-        <v>1788</v>
-      </c>
-      <c r="I290" s="230" t="s">
-        <v>1787</v>
-      </c>
-      <c r="J290" s="231" t="s">
+      <c r="H290" s="498" t="s">
+        <v>1676</v>
+      </c>
+      <c r="I290" s="500" t="s">
+        <v>1677</v>
+      </c>
+      <c r="J290" s="493" t="s">
         <v>1968</v>
       </c>
-      <c r="K290" s="231" t="s">
-        <v>1976</v>
-      </c>
-      <c r="L290" s="231" t="s">
-        <v>1976</v>
-      </c>
-      <c r="M290" s="231"/>
-      <c r="N290" s="231"/>
-      <c r="O290" s="231"/>
-      <c r="P290" s="232"/>
+      <c r="K290" s="493" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L290" s="493" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M290" s="494">
+        <v>45376</v>
+      </c>
+      <c r="N290" s="493" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O290" s="493"/>
+      <c r="P290" s="495"/>
+      <c r="Q290" s="507" t="str">
+        <f>"오류수정."&amp;B290&amp;"."&amp;A290&amp;"."&amp;I290 &amp;"-" &amp;F290</f>
+        <v>오류수정.4.서비스.195.02. 문화재공간분석_2024.01.03 8page-</v>
+      </c>
     </row>
     <row r="291" spans="1:17" hidden="1">
       <c r="A291" s="229">
@@ -70252,50 +70358,54 @@
       <c r="O291" s="231"/>
       <c r="P291" s="232"/>
     </row>
-    <row r="292" spans="1:17">
-      <c r="A292" s="376">
-        <v>132</v>
-      </c>
-      <c r="B292" s="225" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C292" s="230" t="s">
-        <v>641</v>
-      </c>
-      <c r="D292" s="230" t="s">
-        <v>641</v>
-      </c>
-      <c r="E292" s="230" t="s">
-        <v>641</v>
-      </c>
-      <c r="F292" s="230" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G292" s="230" t="s">
+    <row r="292" spans="1:17" s="496" customFormat="1">
+      <c r="A292" s="491">
+        <v>196</v>
+      </c>
+      <c r="B292" s="492" t="s">
+        <v>190</v>
+      </c>
+      <c r="C292" s="500" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D292" s="500" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E292" s="498" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F292" s="498" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G292" s="498" t="s">
         <v>1165</v>
       </c>
-      <c r="H292" s="230" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I292" s="230" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J292" s="231" t="s">
+      <c r="H292" s="498" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I292" s="500" t="s">
+        <v>1681</v>
+      </c>
+      <c r="J292" s="493" t="s">
         <v>1968</v>
       </c>
-      <c r="K292" s="231" t="s">
-        <v>1972</v>
-      </c>
-      <c r="L292" s="231" t="s">
-        <v>1972</v>
-      </c>
-      <c r="M292" s="231"/>
-      <c r="N292" s="231"/>
-      <c r="O292" s="231"/>
-      <c r="P292" s="232"/>
-      <c r="Q292" t="str">
+      <c r="K292" s="493" t="s">
+        <v>1981</v>
+      </c>
+      <c r="L292" s="493" t="s">
+        <v>1981</v>
+      </c>
+      <c r="M292" s="494">
+        <v>45376</v>
+      </c>
+      <c r="N292" s="493" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O292" s="493"/>
+      <c r="P292" s="495"/>
+      <c r="Q292" s="507" t="str">
         <f>"오류수정."&amp;B292&amp;"."&amp;A292&amp;"."&amp;I292 &amp;"-" &amp;F292</f>
-        <v>오류수정.3.분석.132.04. 음영분석_2023.12.08 4페이지-음영분석 서비스 개선</v>
+        <v>오류수정.4.서비스.196.02. 문화재공간분석_2024.01.03 11page-가시권 분석 기능 개선(문화재중심)</v>
       </c>
     </row>
     <row r="293" spans="1:17" hidden="1">
@@ -70344,88 +70454,100 @@
       <c r="O293" s="231"/>
       <c r="P293" s="232"/>
     </row>
-    <row r="294" spans="1:17" hidden="1">
-      <c r="A294" s="229">
-        <v>291</v>
-      </c>
-      <c r="B294" s="225" t="s">
+    <row r="294" spans="1:17">
+      <c r="A294" s="497">
+        <v>201</v>
+      </c>
+      <c r="B294" s="492" t="s">
         <v>190</v>
       </c>
-      <c r="C294" s="230" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D294" s="230" t="s">
-        <v>805</v>
-      </c>
-      <c r="E294" s="230" t="s">
-        <v>1786</v>
-      </c>
-      <c r="F294" s="230"/>
-      <c r="G294" s="230" t="s">
+      <c r="C294" s="498" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D294" s="498" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E294" s="498" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F294" s="498"/>
+      <c r="G294" s="498" t="s">
         <v>1165</v>
       </c>
-      <c r="H294" s="230" t="s">
-        <v>1790</v>
-      </c>
-      <c r="I294" s="230" t="s">
-        <v>1789</v>
-      </c>
-      <c r="J294" s="231" t="s">
+      <c r="H294" s="498" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I294" s="498" t="s">
+        <v>1688</v>
+      </c>
+      <c r="J294" s="493" t="s">
         <v>1968</v>
       </c>
-      <c r="K294" s="231" t="s">
-        <v>1976</v>
-      </c>
-      <c r="L294" s="231" t="s">
-        <v>1976</v>
-      </c>
-      <c r="M294" s="231"/>
-      <c r="N294" s="231"/>
-      <c r="O294" s="231"/>
-      <c r="P294" s="232"/>
-    </row>
-    <row r="295" spans="1:17">
-      <c r="A295" s="224">
-        <v>160</v>
-      </c>
-      <c r="B295" s="225" t="s">
+      <c r="K294" s="493" t="s">
+        <v>1981</v>
+      </c>
+      <c r="L294" s="493" t="s">
+        <v>1981</v>
+      </c>
+      <c r="M294" s="494">
+        <v>45376</v>
+      </c>
+      <c r="N294" s="493" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O294" s="493"/>
+      <c r="P294" s="495"/>
+      <c r="Q294" s="507" t="str">
+        <f t="shared" ref="Q294:Q295" si="1">"오류수정."&amp;B294&amp;"."&amp;A294&amp;"."&amp;I294 &amp;"-" &amp;F294</f>
+        <v>오류수정.4.서비스.201.02. 문화재공간분석_2024.01.03 15page-</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" s="496" customFormat="1">
+      <c r="A295" s="501">
+        <v>210</v>
+      </c>
+      <c r="B295" s="492" t="s">
         <v>190</v>
       </c>
-      <c r="C295" s="230" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D295" s="230" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E295" s="230" t="s">
-        <v>1619</v>
-      </c>
-      <c r="F295" s="230"/>
-      <c r="G295" s="230" t="s">
+      <c r="C295" s="498" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D295" s="498" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E295" s="498" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F295" s="498"/>
+      <c r="G295" s="498" t="s">
         <v>1165</v>
       </c>
-      <c r="H295" s="230" t="s">
-        <v>1622</v>
-      </c>
-      <c r="I295" s="230" t="s">
-        <v>1621</v>
-      </c>
-      <c r="J295" s="231" t="s">
+      <c r="H295" s="498" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I295" s="498" t="s">
+        <v>1699</v>
+      </c>
+      <c r="J295" s="493" t="s">
         <v>1968</v>
       </c>
-      <c r="K295" s="231" t="s">
-        <v>1973</v>
-      </c>
-      <c r="L295" s="231" t="s">
-        <v>1973</v>
-      </c>
-      <c r="M295" s="231"/>
-      <c r="N295" s="231"/>
-      <c r="O295" s="231"/>
-      <c r="P295" s="232"/>
-      <c r="Q295" t="str">
-        <f>"오류수정."&amp;B295&amp;"."&amp;A295&amp;"."&amp;I295 &amp;"-" &amp;F295</f>
-        <v>오류수정.4.서비스.160.01. 건축인허가_2024.01.03 8페이지-</v>
+      <c r="K295" s="493" t="s">
+        <v>1981</v>
+      </c>
+      <c r="L295" s="493" t="s">
+        <v>1981</v>
+      </c>
+      <c r="M295" s="494">
+        <v>45376</v>
+      </c>
+      <c r="N295" s="493" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O295" s="493"/>
+      <c r="P295" s="495"/>
+      <c r="Q295" s="507" t="str">
+        <f t="shared" si="1"/>
+        <v>오류수정.4.서비스.210.02. 문화재공간분석_2024.01.03 19page-</v>
       </c>
     </row>
     <row r="296" spans="1:17" hidden="1">
@@ -70588,132 +70710,142 @@
       <c r="O299" s="231"/>
       <c r="P299" s="232"/>
     </row>
-    <row r="300" spans="1:17" hidden="1">
-      <c r="A300" s="229">
-        <v>297</v>
+    <row r="300" spans="1:17">
+      <c r="A300" s="377">
+        <v>223</v>
       </c>
       <c r="B300" s="225" t="s">
         <v>190</v>
       </c>
       <c r="C300" s="230" t="s">
-        <v>1771</v>
+        <v>1710</v>
       </c>
       <c r="D300" s="230" t="s">
-        <v>805</v>
+        <v>743</v>
       </c>
       <c r="E300" s="230" t="s">
-        <v>1792</v>
-      </c>
-      <c r="F300" s="230"/>
+        <v>1715</v>
+      </c>
+      <c r="F300" s="230" t="s">
+        <v>1716</v>
+      </c>
       <c r="G300" s="230" t="s">
         <v>1165</v>
       </c>
       <c r="H300" s="230" t="s">
-        <v>1795</v>
+        <v>1727</v>
       </c>
       <c r="I300" s="230" t="s">
-        <v>1794</v>
+        <v>1726</v>
       </c>
       <c r="J300" s="231" t="s">
         <v>1968</v>
       </c>
       <c r="K300" s="231" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="L300" s="231" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="M300" s="231"/>
       <c r="N300" s="231"/>
       <c r="O300" s="231"/>
       <c r="P300" s="232"/>
-    </row>
-    <row r="301" spans="1:17">
+      <c r="Q300" s="507" t="str">
+        <f t="shared" ref="Q300:Q302" si="2">"오류수정."&amp;B300&amp;"."&amp;A300&amp;"."&amp;I300 &amp;"-" &amp;F300</f>
+        <v>오류수정.4.서비스.223.03. 도로점용인허가_2024.01.09 10page-점용허가금지구간 가시화 기능 개선</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17" s="496" customFormat="1">
       <c r="A301" s="376">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="B301" s="225" t="s">
         <v>190</v>
       </c>
-      <c r="C301" s="378" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D301" s="378" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E301" s="378" t="s">
-        <v>1637</v>
-      </c>
-      <c r="F301" s="378"/>
-      <c r="G301" s="378" t="s">
+      <c r="C301" s="230" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D301" s="230" t="s">
+        <v>794</v>
+      </c>
+      <c r="E301" s="230" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F301" s="230" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G301" s="230" t="s">
         <v>1165</v>
       </c>
       <c r="H301" s="230" t="s">
-        <v>1642</v>
-      </c>
-      <c r="I301" s="378" t="s">
-        <v>1641</v>
+        <v>1766</v>
+      </c>
+      <c r="I301" s="230" t="s">
+        <v>1472</v>
       </c>
       <c r="J301" s="231" t="s">
         <v>1968</v>
       </c>
       <c r="K301" s="231" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="L301" s="231" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="M301" s="231"/>
       <c r="N301" s="231"/>
       <c r="O301" s="231"/>
       <c r="P301" s="232"/>
-      <c r="Q301" t="str">
-        <f>"오류수정."&amp;B301&amp;"."&amp;A301&amp;"."&amp;I301 &amp;"-" &amp;F301</f>
-        <v>오류수정.4.서비스.177.01. 건축인허가_2024.01.03 11페이지-</v>
-      </c>
-    </row>
-    <row r="302" spans="1:17">
+      <c r="Q301" s="507" t="str">
+        <f t="shared" si="2"/>
+        <v>오류수정.4.서비스.264.05. 도시공간분석(입면적,차폐율,조망및전망,바람길)_2024.01.02 1page-도시공간 분석 결과 개선</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17" s="496" customFormat="1">
       <c r="A302" s="376">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B302" s="225" t="s">
         <v>190</v>
       </c>
-      <c r="C302" s="378" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D302" s="378" t="s">
-        <v>1665</v>
+      <c r="C302" s="230" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D302" s="230" t="s">
+        <v>805</v>
       </c>
       <c r="E302" s="230" t="s">
-        <v>1675</v>
-      </c>
-      <c r="F302" s="230"/>
+        <v>1773</v>
+      </c>
+      <c r="F302" s="230" t="s">
+        <v>1529</v>
+      </c>
       <c r="G302" s="230" t="s">
         <v>1165</v>
       </c>
       <c r="H302" s="230" t="s">
-        <v>1676</v>
-      </c>
-      <c r="I302" s="378" t="s">
-        <v>1677</v>
+        <v>1777</v>
+      </c>
+      <c r="I302" s="230" t="s">
+        <v>1778</v>
       </c>
       <c r="J302" s="231" t="s">
         <v>1968</v>
       </c>
       <c r="K302" s="231" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="L302" s="231" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="M302" s="231"/>
       <c r="N302" s="231"/>
       <c r="O302" s="231"/>
       <c r="P302" s="232"/>
-      <c r="Q302" t="str">
-        <f>"오류수정."&amp;B302&amp;"."&amp;A302&amp;"."&amp;I302 &amp;"-" &amp;F302</f>
-        <v>오류수정.4.서비스.195.02. 문화재공간분석_2024.01.03 8page-</v>
+      <c r="Q302" s="507" t="str">
+        <f t="shared" si="2"/>
+        <v>오류수정.4.서비스.279.07. 도시환경분석(수목식재,대기질,가로등)_2024.01.02 5page-식재현황 관리 기능 개선</v>
       </c>
     </row>
     <row r="303" spans="1:17" hidden="1">
@@ -71116,9 +71248,9 @@
       <c r="O312" s="231"/>
       <c r="P312" s="232"/>
     </row>
-    <row r="313" spans="1:17" hidden="1">
+    <row r="313" spans="1:17">
       <c r="A313" s="224">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="B313" s="225" t="s">
         <v>190</v>
@@ -71127,81 +71259,81 @@
         <v>1771</v>
       </c>
       <c r="D313" s="230" t="s">
-        <v>833</v>
+        <v>805</v>
       </c>
       <c r="E313" s="230" t="s">
-        <v>1807</v>
-      </c>
-      <c r="F313" s="230" t="s">
-        <v>1163</v>
-      </c>
+        <v>1786</v>
+      </c>
+      <c r="F313" s="230"/>
       <c r="G313" s="230" t="s">
         <v>1165</v>
       </c>
       <c r="H313" s="230" t="s">
-        <v>1810</v>
+        <v>1788</v>
       </c>
       <c r="I313" s="230" t="s">
-        <v>1809</v>
+        <v>1787</v>
       </c>
       <c r="J313" s="231" t="s">
         <v>1968</v>
       </c>
       <c r="K313" s="231" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="L313" s="231" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="M313" s="231"/>
       <c r="N313" s="231"/>
       <c r="O313" s="231"/>
       <c r="P313" s="232"/>
-    </row>
-    <row r="314" spans="1:17">
-      <c r="A314" s="224">
-        <v>196</v>
+      <c r="Q313" s="507" t="str">
+        <f t="shared" ref="Q313:Q314" si="3">"오류수정."&amp;B313&amp;"."&amp;A313&amp;"."&amp;I313 &amp;"-" &amp;F313</f>
+        <v>오류수정.4.서비스.287.07. 도시환경분석(수목식재,대기질,가로등)_2024.01.02 7page-</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17" s="496" customFormat="1">
+      <c r="A314" s="376">
+        <v>291</v>
       </c>
       <c r="B314" s="225" t="s">
         <v>190</v>
       </c>
-      <c r="C314" s="378" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D314" s="378" t="s">
-        <v>1665</v>
+      <c r="C314" s="230" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D314" s="230" t="s">
+        <v>805</v>
       </c>
       <c r="E314" s="230" t="s">
-        <v>1678</v>
-      </c>
-      <c r="F314" s="230" t="s">
-        <v>1679</v>
-      </c>
+        <v>1786</v>
+      </c>
+      <c r="F314" s="230"/>
       <c r="G314" s="230" t="s">
         <v>1165</v>
       </c>
       <c r="H314" s="230" t="s">
-        <v>1680</v>
-      </c>
-      <c r="I314" s="378" t="s">
-        <v>1681</v>
+        <v>1790</v>
+      </c>
+      <c r="I314" s="230" t="s">
+        <v>1789</v>
       </c>
       <c r="J314" s="231" t="s">
         <v>1968</v>
       </c>
       <c r="K314" s="231" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="L314" s="231" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="M314" s="231"/>
       <c r="N314" s="231"/>
       <c r="O314" s="231"/>
       <c r="P314" s="232"/>
-      <c r="Q314" t="str">
-        <f>"오류수정."&amp;B314&amp;"."&amp;A314&amp;"."&amp;I314 &amp;"-" &amp;F314</f>
-        <v>오류수정.4.서비스.196.02. 문화재공간분석_2024.01.03 11page-가시권 분석 기능 개선(문화재중심)</v>
+      <c r="Q314" s="507" t="str">
+        <f t="shared" si="3"/>
+        <v>오류수정.4.서비스.291.07. 도시환경분석(수목식재,대기질,가로등)_2024.01.02 8page-</v>
       </c>
     </row>
     <row r="315" spans="1:17" hidden="1">
@@ -72096,7 +72228,7 @@
       <c r="O336" s="231"/>
       <c r="P336" s="232"/>
     </row>
-    <row r="337" spans="1:16" hidden="1">
+    <row r="337" spans="1:17" hidden="1">
       <c r="A337" s="224">
         <v>334</v>
       </c>
@@ -72136,7 +72268,7 @@
       <c r="O337" s="231"/>
       <c r="P337" s="232"/>
     </row>
-    <row r="338" spans="1:16" hidden="1">
+    <row r="338" spans="1:17" hidden="1">
       <c r="A338" s="224">
         <v>335</v>
       </c>
@@ -72176,47 +72308,51 @@
       <c r="O338" s="231"/>
       <c r="P338" s="232"/>
     </row>
-    <row r="339" spans="1:16" hidden="1">
+    <row r="339" spans="1:17">
       <c r="A339" s="229">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="B339" s="225" t="s">
         <v>190</v>
       </c>
       <c r="C339" s="230" t="s">
-        <v>1822</v>
+        <v>1771</v>
       </c>
       <c r="D339" s="230" t="s">
-        <v>857</v>
+        <v>805</v>
       </c>
       <c r="E339" s="230" t="s">
-        <v>1837</v>
+        <v>1792</v>
       </c>
       <c r="F339" s="230"/>
       <c r="G339" s="230" t="s">
         <v>1165</v>
       </c>
       <c r="H339" s="230" t="s">
-        <v>1841</v>
+        <v>1795</v>
       </c>
       <c r="I339" s="230" t="s">
-        <v>1842</v>
+        <v>1794</v>
       </c>
       <c r="J339" s="231" t="s">
         <v>1968</v>
       </c>
       <c r="K339" s="231" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="L339" s="231" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="M339" s="231"/>
       <c r="N339" s="231"/>
       <c r="O339" s="231"/>
       <c r="P339" s="232"/>
-    </row>
-    <row r="340" spans="1:16" hidden="1">
+      <c r="Q339" s="507" t="str">
+        <f>"오류수정."&amp;B339&amp;"."&amp;A339&amp;"."&amp;I339 &amp;"-" &amp;F339</f>
+        <v>오류수정.4.서비스.297.07. 도시환경분석(수목식재,대기질,가로등)_2024.01.02 10page-</v>
+      </c>
+    </row>
+    <row r="340" spans="1:17" hidden="1">
       <c r="A340" s="224">
         <v>337</v>
       </c>
@@ -72258,7 +72394,7 @@
       <c r="O340" s="231"/>
       <c r="P340" s="232"/>
     </row>
-    <row r="341" spans="1:16" hidden="1">
+    <row r="341" spans="1:17" hidden="1">
       <c r="A341" s="224">
         <v>338</v>
       </c>
@@ -72300,7 +72436,7 @@
       <c r="O341" s="231"/>
       <c r="P341" s="232"/>
     </row>
-    <row r="342" spans="1:16" hidden="1">
+    <row r="342" spans="1:17" hidden="1">
       <c r="A342" s="229">
         <v>339</v>
       </c>
@@ -72342,7 +72478,7 @@
       <c r="O342" s="231"/>
       <c r="P342" s="232"/>
     </row>
-    <row r="343" spans="1:16" hidden="1">
+    <row r="343" spans="1:17" hidden="1">
       <c r="A343" s="224">
         <v>340</v>
       </c>
@@ -72382,31 +72518,33 @@
       <c r="O343" s="231"/>
       <c r="P343" s="232"/>
     </row>
-    <row r="344" spans="1:16" hidden="1">
+    <row r="344" spans="1:17">
       <c r="A344" s="224">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="B344" s="225" t="s">
         <v>190</v>
       </c>
       <c r="C344" s="230" t="s">
-        <v>1822</v>
+        <v>1771</v>
       </c>
       <c r="D344" s="230" t="s">
-        <v>857</v>
+        <v>833</v>
       </c>
       <c r="E344" s="230" t="s">
-        <v>1837</v>
-      </c>
-      <c r="F344" s="230"/>
+        <v>1807</v>
+      </c>
+      <c r="F344" s="230" t="s">
+        <v>1163</v>
+      </c>
       <c r="G344" s="230" t="s">
         <v>1165</v>
       </c>
       <c r="H344" s="230" t="s">
-        <v>1845</v>
+        <v>1810</v>
       </c>
       <c r="I344" s="230" t="s">
-        <v>1844</v>
+        <v>1809</v>
       </c>
       <c r="J344" s="231" t="s">
         <v>1968</v>
@@ -72421,8 +72559,12 @@
       <c r="N344" s="231"/>
       <c r="O344" s="231"/>
       <c r="P344" s="232"/>
-    </row>
-    <row r="345" spans="1:16" hidden="1">
+      <c r="Q344" s="507" t="str">
+        <f>"오류수정."&amp;B344&amp;"."&amp;A344&amp;"."&amp;I344 &amp;"-" &amp;F344</f>
+        <v>오류수정.4.서비스.310.07. 도시환경분석(수목식재,대기질,가로등)_2024.01.02 13page-[공통]텍스트,숫자 입력 또는 표기방식 개선</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17" hidden="1">
       <c r="A345" s="229">
         <v>342</v>
       </c>
@@ -72462,9 +72604,9 @@
       <c r="O345" s="231"/>
       <c r="P345" s="232"/>
     </row>
-    <row r="346" spans="1:16" hidden="1">
-      <c r="A346" s="224">
-        <v>343</v>
+    <row r="346" spans="1:17">
+      <c r="A346" s="376">
+        <v>336</v>
       </c>
       <c r="B346" s="225" t="s">
         <v>190</v>
@@ -72483,26 +72625,30 @@
         <v>1165</v>
       </c>
       <c r="H346" s="230" t="s">
-        <v>1846</v>
+        <v>1841</v>
       </c>
       <c r="I346" s="230" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="J346" s="231" t="s">
         <v>1968</v>
       </c>
       <c r="K346" s="231" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="L346" s="231" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="M346" s="231"/>
       <c r="N346" s="231"/>
       <c r="O346" s="231"/>
       <c r="P346" s="232"/>
-    </row>
-    <row r="347" spans="1:16" hidden="1">
+      <c r="Q346" s="507" t="str">
+        <f>"오류수정."&amp;B346&amp;"."&amp;A346&amp;"."&amp;I346 &amp;"-" &amp;F346</f>
+        <v>오류수정.4.서비스.336.10. 재난재해분석_2024.01.09 7page-</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17" hidden="1">
       <c r="A347" s="224">
         <v>344</v>
       </c>
@@ -72542,7 +72688,7 @@
       <c r="O347" s="231"/>
       <c r="P347" s="232"/>
     </row>
-    <row r="348" spans="1:16" hidden="1">
+    <row r="348" spans="1:17" hidden="1">
       <c r="A348" s="229">
         <v>345</v>
       </c>
@@ -72582,9 +72728,9 @@
       <c r="O348" s="231"/>
       <c r="P348" s="232"/>
     </row>
-    <row r="349" spans="1:16" hidden="1">
+    <row r="349" spans="1:17">
       <c r="A349" s="224">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B349" s="225" t="s">
         <v>190</v>
@@ -72606,25 +72752,29 @@
         <v>1845</v>
       </c>
       <c r="I349" s="230" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="J349" s="231" t="s">
         <v>1968</v>
       </c>
       <c r="K349" s="231" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="L349" s="231" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="M349" s="231"/>
       <c r="N349" s="231"/>
       <c r="O349" s="231"/>
       <c r="P349" s="232"/>
-    </row>
-    <row r="350" spans="1:16" hidden="1">
+      <c r="Q349" s="507" t="str">
+        <f t="shared" ref="Q349:Q350" si="4">"오류수정."&amp;B349&amp;"."&amp;A349&amp;"."&amp;I349 &amp;"-" &amp;F349</f>
+        <v>오류수정.4.서비스.341.10. 재난재해분석_2024.01.09 8page-</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17">
       <c r="A350" s="224">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B350" s="225" t="s">
         <v>190</v>
@@ -72643,10 +72793,10 @@
         <v>1165</v>
       </c>
       <c r="H350" s="230" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="I350" s="230" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="J350" s="231" t="s">
         <v>1968</v>
@@ -72661,8 +72811,12 @@
       <c r="N350" s="231"/>
       <c r="O350" s="231"/>
       <c r="P350" s="232"/>
-    </row>
-    <row r="351" spans="1:16" hidden="1">
+      <c r="Q350" s="507" t="str">
+        <f t="shared" si="4"/>
+        <v>오류수정.4.서비스.343.10. 재난재해분석_2024.01.09 8page-</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17" hidden="1">
       <c r="A351" s="229">
         <v>348</v>
       </c>
@@ -72702,7 +72856,7 @@
       <c r="O351" s="231"/>
       <c r="P351" s="232"/>
     </row>
-    <row r="352" spans="1:16" hidden="1">
+    <row r="352" spans="1:17" hidden="1">
       <c r="A352" s="224">
         <v>349</v>
       </c>
@@ -72906,48 +73060,48 @@
       <c r="O356" s="231"/>
       <c r="P356" s="232"/>
     </row>
-    <row r="357" spans="1:17">
-      <c r="A357" s="229">
-        <v>201</v>
+    <row r="357" spans="1:17" s="496" customFormat="1">
+      <c r="A357" s="377">
+        <v>346</v>
       </c>
       <c r="B357" s="225" t="s">
         <v>190</v>
       </c>
       <c r="C357" s="230" t="s">
-        <v>1643</v>
+        <v>1822</v>
       </c>
       <c r="D357" s="230" t="s">
-        <v>1665</v>
+        <v>857</v>
       </c>
       <c r="E357" s="230" t="s">
-        <v>1683</v>
+        <v>1837</v>
       </c>
       <c r="F357" s="230"/>
       <c r="G357" s="230" t="s">
         <v>1165</v>
       </c>
       <c r="H357" s="230" t="s">
-        <v>1687</v>
+        <v>1845</v>
       </c>
       <c r="I357" s="230" t="s">
-        <v>1688</v>
+        <v>1848</v>
       </c>
       <c r="J357" s="231" t="s">
         <v>1968</v>
       </c>
       <c r="K357" s="231" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="L357" s="231" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="M357" s="231"/>
       <c r="N357" s="231"/>
       <c r="O357" s="231"/>
       <c r="P357" s="232"/>
-      <c r="Q357" t="str">
+      <c r="Q357" s="507" t="str">
         <f>"오류수정."&amp;B357&amp;"."&amp;A357&amp;"."&amp;I357 &amp;"-" &amp;F357</f>
-        <v>오류수정.4.서비스.201.02. 문화재공간분석_2024.01.03 15page-</v>
+        <v>오류수정.4.서비스.346.10. 재난재해분석_2024.01.09 9page-</v>
       </c>
     </row>
     <row r="358" spans="1:17" hidden="1">
@@ -72990,9 +73144,9 @@
       <c r="O358" s="231"/>
       <c r="P358" s="232"/>
     </row>
-    <row r="359" spans="1:17" hidden="1">
+    <row r="359" spans="1:17">
       <c r="A359" s="224">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B359" s="225" t="s">
         <v>190</v>
@@ -73004,19 +73158,17 @@
         <v>857</v>
       </c>
       <c r="E359" s="230" t="s">
-        <v>1856</v>
-      </c>
-      <c r="F359" s="230" t="s">
-        <v>1552</v>
-      </c>
+        <v>1837</v>
+      </c>
+      <c r="F359" s="230"/>
       <c r="G359" s="230" t="s">
         <v>1165</v>
       </c>
       <c r="H359" s="230" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
       <c r="I359" s="230" t="s">
-        <v>1858</v>
+        <v>1848</v>
       </c>
       <c r="J359" s="231" t="s">
         <v>1968</v>
@@ -73031,49 +73183,55 @@
       <c r="N359" s="231"/>
       <c r="O359" s="231"/>
       <c r="P359" s="232"/>
-    </row>
-    <row r="360" spans="1:17">
-      <c r="A360" s="229">
-        <v>210</v>
+      <c r="Q359" s="507" t="str">
+        <f t="shared" ref="Q359:Q360" si="5">"오류수정."&amp;B359&amp;"."&amp;A359&amp;"."&amp;I359 &amp;"-" &amp;F359</f>
+        <v>오류수정.4.서비스.347.10. 재난재해분석_2024.01.09 9page-</v>
+      </c>
+    </row>
+    <row r="360" spans="1:17" s="496" customFormat="1">
+      <c r="A360" s="377">
+        <v>356</v>
       </c>
       <c r="B360" s="225" t="s">
         <v>190</v>
       </c>
       <c r="C360" s="230" t="s">
-        <v>1643</v>
+        <v>1822</v>
       </c>
       <c r="D360" s="230" t="s">
-        <v>1697</v>
+        <v>857</v>
       </c>
       <c r="E360" s="230" t="s">
-        <v>1697</v>
-      </c>
-      <c r="F360" s="230"/>
+        <v>1856</v>
+      </c>
+      <c r="F360" s="230" t="s">
+        <v>1552</v>
+      </c>
       <c r="G360" s="230" t="s">
         <v>1165</v>
       </c>
       <c r="H360" s="230" t="s">
-        <v>1700</v>
+        <v>1861</v>
       </c>
       <c r="I360" s="230" t="s">
-        <v>1699</v>
+        <v>1858</v>
       </c>
       <c r="J360" s="231" t="s">
         <v>1968</v>
       </c>
       <c r="K360" s="231" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="L360" s="231" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="M360" s="231"/>
       <c r="N360" s="231"/>
       <c r="O360" s="231"/>
       <c r="P360" s="232"/>
-      <c r="Q360" t="str">
-        <f>"오류수정."&amp;B360&amp;"."&amp;A360&amp;"."&amp;I360 &amp;"-" &amp;F360</f>
-        <v>오류수정.4.서비스.210.02. 문화재공간분석_2024.01.03 19page-</v>
+      <c r="Q360" s="507" t="str">
+        <f t="shared" si="5"/>
+        <v>오류수정.4.서비스.356.10. 재난재해분석_2024.01.09 13page-산사태피해 예측 결과 개선</v>
       </c>
     </row>
     <row r="361" spans="1:17" hidden="1">
@@ -75472,7 +75630,7 @@
       <c r="E463" s="234"/>
       <c r="F463" s="234"/>
       <c r="G463" s="234"/>
-      <c r="H463" s="392"/>
+      <c r="H463" s="389"/>
       <c r="I463" s="234"/>
       <c r="J463" s="235"/>
       <c r="K463" s="235"/>
@@ -75507,6 +75665,11 @@
         <filter val="2024.03.20"/>
         <filter val="2024.03.21"/>
         <filter val="2024.03.22"/>
+        <filter val="2024.03.25"/>
+        <filter val="2024.03.26"/>
+        <filter val="2024.03.27"/>
+        <filter val="2024.03.28"/>
+        <filter val="2024.03.29"/>
       </filters>
     </filterColumn>
     <filterColumn colId="13" showButton="0"/>
@@ -75515,11 +75678,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:O2"/>
@@ -75529,6 +75687,11 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2024.01.02.김경수부장/LXDTP_플랫폼1차_개선 현황표_2024.03.11(월).xlsx
+++ b/2024.01.02.김경수부장/LXDTP_플랫폼1차_개선 현황표_2024.03.11(월).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/softm/Work/onpoom/2024.01.02.김경수부장/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22454150-4587-5F4D-A147-90C4AF7C7456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2202A4B8-995B-7F4D-907F-8DDC46552BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="680" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="500" windowWidth="29400" windowHeight="20500" tabRatio="680" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="12" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10826" uniqueCount="2218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10826" uniqueCount="2217">
   <si>
     <t>IND</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8426,10 +8426,6 @@
   </si>
   <si>
     <t>메뉴없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서작성오류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -10008,7 +10004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="523">
+  <cellXfs count="521">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11261,6 +11257,33 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -11290,31 +11313,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11347,6 +11349,75 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11376,54 +11447,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11476,11 +11499,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11491,31 +11514,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11533,22 +11535,25 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11558,40 +11563,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -14757,7 +14747,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -14778,7 +14768,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-">
-                  <c:v>69</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15396,10 +15386,10 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15546,10 +15536,10 @@
                   <c:v>0.21249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18907563025210083</c:v>
+                  <c:v>0.19747899159663865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.184</c:v>
+                  <c:v>0.18933333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16219,7 +16209,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -16240,7 +16230,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-">
-                  <c:v>69</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16399,7 +16389,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75757575757575757</c:v>
+                  <c:v>0.81818181818181823</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -16420,7 +16410,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.184</c:v>
+                  <c:v>0.18933333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21472,15 +21462,15 @@
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
-      <c r="E1" s="412"/>
-      <c r="F1" s="412"/>
-      <c r="G1" s="412"/>
-      <c r="H1" s="412"/>
-      <c r="I1" s="412"/>
-      <c r="J1" s="412"/>
-      <c r="K1" s="412"/>
-      <c r="L1" s="412"/>
-      <c r="M1" s="412"/>
+      <c r="E1" s="421"/>
+      <c r="F1" s="421"/>
+      <c r="G1" s="421"/>
+      <c r="H1" s="421"/>
+      <c r="I1" s="421"/>
+      <c r="J1" s="421"/>
+      <c r="K1" s="421"/>
+      <c r="L1" s="421"/>
+      <c r="M1" s="421"/>
       <c r="N1" s="76"/>
       <c r="O1" s="76"/>
       <c r="P1" s="76"/>
@@ -21511,15 +21501,15 @@
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
-      <c r="E2" s="412"/>
-      <c r="F2" s="412"/>
-      <c r="G2" s="412"/>
-      <c r="H2" s="412"/>
-      <c r="I2" s="412"/>
-      <c r="J2" s="412"/>
-      <c r="K2" s="412"/>
-      <c r="L2" s="412"/>
-      <c r="M2" s="412"/>
+      <c r="E2" s="421"/>
+      <c r="F2" s="421"/>
+      <c r="G2" s="421"/>
+      <c r="H2" s="421"/>
+      <c r="I2" s="421"/>
+      <c r="J2" s="421"/>
+      <c r="K2" s="421"/>
+      <c r="L2" s="421"/>
+      <c r="M2" s="421"/>
       <c r="N2" s="76"/>
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
@@ -21550,15 +21540,15 @@
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
       <c r="D3" s="76"/>
-      <c r="E3" s="412"/>
-      <c r="F3" s="412"/>
-      <c r="G3" s="412"/>
-      <c r="H3" s="412"/>
-      <c r="I3" s="412"/>
-      <c r="J3" s="412"/>
-      <c r="K3" s="412"/>
-      <c r="L3" s="412"/>
-      <c r="M3" s="412"/>
+      <c r="E3" s="421"/>
+      <c r="F3" s="421"/>
+      <c r="G3" s="421"/>
+      <c r="H3" s="421"/>
+      <c r="I3" s="421"/>
+      <c r="J3" s="421"/>
+      <c r="K3" s="421"/>
+      <c r="L3" s="421"/>
+      <c r="M3" s="421"/>
       <c r="N3" s="76"/>
       <c r="O3" s="76"/>
       <c r="P3" s="76"/>
@@ -21589,15 +21579,15 @@
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
-      <c r="E4" s="412"/>
-      <c r="F4" s="412"/>
-      <c r="G4" s="412"/>
-      <c r="H4" s="412"/>
-      <c r="I4" s="412"/>
-      <c r="J4" s="412"/>
-      <c r="K4" s="412"/>
-      <c r="L4" s="412"/>
-      <c r="M4" s="412"/>
+      <c r="E4" s="421"/>
+      <c r="F4" s="421"/>
+      <c r="G4" s="421"/>
+      <c r="H4" s="421"/>
+      <c r="I4" s="421"/>
+      <c r="J4" s="421"/>
+      <c r="K4" s="421"/>
+      <c r="L4" s="421"/>
+      <c r="M4" s="421"/>
       <c r="N4" s="76"/>
       <c r="O4" s="76"/>
       <c r="P4" s="76"/>
@@ -21628,15 +21618,15 @@
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
       <c r="D5" s="76"/>
-      <c r="E5" s="412"/>
-      <c r="F5" s="412"/>
-      <c r="G5" s="412"/>
-      <c r="H5" s="412"/>
-      <c r="I5" s="412"/>
-      <c r="J5" s="412"/>
-      <c r="K5" s="412"/>
-      <c r="L5" s="412"/>
-      <c r="M5" s="412"/>
+      <c r="E5" s="421"/>
+      <c r="F5" s="421"/>
+      <c r="G5" s="421"/>
+      <c r="H5" s="421"/>
+      <c r="I5" s="421"/>
+      <c r="J5" s="421"/>
+      <c r="K5" s="421"/>
+      <c r="L5" s="421"/>
+      <c r="M5" s="421"/>
       <c r="N5" s="76"/>
       <c r="O5" s="76"/>
       <c r="P5" s="76"/>
@@ -21667,15 +21657,15 @@
       <c r="B6" s="76"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
-      <c r="E6" s="412"/>
-      <c r="F6" s="412"/>
-      <c r="G6" s="412"/>
-      <c r="H6" s="412"/>
-      <c r="I6" s="412"/>
-      <c r="J6" s="412"/>
-      <c r="K6" s="412"/>
-      <c r="L6" s="412"/>
-      <c r="M6" s="412"/>
+      <c r="E6" s="421"/>
+      <c r="F6" s="421"/>
+      <c r="G6" s="421"/>
+      <c r="H6" s="421"/>
+      <c r="I6" s="421"/>
+      <c r="J6" s="421"/>
+      <c r="K6" s="421"/>
+      <c r="L6" s="421"/>
+      <c r="M6" s="421"/>
       <c r="N6" s="76"/>
       <c r="O6" s="76"/>
       <c r="P6" s="76"/>
@@ -21706,15 +21696,15 @@
       <c r="B7" s="79"/>
       <c r="C7" s="79"/>
       <c r="D7" s="79"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="412"/>
-      <c r="G7" s="412"/>
-      <c r="H7" s="412"/>
-      <c r="I7" s="412"/>
-      <c r="J7" s="412"/>
-      <c r="K7" s="412"/>
-      <c r="L7" s="412"/>
-      <c r="M7" s="412"/>
+      <c r="E7" s="421"/>
+      <c r="F7" s="421"/>
+      <c r="G7" s="421"/>
+      <c r="H7" s="421"/>
+      <c r="I7" s="421"/>
+      <c r="J7" s="421"/>
+      <c r="K7" s="421"/>
+      <c r="L7" s="421"/>
+      <c r="M7" s="421"/>
       <c r="N7" s="79"/>
       <c r="O7" s="79"/>
       <c r="P7" s="79"/>
@@ -21786,15 +21776,15 @@
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
       <c r="D9" s="76"/>
-      <c r="E9" s="412"/>
-      <c r="F9" s="412"/>
-      <c r="G9" s="412"/>
-      <c r="H9" s="412"/>
-      <c r="I9" s="412"/>
-      <c r="J9" s="412"/>
-      <c r="K9" s="412"/>
-      <c r="L9" s="412"/>
-      <c r="M9" s="412"/>
+      <c r="E9" s="421"/>
+      <c r="F9" s="421"/>
+      <c r="G9" s="421"/>
+      <c r="H9" s="421"/>
+      <c r="I9" s="421"/>
+      <c r="J9" s="421"/>
+      <c r="K9" s="421"/>
+      <c r="L9" s="421"/>
+      <c r="M9" s="421"/>
       <c r="N9" s="76"/>
       <c r="O9" s="76"/>
       <c r="P9" s="76"/>
@@ -22109,27 +22099,27 @@
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
       <c r="K17" s="76"/>
-      <c r="L17" s="411"/>
-      <c r="M17" s="411"/>
-      <c r="N17" s="411"/>
-      <c r="O17" s="411"/>
-      <c r="P17" s="411"/>
-      <c r="Q17" s="411"/>
-      <c r="R17" s="411"/>
-      <c r="S17" s="411"/>
-      <c r="T17" s="411"/>
-      <c r="U17" s="411"/>
-      <c r="V17" s="411"/>
-      <c r="W17" s="411"/>
-      <c r="X17" s="411"/>
-      <c r="Y17" s="411"/>
-      <c r="Z17" s="411"/>
-      <c r="AA17" s="411"/>
-      <c r="AB17" s="411"/>
-      <c r="AC17" s="411"/>
-      <c r="AD17" s="411"/>
-      <c r="AE17" s="411"/>
-      <c r="AF17" s="411"/>
+      <c r="L17" s="420"/>
+      <c r="M17" s="420"/>
+      <c r="N17" s="420"/>
+      <c r="O17" s="420"/>
+      <c r="P17" s="420"/>
+      <c r="Q17" s="420"/>
+      <c r="R17" s="420"/>
+      <c r="S17" s="420"/>
+      <c r="T17" s="420"/>
+      <c r="U17" s="420"/>
+      <c r="V17" s="420"/>
+      <c r="W17" s="420"/>
+      <c r="X17" s="420"/>
+      <c r="Y17" s="420"/>
+      <c r="Z17" s="420"/>
+      <c r="AA17" s="420"/>
+      <c r="AB17" s="420"/>
+      <c r="AC17" s="420"/>
+      <c r="AD17" s="420"/>
+      <c r="AE17" s="420"/>
+      <c r="AF17" s="420"/>
       <c r="AG17" s="76"/>
       <c r="AH17" s="76"/>
       <c r="AI17" s="76"/>
@@ -22148,27 +22138,27 @@
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
       <c r="K18" s="76"/>
-      <c r="L18" s="411"/>
-      <c r="M18" s="411"/>
-      <c r="N18" s="411"/>
-      <c r="O18" s="411"/>
-      <c r="P18" s="411"/>
-      <c r="Q18" s="411"/>
-      <c r="R18" s="411"/>
-      <c r="S18" s="411"/>
-      <c r="T18" s="411"/>
-      <c r="U18" s="411"/>
-      <c r="V18" s="411"/>
-      <c r="W18" s="411"/>
-      <c r="X18" s="411"/>
-      <c r="Y18" s="411"/>
-      <c r="Z18" s="411"/>
-      <c r="AA18" s="411"/>
-      <c r="AB18" s="411"/>
-      <c r="AC18" s="411"/>
-      <c r="AD18" s="411"/>
-      <c r="AE18" s="411"/>
-      <c r="AF18" s="411"/>
+      <c r="L18" s="420"/>
+      <c r="M18" s="420"/>
+      <c r="N18" s="420"/>
+      <c r="O18" s="420"/>
+      <c r="P18" s="420"/>
+      <c r="Q18" s="420"/>
+      <c r="R18" s="420"/>
+      <c r="S18" s="420"/>
+      <c r="T18" s="420"/>
+      <c r="U18" s="420"/>
+      <c r="V18" s="420"/>
+      <c r="W18" s="420"/>
+      <c r="X18" s="420"/>
+      <c r="Y18" s="420"/>
+      <c r="Z18" s="420"/>
+      <c r="AA18" s="420"/>
+      <c r="AB18" s="420"/>
+      <c r="AC18" s="420"/>
+      <c r="AD18" s="420"/>
+      <c r="AE18" s="420"/>
+      <c r="AF18" s="420"/>
       <c r="AG18" s="76"/>
       <c r="AH18" s="76"/>
       <c r="AI18" s="76"/>
@@ -22191,14 +22181,14 @@
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
       <c r="O19" s="89"/>
-      <c r="P19" s="413"/>
-      <c r="Q19" s="413"/>
-      <c r="R19" s="413"/>
-      <c r="S19" s="413"/>
-      <c r="T19" s="413"/>
-      <c r="U19" s="413"/>
-      <c r="V19" s="413"/>
-      <c r="W19" s="413"/>
+      <c r="P19" s="422"/>
+      <c r="Q19" s="422"/>
+      <c r="R19" s="422"/>
+      <c r="S19" s="422"/>
+      <c r="T19" s="422"/>
+      <c r="U19" s="422"/>
+      <c r="V19" s="422"/>
+      <c r="W19" s="422"/>
       <c r="X19" s="89"/>
       <c r="Y19" s="89"/>
       <c r="Z19" s="89"/>
@@ -22230,16 +22220,16 @@
       <c r="M20" s="76"/>
       <c r="N20" s="76"/>
       <c r="O20" s="76"/>
-      <c r="P20" s="411"/>
-      <c r="Q20" s="411"/>
-      <c r="R20" s="411"/>
-      <c r="S20" s="411"/>
-      <c r="T20" s="411"/>
-      <c r="U20" s="411"/>
-      <c r="V20" s="411"/>
-      <c r="W20" s="411"/>
-      <c r="X20" s="411"/>
-      <c r="Y20" s="411"/>
+      <c r="P20" s="420"/>
+      <c r="Q20" s="420"/>
+      <c r="R20" s="420"/>
+      <c r="S20" s="420"/>
+      <c r="T20" s="420"/>
+      <c r="U20" s="420"/>
+      <c r="V20" s="420"/>
+      <c r="W20" s="420"/>
+      <c r="X20" s="420"/>
+      <c r="Y20" s="420"/>
       <c r="Z20" s="76"/>
       <c r="AA20" s="76"/>
       <c r="AB20" s="76"/>
@@ -22269,16 +22259,16 @@
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
       <c r="O21" s="76"/>
-      <c r="P21" s="411"/>
-      <c r="Q21" s="411"/>
-      <c r="R21" s="411"/>
-      <c r="S21" s="411"/>
-      <c r="T21" s="411"/>
-      <c r="U21" s="411"/>
-      <c r="V21" s="411"/>
-      <c r="W21" s="411"/>
-      <c r="X21" s="411"/>
-      <c r="Y21" s="411"/>
+      <c r="P21" s="420"/>
+      <c r="Q21" s="420"/>
+      <c r="R21" s="420"/>
+      <c r="S21" s="420"/>
+      <c r="T21" s="420"/>
+      <c r="U21" s="420"/>
+      <c r="V21" s="420"/>
+      <c r="W21" s="420"/>
+      <c r="X21" s="420"/>
+      <c r="Y21" s="420"/>
       <c r="Z21" s="76"/>
       <c r="AA21" s="76"/>
       <c r="AB21" s="76"/>
@@ -22308,16 +22298,16 @@
       <c r="M22" s="76"/>
       <c r="N22" s="76"/>
       <c r="O22" s="76"/>
-      <c r="P22" s="411"/>
-      <c r="Q22" s="411"/>
-      <c r="R22" s="411"/>
-      <c r="S22" s="411"/>
-      <c r="T22" s="411"/>
-      <c r="U22" s="411"/>
-      <c r="V22" s="411"/>
-      <c r="W22" s="411"/>
-      <c r="X22" s="411"/>
-      <c r="Y22" s="411"/>
+      <c r="P22" s="420"/>
+      <c r="Q22" s="420"/>
+      <c r="R22" s="420"/>
+      <c r="S22" s="420"/>
+      <c r="T22" s="420"/>
+      <c r="U22" s="420"/>
+      <c r="V22" s="420"/>
+      <c r="W22" s="420"/>
+      <c r="X22" s="420"/>
+      <c r="Y22" s="420"/>
       <c r="Z22" s="76"/>
       <c r="AA22" s="76"/>
       <c r="AB22" s="76"/>
@@ -22347,16 +22337,16 @@
       <c r="M23" s="76"/>
       <c r="N23" s="76"/>
       <c r="O23" s="76"/>
-      <c r="P23" s="411"/>
-      <c r="Q23" s="411"/>
-      <c r="R23" s="411"/>
-      <c r="S23" s="411"/>
-      <c r="T23" s="411"/>
-      <c r="U23" s="411"/>
-      <c r="V23" s="411"/>
-      <c r="W23" s="411"/>
-      <c r="X23" s="411"/>
-      <c r="Y23" s="411"/>
+      <c r="P23" s="420"/>
+      <c r="Q23" s="420"/>
+      <c r="R23" s="420"/>
+      <c r="S23" s="420"/>
+      <c r="T23" s="420"/>
+      <c r="U23" s="420"/>
+      <c r="V23" s="420"/>
+      <c r="W23" s="420"/>
+      <c r="X23" s="420"/>
+      <c r="Y23" s="420"/>
       <c r="Z23" s="76"/>
       <c r="AA23" s="76"/>
       <c r="AB23" s="76"/>
@@ -22916,76 +22906,76 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="512" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="509" t="s">
+      <c r="B2" s="512" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="505" t="s">
+      <c r="C2" s="514" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="505" t="s">
+      <c r="D2" s="514" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="505" t="s">
+      <c r="E2" s="514" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="511" t="s">
+      <c r="F2" s="516" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="511" t="s">
+      <c r="G2" s="516" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="505" t="s">
+      <c r="H2" s="514" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="505" t="s">
+      <c r="I2" s="514" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="505" t="s">
+      <c r="J2" s="514" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="503" t="s">
+      <c r="K2" s="517" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="504"/>
-      <c r="M2" s="505" t="s">
+      <c r="L2" s="518"/>
+      <c r="M2" s="514" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="503" t="s">
+      <c r="N2" s="517" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="504"/>
-      <c r="P2" s="507" t="s">
+      <c r="O2" s="518"/>
+      <c r="P2" s="519" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
-      <c r="A3" s="510"/>
-      <c r="B3" s="510"/>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="506"/>
-      <c r="J3" s="506"/>
+      <c r="A3" s="513"/>
+      <c r="B3" s="513"/>
+      <c r="C3" s="515"/>
+      <c r="D3" s="515"/>
+      <c r="E3" s="515"/>
+      <c r="F3" s="515"/>
+      <c r="G3" s="515"/>
+      <c r="H3" s="515"/>
+      <c r="I3" s="515"/>
+      <c r="J3" s="515"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="506"/>
+      <c r="M3" s="515"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="508"/>
+      <c r="P3" s="520"/>
     </row>
     <row r="4" spans="1:16" ht="32">
       <c r="A4" s="229">
@@ -25313,11 +25303,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:O2"/>
@@ -25327,6 +25312,11 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25355,76 +25345,76 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="512" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="509" t="s">
+      <c r="B2" s="512" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="505" t="s">
+      <c r="C2" s="514" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="505" t="s">
+      <c r="D2" s="514" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="505" t="s">
+      <c r="E2" s="514" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="511" t="s">
+      <c r="F2" s="516" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="511" t="s">
+      <c r="G2" s="516" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="505" t="s">
+      <c r="H2" s="514" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="505" t="s">
+      <c r="I2" s="514" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="505" t="s">
+      <c r="J2" s="514" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="503" t="s">
+      <c r="K2" s="517" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="504"/>
-      <c r="M2" s="505" t="s">
+      <c r="L2" s="518"/>
+      <c r="M2" s="514" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="503" t="s">
+      <c r="N2" s="517" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="504"/>
-      <c r="P2" s="507" t="s">
+      <c r="O2" s="518"/>
+      <c r="P2" s="519" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
-      <c r="A3" s="510"/>
-      <c r="B3" s="510"/>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="506"/>
-      <c r="J3" s="506"/>
+      <c r="A3" s="513"/>
+      <c r="B3" s="513"/>
+      <c r="C3" s="515"/>
+      <c r="D3" s="515"/>
+      <c r="E3" s="515"/>
+      <c r="F3" s="515"/>
+      <c r="G3" s="515"/>
+      <c r="H3" s="515"/>
+      <c r="I3" s="515"/>
+      <c r="J3" s="515"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="506"/>
+      <c r="M3" s="515"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="508"/>
+      <c r="P3" s="520"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="229">
@@ -27362,11 +27352,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:O2"/>
@@ -27376,6 +27361,11 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27406,76 +27396,76 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="512" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="505" t="s">
+      <c r="B2" s="514" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="505" t="s">
+      <c r="C2" s="514" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="505" t="s">
+      <c r="D2" s="514" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="505" t="s">
+      <c r="E2" s="514" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="511" t="s">
+      <c r="F2" s="516" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="511" t="s">
+      <c r="G2" s="516" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="505" t="s">
+      <c r="H2" s="514" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="505" t="s">
+      <c r="I2" s="514" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="505" t="s">
+      <c r="J2" s="514" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="503" t="s">
+      <c r="K2" s="517" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="504"/>
-      <c r="M2" s="505" t="s">
+      <c r="L2" s="518"/>
+      <c r="M2" s="514" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="503" t="s">
+      <c r="N2" s="517" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="504"/>
-      <c r="P2" s="507" t="s">
+      <c r="O2" s="518"/>
+      <c r="P2" s="519" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
-      <c r="A3" s="510"/>
-      <c r="B3" s="506"/>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="506"/>
-      <c r="J3" s="506"/>
+      <c r="A3" s="513"/>
+      <c r="B3" s="515"/>
+      <c r="C3" s="515"/>
+      <c r="D3" s="515"/>
+      <c r="E3" s="515"/>
+      <c r="F3" s="515"/>
+      <c r="G3" s="515"/>
+      <c r="H3" s="515"/>
+      <c r="I3" s="515"/>
+      <c r="J3" s="515"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="506"/>
+      <c r="M3" s="515"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="508"/>
+      <c r="P3" s="520"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="224">
@@ -30897,11 +30887,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:O2"/>
@@ -30911,6 +30896,11 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30944,76 +30934,76 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="512" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="509" t="s">
+      <c r="B2" s="512" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="505" t="s">
+      <c r="C2" s="514" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="505" t="s">
+      <c r="D2" s="514" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="505" t="s">
+      <c r="E2" s="514" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="511" t="s">
+      <c r="F2" s="516" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="511" t="s">
+      <c r="G2" s="516" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="505" t="s">
+      <c r="H2" s="514" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="505" t="s">
+      <c r="I2" s="514" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="505" t="s">
+      <c r="J2" s="514" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="503" t="s">
+      <c r="K2" s="517" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="504"/>
-      <c r="M2" s="505" t="s">
+      <c r="L2" s="518"/>
+      <c r="M2" s="514" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="503" t="s">
+      <c r="N2" s="517" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="504"/>
-      <c r="P2" s="507" t="s">
+      <c r="O2" s="518"/>
+      <c r="P2" s="519" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" hidden="1" thickBot="1">
-      <c r="A3" s="510"/>
-      <c r="B3" s="510"/>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="506"/>
-      <c r="J3" s="506"/>
+      <c r="A3" s="513"/>
+      <c r="B3" s="513"/>
+      <c r="C3" s="515"/>
+      <c r="D3" s="515"/>
+      <c r="E3" s="515"/>
+      <c r="F3" s="515"/>
+      <c r="G3" s="515"/>
+      <c r="H3" s="515"/>
+      <c r="I3" s="515"/>
+      <c r="J3" s="515"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="506"/>
+      <c r="M3" s="515"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="508"/>
+      <c r="P3" s="520"/>
     </row>
     <row r="4" spans="1:16" hidden="1">
       <c r="A4" s="224">
@@ -41021,11 +41011,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
@@ -41035,6 +41020,11 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41068,7 +41058,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" thickTop="1">
-      <c r="A4" s="414" t="s">
+      <c r="A4" s="423" t="s">
         <v>243</v>
       </c>
       <c r="B4" s="95" t="s">
@@ -41077,22 +41067,22 @@
       <c r="C4" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="D4" s="416" t="s">
+      <c r="D4" s="425" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" thickBot="1">
-      <c r="A5" s="415"/>
+      <c r="A5" s="424"/>
       <c r="B5" s="96" t="s">
         <v>2210</v>
       </c>
       <c r="C5" s="96" t="s">
         <v>2211</v>
       </c>
-      <c r="D5" s="417"/>
+      <c r="D5" s="426"/>
     </row>
     <row r="6" spans="1:4" ht="115" thickTop="1">
-      <c r="A6" s="418" t="s">
+      <c r="A6" s="427" t="s">
         <v>957</v>
       </c>
       <c r="B6" s="97" t="s">
@@ -41106,7 +41096,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="96">
-      <c r="A7" s="419"/>
+      <c r="A7" s="428"/>
       <c r="B7" s="99" t="s">
         <v>2175</v>
       </c>
@@ -41116,31 +41106,31 @@
       <c r="D7" s="100"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="419"/>
+      <c r="A8" s="428"/>
       <c r="B8" s="101"/>
       <c r="C8" s="102"/>
       <c r="D8" s="100"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="419"/>
+      <c r="A9" s="428"/>
       <c r="B9" s="101"/>
       <c r="C9" s="101"/>
       <c r="D9" s="100"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="419"/>
+      <c r="A10" s="428"/>
       <c r="B10" s="101"/>
       <c r="C10" s="103"/>
       <c r="D10" s="100"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="419"/>
+      <c r="A11" s="428"/>
       <c r="B11" s="104"/>
       <c r="C11" s="102"/>
       <c r="D11" s="100"/>
     </row>
     <row r="12" spans="1:4" ht="128">
-      <c r="A12" s="419"/>
+      <c r="A12" s="428"/>
       <c r="B12" s="120" t="s">
         <v>2186</v>
       </c>
@@ -41150,7 +41140,7 @@
       <c r="D12" s="100"/>
     </row>
     <row r="13" spans="1:4" ht="48">
-      <c r="A13" s="419"/>
+      <c r="A13" s="428"/>
       <c r="B13" s="101" t="s">
         <v>256</v>
       </c>
@@ -41158,24 +41148,24 @@
       <c r="D13" s="100"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="419"/>
+      <c r="A14" s="428"/>
       <c r="C14" s="101"/>
       <c r="D14" s="100"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="419"/>
+      <c r="A15" s="428"/>
       <c r="B15" s="106"/>
       <c r="C15" s="101"/>
       <c r="D15" s="100"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="419"/>
+      <c r="A16" s="428"/>
       <c r="B16" s="106"/>
       <c r="C16" s="101"/>
       <c r="D16" s="100"/>
     </row>
     <row r="17" spans="1:4" ht="144">
-      <c r="A17" s="419"/>
+      <c r="A17" s="428"/>
       <c r="B17" s="120" t="s">
         <v>2188</v>
       </c>
@@ -41185,7 +41175,7 @@
       <c r="D17" s="100"/>
     </row>
     <row r="18" spans="1:4" ht="32">
-      <c r="A18" s="419"/>
+      <c r="A18" s="428"/>
       <c r="B18" s="101" t="s">
         <v>248</v>
       </c>
@@ -41193,25 +41183,25 @@
       <c r="D18" s="100"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="419"/>
+      <c r="A19" s="428"/>
       <c r="B19" s="103"/>
       <c r="C19" s="103"/>
       <c r="D19" s="100"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="419"/>
+      <c r="A20" s="428"/>
       <c r="B20" s="103"/>
       <c r="C20" s="103"/>
       <c r="D20" s="100"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="419"/>
+      <c r="A21" s="428"/>
       <c r="B21" s="99"/>
       <c r="C21" s="99"/>
       <c r="D21" s="100"/>
     </row>
     <row r="22" spans="1:4" ht="256">
-      <c r="A22" s="419"/>
+      <c r="A22" s="428"/>
       <c r="B22" s="99" t="s">
         <v>2196</v>
       </c>
@@ -41221,31 +41211,31 @@
       <c r="D22" s="100"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="419"/>
+      <c r="A23" s="428"/>
       <c r="B23" s="101"/>
       <c r="C23" s="103"/>
       <c r="D23" s="100"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="419"/>
+      <c r="A24" s="428"/>
       <c r="B24" s="103"/>
       <c r="C24" s="103"/>
       <c r="D24" s="100"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="419"/>
+      <c r="A25" s="428"/>
       <c r="B25" s="103"/>
       <c r="C25" s="103"/>
       <c r="D25" s="100"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="419"/>
+      <c r="A26" s="428"/>
       <c r="B26" s="103"/>
       <c r="C26" s="103"/>
       <c r="D26" s="100"/>
     </row>
     <row r="27" spans="1:4" ht="18">
-      <c r="A27" s="419"/>
+      <c r="A27" s="428"/>
       <c r="B27" s="97" t="s">
         <v>249</v>
       </c>
@@ -41255,7 +41245,7 @@
       <c r="D27" s="100"/>
     </row>
     <row r="28" spans="1:4" ht="32">
-      <c r="A28" s="419"/>
+      <c r="A28" s="428"/>
       <c r="B28" s="103"/>
       <c r="C28" s="103" t="s">
         <v>255</v>
@@ -41263,31 +41253,31 @@
       <c r="D28" s="100"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="419"/>
+      <c r="A29" s="428"/>
       <c r="B29" s="103"/>
       <c r="C29" s="103"/>
       <c r="D29" s="100"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="419"/>
+      <c r="A30" s="428"/>
       <c r="B30" s="103"/>
       <c r="C30" s="103"/>
       <c r="D30" s="100"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="419"/>
+      <c r="A31" s="428"/>
       <c r="B31" s="103"/>
       <c r="C31" s="103"/>
       <c r="D31" s="100"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="419"/>
+      <c r="A32" s="428"/>
       <c r="B32" s="107"/>
       <c r="C32" s="108"/>
       <c r="D32" s="109"/>
     </row>
     <row r="33" spans="1:4" ht="18">
-      <c r="A33" s="420"/>
+      <c r="A33" s="429"/>
       <c r="B33" s="97" t="s">
         <v>956</v>
       </c>
@@ -41297,25 +41287,25 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="419"/>
+      <c r="A34" s="428"/>
       <c r="B34" s="111"/>
       <c r="C34" s="111"/>
       <c r="D34" s="100"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="419"/>
+      <c r="A35" s="428"/>
       <c r="B35" s="103"/>
       <c r="C35" s="103"/>
       <c r="D35" s="100"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="419"/>
+      <c r="A36" s="428"/>
       <c r="B36" s="112"/>
       <c r="C36" s="113"/>
       <c r="D36" s="100"/>
     </row>
     <row r="37" spans="1:4" ht="18" thickBot="1">
-      <c r="A37" s="421"/>
+      <c r="A37" s="430"/>
       <c r="B37" s="114"/>
       <c r="C37" s="115"/>
       <c r="D37" s="116"/>
@@ -45385,52 +45375,52 @@
     <row r="3" spans="1:10">
       <c r="I3" s="48">
         <f ca="1">TODAY()</f>
-        <v>45381</v>
+        <v>45384</v>
       </c>
       <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A4" s="430" t="s">
+      <c r="A4" s="431" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="430" t="s">
+      <c r="B4" s="431" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="430" t="s">
+      <c r="C4" s="431" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="435" t="s">
+      <c r="D4" s="437" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="433" t="s">
+      <c r="E4" s="435" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="431" t="s">
+      <c r="F4" s="433" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="437" t="s">
+      <c r="G4" s="439" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="439" t="s">
+      <c r="H4" s="441" t="s">
         <v>228</v>
       </c>
-      <c r="I4" s="430" t="s">
+      <c r="I4" s="431" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A5" s="430"/>
-      <c r="B5" s="430"/>
-      <c r="C5" s="430"/>
-      <c r="D5" s="436"/>
-      <c r="E5" s="434"/>
-      <c r="F5" s="432"/>
-      <c r="G5" s="438"/>
-      <c r="H5" s="440"/>
-      <c r="I5" s="430"/>
+      <c r="A5" s="431"/>
+      <c r="B5" s="431"/>
+      <c r="C5" s="431"/>
+      <c r="D5" s="438"/>
+      <c r="E5" s="436"/>
+      <c r="F5" s="434"/>
+      <c r="G5" s="440"/>
+      <c r="H5" s="442"/>
+      <c r="I5" s="431"/>
     </row>
     <row r="6" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A6" s="424" t="s">
+      <c r="A6" s="432" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="70" t="s">
@@ -45462,7 +45452,7 @@
       <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A7" s="424"/>
+      <c r="A7" s="432"/>
       <c r="B7" s="70" t="s">
         <v>142</v>
       </c>
@@ -45492,7 +45482,7 @@
       <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A8" s="424"/>
+      <c r="A8" s="432"/>
       <c r="B8" s="70" t="s">
         <v>509</v>
       </c>
@@ -45522,7 +45512,7 @@
       <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A9" s="424"/>
+      <c r="A9" s="432"/>
       <c r="B9" s="70" t="s">
         <v>509</v>
       </c>
@@ -45552,7 +45542,7 @@
       <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A10" s="424"/>
+      <c r="A10" s="432"/>
       <c r="B10" s="70" t="s">
         <v>509</v>
       </c>
@@ -45582,7 +45572,7 @@
       <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A11" s="424"/>
+      <c r="A11" s="432"/>
       <c r="B11" s="70" t="s">
         <v>509</v>
       </c>
@@ -45612,7 +45602,7 @@
       <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A12" s="424"/>
+      <c r="A12" s="432"/>
       <c r="B12" s="70" t="s">
         <v>509</v>
       </c>
@@ -45642,7 +45632,7 @@
       <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A13" s="424"/>
+      <c r="A13" s="432"/>
       <c r="B13" s="70" t="s">
         <v>509</v>
       </c>
@@ -45672,7 +45662,7 @@
       <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A14" s="424"/>
+      <c r="A14" s="432"/>
       <c r="B14" s="70" t="s">
         <v>509</v>
       </c>
@@ -45702,11 +45692,11 @@
       <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:10" ht="23" customHeight="1">
-      <c r="A15" s="422" t="s">
+      <c r="A15" s="443" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="423"/>
-      <c r="C15" s="423"/>
+      <c r="B15" s="444"/>
+      <c r="C15" s="444"/>
       <c r="D15" s="60">
         <f>SUM(D6:D14)</f>
         <v>13</v>
@@ -45730,7 +45720,7 @@
       <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A16" s="424" t="s">
+      <c r="A16" s="432" t="s">
         <v>188</v>
       </c>
       <c r="B16" s="70" t="s">
@@ -45762,7 +45752,7 @@
       <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A17" s="424"/>
+      <c r="A17" s="432"/>
       <c r="B17" s="71" t="s">
         <v>193</v>
       </c>
@@ -45792,7 +45782,7 @@
       <c r="I17" s="63"/>
     </row>
     <row r="18" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A18" s="424"/>
+      <c r="A18" s="432"/>
       <c r="B18" s="71" t="s">
         <v>18</v>
       </c>
@@ -45824,7 +45814,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A19" s="424"/>
+      <c r="A19" s="432"/>
       <c r="B19" s="71" t="s">
         <v>19</v>
       </c>
@@ -45854,7 +45844,7 @@
       <c r="I19" s="63"/>
     </row>
     <row r="20" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A20" s="424"/>
+      <c r="A20" s="432"/>
       <c r="B20" s="71" t="s">
         <v>194</v>
       </c>
@@ -45884,7 +45874,7 @@
       <c r="I20" s="63"/>
     </row>
     <row r="21" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A21" s="424"/>
+      <c r="A21" s="432"/>
       <c r="B21" s="71" t="s">
         <v>23</v>
       </c>
@@ -45916,11 +45906,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="23" customHeight="1">
-      <c r="A22" s="422" t="s">
+      <c r="A22" s="443" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="423"/>
-      <c r="C22" s="423"/>
+      <c r="B22" s="444"/>
+      <c r="C22" s="444"/>
       <c r="D22" s="60">
         <f>SUM(D16:D21)</f>
         <v>10</v>
@@ -45944,7 +45934,7 @@
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A23" s="424" t="s">
+      <c r="A23" s="432" t="s">
         <v>189</v>
       </c>
       <c r="B23" s="68" t="s">
@@ -45976,7 +45966,7 @@
       <c r="I23" s="63"/>
     </row>
     <row r="24" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A24" s="424"/>
+      <c r="A24" s="432"/>
       <c r="B24" s="68" t="s">
         <v>35</v>
       </c>
@@ -46008,7 +45998,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A25" s="424"/>
+      <c r="A25" s="432"/>
       <c r="B25" s="68" t="s">
         <v>39</v>
       </c>
@@ -46038,7 +46028,7 @@
       <c r="I25" s="63"/>
     </row>
     <row r="26" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A26" s="424"/>
+      <c r="A26" s="432"/>
       <c r="B26" s="68" t="s">
         <v>197</v>
       </c>
@@ -46068,7 +46058,7 @@
       <c r="I26" s="63"/>
     </row>
     <row r="27" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A27" s="424"/>
+      <c r="A27" s="432"/>
       <c r="B27" s="68" t="s">
         <v>41</v>
       </c>
@@ -46100,7 +46090,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A28" s="424"/>
+      <c r="A28" s="432"/>
       <c r="B28" s="68" t="s">
         <v>45</v>
       </c>
@@ -46132,7 +46122,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A29" s="424"/>
+      <c r="A29" s="432"/>
       <c r="B29" s="68" t="s">
         <v>48</v>
       </c>
@@ -46164,7 +46154,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A30" s="424"/>
+      <c r="A30" s="432"/>
       <c r="B30" s="52" t="s">
         <v>198</v>
       </c>
@@ -46196,11 +46186,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="23" customHeight="1">
-      <c r="A31" s="422" t="s">
+      <c r="A31" s="443" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="423"/>
-      <c r="C31" s="423"/>
+      <c r="B31" s="444"/>
+      <c r="C31" s="444"/>
       <c r="D31" s="60">
         <f t="shared" ref="D31:G31" si="8">SUM(D23:D30)</f>
         <v>10</v>
@@ -46224,10 +46214,10 @@
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A32" s="424" t="s">
+      <c r="A32" s="432" t="s">
         <v>191</v>
       </c>
-      <c r="B32" s="425" t="s">
+      <c r="B32" s="447" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="72" t="s">
@@ -46256,8 +46246,8 @@
       <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A33" s="424"/>
-      <c r="B33" s="426"/>
+      <c r="A33" s="432"/>
+      <c r="B33" s="448"/>
       <c r="C33" s="70" t="s">
         <v>229</v>
       </c>
@@ -46284,8 +46274,8 @@
       <c r="I33" s="63"/>
     </row>
     <row r="34" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A34" s="424"/>
-      <c r="B34" s="427"/>
+      <c r="A34" s="432"/>
+      <c r="B34" s="449"/>
       <c r="C34" s="70" t="s">
         <v>230</v>
       </c>
@@ -46312,8 +46302,8 @@
       <c r="I34" s="63"/>
     </row>
     <row r="35" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A35" s="424"/>
-      <c r="B35" s="425" t="s">
+      <c r="A35" s="432"/>
+      <c r="B35" s="447" t="s">
         <v>204</v>
       </c>
       <c r="C35" s="70" t="s">
@@ -46342,8 +46332,8 @@
       <c r="I35" s="63"/>
     </row>
     <row r="36" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A36" s="424"/>
-      <c r="B36" s="426"/>
+      <c r="A36" s="432"/>
+      <c r="B36" s="448"/>
       <c r="C36" s="70" t="s">
         <v>210</v>
       </c>
@@ -46370,8 +46360,8 @@
       <c r="I36" s="63"/>
     </row>
     <row r="37" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A37" s="424"/>
-      <c r="B37" s="426"/>
+      <c r="A37" s="432"/>
+      <c r="B37" s="448"/>
       <c r="C37" s="70" t="s">
         <v>266</v>
       </c>
@@ -46398,8 +46388,8 @@
       <c r="I37" s="63"/>
     </row>
     <row r="38" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A38" s="424"/>
-      <c r="B38" s="427"/>
+      <c r="A38" s="432"/>
+      <c r="B38" s="449"/>
       <c r="C38" s="70" t="s">
         <v>223</v>
       </c>
@@ -46426,8 +46416,8 @@
       <c r="I38" s="63"/>
     </row>
     <row r="39" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A39" s="424"/>
-      <c r="B39" s="425" t="s">
+      <c r="A39" s="432"/>
+      <c r="B39" s="447" t="s">
         <v>203</v>
       </c>
       <c r="C39" s="70" t="s">
@@ -46456,8 +46446,8 @@
       <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A40" s="424"/>
-      <c r="B40" s="426"/>
+      <c r="A40" s="432"/>
+      <c r="B40" s="448"/>
       <c r="C40" s="70" t="s">
         <v>212</v>
       </c>
@@ -46484,8 +46474,8 @@
       <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A41" s="424"/>
-      <c r="B41" s="427"/>
+      <c r="A41" s="432"/>
+      <c r="B41" s="449"/>
       <c r="C41" s="70" t="s">
         <v>71</v>
       </c>
@@ -46512,7 +46502,7 @@
       <c r="I41" s="59"/>
     </row>
     <row r="42" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A42" s="424"/>
+      <c r="A42" s="432"/>
       <c r="B42" s="72" t="s">
         <v>72</v>
       </c>
@@ -46542,8 +46532,8 @@
       <c r="I42" s="63"/>
     </row>
     <row r="43" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A43" s="424"/>
-      <c r="B43" s="425" t="s">
+      <c r="A43" s="432"/>
+      <c r="B43" s="447" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="70" t="s">
@@ -46574,8 +46564,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A44" s="424"/>
-      <c r="B44" s="426"/>
+      <c r="A44" s="432"/>
+      <c r="B44" s="448"/>
       <c r="C44" s="70" t="s">
         <v>76</v>
       </c>
@@ -46604,8 +46594,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A45" s="424"/>
-      <c r="B45" s="426"/>
+      <c r="A45" s="432"/>
+      <c r="B45" s="448"/>
       <c r="C45" s="70" t="s">
         <v>213</v>
       </c>
@@ -46634,8 +46624,8 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A46" s="424"/>
-      <c r="B46" s="426"/>
+      <c r="A46" s="432"/>
+      <c r="B46" s="448"/>
       <c r="C46" s="70" t="s">
         <v>78</v>
       </c>
@@ -46664,8 +46654,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A47" s="424"/>
-      <c r="B47" s="427"/>
+      <c r="A47" s="432"/>
+      <c r="B47" s="449"/>
       <c r="C47" s="70" t="s">
         <v>231</v>
       </c>
@@ -46692,8 +46682,8 @@
       <c r="I47" s="63"/>
     </row>
     <row r="48" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A48" s="424"/>
-      <c r="B48" s="425" t="s">
+      <c r="A48" s="432"/>
+      <c r="B48" s="447" t="s">
         <v>202</v>
       </c>
       <c r="C48" s="70" t="s">
@@ -46722,8 +46712,8 @@
       <c r="I48" s="63"/>
     </row>
     <row r="49" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A49" s="424"/>
-      <c r="B49" s="426"/>
+      <c r="A49" s="432"/>
+      <c r="B49" s="448"/>
       <c r="C49" s="70" t="s">
         <v>82</v>
       </c>
@@ -46750,8 +46740,8 @@
       <c r="I49" s="63"/>
     </row>
     <row r="50" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A50" s="424"/>
-      <c r="B50" s="427"/>
+      <c r="A50" s="432"/>
+      <c r="B50" s="449"/>
       <c r="C50" s="70" t="s">
         <v>84</v>
       </c>
@@ -46778,8 +46768,8 @@
       <c r="I50" s="63"/>
     </row>
     <row r="51" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A51" s="424"/>
-      <c r="B51" s="425" t="s">
+      <c r="A51" s="432"/>
+      <c r="B51" s="447" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="70" t="s">
@@ -46808,8 +46798,8 @@
       <c r="I51" s="59"/>
     </row>
     <row r="52" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A52" s="424"/>
-      <c r="B52" s="426"/>
+      <c r="A52" s="432"/>
+      <c r="B52" s="448"/>
       <c r="C52" s="70" t="s">
         <v>185</v>
       </c>
@@ -46836,8 +46826,8 @@
       <c r="I52" s="59"/>
     </row>
     <row r="53" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A53" s="424"/>
-      <c r="B53" s="427"/>
+      <c r="A53" s="432"/>
+      <c r="B53" s="449"/>
       <c r="C53" s="70" t="s">
         <v>215</v>
       </c>
@@ -46864,8 +46854,8 @@
       <c r="I53" s="59"/>
     </row>
     <row r="54" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A54" s="424"/>
-      <c r="B54" s="425" t="s">
+      <c r="A54" s="432"/>
+      <c r="B54" s="447" t="s">
         <v>201</v>
       </c>
       <c r="C54" s="70" t="s">
@@ -46896,8 +46886,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A55" s="424"/>
-      <c r="B55" s="426"/>
+      <c r="A55" s="432"/>
+      <c r="B55" s="448"/>
       <c r="C55" s="70" t="s">
         <v>217</v>
       </c>
@@ -46926,8 +46916,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A56" s="424"/>
-      <c r="B56" s="426"/>
+      <c r="A56" s="432"/>
+      <c r="B56" s="448"/>
       <c r="C56" s="70" t="s">
         <v>218</v>
       </c>
@@ -46956,8 +46946,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A57" s="424"/>
-      <c r="B57" s="427"/>
+      <c r="A57" s="432"/>
+      <c r="B57" s="449"/>
       <c r="C57" s="70" t="s">
         <v>219</v>
       </c>
@@ -46986,8 +46976,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A58" s="424"/>
-      <c r="B58" s="425" t="s">
+      <c r="A58" s="432"/>
+      <c r="B58" s="447" t="s">
         <v>200</v>
       </c>
       <c r="C58" s="70" t="s">
@@ -47018,8 +47008,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A59" s="424"/>
-      <c r="B59" s="427"/>
+      <c r="A59" s="432"/>
+      <c r="B59" s="449"/>
       <c r="C59" s="70" t="s">
         <v>221</v>
       </c>
@@ -47048,8 +47038,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A60" s="424"/>
-      <c r="B60" s="425" t="s">
+      <c r="A60" s="432"/>
+      <c r="B60" s="447" t="s">
         <v>497</v>
       </c>
       <c r="C60" s="70" t="s">
@@ -47080,8 +47070,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A61" s="424"/>
-      <c r="B61" s="427"/>
+      <c r="A61" s="432"/>
+      <c r="B61" s="449"/>
       <c r="C61" s="70" t="s">
         <v>522</v>
       </c>
@@ -47110,8 +47100,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A62" s="424"/>
-      <c r="B62" s="425" t="s">
+      <c r="A62" s="432"/>
+      <c r="B62" s="447" t="s">
         <v>199</v>
       </c>
       <c r="C62" s="70" t="s">
@@ -47140,8 +47130,8 @@
       <c r="I62" s="63"/>
     </row>
     <row r="63" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A63" s="424"/>
-      <c r="B63" s="426"/>
+      <c r="A63" s="432"/>
+      <c r="B63" s="448"/>
       <c r="C63" s="70" t="s">
         <v>199</v>
       </c>
@@ -47168,8 +47158,8 @@
       <c r="I63" s="63"/>
     </row>
     <row r="64" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A64" s="424"/>
-      <c r="B64" s="427"/>
+      <c r="A64" s="432"/>
+      <c r="B64" s="449"/>
       <c r="C64" s="70" t="s">
         <v>233</v>
       </c>
@@ -47196,11 +47186,11 @@
       <c r="I64" s="63"/>
     </row>
     <row r="65" spans="1:11" ht="23" customHeight="1">
-      <c r="A65" s="422" t="s">
+      <c r="A65" s="443" t="s">
         <v>235</v>
       </c>
-      <c r="B65" s="423"/>
-      <c r="C65" s="423"/>
+      <c r="B65" s="444"/>
+      <c r="C65" s="444"/>
       <c r="D65" s="60">
         <f>SUM(D32:D64)</f>
         <v>36</v>
@@ -47224,11 +47214,11 @@
       <c r="I65" s="62"/>
     </row>
     <row r="66" spans="1:11" ht="23" customHeight="1">
-      <c r="A66" s="428" t="s">
+      <c r="A66" s="445" t="s">
         <v>236</v>
       </c>
-      <c r="B66" s="429"/>
-      <c r="C66" s="429"/>
+      <c r="B66" s="446"/>
+      <c r="C66" s="446"/>
       <c r="D66" s="64">
         <f>SUM(D65,D31,D22,D15)</f>
         <v>69</v>
@@ -47256,6 +47246,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:A64"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B64"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="F4:F5"/>
@@ -47266,24 +47274,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:A64"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47323,61 +47313,61 @@
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" thickBot="1">
       <c r="C1" s="26"/>
-      <c r="D1" s="451" t="s">
+      <c r="D1" s="460" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
+      <c r="E1" s="460"/>
+      <c r="F1" s="460"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="443" t="s">
+      <c r="B2" s="468" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="446" t="s">
+      <c r="C2" s="471" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="446" t="s">
+      <c r="D2" s="471" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="446" t="s">
+      <c r="E2" s="471" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="446" t="s">
+      <c r="F2" s="471" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="449" t="s">
+      <c r="G2" s="474" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="446" t="s">
+      <c r="H2" s="471" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="441" t="s">
+      <c r="I2" s="466" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="445" t="s">
+      <c r="J2" s="470" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="446"/>
-      <c r="L2" s="446"/>
-      <c r="M2" s="446"/>
-      <c r="N2" s="447"/>
+      <c r="K2" s="471"/>
+      <c r="L2" s="471"/>
+      <c r="M2" s="471"/>
+      <c r="N2" s="472"/>
     </row>
     <row r="3" spans="1:14" ht="36">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="444"/>
-      <c r="C3" s="448"/>
-      <c r="D3" s="448"/>
-      <c r="E3" s="448"/>
-      <c r="F3" s="448"/>
-      <c r="G3" s="450"/>
-      <c r="H3" s="448"/>
-      <c r="I3" s="442"/>
+      <c r="B3" s="469"/>
+      <c r="C3" s="473"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="473"/>
+      <c r="F3" s="473"/>
+      <c r="G3" s="475"/>
+      <c r="H3" s="473"/>
+      <c r="I3" s="467"/>
       <c r="J3" s="41" t="s">
         <v>160</v>
       </c>
@@ -49602,7 +49592,7 @@
       <c r="C68" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="D68" s="462" t="s">
+      <c r="D68" s="465" t="s">
         <v>26</v>
       </c>
       <c r="E68" s="28" t="s">
@@ -49640,7 +49630,7 @@
       <c r="C69" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D69" s="454"/>
+      <c r="D69" s="455"/>
       <c r="E69" s="29" t="s">
         <v>26</v>
       </c>
@@ -49676,7 +49666,7 @@
       <c r="C70" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="454"/>
+      <c r="D70" s="455"/>
       <c r="E70" s="29" t="s">
         <v>26</v>
       </c>
@@ -49712,7 +49702,7 @@
       <c r="C71" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D71" s="454"/>
+      <c r="D71" s="455"/>
       <c r="E71" s="29" t="s">
         <v>26</v>
       </c>
@@ -49748,7 +49738,7 @@
       <c r="C72" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D72" s="454"/>
+      <c r="D72" s="455"/>
       <c r="E72" s="29" t="s">
         <v>26</v>
       </c>
@@ -49784,7 +49774,7 @@
       <c r="C73" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D73" s="454"/>
+      <c r="D73" s="455"/>
       <c r="E73" s="123" t="s">
         <v>26</v>
       </c>
@@ -49814,7 +49804,7 @@
       <c r="C74" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="454"/>
+      <c r="D74" s="455"/>
       <c r="E74" s="123" t="s">
         <v>26</v>
       </c>
@@ -49844,7 +49834,7 @@
       <c r="C75" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="455"/>
+      <c r="D75" s="459"/>
       <c r="E75" s="123" t="s">
         <v>26</v>
       </c>
@@ -49874,7 +49864,7 @@
       <c r="C76" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="453" t="s">
+      <c r="D76" s="454" t="s">
         <v>35</v>
       </c>
       <c r="E76" s="29" t="s">
@@ -49912,7 +49902,7 @@
       <c r="C77" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D77" s="454"/>
+      <c r="D77" s="455"/>
       <c r="E77" s="31" t="s">
         <v>35</v>
       </c>
@@ -49942,7 +49932,7 @@
       <c r="C78" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D78" s="454"/>
+      <c r="D78" s="455"/>
       <c r="E78" s="29" t="s">
         <v>35</v>
       </c>
@@ -49978,7 +49968,7 @@
       <c r="C79" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="455"/>
+      <c r="D79" s="459"/>
       <c r="E79" s="29" t="s">
         <v>35</v>
       </c>
@@ -50090,7 +50080,7 @@
       <c r="C82" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D82" s="459" t="s">
+      <c r="D82" s="457" t="s">
         <v>41</v>
       </c>
       <c r="E82" s="157" t="s">
@@ -50122,7 +50112,7 @@
       <c r="C83" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D83" s="460"/>
+      <c r="D83" s="464"/>
       <c r="E83" s="157" t="s">
         <v>41</v>
       </c>
@@ -50152,7 +50142,7 @@
       <c r="C84" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D84" s="460"/>
+      <c r="D84" s="464"/>
       <c r="E84" s="157" t="s">
         <v>41</v>
       </c>
@@ -50184,7 +50174,7 @@
       <c r="C85" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D85" s="461"/>
+      <c r="D85" s="458"/>
       <c r="E85" s="157" t="s">
         <v>41</v>
       </c>
@@ -50214,7 +50204,7 @@
       <c r="C86" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D86" s="459" t="s">
+      <c r="D86" s="457" t="s">
         <v>45</v>
       </c>
       <c r="E86" s="157" t="s">
@@ -50246,7 +50236,7 @@
       <c r="C87" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D87" s="460"/>
+      <c r="D87" s="464"/>
       <c r="E87" s="157" t="s">
         <v>45</v>
       </c>
@@ -50276,7 +50266,7 @@
       <c r="C88" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D88" s="461"/>
+      <c r="D88" s="458"/>
       <c r="E88" s="157" t="s">
         <v>45</v>
       </c>
@@ -50306,7 +50296,7 @@
       <c r="C89" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="459" t="s">
+      <c r="D89" s="457" t="s">
         <v>48</v>
       </c>
       <c r="E89" s="31" t="s">
@@ -50338,7 +50328,7 @@
       <c r="C90" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D90" s="460"/>
+      <c r="D90" s="464"/>
       <c r="E90" s="31" t="s">
         <v>48</v>
       </c>
@@ -50368,7 +50358,7 @@
       <c r="C91" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D91" s="460"/>
+      <c r="D91" s="464"/>
       <c r="E91" s="31" t="s">
         <v>48</v>
       </c>
@@ -50398,7 +50388,7 @@
       <c r="C92" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D92" s="460"/>
+      <c r="D92" s="464"/>
       <c r="E92" s="31" t="s">
         <v>48</v>
       </c>
@@ -50428,7 +50418,7 @@
       <c r="C93" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D93" s="461"/>
+      <c r="D93" s="458"/>
       <c r="E93" s="31" t="s">
         <v>48</v>
       </c>
@@ -50488,7 +50478,7 @@
       <c r="C95" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="D95" s="465" t="s">
+      <c r="D95" s="452" t="s">
         <v>55</v>
       </c>
       <c r="E95" s="28" t="s">
@@ -50526,7 +50516,7 @@
       <c r="C96" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="452"/>
+      <c r="D96" s="453"/>
       <c r="E96" s="29" t="s">
         <v>229</v>
       </c>
@@ -50562,7 +50552,7 @@
       <c r="C97" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D97" s="452"/>
+      <c r="D97" s="453"/>
       <c r="E97" s="29" t="s">
         <v>230</v>
       </c>
@@ -50598,7 +50588,7 @@
       <c r="C98" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="456" t="s">
+      <c r="D98" s="461" t="s">
         <v>204</v>
       </c>
       <c r="E98" s="32" t="s">
@@ -50636,7 +50626,7 @@
       <c r="C99" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D99" s="457"/>
+      <c r="D99" s="462"/>
       <c r="E99" s="32" t="s">
         <v>209</v>
       </c>
@@ -50672,7 +50662,7 @@
       <c r="C100" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D100" s="457"/>
+      <c r="D100" s="462"/>
       <c r="E100" s="32" t="s">
         <v>210</v>
       </c>
@@ -50708,7 +50698,7 @@
       <c r="C101" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D101" s="457"/>
+      <c r="D101" s="462"/>
       <c r="E101" s="32" t="s">
         <v>210</v>
       </c>
@@ -50744,7 +50734,7 @@
       <c r="C102" s="29" t="s">
         <v>673</v>
       </c>
-      <c r="D102" s="457"/>
+      <c r="D102" s="462"/>
       <c r="E102" s="32" t="s">
         <v>210</v>
       </c>
@@ -50780,7 +50770,7 @@
       <c r="C103" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D103" s="457"/>
+      <c r="D103" s="462"/>
       <c r="E103" s="32" t="s">
         <v>210</v>
       </c>
@@ -50816,7 +50806,7 @@
       <c r="C104" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D104" s="457"/>
+      <c r="D104" s="462"/>
       <c r="E104" s="32" t="s">
         <v>266</v>
       </c>
@@ -50852,7 +50842,7 @@
       <c r="C105" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D105" s="458"/>
+      <c r="D105" s="463"/>
       <c r="E105" s="32" t="s">
         <v>223</v>
       </c>
@@ -50888,7 +50878,7 @@
       <c r="C106" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D106" s="453" t="s">
+      <c r="D106" s="454" t="s">
         <v>203</v>
       </c>
       <c r="E106" s="29" t="s">
@@ -50926,7 +50916,7 @@
       <c r="C107" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D107" s="454"/>
+      <c r="D107" s="455"/>
       <c r="E107" s="29" t="s">
         <v>212</v>
       </c>
@@ -50962,7 +50952,7 @@
       <c r="C108" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D108" s="454"/>
+      <c r="D108" s="455"/>
       <c r="E108" s="29" t="s">
         <v>212</v>
       </c>
@@ -50998,7 +50988,7 @@
       <c r="C109" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D109" s="455"/>
+      <c r="D109" s="459"/>
       <c r="E109" s="29" t="s">
         <v>71</v>
       </c>
@@ -51072,7 +51062,7 @@
       <c r="C111" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D111" s="452" t="s">
+      <c r="D111" s="453" t="s">
         <v>74</v>
       </c>
       <c r="E111" s="29" t="s">
@@ -51104,7 +51094,7 @@
       <c r="C112" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D112" s="452"/>
+      <c r="D112" s="453"/>
       <c r="E112" s="29" t="s">
         <v>75</v>
       </c>
@@ -51134,7 +51124,7 @@
       <c r="C113" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D113" s="452"/>
+      <c r="D113" s="453"/>
       <c r="E113" s="29" t="s">
         <v>75</v>
       </c>
@@ -51164,7 +51154,7 @@
       <c r="C114" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D114" s="452"/>
+      <c r="D114" s="453"/>
       <c r="E114" s="31" t="s">
         <v>75</v>
       </c>
@@ -51194,7 +51184,7 @@
       <c r="C115" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D115" s="452"/>
+      <c r="D115" s="453"/>
       <c r="E115" s="29" t="s">
         <v>75</v>
       </c>
@@ -51234,7 +51224,7 @@
       <c r="C116" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D116" s="452"/>
+      <c r="D116" s="453"/>
       <c r="E116" s="31" t="s">
         <v>75</v>
       </c>
@@ -51266,7 +51256,7 @@
       <c r="C117" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D117" s="452"/>
+      <c r="D117" s="453"/>
       <c r="E117" s="29" t="s">
         <v>75</v>
       </c>
@@ -51306,7 +51296,7 @@
       <c r="C118" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D118" s="452"/>
+      <c r="D118" s="453"/>
       <c r="E118" s="29" t="s">
         <v>75</v>
       </c>
@@ -51336,7 +51326,7 @@
       <c r="C119" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D119" s="452"/>
+      <c r="D119" s="453"/>
       <c r="E119" s="31" t="s">
         <v>76</v>
       </c>
@@ -51368,7 +51358,7 @@
       <c r="C120" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D120" s="452"/>
+      <c r="D120" s="453"/>
       <c r="E120" s="31" t="s">
         <v>213</v>
       </c>
@@ -51398,7 +51388,7 @@
       <c r="C121" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D121" s="452"/>
+      <c r="D121" s="453"/>
       <c r="E121" s="123" t="s">
         <v>78</v>
       </c>
@@ -51428,7 +51418,7 @@
       <c r="C122" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D122" s="452"/>
+      <c r="D122" s="453"/>
       <c r="E122" s="123" t="s">
         <v>78</v>
       </c>
@@ -51458,7 +51448,7 @@
       <c r="C123" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D123" s="452"/>
+      <c r="D123" s="453"/>
       <c r="E123" s="123" t="s">
         <v>78</v>
       </c>
@@ -51488,7 +51478,7 @@
       <c r="C124" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D124" s="452"/>
+      <c r="D124" s="453"/>
       <c r="E124" s="123" t="s">
         <v>78</v>
       </c>
@@ -51518,7 +51508,7 @@
       <c r="C125" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D125" s="452"/>
+      <c r="D125" s="453"/>
       <c r="E125" s="29" t="s">
         <v>231</v>
       </c>
@@ -51554,7 +51544,7 @@
       <c r="C126" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D126" s="452" t="s">
+      <c r="D126" s="453" t="s">
         <v>202</v>
       </c>
       <c r="E126" s="29" t="s">
@@ -51596,7 +51586,7 @@
       <c r="C127" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D127" s="452"/>
+      <c r="D127" s="453"/>
       <c r="E127" s="29" t="s">
         <v>82</v>
       </c>
@@ -51636,7 +51626,7 @@
       <c r="C128" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D128" s="452"/>
+      <c r="D128" s="453"/>
       <c r="E128" s="29" t="s">
         <v>84</v>
       </c>
@@ -51676,7 +51666,7 @@
       <c r="C129" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D129" s="453" t="s">
+      <c r="D129" s="454" t="s">
         <v>86</v>
       </c>
       <c r="E129" s="29" t="s">
@@ -51714,7 +51704,7 @@
       <c r="C130" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D130" s="454"/>
+      <c r="D130" s="455"/>
       <c r="E130" s="29" t="s">
         <v>87</v>
       </c>
@@ -51750,7 +51740,7 @@
       <c r="C131" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D131" s="454"/>
+      <c r="D131" s="455"/>
       <c r="E131" s="29" t="s">
         <v>87</v>
       </c>
@@ -51786,7 +51776,7 @@
       <c r="C132" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D132" s="454"/>
+      <c r="D132" s="455"/>
       <c r="E132" s="29" t="s">
         <v>87</v>
       </c>
@@ -51822,7 +51812,7 @@
       <c r="C133" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D133" s="454"/>
+      <c r="D133" s="455"/>
       <c r="E133" s="29" t="s">
         <v>87</v>
       </c>
@@ -51858,7 +51848,7 @@
       <c r="C134" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D134" s="454"/>
+      <c r="D134" s="455"/>
       <c r="E134" s="29" t="s">
         <v>185</v>
       </c>
@@ -51894,7 +51884,7 @@
       <c r="C135" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D135" s="454"/>
+      <c r="D135" s="455"/>
       <c r="E135" s="29" t="s">
         <v>185</v>
       </c>
@@ -51930,7 +51920,7 @@
       <c r="C136" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D136" s="454"/>
+      <c r="D136" s="455"/>
       <c r="E136" s="29" t="s">
         <v>185</v>
       </c>
@@ -51966,7 +51956,7 @@
       <c r="C137" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="454"/>
+      <c r="D137" s="455"/>
       <c r="E137" s="29" t="s">
         <v>215</v>
       </c>
@@ -52005,7 +51995,7 @@
       <c r="C138" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D138" s="454"/>
+      <c r="D138" s="455"/>
       <c r="E138" s="29" t="s">
         <v>215</v>
       </c>
@@ -52044,7 +52034,7 @@
       <c r="C139" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D139" s="455"/>
+      <c r="D139" s="459"/>
       <c r="E139" s="29" t="s">
         <v>215</v>
       </c>
@@ -52083,7 +52073,7 @@
       <c r="C140" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D140" s="463" t="s">
+      <c r="D140" s="450" t="s">
         <v>201</v>
       </c>
       <c r="E140" s="31" t="s">
@@ -52115,7 +52105,7 @@
       <c r="C141" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D141" s="463"/>
+      <c r="D141" s="450"/>
       <c r="E141" s="31" t="s">
         <v>217</v>
       </c>
@@ -52145,7 +52135,7 @@
       <c r="C142" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D142" s="463"/>
+      <c r="D142" s="450"/>
       <c r="E142" s="31" t="s">
         <v>217</v>
       </c>
@@ -52175,7 +52165,7 @@
       <c r="C143" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D143" s="463"/>
+      <c r="D143" s="450"/>
       <c r="E143" s="31" t="s">
         <v>218</v>
       </c>
@@ -52205,7 +52195,7 @@
       <c r="C144" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D144" s="463"/>
+      <c r="D144" s="450"/>
       <c r="E144" s="31" t="s">
         <v>218</v>
       </c>
@@ -52235,7 +52225,7 @@
       <c r="C145" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D145" s="463"/>
+      <c r="D145" s="450"/>
       <c r="E145" s="31" t="s">
         <v>218</v>
       </c>
@@ -52265,7 +52255,7 @@
       <c r="C146" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D146" s="463"/>
+      <c r="D146" s="450"/>
       <c r="E146" s="31" t="s">
         <v>219</v>
       </c>
@@ -52295,7 +52285,7 @@
       <c r="C147" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D147" s="463"/>
+      <c r="D147" s="450"/>
       <c r="E147" s="31" t="s">
         <v>219</v>
       </c>
@@ -52325,7 +52315,7 @@
       <c r="C148" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D148" s="463"/>
+      <c r="D148" s="450"/>
       <c r="E148" s="31" t="s">
         <v>219</v>
       </c>
@@ -52355,7 +52345,7 @@
       <c r="C149" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D149" s="464" t="s">
+      <c r="D149" s="451" t="s">
         <v>200</v>
       </c>
       <c r="E149" s="32" t="s">
@@ -52387,7 +52377,7 @@
       <c r="C150" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D150" s="464"/>
+      <c r="D150" s="451"/>
       <c r="E150" s="32" t="s">
         <v>221</v>
       </c>
@@ -52419,7 +52409,7 @@
       <c r="C151" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D151" s="464"/>
+      <c r="D151" s="451"/>
       <c r="E151" s="32" t="s">
         <v>221</v>
       </c>
@@ -52451,7 +52441,7 @@
       <c r="C152" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D152" s="464"/>
+      <c r="D152" s="451"/>
       <c r="E152" s="32" t="s">
         <v>221</v>
       </c>
@@ -52483,7 +52473,7 @@
       <c r="C153" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D153" s="459" t="s">
+      <c r="D153" s="457" t="s">
         <v>497</v>
       </c>
       <c r="E153" s="31" t="s">
@@ -52515,7 +52505,7 @@
       <c r="C154" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D154" s="461"/>
+      <c r="D154" s="458"/>
       <c r="E154" s="31" t="s">
         <v>499</v>
       </c>
@@ -52545,7 +52535,7 @@
       <c r="C155" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D155" s="453" t="s">
+      <c r="D155" s="454" t="s">
         <v>199</v>
       </c>
       <c r="E155" s="29" t="s">
@@ -52583,7 +52573,7 @@
       <c r="C156" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D156" s="454"/>
+      <c r="D156" s="455"/>
       <c r="E156" s="29" t="s">
         <v>199</v>
       </c>
@@ -52619,7 +52609,7 @@
       <c r="C157" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D157" s="454"/>
+      <c r="D157" s="455"/>
       <c r="E157" s="29" t="s">
         <v>199</v>
       </c>
@@ -52655,7 +52645,7 @@
       <c r="C158" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D158" s="466"/>
+      <c r="D158" s="456"/>
       <c r="E158" s="30" t="s">
         <v>233</v>
       </c>
@@ -53266,12 +53256,15 @@
   </sheetData>
   <autoFilter ref="C3:I158" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="25">
-    <mergeCell ref="D140:D148"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="D155:D158"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="D129:D139"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D111:D125"/>
     <mergeCell ref="D126:D128"/>
@@ -53282,15 +53275,12 @@
     <mergeCell ref="D76:D79"/>
     <mergeCell ref="D68:D75"/>
     <mergeCell ref="D82:D85"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="D140:D148"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="D155:D158"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D129:D139"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F36">
@@ -53364,10 +53354,10 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A2" s="472" t="s">
+      <c r="A2" s="481" t="s">
         <v>955</v>
       </c>
-      <c r="B2" s="473"/>
+      <c r="B2" s="482"/>
       <c r="C2" s="278" t="s">
         <v>1910</v>
       </c>
@@ -53436,8 +53426,8 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="18" thickBot="1">
-      <c r="A3" s="474"/>
-      <c r="B3" s="475"/>
+      <c r="A3" s="483"/>
+      <c r="B3" s="484"/>
       <c r="C3" s="280" t="s">
         <v>1928</v>
       </c>
@@ -53506,50 +53496,50 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="476" t="s">
+      <c r="A4" s="485" t="s">
         <v>1950</v>
       </c>
-      <c r="B4" s="478" t="s">
+      <c r="B4" s="487" t="s">
         <v>1951</v>
       </c>
       <c r="C4" s="282" t="s">
         <v>1952</v>
       </c>
-      <c r="D4" s="478" t="s">
+      <c r="D4" s="487" t="s">
         <v>1953</v>
       </c>
-      <c r="E4" s="478"/>
-      <c r="F4" s="478"/>
-      <c r="G4" s="480"/>
-      <c r="H4" s="481" t="s">
+      <c r="E4" s="487"/>
+      <c r="F4" s="487"/>
+      <c r="G4" s="489"/>
+      <c r="H4" s="490" t="s">
         <v>1954</v>
       </c>
-      <c r="I4" s="481"/>
-      <c r="J4" s="481"/>
-      <c r="K4" s="482"/>
-      <c r="L4" s="483" t="s">
+      <c r="I4" s="490"/>
+      <c r="J4" s="490"/>
+      <c r="K4" s="491"/>
+      <c r="L4" s="492" t="s">
         <v>1955</v>
       </c>
-      <c r="M4" s="483"/>
-      <c r="N4" s="483"/>
-      <c r="O4" s="483"/>
-      <c r="P4" s="483"/>
-      <c r="Q4" s="467" t="s">
+      <c r="M4" s="492"/>
+      <c r="N4" s="492"/>
+      <c r="O4" s="492"/>
+      <c r="P4" s="492"/>
+      <c r="Q4" s="476" t="s">
         <v>1956</v>
       </c>
-      <c r="R4" s="468"/>
-      <c r="S4" s="468"/>
-      <c r="T4" s="469"/>
-      <c r="U4" s="470" t="s">
+      <c r="R4" s="477"/>
+      <c r="S4" s="477"/>
+      <c r="T4" s="478"/>
+      <c r="U4" s="479" t="s">
         <v>1957</v>
       </c>
-      <c r="V4" s="470"/>
-      <c r="W4" s="470"/>
-      <c r="X4" s="471"/>
+      <c r="V4" s="479"/>
+      <c r="W4" s="479"/>
+      <c r="X4" s="480"/>
     </row>
     <row r="5" spans="1:24" ht="20" customHeight="1">
-      <c r="A5" s="477"/>
-      <c r="B5" s="479"/>
+      <c r="A5" s="486"/>
+      <c r="B5" s="488"/>
       <c r="C5" s="283" t="s">
         <v>1958</v>
       </c>
@@ -54037,69 +54027,69 @@
     <row r="3" spans="1:22">
       <c r="L3" s="48">
         <f ca="1">TODAY()</f>
-        <v>45381</v>
+        <v>45384</v>
       </c>
       <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A4" s="430" t="s">
+      <c r="A4" s="431" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="430" t="s">
+      <c r="B4" s="431" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="430" t="s">
+      <c r="C4" s="431" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="430" t="s">
+      <c r="D4" s="431" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="435" t="s">
+      <c r="E4" s="437" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="500" t="s">
+      <c r="F4" s="502" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="500"/>
-      <c r="H4" s="501" t="s">
+      <c r="G4" s="502"/>
+      <c r="H4" s="503" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="502"/>
-      <c r="J4" s="498" t="s">
+      <c r="I4" s="504"/>
+      <c r="J4" s="500" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="499"/>
-      <c r="L4" s="430" t="s">
+      <c r="K4" s="501"/>
+      <c r="L4" s="431" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="491" t="s">
+      <c r="N4" s="509" t="s">
         <v>2042</v>
       </c>
-      <c r="O4" s="491" t="s">
+      <c r="O4" s="509" t="s">
         <v>2043</v>
       </c>
-      <c r="P4" s="492" t="s">
+      <c r="P4" s="510" t="s">
         <v>2044</v>
       </c>
-      <c r="Q4" s="493"/>
-      <c r="R4" s="492" t="s">
+      <c r="Q4" s="511"/>
+      <c r="R4" s="510" t="s">
         <v>2047</v>
       </c>
-      <c r="S4" s="493"/>
-      <c r="T4" s="492" t="s">
+      <c r="S4" s="511"/>
+      <c r="T4" s="510" t="s">
         <v>2050</v>
       </c>
-      <c r="U4" s="493"/>
-      <c r="V4" s="484" t="s">
+      <c r="U4" s="511"/>
+      <c r="V4" s="498" t="s">
         <v>2051</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A5" s="430"/>
-      <c r="B5" s="430"/>
-      <c r="C5" s="430"/>
-      <c r="D5" s="430"/>
-      <c r="E5" s="436"/>
+      <c r="A5" s="431"/>
+      <c r="B5" s="431"/>
+      <c r="C5" s="431"/>
+      <c r="D5" s="431"/>
+      <c r="E5" s="438"/>
       <c r="F5" s="49" t="s">
         <v>181</v>
       </c>
@@ -54118,9 +54108,9 @@
       <c r="K5" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="L5" s="430"/>
-      <c r="N5" s="491"/>
-      <c r="O5" s="491"/>
+      <c r="L5" s="431"/>
+      <c r="N5" s="509"/>
+      <c r="O5" s="509"/>
       <c r="P5" s="298" t="s">
         <v>2045</v>
       </c>
@@ -54139,10 +54129,10 @@
       <c r="U5" s="298" t="s">
         <v>2049</v>
       </c>
-      <c r="V5" s="485"/>
+      <c r="V5" s="499"/>
     </row>
     <row r="6" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A6" s="424" t="s">
+      <c r="A6" s="432" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="52" t="s">
@@ -54192,7 +54182,7 @@
       </c>
       <c r="P6" s="260">
         <f>COUNTIFS('0.전체'!J4:J463,'0.수행관리'!N6,'0.전체'!N4:N463,"O")</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="260">
         <f>COUNTIFS('0.전체'!J4:J463,'0.수행관리'!N6,'0.전체'!O4:O463,"O")</f>
@@ -54200,7 +54190,7 @@
       </c>
       <c r="R6" s="260">
         <f>O6-P6</f>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S6" s="260">
         <f>O6-Q6</f>
@@ -54208,7 +54198,7 @@
       </c>
       <c r="T6" s="372">
         <f>P6/O6</f>
-        <v>0.27167630057803466</v>
+        <v>0.2832369942196532</v>
       </c>
       <c r="U6" s="372">
         <f>Q6/O6</f>
@@ -54217,7 +54207,7 @@
       <c r="V6" s="260"/>
     </row>
     <row r="7" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A7" s="424"/>
+      <c r="A7" s="432"/>
       <c r="B7" s="52" t="s">
         <v>142</v>
       </c>
@@ -54290,7 +54280,7 @@
       <c r="V7" s="260"/>
     </row>
     <row r="8" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A8" s="424"/>
+      <c r="A8" s="432"/>
       <c r="B8" s="52" t="s">
         <v>509</v>
       </c>
@@ -54363,12 +54353,12 @@
       <c r="V8" s="260"/>
     </row>
     <row r="9" spans="1:22" ht="20" customHeight="1">
-      <c r="A9" s="422" t="s">
+      <c r="A9" s="443" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="423"/>
-      <c r="C9" s="423"/>
-      <c r="D9" s="497"/>
+      <c r="B9" s="444"/>
+      <c r="C9" s="444"/>
+      <c r="D9" s="508"/>
       <c r="E9" s="60">
         <f>SUM(E6:E8)</f>
         <v>42</v>
@@ -54409,10 +54399,10 @@
       <c r="V9" s="260"/>
     </row>
     <row r="10" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A10" s="424" t="s">
+      <c r="A10" s="432" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="424" t="s">
+      <c r="B10" s="432" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="52" t="s">
@@ -54459,7 +54449,7 @@
       </c>
       <c r="P10" s="169">
         <f t="shared" ref="P10:S10" si="16">SUM(P6:P9)</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="169">
         <f t="shared" si="16"/>
@@ -54467,7 +54457,7 @@
       </c>
       <c r="R10" s="169">
         <f t="shared" si="16"/>
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="S10" s="169">
         <f t="shared" si="16"/>
@@ -54475,7 +54465,7 @@
       </c>
       <c r="T10" s="373">
         <f t="shared" ref="T10" si="17">P10/O10</f>
-        <v>0.184</v>
+        <v>0.18933333333333333</v>
       </c>
       <c r="U10" s="373">
         <f t="shared" ref="U10" si="18">Q10/O10</f>
@@ -54484,8 +54474,8 @@
       <c r="V10" s="169"/>
     </row>
     <row r="11" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A11" s="424"/>
-      <c r="B11" s="424"/>
+      <c r="A11" s="432"/>
+      <c r="B11" s="432"/>
       <c r="C11" s="52" t="s">
         <v>547</v>
       </c>
@@ -54523,8 +54513,8 @@
       <c r="L11" s="58"/>
     </row>
     <row r="12" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A12" s="424"/>
-      <c r="B12" s="424"/>
+      <c r="A12" s="432"/>
+      <c r="B12" s="432"/>
       <c r="C12" s="52" t="s">
         <v>547</v>
       </c>
@@ -54562,8 +54552,8 @@
       <c r="L12" s="58"/>
     </row>
     <row r="13" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A13" s="424"/>
-      <c r="B13" s="424"/>
+      <c r="A13" s="432"/>
+      <c r="B13" s="432"/>
       <c r="C13" s="52" t="s">
         <v>547</v>
       </c>
@@ -54601,8 +54591,8 @@
       <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A14" s="424"/>
-      <c r="B14" s="424"/>
+      <c r="A14" s="432"/>
+      <c r="B14" s="432"/>
       <c r="C14" s="52" t="s">
         <v>547</v>
       </c>
@@ -54640,8 +54630,8 @@
       <c r="L14" s="58"/>
     </row>
     <row r="15" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A15" s="424"/>
-      <c r="B15" s="424"/>
+      <c r="A15" s="432"/>
+      <c r="B15" s="432"/>
       <c r="C15" s="52" t="s">
         <v>547</v>
       </c>
@@ -54679,7 +54669,7 @@
       <c r="L15" s="58"/>
     </row>
     <row r="16" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A16" s="424"/>
+      <c r="A16" s="432"/>
       <c r="B16" s="223" t="s">
         <v>193</v>
       </c>
@@ -54720,8 +54710,8 @@
       <c r="L16" s="63"/>
     </row>
     <row r="17" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A17" s="424"/>
-      <c r="B17" s="495" t="s">
+      <c r="A17" s="432"/>
+      <c r="B17" s="506" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="52" t="s">
@@ -54761,8 +54751,8 @@
       <c r="L17" s="63"/>
     </row>
     <row r="18" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A18" s="424"/>
-      <c r="B18" s="496"/>
+      <c r="A18" s="432"/>
+      <c r="B18" s="507"/>
       <c r="C18" s="57" t="s">
         <v>590</v>
       </c>
@@ -54800,12 +54790,12 @@
       <c r="L18" s="58"/>
     </row>
     <row r="19" spans="1:12" ht="20" customHeight="1" collapsed="1">
-      <c r="A19" s="422" t="s">
+      <c r="A19" s="443" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="423"/>
-      <c r="C19" s="423"/>
-      <c r="D19" s="497"/>
+      <c r="B19" s="444"/>
+      <c r="C19" s="444"/>
+      <c r="D19" s="508"/>
       <c r="E19" s="60">
         <f>SUM(E10:E18)</f>
         <v>15</v>
@@ -54837,7 +54827,7 @@
       <c r="L19" s="62"/>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A20" s="424" t="s">
+      <c r="A20" s="432" t="s">
         <v>189</v>
       </c>
       <c r="B20" s="68" t="s">
@@ -54880,7 +54870,7 @@
       <c r="L20" s="63"/>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A21" s="424"/>
+      <c r="A21" s="432"/>
       <c r="B21" s="68" t="s">
         <v>26</v>
       </c>
@@ -54921,7 +54911,7 @@
       <c r="L21" s="63"/>
     </row>
     <row r="22" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A22" s="424"/>
+      <c r="A22" s="432"/>
       <c r="B22" s="68" t="s">
         <v>26</v>
       </c>
@@ -54962,7 +54952,7 @@
       <c r="L22" s="63"/>
     </row>
     <row r="23" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A23" s="424"/>
+      <c r="A23" s="432"/>
       <c r="B23" s="68" t="s">
         <v>26</v>
       </c>
@@ -55003,7 +54993,7 @@
       <c r="L23" s="63"/>
     </row>
     <row r="24" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A24" s="424"/>
+      <c r="A24" s="432"/>
       <c r="B24" s="68" t="s">
         <v>26</v>
       </c>
@@ -55044,7 +55034,7 @@
       <c r="L24" s="63"/>
     </row>
     <row r="25" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A25" s="424"/>
+      <c r="A25" s="432"/>
       <c r="B25" s="68" t="s">
         <v>35</v>
       </c>
@@ -55085,7 +55075,7 @@
       <c r="L25" s="63"/>
     </row>
     <row r="26" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A26" s="424"/>
+      <c r="A26" s="432"/>
       <c r="B26" s="68" t="s">
         <v>35</v>
       </c>
@@ -55126,7 +55116,7 @@
       <c r="L26" s="63"/>
     </row>
     <row r="27" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A27" s="424"/>
+      <c r="A27" s="432"/>
       <c r="B27" s="68" t="s">
         <v>35</v>
       </c>
@@ -55167,7 +55157,7 @@
       <c r="L27" s="63"/>
     </row>
     <row r="28" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A28" s="424"/>
+      <c r="A28" s="432"/>
       <c r="B28" s="68" t="s">
         <v>39</v>
       </c>
@@ -55208,7 +55198,7 @@
       <c r="L28" s="63"/>
     </row>
     <row r="29" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A29" s="424"/>
+      <c r="A29" s="432"/>
       <c r="B29" s="68" t="s">
         <v>40</v>
       </c>
@@ -55249,12 +55239,12 @@
       <c r="L29" s="63"/>
     </row>
     <row r="30" spans="1:12" ht="20" customHeight="1">
-      <c r="A30" s="422" t="s">
+      <c r="A30" s="443" t="s">
         <v>234</v>
       </c>
-      <c r="B30" s="423"/>
-      <c r="C30" s="423"/>
-      <c r="D30" s="497"/>
+      <c r="B30" s="444"/>
+      <c r="C30" s="444"/>
+      <c r="D30" s="508"/>
       <c r="E30" s="60">
         <f>SUM(E20:E29)</f>
         <v>80</v>
@@ -55286,7 +55276,7 @@
       <c r="L30" s="62"/>
     </row>
     <row r="31" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A31" s="424" t="s">
+      <c r="A31" s="432" t="s">
         <v>191</v>
       </c>
       <c r="B31" s="68" t="s">
@@ -55329,7 +55319,7 @@
       <c r="L31" s="63"/>
     </row>
     <row r="32" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A32" s="424"/>
+      <c r="A32" s="432"/>
       <c r="B32" s="68" t="s">
         <v>55</v>
       </c>
@@ -55370,7 +55360,7 @@
       <c r="L32" s="63"/>
     </row>
     <row r="33" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A33" s="424"/>
+      <c r="A33" s="432"/>
       <c r="B33" s="68" t="s">
         <v>55</v>
       </c>
@@ -55411,7 +55401,7 @@
       <c r="L33" s="63"/>
     </row>
     <row r="34" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A34" s="424"/>
+      <c r="A34" s="432"/>
       <c r="B34" s="68" t="s">
         <v>204</v>
       </c>
@@ -55452,7 +55442,7 @@
       <c r="L34" s="63"/>
     </row>
     <row r="35" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A35" s="424"/>
+      <c r="A35" s="432"/>
       <c r="B35" s="68" t="s">
         <v>204</v>
       </c>
@@ -55493,7 +55483,7 @@
       <c r="L35" s="63"/>
     </row>
     <row r="36" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A36" s="424"/>
+      <c r="A36" s="432"/>
       <c r="B36" s="68" t="s">
         <v>204</v>
       </c>
@@ -55534,7 +55524,7 @@
       <c r="L36" s="63"/>
     </row>
     <row r="37" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A37" s="424"/>
+      <c r="A37" s="432"/>
       <c r="B37" s="68" t="s">
         <v>204</v>
       </c>
@@ -55575,7 +55565,7 @@
       <c r="L37" s="63"/>
     </row>
     <row r="38" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A38" s="424"/>
+      <c r="A38" s="432"/>
       <c r="B38" s="68" t="s">
         <v>204</v>
       </c>
@@ -55616,7 +55606,7 @@
       <c r="L38" s="63"/>
     </row>
     <row r="39" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A39" s="424"/>
+      <c r="A39" s="432"/>
       <c r="B39" s="68" t="s">
         <v>204</v>
       </c>
@@ -55657,7 +55647,7 @@
       <c r="L39" s="63"/>
     </row>
     <row r="40" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A40" s="424"/>
+      <c r="A40" s="432"/>
       <c r="B40" s="68" t="s">
         <v>204</v>
       </c>
@@ -55698,7 +55688,7 @@
       <c r="L40" s="63"/>
     </row>
     <row r="41" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A41" s="424"/>
+      <c r="A41" s="432"/>
       <c r="B41" s="68" t="s">
         <v>204</v>
       </c>
@@ -55739,7 +55729,7 @@
       <c r="L41" s="63"/>
     </row>
     <row r="42" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A42" s="424"/>
+      <c r="A42" s="432"/>
       <c r="B42" s="68" t="s">
         <v>203</v>
       </c>
@@ -55780,7 +55770,7 @@
       <c r="L42" s="59"/>
     </row>
     <row r="43" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A43" s="424"/>
+      <c r="A43" s="432"/>
       <c r="B43" s="68" t="s">
         <v>203</v>
       </c>
@@ -55821,7 +55811,7 @@
       <c r="L43" s="59"/>
     </row>
     <row r="44" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A44" s="424"/>
+      <c r="A44" s="432"/>
       <c r="B44" s="68" t="s">
         <v>203</v>
       </c>
@@ -55862,7 +55852,7 @@
       <c r="L44" s="59"/>
     </row>
     <row r="45" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A45" s="424"/>
+      <c r="A45" s="432"/>
       <c r="B45" s="68" t="s">
         <v>203</v>
       </c>
@@ -55903,7 +55893,7 @@
       <c r="L45" s="59"/>
     </row>
     <row r="46" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A46" s="424"/>
+      <c r="A46" s="432"/>
       <c r="B46" s="68" t="s">
         <v>789</v>
       </c>
@@ -55944,7 +55934,7 @@
       <c r="L46" s="63"/>
     </row>
     <row r="47" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A47" s="424"/>
+      <c r="A47" s="432"/>
       <c r="B47" s="68" t="s">
         <v>74</v>
       </c>
@@ -55960,7 +55950,7 @@
       </c>
       <c r="F47" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D47,'0.전체'!N4:N463,"O")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G47" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D47,'0.전체'!O4:O463,"O")</f>
@@ -55968,7 +55958,7 @@
       </c>
       <c r="H47" s="54">
         <f t="shared" si="30"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I47" s="54">
         <f t="shared" si="31"/>
@@ -55976,7 +55966,7 @@
       </c>
       <c r="J47" s="55">
         <f t="shared" si="32"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K47" s="55">
         <f t="shared" si="33"/>
@@ -55985,7 +55975,7 @@
       <c r="L47" s="63"/>
     </row>
     <row r="48" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A48" s="424"/>
+      <c r="A48" s="432"/>
       <c r="B48" s="255" t="s">
         <v>202</v>
       </c>
@@ -56026,7 +56016,7 @@
       <c r="L48" s="254"/>
     </row>
     <row r="49" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A49" s="424"/>
+      <c r="A49" s="432"/>
       <c r="B49" s="255" t="s">
         <v>202</v>
       </c>
@@ -56067,7 +56057,7 @@
       <c r="L49" s="254"/>
     </row>
     <row r="50" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A50" s="424"/>
+      <c r="A50" s="432"/>
       <c r="B50" s="255" t="s">
         <v>202</v>
       </c>
@@ -56108,7 +56098,7 @@
       <c r="L50" s="254"/>
     </row>
     <row r="51" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A51" s="424"/>
+      <c r="A51" s="432"/>
       <c r="B51" s="68" t="s">
         <v>86</v>
       </c>
@@ -56149,7 +56139,7 @@
       <c r="L51" s="59"/>
     </row>
     <row r="52" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A52" s="424"/>
+      <c r="A52" s="432"/>
       <c r="B52" s="68" t="s">
         <v>86</v>
       </c>
@@ -56165,7 +56155,7 @@
       </c>
       <c r="F52" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D52,'0.전체'!N4:N463,"O")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A31,'0.전체'!E4:E463,'0.수행관리'!D52,'0.전체'!O4:O463,"O")</f>
@@ -56173,7 +56163,7 @@
       </c>
       <c r="H52" s="54">
         <f t="shared" si="30"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I52" s="54">
         <f t="shared" si="31"/>
@@ -56181,7 +56171,7 @@
       </c>
       <c r="J52" s="55">
         <f t="shared" si="32"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K52" s="55">
         <f t="shared" si="33"/>
@@ -56190,7 +56180,7 @@
       <c r="L52" s="59"/>
     </row>
     <row r="53" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A53" s="424"/>
+      <c r="A53" s="432"/>
       <c r="B53" s="68" t="s">
         <v>86</v>
       </c>
@@ -56231,7 +56221,7 @@
       <c r="L53" s="59"/>
     </row>
     <row r="54" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A54" s="424"/>
+      <c r="A54" s="432"/>
       <c r="B54" s="68" t="s">
         <v>86</v>
       </c>
@@ -56272,7 +56262,7 @@
       <c r="L54" s="59"/>
     </row>
     <row r="55" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A55" s="424"/>
+      <c r="A55" s="432"/>
       <c r="B55" s="68" t="s">
         <v>86</v>
       </c>
@@ -56313,7 +56303,7 @@
       <c r="L55" s="59"/>
     </row>
     <row r="56" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A56" s="424"/>
+      <c r="A56" s="432"/>
       <c r="B56" s="68" t="s">
         <v>86</v>
       </c>
@@ -56354,7 +56344,7 @@
       <c r="L56" s="59"/>
     </row>
     <row r="57" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A57" s="424"/>
+      <c r="A57" s="432"/>
       <c r="B57" s="68" t="s">
         <v>86</v>
       </c>
@@ -56395,7 +56385,7 @@
       <c r="L57" s="59"/>
     </row>
     <row r="58" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A58" s="424"/>
+      <c r="A58" s="432"/>
       <c r="B58" s="68" t="s">
         <v>86</v>
       </c>
@@ -56436,7 +56426,7 @@
       <c r="L58" s="59"/>
     </row>
     <row r="59" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A59" s="424"/>
+      <c r="A59" s="432"/>
       <c r="B59" s="255" t="s">
         <v>86</v>
       </c>
@@ -56477,7 +56467,7 @@
       <c r="L59" s="259"/>
     </row>
     <row r="60" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A60" s="424"/>
+      <c r="A60" s="432"/>
       <c r="B60" s="255" t="s">
         <v>86</v>
       </c>
@@ -56518,7 +56508,7 @@
       <c r="L60" s="259"/>
     </row>
     <row r="61" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A61" s="424"/>
+      <c r="A61" s="432"/>
       <c r="B61" s="255" t="s">
         <v>86</v>
       </c>
@@ -56559,7 +56549,7 @@
       <c r="L61" s="259"/>
     </row>
     <row r="62" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A62" s="424"/>
+      <c r="A62" s="432"/>
       <c r="B62" s="68" t="s">
         <v>200</v>
       </c>
@@ -56600,7 +56590,7 @@
       <c r="L62" s="59"/>
     </row>
     <row r="63" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A63" s="424"/>
+      <c r="A63" s="432"/>
       <c r="B63" s="68" t="s">
         <v>199</v>
       </c>
@@ -56641,7 +56631,7 @@
       <c r="L63" s="59"/>
     </row>
     <row r="64" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A64" s="424"/>
+      <c r="A64" s="432"/>
       <c r="B64" s="68" t="s">
         <v>199</v>
       </c>
@@ -56682,7 +56672,7 @@
       <c r="L64" s="59"/>
     </row>
     <row r="65" spans="1:14" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A65" s="424"/>
+      <c r="A65" s="432"/>
       <c r="B65" s="68" t="s">
         <v>199</v>
       </c>
@@ -56723,7 +56713,7 @@
       <c r="L65" s="59"/>
     </row>
     <row r="66" spans="1:14" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A66" s="424"/>
+      <c r="A66" s="432"/>
       <c r="B66" s="68" t="s">
         <v>199</v>
       </c>
@@ -56764,19 +56754,19 @@
       <c r="L66" s="63"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="422" t="s">
+      <c r="A67" s="443" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="423"/>
-      <c r="C67" s="423"/>
-      <c r="D67" s="497"/>
+      <c r="B67" s="444"/>
+      <c r="C67" s="444"/>
+      <c r="D67" s="508"/>
       <c r="E67" s="60">
         <f>SUM(E31:E66)</f>
         <v>238</v>
       </c>
       <c r="F67" s="60">
         <f>SUM(F31:F66)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G67" s="60">
         <f>SUM(G31:G66)</f>
@@ -56784,7 +56774,7 @@
       </c>
       <c r="H67" s="60">
         <f>SUM(H31:H66)</f>
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I67" s="60">
         <f>SUM(I31:I66)</f>
@@ -56792,7 +56782,7 @@
       </c>
       <c r="J67" s="61">
         <f t="shared" si="27"/>
-        <v>0.18907563025210083</v>
+        <v>0.19747899159663865</v>
       </c>
       <c r="K67" s="61">
         <f t="shared" si="28"/>
@@ -56801,19 +56791,19 @@
       <c r="L67" s="62"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="428" t="s">
+      <c r="A68" s="445" t="s">
         <v>236</v>
       </c>
-      <c r="B68" s="429"/>
-      <c r="C68" s="429"/>
-      <c r="D68" s="494"/>
+      <c r="B68" s="446"/>
+      <c r="C68" s="446"/>
+      <c r="D68" s="505"/>
       <c r="E68" s="64">
         <f t="shared" ref="E68:I68" si="38">SUM(E9+E19+E30+E67)</f>
         <v>375</v>
       </c>
       <c r="F68" s="64">
         <f t="shared" si="38"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G68" s="64">
         <f t="shared" si="38"/>
@@ -56821,7 +56811,7 @@
       </c>
       <c r="H68" s="64">
         <f t="shared" si="38"/>
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I68" s="64">
         <f t="shared" si="38"/>
@@ -56829,7 +56819,7 @@
       </c>
       <c r="J68" s="65">
         <f t="shared" si="27"/>
-        <v>0.184</v>
+        <v>0.18933333333333333</v>
       </c>
       <c r="K68" s="65">
         <f t="shared" si="28"/>
@@ -56841,7 +56831,7 @@
       <c r="N69" s="67"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="E70" s="484" t="s">
+      <c r="E70" s="498" t="s">
         <v>955</v>
       </c>
       <c r="F70" s="169">
@@ -56868,7 +56858,7 @@
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="E71" s="485"/>
+      <c r="E71" s="499"/>
       <c r="F71" s="169" t="s">
         <v>1011</v>
       </c>
@@ -57086,16 +57076,16 @@
       <c r="J81" s="276"/>
       <c r="K81" s="276"/>
       <c r="L81" s="276"/>
-      <c r="M81" s="489" t="s">
+      <c r="M81" s="493" t="s">
         <v>2160</v>
       </c>
-      <c r="N81" s="489"/>
-      <c r="O81" s="489"/>
-      <c r="P81" s="489"/>
-      <c r="Q81" s="489"/>
-      <c r="R81" s="489"/>
-      <c r="S81" s="489"/>
-      <c r="T81" s="489"/>
+      <c r="N81" s="493"/>
+      <c r="O81" s="493"/>
+      <c r="P81" s="493"/>
+      <c r="Q81" s="493"/>
+      <c r="R81" s="493"/>
+      <c r="S81" s="493"/>
+      <c r="T81" s="493"/>
     </row>
     <row r="82" spans="3:20">
       <c r="C82" t="s">
@@ -57121,14 +57111,14 @@
       <c r="J82" s="276"/>
       <c r="K82" s="276"/>
       <c r="L82" s="276"/>
-      <c r="M82" s="490"/>
-      <c r="N82" s="490"/>
-      <c r="O82" s="490"/>
-      <c r="P82" s="490"/>
-      <c r="Q82" s="490"/>
-      <c r="R82" s="490"/>
-      <c r="S82" s="490"/>
-      <c r="T82" s="490"/>
+      <c r="M82" s="494"/>
+      <c r="N82" s="494"/>
+      <c r="O82" s="494"/>
+      <c r="P82" s="494"/>
+      <c r="Q82" s="494"/>
+      <c r="R82" s="494"/>
+      <c r="S82" s="494"/>
+      <c r="T82" s="494"/>
     </row>
     <row r="83" spans="3:20">
       <c r="C83" t="s">
@@ -57154,10 +57144,10 @@
       <c r="J83" s="276"/>
       <c r="K83" s="276"/>
       <c r="L83" s="276"/>
-      <c r="M83" s="486" t="s">
+      <c r="M83" s="495" t="s">
         <v>1967</v>
       </c>
-      <c r="N83" s="488" t="s">
+      <c r="N83" s="497" t="s">
         <v>1962</v>
       </c>
       <c r="O83" s="368" t="s">
@@ -57175,7 +57165,7 @@
       <c r="S83" s="368" t="s">
         <v>1965</v>
       </c>
-      <c r="T83" s="488" t="s">
+      <c r="T83" s="497" t="s">
         <v>1964</v>
       </c>
     </row>
@@ -57203,8 +57193,8 @@
       <c r="J84" s="276"/>
       <c r="K84" s="276"/>
       <c r="L84" s="276"/>
-      <c r="M84" s="487"/>
-      <c r="N84" s="487"/>
+      <c r="M84" s="496"/>
+      <c r="N84" s="496"/>
       <c r="O84" s="368">
         <v>0</v>
       </c>
@@ -57221,7 +57211,7 @@
         <f>SUM(O84:R84)</f>
         <v>60</v>
       </c>
-      <c r="T84" s="487"/>
+      <c r="T84" s="496"/>
     </row>
     <row r="85" spans="3:20">
       <c r="C85" t="s">
@@ -57236,11 +57226,11 @@
       </c>
       <c r="F85" s="276">
         <f>COUNTIFS('0.전체'!G4:G463,'0.수행관리'!D85,'0.전체'!N4:N463,"O")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G85" s="374">
         <f t="shared" si="40"/>
-        <v>0.75757575757575757</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="H85" s="275"/>
       <c r="I85" s="275"/>
@@ -57547,40 +57537,40 @@
       </c>
       <c r="F92" s="275">
         <f>SUM(F81:F91)</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G92" s="374">
         <f t="shared" si="40"/>
-        <v>0.184</v>
+        <v>0.18933333333333333</v>
       </c>
       <c r="H92" s="275"/>
       <c r="I92" s="275"/>
-      <c r="M92" s="489" t="s">
+      <c r="M92" s="493" t="s">
         <v>2129</v>
       </c>
-      <c r="N92" s="489"/>
-      <c r="O92" s="489"/>
-      <c r="P92" s="489"/>
-      <c r="Q92" s="489"/>
-      <c r="R92" s="489"/>
-      <c r="S92" s="489"/>
-      <c r="T92" s="489"/>
+      <c r="N92" s="493"/>
+      <c r="O92" s="493"/>
+      <c r="P92" s="493"/>
+      <c r="Q92" s="493"/>
+      <c r="R92" s="493"/>
+      <c r="S92" s="493"/>
+      <c r="T92" s="493"/>
     </row>
     <row r="93" spans="3:20">
-      <c r="M93" s="490"/>
-      <c r="N93" s="490"/>
-      <c r="O93" s="490"/>
-      <c r="P93" s="490"/>
-      <c r="Q93" s="490"/>
-      <c r="R93" s="490"/>
-      <c r="S93" s="490"/>
-      <c r="T93" s="490"/>
+      <c r="M93" s="494"/>
+      <c r="N93" s="494"/>
+      <c r="O93" s="494"/>
+      <c r="P93" s="494"/>
+      <c r="Q93" s="494"/>
+      <c r="R93" s="494"/>
+      <c r="S93" s="494"/>
+      <c r="T93" s="494"/>
     </row>
     <row r="94" spans="3:20">
-      <c r="M94" s="486" t="s">
+      <c r="M94" s="495" t="s">
         <v>955</v>
       </c>
-      <c r="N94" s="488" t="s">
+      <c r="N94" s="497" t="s">
         <v>1011</v>
       </c>
       <c r="O94" s="368" t="s">
@@ -57598,13 +57588,13 @@
       <c r="S94" s="368" t="s">
         <v>1965</v>
       </c>
-      <c r="T94" s="488" t="s">
+      <c r="T94" s="497" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="95" spans="3:20">
-      <c r="M95" s="487"/>
-      <c r="N95" s="487"/>
+      <c r="M95" s="496"/>
+      <c r="N95" s="496"/>
       <c r="O95" s="368">
         <v>24</v>
       </c>
@@ -57615,7 +57605,7 @@
         <f>SUM(O95:R95)</f>
         <v>24</v>
       </c>
-      <c r="T95" s="487"/>
+      <c r="T95" s="496"/>
     </row>
     <row r="96" spans="3:20">
       <c r="M96" s="367" t="s">
@@ -57893,11 +57883,11 @@
       </c>
       <c r="F129">
         <f>F67</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G129" s="375">
         <f>J67</f>
-        <v>0.18907563025210083</v>
+        <v>0.19747899159663865</v>
       </c>
     </row>
     <row r="130" spans="4:7">
@@ -57910,29 +57900,25 @@
       </c>
       <c r="F130">
         <f>F68</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G130" s="375">
         <f>J68</f>
-        <v>0.184</v>
+        <v>0.18933333333333333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M92:T93"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="N94:N95"/>
-    <mergeCell ref="T94:T95"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="T83:T84"/>
+    <mergeCell ref="M81:T82"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B17:B18"/>
@@ -57944,16 +57930,20 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="T83:T84"/>
-    <mergeCell ref="M81:T82"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M92:T93"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="N94:N95"/>
+    <mergeCell ref="T94:T95"/>
+    <mergeCell ref="E70:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -57967,8 +57957,8 @@
   <dimension ref="A1:Q463"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="117" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q142" sqref="Q142:Q378"/>
+      <pane ySplit="3" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O267" sqref="O267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -57987,76 +57977,76 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" thickBot="1"/>
     <row r="2" spans="1:17">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="512" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="509" t="s">
+      <c r="B2" s="512" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="505" t="s">
+      <c r="C2" s="514" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="505" t="s">
+      <c r="D2" s="514" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="505" t="s">
+      <c r="E2" s="514" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="511" t="s">
+      <c r="F2" s="516" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="511" t="s">
+      <c r="G2" s="516" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="511" t="s">
+      <c r="H2" s="516" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="505" t="s">
+      <c r="I2" s="514" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="505" t="s">
+      <c r="J2" s="514" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="503" t="s">
+      <c r="K2" s="517" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="504"/>
-      <c r="M2" s="505" t="s">
+      <c r="L2" s="518"/>
+      <c r="M2" s="514" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="503" t="s">
+      <c r="N2" s="517" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="504"/>
-      <c r="P2" s="507" t="s">
+      <c r="O2" s="518"/>
+      <c r="P2" s="519" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" hidden="1" thickBot="1">
-      <c r="A3" s="510"/>
-      <c r="B3" s="510"/>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="506"/>
-      <c r="J3" s="506"/>
+      <c r="A3" s="513"/>
+      <c r="B3" s="513"/>
+      <c r="C3" s="515"/>
+      <c r="D3" s="515"/>
+      <c r="E3" s="515"/>
+      <c r="F3" s="515"/>
+      <c r="G3" s="515"/>
+      <c r="H3" s="515"/>
+      <c r="I3" s="515"/>
+      <c r="J3" s="515"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="506"/>
+      <c r="M3" s="515"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="508"/>
+      <c r="P3" s="520"/>
     </row>
     <row r="4" spans="1:17" ht="48" hidden="1">
       <c r="A4" s="224">
@@ -58633,7 +58623,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="519">
+      <c r="A16" s="417">
         <v>65</v>
       </c>
       <c r="B16" s="378" t="s">
@@ -58735,19 +58725,19 @@
       <c r="B18" s="225" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="522" t="s">
+      <c r="C18" s="419" t="s">
         <v>2189</v>
       </c>
-      <c r="D18" s="522" t="s">
+      <c r="D18" s="419" t="s">
         <v>1644</v>
       </c>
-      <c r="E18" s="522" t="s">
+      <c r="E18" s="419" t="s">
         <v>1645</v>
       </c>
-      <c r="F18" s="522" t="s">
+      <c r="F18" s="419" t="s">
         <v>1416</v>
       </c>
-      <c r="G18" s="522" t="s">
+      <c r="G18" s="419" t="s">
         <v>1167</v>
       </c>
       <c r="H18" s="238" t="s">
@@ -67169,48 +67159,48 @@
       </c>
     </row>
     <row r="199" spans="1:17" s="406" customFormat="1">
-      <c r="A199" s="520">
+      <c r="A199" s="418">
         <v>112</v>
       </c>
-      <c r="B199" s="512" t="s">
+      <c r="B199" s="411" t="s">
         <v>1289</v>
       </c>
-      <c r="C199" s="512" t="s">
+      <c r="C199" s="411" t="s">
         <v>638</v>
       </c>
-      <c r="D199" s="512" t="s">
+      <c r="D199" s="411" t="s">
         <v>638</v>
       </c>
-      <c r="E199" s="513" t="s">
+      <c r="E199" s="412" t="s">
         <v>640</v>
       </c>
-      <c r="F199" s="513" t="s">
+      <c r="F199" s="412" t="s">
         <v>1163</v>
       </c>
-      <c r="G199" s="513" t="s">
+      <c r="G199" s="412" t="s">
         <v>1165</v>
       </c>
-      <c r="H199" s="513" t="s">
+      <c r="H199" s="412" t="s">
         <v>1336</v>
       </c>
-      <c r="I199" s="512" t="s">
+      <c r="I199" s="411" t="s">
         <v>1337</v>
       </c>
-      <c r="J199" s="514" t="s">
+      <c r="J199" s="413" t="s">
         <v>1968</v>
       </c>
-      <c r="K199" s="514" t="s">
+      <c r="K199" s="413" t="s">
         <v>1971</v>
       </c>
-      <c r="L199" s="514" t="s">
+      <c r="L199" s="413" t="s">
         <v>1971</v>
       </c>
-      <c r="M199" s="515" t="s">
+      <c r="M199" s="414" t="s">
         <v>2215</v>
       </c>
-      <c r="N199" s="514"/>
-      <c r="O199" s="514"/>
-      <c r="P199" s="516"/>
+      <c r="N199" s="413"/>
+      <c r="O199" s="413"/>
+      <c r="P199" s="415"/>
       <c r="Q199" s="406" t="str">
         <f t="shared" si="3"/>
         <v>오류수정.3.분석.112.02. 가시권분석_2023.12.08 5페이지-[공통]텍스트,숫자 입력 또는 표기방식 개선</v>
@@ -69092,7 +69082,7 @@
         <v>오류수정.4.서비스.236.03. 도로점용인허가_2024.01.09 13page-불법도로점용관리 기능 개선</v>
       </c>
     </row>
-    <row r="240" spans="1:17" s="517" customFormat="1">
+    <row r="240" spans="1:17" s="416" customFormat="1">
       <c r="A240" s="398">
         <v>223</v>
       </c>
@@ -69136,7 +69126,7 @@
         <v>2162</v>
       </c>
       <c r="O240" s="392" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="P240" s="394"/>
       <c r="Q240" s="406" t="str">
@@ -69429,49 +69419,51 @@
       </c>
     </row>
     <row r="247" spans="1:17" s="395" customFormat="1">
-      <c r="A247" s="518">
+      <c r="A247" s="400">
         <v>264</v>
       </c>
-      <c r="B247" s="512" t="s">
+      <c r="B247" s="391" t="s">
         <v>190</v>
       </c>
-      <c r="C247" s="513" t="s">
+      <c r="C247" s="397" t="s">
         <v>1762</v>
       </c>
-      <c r="D247" s="513" t="s">
+      <c r="D247" s="397" t="s">
         <v>794</v>
       </c>
-      <c r="E247" s="513" t="s">
+      <c r="E247" s="397" t="s">
         <v>1763</v>
       </c>
-      <c r="F247" s="513" t="s">
+      <c r="F247" s="397" t="s">
         <v>1460</v>
       </c>
-      <c r="G247" s="513" t="s">
+      <c r="G247" s="397" t="s">
         <v>1165</v>
       </c>
-      <c r="H247" s="513" t="s">
+      <c r="H247" s="397" t="s">
         <v>1766</v>
       </c>
-      <c r="I247" s="513" t="s">
+      <c r="I247" s="397" t="s">
         <v>1472</v>
       </c>
-      <c r="J247" s="514" t="s">
+      <c r="J247" s="392" t="s">
         <v>1968</v>
       </c>
-      <c r="K247" s="514" t="s">
+      <c r="K247" s="392" t="s">
         <v>1975</v>
       </c>
-      <c r="L247" s="514" t="s">
+      <c r="L247" s="392" t="s">
         <v>1975</v>
       </c>
-      <c r="M247" s="515" t="s">
-        <v>2215</v>
-      </c>
-      <c r="N247" s="514"/>
-      <c r="O247" s="514"/>
-      <c r="P247" s="516"/>
-      <c r="Q247" s="406" t="str">
+      <c r="M247" s="393">
+        <v>45378</v>
+      </c>
+      <c r="N247" s="392" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O247" s="392"/>
+      <c r="P247" s="394"/>
+      <c r="Q247" s="395" t="str">
         <f t="shared" si="3"/>
         <v>오류수정.4.서비스.264.05. 도시공간분석(입면적,차폐율,조망및전망,바람길)_2024.01.02 1page-도시공간 분석 결과 개선</v>
       </c>
@@ -70350,50 +70342,52 @@
         <v>오류수정.4.서비스.263.05. 도시공간분석(입면적,차폐율,조망및전망,바람길)_2024.01.02 1page-도시공간 분석 결과 개선</v>
       </c>
     </row>
-    <row r="267" spans="1:17">
-      <c r="A267" s="521">
+    <row r="267" spans="1:17" s="395" customFormat="1">
+      <c r="A267" s="396">
         <v>279</v>
       </c>
-      <c r="B267" s="512" t="s">
+      <c r="B267" s="391" t="s">
         <v>190</v>
       </c>
-      <c r="C267" s="513" t="s">
+      <c r="C267" s="397" t="s">
         <v>1771</v>
       </c>
-      <c r="D267" s="513" t="s">
+      <c r="D267" s="397" t="s">
         <v>805</v>
       </c>
-      <c r="E267" s="513" t="s">
+      <c r="E267" s="397" t="s">
         <v>1773</v>
       </c>
-      <c r="F267" s="513" t="s">
+      <c r="F267" s="397" t="s">
         <v>1529</v>
       </c>
-      <c r="G267" s="513" t="s">
+      <c r="G267" s="397" t="s">
         <v>1165</v>
       </c>
-      <c r="H267" s="513" t="s">
+      <c r="H267" s="397" t="s">
         <v>1777</v>
       </c>
-      <c r="I267" s="513" t="s">
+      <c r="I267" s="397" t="s">
         <v>1778</v>
       </c>
-      <c r="J267" s="514" t="s">
+      <c r="J267" s="392" t="s">
         <v>1968</v>
       </c>
-      <c r="K267" s="514" t="s">
+      <c r="K267" s="392" t="s">
         <v>1975</v>
       </c>
-      <c r="L267" s="514" t="s">
+      <c r="L267" s="392" t="s">
         <v>1975</v>
       </c>
-      <c r="M267" s="515" t="s">
-        <v>2216</v>
-      </c>
-      <c r="N267" s="514"/>
-      <c r="O267" s="514"/>
-      <c r="P267" s="516"/>
-      <c r="Q267" s="406" t="str">
+      <c r="M267" s="393">
+        <v>45378</v>
+      </c>
+      <c r="N267" s="392" t="s">
+        <v>2162</v>
+      </c>
+      <c r="O267" s="392"/>
+      <c r="P267" s="394"/>
+      <c r="Q267" s="395" t="str">
         <f t="shared" si="4"/>
         <v>오류수정.4.서비스.279.07. 도시환경분석(수목식재,대기질,가로등)_2024.01.02 5page-식재현황 관리 기능 개선</v>
       </c>
@@ -70440,7 +70434,7 @@
         <v>2162</v>
       </c>
       <c r="O268" s="392" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="P268" s="394"/>
       <c r="Q268" s="406" t="str">
@@ -71918,7 +71912,7 @@
         <v>오류수정.4.서비스.346.10. 재난재해분석_2024.01.09 9page-</v>
       </c>
     </row>
-    <row r="301" spans="1:17" s="517" customFormat="1">
+    <row r="301" spans="1:17" s="416" customFormat="1">
       <c r="A301" s="224">
         <v>347</v>
       </c>
@@ -71962,7 +71956,7 @@
         <v>오류수정.4.서비스.347.10. 재난재해분석_2024.01.09 9page-</v>
       </c>
     </row>
-    <row r="302" spans="1:17" s="517" customFormat="1">
+    <row r="302" spans="1:17" s="416" customFormat="1">
       <c r="A302" s="224">
         <v>356</v>
       </c>
@@ -72473,7 +72467,7 @@
       <c r="H313" s="230" t="s">
         <v>1091</v>
       </c>
-      <c r="I313" s="522" t="s">
+      <c r="I313" s="419" t="s">
         <v>1092</v>
       </c>
       <c r="J313" s="231" t="s">
@@ -72519,7 +72513,7 @@
       <c r="H314" s="230" t="s">
         <v>1093</v>
       </c>
-      <c r="I314" s="522" t="s">
+      <c r="I314" s="419" t="s">
         <v>1094</v>
       </c>
       <c r="J314" s="231" t="s">
@@ -73633,7 +73627,7 @@
       <c r="H339" s="230" t="s">
         <v>1096</v>
       </c>
-      <c r="I339" s="522" t="s">
+      <c r="I339" s="419" t="s">
         <v>1094</v>
       </c>
       <c r="J339" s="231" t="s">
@@ -73861,7 +73855,7 @@
       <c r="H344" s="230" t="s">
         <v>1097</v>
       </c>
-      <c r="I344" s="522" t="s">
+      <c r="I344" s="419" t="s">
         <v>1098</v>
       </c>
       <c r="J344" s="231" t="s">
@@ -73951,7 +73945,7 @@
       <c r="H346" s="238" t="s">
         <v>1099</v>
       </c>
-      <c r="I346" s="522" t="s">
+      <c r="I346" s="419" t="s">
         <v>1098</v>
       </c>
       <c r="J346" s="231" t="s">
@@ -74085,7 +74079,7 @@
       <c r="H349" s="250" t="s">
         <v>1017</v>
       </c>
-      <c r="I349" s="522" t="s">
+      <c r="I349" s="419" t="s">
         <v>1098</v>
       </c>
       <c r="J349" s="231" t="s">
@@ -74131,7 +74125,7 @@
       <c r="H350" s="230" t="s">
         <v>1100</v>
       </c>
-      <c r="I350" s="522" t="s">
+      <c r="I350" s="419" t="s">
         <v>1101</v>
       </c>
       <c r="J350" s="231" t="s">
@@ -74445,7 +74439,7 @@
       <c r="H357" s="230" t="s">
         <v>1104</v>
       </c>
-      <c r="I357" s="522" t="s">
+      <c r="I357" s="419" t="s">
         <v>1103</v>
       </c>
       <c r="J357" s="231" t="s">
@@ -74535,7 +74529,7 @@
       <c r="H359" s="230" t="s">
         <v>1105</v>
       </c>
-      <c r="I359" s="522" t="s">
+      <c r="I359" s="419" t="s">
         <v>1106</v>
       </c>
       <c r="J359" s="231" t="s">
@@ -74581,7 +74575,7 @@
       <c r="H360" s="230" t="s">
         <v>1107</v>
       </c>
-      <c r="I360" s="522" t="s">
+      <c r="I360" s="419" t="s">
         <v>1108</v>
       </c>
       <c r="J360" s="231" t="s">
@@ -77123,11 +77117,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:O2"/>
@@ -77137,6 +77126,11 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2024.01.02.김경수부장/LXDTP_플랫폼1차_개선 현황표_2024.03.11(월).xlsx
+++ b/2024.01.02.김경수부장/LXDTP_플랫폼1차_개선 현황표_2024.03.11(월).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/softm/Work/onpoom/2024.01.02.김경수부장/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2029A7E7-4873-6B4B-9642-F2105CF19AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAA78D9-D291-874B-AF51-89D94189DD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="680" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9994,7 +9994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="512">
+  <cellXfs count="515">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11235,6 +11235,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -11534,16 +11546,13 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11600,41 +11609,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -11650,13 +11624,6 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11684,7 +11651,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11698,7 +11679,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11712,6 +11693,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -11719,7 +11707,28 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -21425,15 +21434,15 @@
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
-      <c r="E1" s="408"/>
-      <c r="F1" s="408"/>
-      <c r="G1" s="408"/>
-      <c r="H1" s="408"/>
-      <c r="I1" s="408"/>
-      <c r="J1" s="408"/>
-      <c r="K1" s="408"/>
-      <c r="L1" s="408"/>
-      <c r="M1" s="408"/>
+      <c r="E1" s="412"/>
+      <c r="F1" s="412"/>
+      <c r="G1" s="412"/>
+      <c r="H1" s="412"/>
+      <c r="I1" s="412"/>
+      <c r="J1" s="412"/>
+      <c r="K1" s="412"/>
+      <c r="L1" s="412"/>
+      <c r="M1" s="412"/>
       <c r="N1" s="76"/>
       <c r="O1" s="76"/>
       <c r="P1" s="76"/>
@@ -21464,15 +21473,15 @@
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
-      <c r="E2" s="408"/>
-      <c r="F2" s="408"/>
-      <c r="G2" s="408"/>
-      <c r="H2" s="408"/>
-      <c r="I2" s="408"/>
-      <c r="J2" s="408"/>
-      <c r="K2" s="408"/>
-      <c r="L2" s="408"/>
-      <c r="M2" s="408"/>
+      <c r="E2" s="412"/>
+      <c r="F2" s="412"/>
+      <c r="G2" s="412"/>
+      <c r="H2" s="412"/>
+      <c r="I2" s="412"/>
+      <c r="J2" s="412"/>
+      <c r="K2" s="412"/>
+      <c r="L2" s="412"/>
+      <c r="M2" s="412"/>
       <c r="N2" s="76"/>
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
@@ -21503,15 +21512,15 @@
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
       <c r="D3" s="76"/>
-      <c r="E3" s="408"/>
-      <c r="F3" s="408"/>
-      <c r="G3" s="408"/>
-      <c r="H3" s="408"/>
-      <c r="I3" s="408"/>
-      <c r="J3" s="408"/>
-      <c r="K3" s="408"/>
-      <c r="L3" s="408"/>
-      <c r="M3" s="408"/>
+      <c r="E3" s="412"/>
+      <c r="F3" s="412"/>
+      <c r="G3" s="412"/>
+      <c r="H3" s="412"/>
+      <c r="I3" s="412"/>
+      <c r="J3" s="412"/>
+      <c r="K3" s="412"/>
+      <c r="L3" s="412"/>
+      <c r="M3" s="412"/>
       <c r="N3" s="76"/>
       <c r="O3" s="76"/>
       <c r="P3" s="76"/>
@@ -21542,15 +21551,15 @@
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
-      <c r="E4" s="408"/>
-      <c r="F4" s="408"/>
-      <c r="G4" s="408"/>
-      <c r="H4" s="408"/>
-      <c r="I4" s="408"/>
-      <c r="J4" s="408"/>
-      <c r="K4" s="408"/>
-      <c r="L4" s="408"/>
-      <c r="M4" s="408"/>
+      <c r="E4" s="412"/>
+      <c r="F4" s="412"/>
+      <c r="G4" s="412"/>
+      <c r="H4" s="412"/>
+      <c r="I4" s="412"/>
+      <c r="J4" s="412"/>
+      <c r="K4" s="412"/>
+      <c r="L4" s="412"/>
+      <c r="M4" s="412"/>
       <c r="N4" s="76"/>
       <c r="O4" s="76"/>
       <c r="P4" s="76"/>
@@ -21581,15 +21590,15 @@
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
       <c r="D5" s="76"/>
-      <c r="E5" s="408"/>
-      <c r="F5" s="408"/>
-      <c r="G5" s="408"/>
-      <c r="H5" s="408"/>
-      <c r="I5" s="408"/>
-      <c r="J5" s="408"/>
-      <c r="K5" s="408"/>
-      <c r="L5" s="408"/>
-      <c r="M5" s="408"/>
+      <c r="E5" s="412"/>
+      <c r="F5" s="412"/>
+      <c r="G5" s="412"/>
+      <c r="H5" s="412"/>
+      <c r="I5" s="412"/>
+      <c r="J5" s="412"/>
+      <c r="K5" s="412"/>
+      <c r="L5" s="412"/>
+      <c r="M5" s="412"/>
       <c r="N5" s="76"/>
       <c r="O5" s="76"/>
       <c r="P5" s="76"/>
@@ -21620,15 +21629,15 @@
       <c r="B6" s="76"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
-      <c r="E6" s="408"/>
-      <c r="F6" s="408"/>
-      <c r="G6" s="408"/>
-      <c r="H6" s="408"/>
-      <c r="I6" s="408"/>
-      <c r="J6" s="408"/>
-      <c r="K6" s="408"/>
-      <c r="L6" s="408"/>
-      <c r="M6" s="408"/>
+      <c r="E6" s="412"/>
+      <c r="F6" s="412"/>
+      <c r="G6" s="412"/>
+      <c r="H6" s="412"/>
+      <c r="I6" s="412"/>
+      <c r="J6" s="412"/>
+      <c r="K6" s="412"/>
+      <c r="L6" s="412"/>
+      <c r="M6" s="412"/>
       <c r="N6" s="76"/>
       <c r="O6" s="76"/>
       <c r="P6" s="76"/>
@@ -21659,15 +21668,15 @@
       <c r="B7" s="79"/>
       <c r="C7" s="79"/>
       <c r="D7" s="79"/>
-      <c r="E7" s="408"/>
-      <c r="F7" s="408"/>
-      <c r="G7" s="408"/>
-      <c r="H7" s="408"/>
-      <c r="I7" s="408"/>
-      <c r="J7" s="408"/>
-      <c r="K7" s="408"/>
-      <c r="L7" s="408"/>
-      <c r="M7" s="408"/>
+      <c r="E7" s="412"/>
+      <c r="F7" s="412"/>
+      <c r="G7" s="412"/>
+      <c r="H7" s="412"/>
+      <c r="I7" s="412"/>
+      <c r="J7" s="412"/>
+      <c r="K7" s="412"/>
+      <c r="L7" s="412"/>
+      <c r="M7" s="412"/>
       <c r="N7" s="79"/>
       <c r="O7" s="79"/>
       <c r="P7" s="79"/>
@@ -21739,15 +21748,15 @@
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
       <c r="D9" s="76"/>
-      <c r="E9" s="408"/>
-      <c r="F9" s="408"/>
-      <c r="G9" s="408"/>
-      <c r="H9" s="408"/>
-      <c r="I9" s="408"/>
-      <c r="J9" s="408"/>
-      <c r="K9" s="408"/>
-      <c r="L9" s="408"/>
-      <c r="M9" s="408"/>
+      <c r="E9" s="412"/>
+      <c r="F9" s="412"/>
+      <c r="G9" s="412"/>
+      <c r="H9" s="412"/>
+      <c r="I9" s="412"/>
+      <c r="J9" s="412"/>
+      <c r="K9" s="412"/>
+      <c r="L9" s="412"/>
+      <c r="M9" s="412"/>
       <c r="N9" s="76"/>
       <c r="O9" s="76"/>
       <c r="P9" s="76"/>
@@ -22062,27 +22071,27 @@
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
       <c r="K17" s="76"/>
-      <c r="L17" s="407"/>
-      <c r="M17" s="407"/>
-      <c r="N17" s="407"/>
-      <c r="O17" s="407"/>
-      <c r="P17" s="407"/>
-      <c r="Q17" s="407"/>
-      <c r="R17" s="407"/>
-      <c r="S17" s="407"/>
-      <c r="T17" s="407"/>
-      <c r="U17" s="407"/>
-      <c r="V17" s="407"/>
-      <c r="W17" s="407"/>
-      <c r="X17" s="407"/>
-      <c r="Y17" s="407"/>
-      <c r="Z17" s="407"/>
-      <c r="AA17" s="407"/>
-      <c r="AB17" s="407"/>
-      <c r="AC17" s="407"/>
-      <c r="AD17" s="407"/>
-      <c r="AE17" s="407"/>
-      <c r="AF17" s="407"/>
+      <c r="L17" s="411"/>
+      <c r="M17" s="411"/>
+      <c r="N17" s="411"/>
+      <c r="O17" s="411"/>
+      <c r="P17" s="411"/>
+      <c r="Q17" s="411"/>
+      <c r="R17" s="411"/>
+      <c r="S17" s="411"/>
+      <c r="T17" s="411"/>
+      <c r="U17" s="411"/>
+      <c r="V17" s="411"/>
+      <c r="W17" s="411"/>
+      <c r="X17" s="411"/>
+      <c r="Y17" s="411"/>
+      <c r="Z17" s="411"/>
+      <c r="AA17" s="411"/>
+      <c r="AB17" s="411"/>
+      <c r="AC17" s="411"/>
+      <c r="AD17" s="411"/>
+      <c r="AE17" s="411"/>
+      <c r="AF17" s="411"/>
       <c r="AG17" s="76"/>
       <c r="AH17" s="76"/>
       <c r="AI17" s="76"/>
@@ -22101,27 +22110,27 @@
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
       <c r="K18" s="76"/>
-      <c r="L18" s="407"/>
-      <c r="M18" s="407"/>
-      <c r="N18" s="407"/>
-      <c r="O18" s="407"/>
-      <c r="P18" s="407"/>
-      <c r="Q18" s="407"/>
-      <c r="R18" s="407"/>
-      <c r="S18" s="407"/>
-      <c r="T18" s="407"/>
-      <c r="U18" s="407"/>
-      <c r="V18" s="407"/>
-      <c r="W18" s="407"/>
-      <c r="X18" s="407"/>
-      <c r="Y18" s="407"/>
-      <c r="Z18" s="407"/>
-      <c r="AA18" s="407"/>
-      <c r="AB18" s="407"/>
-      <c r="AC18" s="407"/>
-      <c r="AD18" s="407"/>
-      <c r="AE18" s="407"/>
-      <c r="AF18" s="407"/>
+      <c r="L18" s="411"/>
+      <c r="M18" s="411"/>
+      <c r="N18" s="411"/>
+      <c r="O18" s="411"/>
+      <c r="P18" s="411"/>
+      <c r="Q18" s="411"/>
+      <c r="R18" s="411"/>
+      <c r="S18" s="411"/>
+      <c r="T18" s="411"/>
+      <c r="U18" s="411"/>
+      <c r="V18" s="411"/>
+      <c r="W18" s="411"/>
+      <c r="X18" s="411"/>
+      <c r="Y18" s="411"/>
+      <c r="Z18" s="411"/>
+      <c r="AA18" s="411"/>
+      <c r="AB18" s="411"/>
+      <c r="AC18" s="411"/>
+      <c r="AD18" s="411"/>
+      <c r="AE18" s="411"/>
+      <c r="AF18" s="411"/>
       <c r="AG18" s="76"/>
       <c r="AH18" s="76"/>
       <c r="AI18" s="76"/>
@@ -22144,14 +22153,14 @@
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
       <c r="O19" s="89"/>
-      <c r="P19" s="409"/>
-      <c r="Q19" s="409"/>
-      <c r="R19" s="409"/>
-      <c r="S19" s="409"/>
-      <c r="T19" s="409"/>
-      <c r="U19" s="409"/>
-      <c r="V19" s="409"/>
-      <c r="W19" s="409"/>
+      <c r="P19" s="413"/>
+      <c r="Q19" s="413"/>
+      <c r="R19" s="413"/>
+      <c r="S19" s="413"/>
+      <c r="T19" s="413"/>
+      <c r="U19" s="413"/>
+      <c r="V19" s="413"/>
+      <c r="W19" s="413"/>
       <c r="X19" s="89"/>
       <c r="Y19" s="89"/>
       <c r="Z19" s="89"/>
@@ -22183,16 +22192,16 @@
       <c r="M20" s="76"/>
       <c r="N20" s="76"/>
       <c r="O20" s="76"/>
-      <c r="P20" s="407"/>
-      <c r="Q20" s="407"/>
-      <c r="R20" s="407"/>
-      <c r="S20" s="407"/>
-      <c r="T20" s="407"/>
-      <c r="U20" s="407"/>
-      <c r="V20" s="407"/>
-      <c r="W20" s="407"/>
-      <c r="X20" s="407"/>
-      <c r="Y20" s="407"/>
+      <c r="P20" s="411"/>
+      <c r="Q20" s="411"/>
+      <c r="R20" s="411"/>
+      <c r="S20" s="411"/>
+      <c r="T20" s="411"/>
+      <c r="U20" s="411"/>
+      <c r="V20" s="411"/>
+      <c r="W20" s="411"/>
+      <c r="X20" s="411"/>
+      <c r="Y20" s="411"/>
       <c r="Z20" s="76"/>
       <c r="AA20" s="76"/>
       <c r="AB20" s="76"/>
@@ -22222,16 +22231,16 @@
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
       <c r="O21" s="76"/>
-      <c r="P21" s="407"/>
-      <c r="Q21" s="407"/>
-      <c r="R21" s="407"/>
-      <c r="S21" s="407"/>
-      <c r="T21" s="407"/>
-      <c r="U21" s="407"/>
-      <c r="V21" s="407"/>
-      <c r="W21" s="407"/>
-      <c r="X21" s="407"/>
-      <c r="Y21" s="407"/>
+      <c r="P21" s="411"/>
+      <c r="Q21" s="411"/>
+      <c r="R21" s="411"/>
+      <c r="S21" s="411"/>
+      <c r="T21" s="411"/>
+      <c r="U21" s="411"/>
+      <c r="V21" s="411"/>
+      <c r="W21" s="411"/>
+      <c r="X21" s="411"/>
+      <c r="Y21" s="411"/>
       <c r="Z21" s="76"/>
       <c r="AA21" s="76"/>
       <c r="AB21" s="76"/>
@@ -22261,16 +22270,16 @@
       <c r="M22" s="76"/>
       <c r="N22" s="76"/>
       <c r="O22" s="76"/>
-      <c r="P22" s="407"/>
-      <c r="Q22" s="407"/>
-      <c r="R22" s="407"/>
-      <c r="S22" s="407"/>
-      <c r="T22" s="407"/>
-      <c r="U22" s="407"/>
-      <c r="V22" s="407"/>
-      <c r="W22" s="407"/>
-      <c r="X22" s="407"/>
-      <c r="Y22" s="407"/>
+      <c r="P22" s="411"/>
+      <c r="Q22" s="411"/>
+      <c r="R22" s="411"/>
+      <c r="S22" s="411"/>
+      <c r="T22" s="411"/>
+      <c r="U22" s="411"/>
+      <c r="V22" s="411"/>
+      <c r="W22" s="411"/>
+      <c r="X22" s="411"/>
+      <c r="Y22" s="411"/>
       <c r="Z22" s="76"/>
       <c r="AA22" s="76"/>
       <c r="AB22" s="76"/>
@@ -22300,16 +22309,16 @@
       <c r="M23" s="76"/>
       <c r="N23" s="76"/>
       <c r="O23" s="76"/>
-      <c r="P23" s="407"/>
-      <c r="Q23" s="407"/>
-      <c r="R23" s="407"/>
-      <c r="S23" s="407"/>
-      <c r="T23" s="407"/>
-      <c r="U23" s="407"/>
-      <c r="V23" s="407"/>
-      <c r="W23" s="407"/>
-      <c r="X23" s="407"/>
-      <c r="Y23" s="407"/>
+      <c r="P23" s="411"/>
+      <c r="Q23" s="411"/>
+      <c r="R23" s="411"/>
+      <c r="S23" s="411"/>
+      <c r="T23" s="411"/>
+      <c r="U23" s="411"/>
+      <c r="V23" s="411"/>
+      <c r="W23" s="411"/>
+      <c r="X23" s="411"/>
+      <c r="Y23" s="411"/>
       <c r="Z23" s="76"/>
       <c r="AA23" s="76"/>
       <c r="AB23" s="76"/>
@@ -22869,76 +22878,76 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="505" t="s">
+      <c r="A2" s="509" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="505" t="s">
+      <c r="B2" s="509" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="501" t="s">
+      <c r="C2" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="501" t="s">
+      <c r="D2" s="505" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="501" t="s">
+      <c r="E2" s="505" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="507" t="s">
+      <c r="F2" s="511" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="507" t="s">
+      <c r="G2" s="511" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="501" t="s">
+      <c r="H2" s="505" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="501" t="s">
+      <c r="I2" s="505" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="501" t="s">
+      <c r="J2" s="505" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="499" t="s">
+      <c r="K2" s="503" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="500"/>
-      <c r="M2" s="501" t="s">
+      <c r="L2" s="504"/>
+      <c r="M2" s="505" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="499" t="s">
+      <c r="N2" s="503" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="500"/>
-      <c r="P2" s="503" t="s">
+      <c r="O2" s="504"/>
+      <c r="P2" s="507" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
-      <c r="A3" s="506"/>
-      <c r="B3" s="506"/>
-      <c r="C3" s="502"/>
-      <c r="D3" s="502"/>
-      <c r="E3" s="502"/>
-      <c r="F3" s="502"/>
-      <c r="G3" s="502"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="502"/>
-      <c r="J3" s="502"/>
+      <c r="A3" s="510"/>
+      <c r="B3" s="510"/>
+      <c r="C3" s="506"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="506"/>
+      <c r="F3" s="506"/>
+      <c r="G3" s="506"/>
+      <c r="H3" s="506"/>
+      <c r="I3" s="506"/>
+      <c r="J3" s="506"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="502"/>
+      <c r="M3" s="506"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="504"/>
+      <c r="P3" s="508"/>
     </row>
     <row r="4" spans="1:16" ht="32">
       <c r="A4" s="229">
@@ -25308,76 +25317,76 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="505" t="s">
+      <c r="A2" s="509" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="505" t="s">
+      <c r="B2" s="509" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="501" t="s">
+      <c r="C2" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="501" t="s">
+      <c r="D2" s="505" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="501" t="s">
+      <c r="E2" s="505" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="507" t="s">
+      <c r="F2" s="511" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="507" t="s">
+      <c r="G2" s="511" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="501" t="s">
+      <c r="H2" s="505" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="501" t="s">
+      <c r="I2" s="505" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="501" t="s">
+      <c r="J2" s="505" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="499" t="s">
+      <c r="K2" s="503" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="500"/>
-      <c r="M2" s="501" t="s">
+      <c r="L2" s="504"/>
+      <c r="M2" s="505" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="499" t="s">
+      <c r="N2" s="503" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="500"/>
-      <c r="P2" s="503" t="s">
+      <c r="O2" s="504"/>
+      <c r="P2" s="507" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
-      <c r="A3" s="506"/>
-      <c r="B3" s="506"/>
-      <c r="C3" s="502"/>
-      <c r="D3" s="502"/>
-      <c r="E3" s="502"/>
-      <c r="F3" s="502"/>
-      <c r="G3" s="502"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="502"/>
-      <c r="J3" s="502"/>
+      <c r="A3" s="510"/>
+      <c r="B3" s="510"/>
+      <c r="C3" s="506"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="506"/>
+      <c r="F3" s="506"/>
+      <c r="G3" s="506"/>
+      <c r="H3" s="506"/>
+      <c r="I3" s="506"/>
+      <c r="J3" s="506"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="502"/>
+      <c r="M3" s="506"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="504"/>
+      <c r="P3" s="508"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="229">
@@ -27359,76 +27368,76 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="505" t="s">
+      <c r="A2" s="509" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="501" t="s">
+      <c r="B2" s="505" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="501" t="s">
+      <c r="C2" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="501" t="s">
+      <c r="D2" s="505" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="501" t="s">
+      <c r="E2" s="505" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="507" t="s">
+      <c r="F2" s="511" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="507" t="s">
+      <c r="G2" s="511" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="501" t="s">
+      <c r="H2" s="505" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="501" t="s">
+      <c r="I2" s="505" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="501" t="s">
+      <c r="J2" s="505" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="499" t="s">
+      <c r="K2" s="503" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="500"/>
-      <c r="M2" s="501" t="s">
+      <c r="L2" s="504"/>
+      <c r="M2" s="505" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="499" t="s">
+      <c r="N2" s="503" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="500"/>
-      <c r="P2" s="503" t="s">
+      <c r="O2" s="504"/>
+      <c r="P2" s="507" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
-      <c r="A3" s="506"/>
-      <c r="B3" s="502"/>
-      <c r="C3" s="502"/>
-      <c r="D3" s="502"/>
-      <c r="E3" s="502"/>
-      <c r="F3" s="502"/>
-      <c r="G3" s="502"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="502"/>
-      <c r="J3" s="502"/>
+      <c r="A3" s="510"/>
+      <c r="B3" s="506"/>
+      <c r="C3" s="506"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="506"/>
+      <c r="F3" s="506"/>
+      <c r="G3" s="506"/>
+      <c r="H3" s="506"/>
+      <c r="I3" s="506"/>
+      <c r="J3" s="506"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="502"/>
+      <c r="M3" s="506"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="504"/>
+      <c r="P3" s="508"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="224">
@@ -30897,76 +30906,76 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="505" t="s">
+      <c r="A2" s="509" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="505" t="s">
+      <c r="B2" s="509" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="501" t="s">
+      <c r="C2" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="501" t="s">
+      <c r="D2" s="505" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="501" t="s">
+      <c r="E2" s="505" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="507" t="s">
+      <c r="F2" s="511" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="507" t="s">
+      <c r="G2" s="511" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="501" t="s">
+      <c r="H2" s="505" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="501" t="s">
+      <c r="I2" s="505" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="501" t="s">
+      <c r="J2" s="505" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="499" t="s">
+      <c r="K2" s="503" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="500"/>
-      <c r="M2" s="501" t="s">
+      <c r="L2" s="504"/>
+      <c r="M2" s="505" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="499" t="s">
+      <c r="N2" s="503" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="500"/>
-      <c r="P2" s="503" t="s">
+      <c r="O2" s="504"/>
+      <c r="P2" s="507" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" hidden="1" thickBot="1">
-      <c r="A3" s="506"/>
-      <c r="B3" s="506"/>
-      <c r="C3" s="502"/>
-      <c r="D3" s="502"/>
-      <c r="E3" s="502"/>
-      <c r="F3" s="502"/>
-      <c r="G3" s="502"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="502"/>
-      <c r="J3" s="502"/>
+      <c r="A3" s="510"/>
+      <c r="B3" s="510"/>
+      <c r="C3" s="506"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="506"/>
+      <c r="F3" s="506"/>
+      <c r="G3" s="506"/>
+      <c r="H3" s="506"/>
+      <c r="I3" s="506"/>
+      <c r="J3" s="506"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="502"/>
+      <c r="M3" s="506"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="504"/>
+      <c r="P3" s="508"/>
     </row>
     <row r="4" spans="1:16" hidden="1">
       <c r="A4" s="224">
@@ -41021,7 +41030,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" thickTop="1">
-      <c r="A4" s="410" t="s">
+      <c r="A4" s="414" t="s">
         <v>243</v>
       </c>
       <c r="B4" s="95" t="s">
@@ -41030,22 +41039,22 @@
       <c r="C4" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="D4" s="412" t="s">
+      <c r="D4" s="416" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" thickBot="1">
-      <c r="A5" s="411"/>
+      <c r="A5" s="415"/>
       <c r="B5" s="96" t="s">
         <v>2210</v>
       </c>
       <c r="C5" s="96" t="s">
         <v>2211</v>
       </c>
-      <c r="D5" s="413"/>
+      <c r="D5" s="417"/>
     </row>
     <row r="6" spans="1:4" ht="115" thickTop="1">
-      <c r="A6" s="414" t="s">
+      <c r="A6" s="418" t="s">
         <v>957</v>
       </c>
       <c r="B6" s="97" t="s">
@@ -41059,7 +41068,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="96">
-      <c r="A7" s="415"/>
+      <c r="A7" s="419"/>
       <c r="B7" s="99" t="s">
         <v>2175</v>
       </c>
@@ -41069,31 +41078,31 @@
       <c r="D7" s="100"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="415"/>
+      <c r="A8" s="419"/>
       <c r="B8" s="101"/>
       <c r="C8" s="102"/>
       <c r="D8" s="100"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="415"/>
+      <c r="A9" s="419"/>
       <c r="B9" s="101"/>
       <c r="C9" s="101"/>
       <c r="D9" s="100"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="415"/>
+      <c r="A10" s="419"/>
       <c r="B10" s="101"/>
       <c r="C10" s="103"/>
       <c r="D10" s="100"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="415"/>
+      <c r="A11" s="419"/>
       <c r="B11" s="104"/>
       <c r="C11" s="102"/>
       <c r="D11" s="100"/>
     </row>
     <row r="12" spans="1:4" ht="128">
-      <c r="A12" s="415"/>
+      <c r="A12" s="419"/>
       <c r="B12" s="120" t="s">
         <v>2186</v>
       </c>
@@ -41103,7 +41112,7 @@
       <c r="D12" s="100"/>
     </row>
     <row r="13" spans="1:4" ht="48">
-      <c r="A13" s="415"/>
+      <c r="A13" s="419"/>
       <c r="B13" s="101" t="s">
         <v>256</v>
       </c>
@@ -41111,24 +41120,24 @@
       <c r="D13" s="100"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="415"/>
+      <c r="A14" s="419"/>
       <c r="C14" s="101"/>
       <c r="D14" s="100"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="415"/>
+      <c r="A15" s="419"/>
       <c r="B15" s="106"/>
       <c r="C15" s="101"/>
       <c r="D15" s="100"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="415"/>
+      <c r="A16" s="419"/>
       <c r="B16" s="106"/>
       <c r="C16" s="101"/>
       <c r="D16" s="100"/>
     </row>
     <row r="17" spans="1:4" ht="144">
-      <c r="A17" s="415"/>
+      <c r="A17" s="419"/>
       <c r="B17" s="120" t="s">
         <v>2188</v>
       </c>
@@ -41138,7 +41147,7 @@
       <c r="D17" s="100"/>
     </row>
     <row r="18" spans="1:4" ht="32">
-      <c r="A18" s="415"/>
+      <c r="A18" s="419"/>
       <c r="B18" s="101" t="s">
         <v>248</v>
       </c>
@@ -41146,25 +41155,25 @@
       <c r="D18" s="100"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="415"/>
+      <c r="A19" s="419"/>
       <c r="B19" s="103"/>
       <c r="C19" s="103"/>
       <c r="D19" s="100"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="415"/>
+      <c r="A20" s="419"/>
       <c r="B20" s="103"/>
       <c r="C20" s="103"/>
       <c r="D20" s="100"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="415"/>
+      <c r="A21" s="419"/>
       <c r="B21" s="99"/>
       <c r="C21" s="99"/>
       <c r="D21" s="100"/>
     </row>
     <row r="22" spans="1:4" ht="256">
-      <c r="A22" s="415"/>
+      <c r="A22" s="419"/>
       <c r="B22" s="99" t="s">
         <v>2196</v>
       </c>
@@ -41174,31 +41183,31 @@
       <c r="D22" s="100"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="415"/>
+      <c r="A23" s="419"/>
       <c r="B23" s="101"/>
       <c r="C23" s="103"/>
       <c r="D23" s="100"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="415"/>
+      <c r="A24" s="419"/>
       <c r="B24" s="103"/>
       <c r="C24" s="103"/>
       <c r="D24" s="100"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="415"/>
+      <c r="A25" s="419"/>
       <c r="B25" s="103"/>
       <c r="C25" s="103"/>
       <c r="D25" s="100"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="415"/>
+      <c r="A26" s="419"/>
       <c r="B26" s="103"/>
       <c r="C26" s="103"/>
       <c r="D26" s="100"/>
     </row>
     <row r="27" spans="1:4" ht="18">
-      <c r="A27" s="415"/>
+      <c r="A27" s="419"/>
       <c r="B27" s="97" t="s">
         <v>249</v>
       </c>
@@ -41208,7 +41217,7 @@
       <c r="D27" s="100"/>
     </row>
     <row r="28" spans="1:4" ht="32">
-      <c r="A28" s="415"/>
+      <c r="A28" s="419"/>
       <c r="B28" s="103"/>
       <c r="C28" s="103" t="s">
         <v>255</v>
@@ -41216,31 +41225,31 @@
       <c r="D28" s="100"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="415"/>
+      <c r="A29" s="419"/>
       <c r="B29" s="103"/>
       <c r="C29" s="103"/>
       <c r="D29" s="100"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="415"/>
+      <c r="A30" s="419"/>
       <c r="B30" s="103"/>
       <c r="C30" s="103"/>
       <c r="D30" s="100"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="415"/>
+      <c r="A31" s="419"/>
       <c r="B31" s="103"/>
       <c r="C31" s="103"/>
       <c r="D31" s="100"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="415"/>
+      <c r="A32" s="419"/>
       <c r="B32" s="107"/>
       <c r="C32" s="108"/>
       <c r="D32" s="109"/>
     </row>
     <row r="33" spans="1:4" ht="18">
-      <c r="A33" s="416"/>
+      <c r="A33" s="420"/>
       <c r="B33" s="97" t="s">
         <v>956</v>
       </c>
@@ -41250,25 +41259,25 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="415"/>
+      <c r="A34" s="419"/>
       <c r="B34" s="111"/>
       <c r="C34" s="111"/>
       <c r="D34" s="100"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="415"/>
+      <c r="A35" s="419"/>
       <c r="B35" s="103"/>
       <c r="C35" s="103"/>
       <c r="D35" s="100"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="415"/>
+      <c r="A36" s="419"/>
       <c r="B36" s="112"/>
       <c r="C36" s="113"/>
       <c r="D36" s="100"/>
     </row>
     <row r="37" spans="1:4" ht="18" thickBot="1">
-      <c r="A37" s="417"/>
+      <c r="A37" s="421"/>
       <c r="B37" s="114"/>
       <c r="C37" s="115"/>
       <c r="D37" s="116"/>
@@ -45241,13 +45250,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3:C10 C23:C26 C88:C118">
-    <cfRule type="expression" dxfId="23" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="37" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="38" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="39" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45255,10 +45264,10 @@
     <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45274,10 +45283,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C87">
-    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
@@ -45285,10 +45294,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:D31">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
@@ -45296,13 +45305,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F11">
-    <cfRule type="expression" dxfId="8" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="28" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="29" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="30" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45338,52 +45347,52 @@
     <row r="3" spans="1:10">
       <c r="I3" s="48">
         <f ca="1">TODAY()</f>
-        <v>45390</v>
+        <v>45395</v>
       </c>
       <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A4" s="426" t="s">
+      <c r="A4" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="426" t="s">
+      <c r="B4" s="430" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="426" t="s">
+      <c r="C4" s="430" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="431" t="s">
+      <c r="D4" s="435" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="429" t="s">
+      <c r="E4" s="433" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="427" t="s">
+      <c r="F4" s="431" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="433" t="s">
+      <c r="G4" s="437" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="435" t="s">
+      <c r="H4" s="439" t="s">
         <v>228</v>
       </c>
-      <c r="I4" s="426" t="s">
+      <c r="I4" s="430" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A5" s="426"/>
-      <c r="B5" s="426"/>
-      <c r="C5" s="426"/>
-      <c r="D5" s="432"/>
-      <c r="E5" s="430"/>
-      <c r="F5" s="428"/>
-      <c r="G5" s="434"/>
-      <c r="H5" s="436"/>
-      <c r="I5" s="426"/>
+      <c r="A5" s="430"/>
+      <c r="B5" s="430"/>
+      <c r="C5" s="430"/>
+      <c r="D5" s="436"/>
+      <c r="E5" s="434"/>
+      <c r="F5" s="432"/>
+      <c r="G5" s="438"/>
+      <c r="H5" s="440"/>
+      <c r="I5" s="430"/>
     </row>
     <row r="6" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A6" s="420" t="s">
+      <c r="A6" s="424" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="70" t="s">
@@ -45415,7 +45424,7 @@
       <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A7" s="420"/>
+      <c r="A7" s="424"/>
       <c r="B7" s="70" t="s">
         <v>142</v>
       </c>
@@ -45445,7 +45454,7 @@
       <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A8" s="420"/>
+      <c r="A8" s="424"/>
       <c r="B8" s="70" t="s">
         <v>509</v>
       </c>
@@ -45475,7 +45484,7 @@
       <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A9" s="420"/>
+      <c r="A9" s="424"/>
       <c r="B9" s="70" t="s">
         <v>509</v>
       </c>
@@ -45505,7 +45514,7 @@
       <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A10" s="420"/>
+      <c r="A10" s="424"/>
       <c r="B10" s="70" t="s">
         <v>509</v>
       </c>
@@ -45535,7 +45544,7 @@
       <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A11" s="420"/>
+      <c r="A11" s="424"/>
       <c r="B11" s="70" t="s">
         <v>509</v>
       </c>
@@ -45565,7 +45574,7 @@
       <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A12" s="420"/>
+      <c r="A12" s="424"/>
       <c r="B12" s="70" t="s">
         <v>509</v>
       </c>
@@ -45595,7 +45604,7 @@
       <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A13" s="420"/>
+      <c r="A13" s="424"/>
       <c r="B13" s="70" t="s">
         <v>509</v>
       </c>
@@ -45625,7 +45634,7 @@
       <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A14" s="420"/>
+      <c r="A14" s="424"/>
       <c r="B14" s="70" t="s">
         <v>509</v>
       </c>
@@ -45655,11 +45664,11 @@
       <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:10" ht="23" customHeight="1">
-      <c r="A15" s="418" t="s">
+      <c r="A15" s="422" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="419"/>
-      <c r="C15" s="419"/>
+      <c r="B15" s="423"/>
+      <c r="C15" s="423"/>
       <c r="D15" s="60">
         <f>SUM(D6:D14)</f>
         <v>13</v>
@@ -45683,7 +45692,7 @@
       <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A16" s="420" t="s">
+      <c r="A16" s="424" t="s">
         <v>188</v>
       </c>
       <c r="B16" s="70" t="s">
@@ -45715,7 +45724,7 @@
       <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A17" s="420"/>
+      <c r="A17" s="424"/>
       <c r="B17" s="71" t="s">
         <v>193</v>
       </c>
@@ -45745,7 +45754,7 @@
       <c r="I17" s="63"/>
     </row>
     <row r="18" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A18" s="420"/>
+      <c r="A18" s="424"/>
       <c r="B18" s="71" t="s">
         <v>18</v>
       </c>
@@ -45777,7 +45786,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A19" s="420"/>
+      <c r="A19" s="424"/>
       <c r="B19" s="71" t="s">
         <v>19</v>
       </c>
@@ -45807,7 +45816,7 @@
       <c r="I19" s="63"/>
     </row>
     <row r="20" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A20" s="420"/>
+      <c r="A20" s="424"/>
       <c r="B20" s="71" t="s">
         <v>194</v>
       </c>
@@ -45837,7 +45846,7 @@
       <c r="I20" s="63"/>
     </row>
     <row r="21" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A21" s="420"/>
+      <c r="A21" s="424"/>
       <c r="B21" s="71" t="s">
         <v>23</v>
       </c>
@@ -45869,11 +45878,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="23" customHeight="1">
-      <c r="A22" s="418" t="s">
+      <c r="A22" s="422" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="419"/>
-      <c r="C22" s="419"/>
+      <c r="B22" s="423"/>
+      <c r="C22" s="423"/>
       <c r="D22" s="60">
         <f>SUM(D16:D21)</f>
         <v>10</v>
@@ -45897,7 +45906,7 @@
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A23" s="420" t="s">
+      <c r="A23" s="424" t="s">
         <v>189</v>
       </c>
       <c r="B23" s="68" t="s">
@@ -45929,7 +45938,7 @@
       <c r="I23" s="63"/>
     </row>
     <row r="24" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A24" s="420"/>
+      <c r="A24" s="424"/>
       <c r="B24" s="68" t="s">
         <v>35</v>
       </c>
@@ -45961,7 +45970,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A25" s="420"/>
+      <c r="A25" s="424"/>
       <c r="B25" s="68" t="s">
         <v>39</v>
       </c>
@@ -45991,7 +46000,7 @@
       <c r="I25" s="63"/>
     </row>
     <row r="26" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A26" s="420"/>
+      <c r="A26" s="424"/>
       <c r="B26" s="68" t="s">
         <v>197</v>
       </c>
@@ -46021,7 +46030,7 @@
       <c r="I26" s="63"/>
     </row>
     <row r="27" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A27" s="420"/>
+      <c r="A27" s="424"/>
       <c r="B27" s="68" t="s">
         <v>41</v>
       </c>
@@ -46053,7 +46062,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A28" s="420"/>
+      <c r="A28" s="424"/>
       <c r="B28" s="68" t="s">
         <v>45</v>
       </c>
@@ -46085,7 +46094,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A29" s="420"/>
+      <c r="A29" s="424"/>
       <c r="B29" s="68" t="s">
         <v>48</v>
       </c>
@@ -46117,7 +46126,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A30" s="420"/>
+      <c r="A30" s="424"/>
       <c r="B30" s="52" t="s">
         <v>198</v>
       </c>
@@ -46149,11 +46158,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="23" customHeight="1">
-      <c r="A31" s="418" t="s">
+      <c r="A31" s="422" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="419"/>
-      <c r="C31" s="419"/>
+      <c r="B31" s="423"/>
+      <c r="C31" s="423"/>
       <c r="D31" s="60">
         <f t="shared" ref="D31:G31" si="8">SUM(D23:D30)</f>
         <v>10</v>
@@ -46177,10 +46186,10 @@
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A32" s="420" t="s">
+      <c r="A32" s="424" t="s">
         <v>191</v>
       </c>
-      <c r="B32" s="421" t="s">
+      <c r="B32" s="425" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="72" t="s">
@@ -46209,8 +46218,8 @@
       <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A33" s="420"/>
-      <c r="B33" s="422"/>
+      <c r="A33" s="424"/>
+      <c r="B33" s="426"/>
       <c r="C33" s="70" t="s">
         <v>229</v>
       </c>
@@ -46237,8 +46246,8 @@
       <c r="I33" s="63"/>
     </row>
     <row r="34" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A34" s="420"/>
-      <c r="B34" s="423"/>
+      <c r="A34" s="424"/>
+      <c r="B34" s="427"/>
       <c r="C34" s="70" t="s">
         <v>230</v>
       </c>
@@ -46265,8 +46274,8 @@
       <c r="I34" s="63"/>
     </row>
     <row r="35" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A35" s="420"/>
-      <c r="B35" s="421" t="s">
+      <c r="A35" s="424"/>
+      <c r="B35" s="425" t="s">
         <v>204</v>
       </c>
       <c r="C35" s="70" t="s">
@@ -46295,8 +46304,8 @@
       <c r="I35" s="63"/>
     </row>
     <row r="36" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A36" s="420"/>
-      <c r="B36" s="422"/>
+      <c r="A36" s="424"/>
+      <c r="B36" s="426"/>
       <c r="C36" s="70" t="s">
         <v>210</v>
       </c>
@@ -46323,8 +46332,8 @@
       <c r="I36" s="63"/>
     </row>
     <row r="37" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A37" s="420"/>
-      <c r="B37" s="422"/>
+      <c r="A37" s="424"/>
+      <c r="B37" s="426"/>
       <c r="C37" s="70" t="s">
         <v>266</v>
       </c>
@@ -46351,8 +46360,8 @@
       <c r="I37" s="63"/>
     </row>
     <row r="38" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A38" s="420"/>
-      <c r="B38" s="423"/>
+      <c r="A38" s="424"/>
+      <c r="B38" s="427"/>
       <c r="C38" s="70" t="s">
         <v>223</v>
       </c>
@@ -46379,8 +46388,8 @@
       <c r="I38" s="63"/>
     </row>
     <row r="39" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A39" s="420"/>
-      <c r="B39" s="421" t="s">
+      <c r="A39" s="424"/>
+      <c r="B39" s="425" t="s">
         <v>203</v>
       </c>
       <c r="C39" s="70" t="s">
@@ -46409,8 +46418,8 @@
       <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A40" s="420"/>
-      <c r="B40" s="422"/>
+      <c r="A40" s="424"/>
+      <c r="B40" s="426"/>
       <c r="C40" s="70" t="s">
         <v>212</v>
       </c>
@@ -46437,8 +46446,8 @@
       <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A41" s="420"/>
-      <c r="B41" s="423"/>
+      <c r="A41" s="424"/>
+      <c r="B41" s="427"/>
       <c r="C41" s="70" t="s">
         <v>71</v>
       </c>
@@ -46465,7 +46474,7 @@
       <c r="I41" s="59"/>
     </row>
     <row r="42" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A42" s="420"/>
+      <c r="A42" s="424"/>
       <c r="B42" s="72" t="s">
         <v>72</v>
       </c>
@@ -46495,8 +46504,8 @@
       <c r="I42" s="63"/>
     </row>
     <row r="43" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A43" s="420"/>
-      <c r="B43" s="421" t="s">
+      <c r="A43" s="424"/>
+      <c r="B43" s="425" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="70" t="s">
@@ -46527,8 +46536,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A44" s="420"/>
-      <c r="B44" s="422"/>
+      <c r="A44" s="424"/>
+      <c r="B44" s="426"/>
       <c r="C44" s="70" t="s">
         <v>76</v>
       </c>
@@ -46557,8 +46566,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A45" s="420"/>
-      <c r="B45" s="422"/>
+      <c r="A45" s="424"/>
+      <c r="B45" s="426"/>
       <c r="C45" s="70" t="s">
         <v>213</v>
       </c>
@@ -46587,8 +46596,8 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A46" s="420"/>
-      <c r="B46" s="422"/>
+      <c r="A46" s="424"/>
+      <c r="B46" s="426"/>
       <c r="C46" s="70" t="s">
         <v>78</v>
       </c>
@@ -46617,8 +46626,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A47" s="420"/>
-      <c r="B47" s="423"/>
+      <c r="A47" s="424"/>
+      <c r="B47" s="427"/>
       <c r="C47" s="70" t="s">
         <v>231</v>
       </c>
@@ -46645,8 +46654,8 @@
       <c r="I47" s="63"/>
     </row>
     <row r="48" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A48" s="420"/>
-      <c r="B48" s="421" t="s">
+      <c r="A48" s="424"/>
+      <c r="B48" s="425" t="s">
         <v>202</v>
       </c>
       <c r="C48" s="70" t="s">
@@ -46675,8 +46684,8 @@
       <c r="I48" s="63"/>
     </row>
     <row r="49" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A49" s="420"/>
-      <c r="B49" s="422"/>
+      <c r="A49" s="424"/>
+      <c r="B49" s="426"/>
       <c r="C49" s="70" t="s">
         <v>82</v>
       </c>
@@ -46703,8 +46712,8 @@
       <c r="I49" s="63"/>
     </row>
     <row r="50" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A50" s="420"/>
-      <c r="B50" s="423"/>
+      <c r="A50" s="424"/>
+      <c r="B50" s="427"/>
       <c r="C50" s="70" t="s">
         <v>84</v>
       </c>
@@ -46731,8 +46740,8 @@
       <c r="I50" s="63"/>
     </row>
     <row r="51" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A51" s="420"/>
-      <c r="B51" s="421" t="s">
+      <c r="A51" s="424"/>
+      <c r="B51" s="425" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="70" t="s">
@@ -46761,8 +46770,8 @@
       <c r="I51" s="59"/>
     </row>
     <row r="52" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A52" s="420"/>
-      <c r="B52" s="422"/>
+      <c r="A52" s="424"/>
+      <c r="B52" s="426"/>
       <c r="C52" s="70" t="s">
         <v>185</v>
       </c>
@@ -46789,8 +46798,8 @@
       <c r="I52" s="59"/>
     </row>
     <row r="53" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A53" s="420"/>
-      <c r="B53" s="423"/>
+      <c r="A53" s="424"/>
+      <c r="B53" s="427"/>
       <c r="C53" s="70" t="s">
         <v>215</v>
       </c>
@@ -46817,8 +46826,8 @@
       <c r="I53" s="59"/>
     </row>
     <row r="54" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A54" s="420"/>
-      <c r="B54" s="421" t="s">
+      <c r="A54" s="424"/>
+      <c r="B54" s="425" t="s">
         <v>201</v>
       </c>
       <c r="C54" s="70" t="s">
@@ -46849,8 +46858,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A55" s="420"/>
-      <c r="B55" s="422"/>
+      <c r="A55" s="424"/>
+      <c r="B55" s="426"/>
       <c r="C55" s="70" t="s">
         <v>217</v>
       </c>
@@ -46879,8 +46888,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A56" s="420"/>
-      <c r="B56" s="422"/>
+      <c r="A56" s="424"/>
+      <c r="B56" s="426"/>
       <c r="C56" s="70" t="s">
         <v>218</v>
       </c>
@@ -46909,8 +46918,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A57" s="420"/>
-      <c r="B57" s="423"/>
+      <c r="A57" s="424"/>
+      <c r="B57" s="427"/>
       <c r="C57" s="70" t="s">
         <v>219</v>
       </c>
@@ -46939,8 +46948,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A58" s="420"/>
-      <c r="B58" s="421" t="s">
+      <c r="A58" s="424"/>
+      <c r="B58" s="425" t="s">
         <v>200</v>
       </c>
       <c r="C58" s="70" t="s">
@@ -46971,8 +46980,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A59" s="420"/>
-      <c r="B59" s="423"/>
+      <c r="A59" s="424"/>
+      <c r="B59" s="427"/>
       <c r="C59" s="70" t="s">
         <v>221</v>
       </c>
@@ -47001,8 +47010,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A60" s="420"/>
-      <c r="B60" s="421" t="s">
+      <c r="A60" s="424"/>
+      <c r="B60" s="425" t="s">
         <v>497</v>
       </c>
       <c r="C60" s="70" t="s">
@@ -47033,8 +47042,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A61" s="420"/>
-      <c r="B61" s="423"/>
+      <c r="A61" s="424"/>
+      <c r="B61" s="427"/>
       <c r="C61" s="70" t="s">
         <v>522</v>
       </c>
@@ -47063,8 +47072,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A62" s="420"/>
-      <c r="B62" s="421" t="s">
+      <c r="A62" s="424"/>
+      <c r="B62" s="425" t="s">
         <v>199</v>
       </c>
       <c r="C62" s="70" t="s">
@@ -47093,8 +47102,8 @@
       <c r="I62" s="63"/>
     </row>
     <row r="63" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A63" s="420"/>
-      <c r="B63" s="422"/>
+      <c r="A63" s="424"/>
+      <c r="B63" s="426"/>
       <c r="C63" s="70" t="s">
         <v>199</v>
       </c>
@@ -47121,8 +47130,8 @@
       <c r="I63" s="63"/>
     </row>
     <row r="64" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A64" s="420"/>
-      <c r="B64" s="423"/>
+      <c r="A64" s="424"/>
+      <c r="B64" s="427"/>
       <c r="C64" s="70" t="s">
         <v>233</v>
       </c>
@@ -47149,11 +47158,11 @@
       <c r="I64" s="63"/>
     </row>
     <row r="65" spans="1:11" ht="23" customHeight="1">
-      <c r="A65" s="418" t="s">
+      <c r="A65" s="422" t="s">
         <v>235</v>
       </c>
-      <c r="B65" s="419"/>
-      <c r="C65" s="419"/>
+      <c r="B65" s="423"/>
+      <c r="C65" s="423"/>
       <c r="D65" s="60">
         <f>SUM(D32:D64)</f>
         <v>36</v>
@@ -47177,11 +47186,11 @@
       <c r="I65" s="62"/>
     </row>
     <row r="66" spans="1:11" ht="23" customHeight="1">
-      <c r="A66" s="424" t="s">
+      <c r="A66" s="428" t="s">
         <v>236</v>
       </c>
-      <c r="B66" s="425"/>
-      <c r="C66" s="425"/>
+      <c r="B66" s="429"/>
+      <c r="C66" s="429"/>
       <c r="D66" s="64">
         <f>SUM(D65,D31,D22,D15)</f>
         <v>69</v>
@@ -47276,61 +47285,61 @@
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" thickBot="1">
       <c r="C1" s="26"/>
-      <c r="D1" s="447" t="s">
+      <c r="D1" s="451" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="447"/>
-      <c r="F1" s="447"/>
+      <c r="E1" s="451"/>
+      <c r="F1" s="451"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="439" t="s">
+      <c r="B2" s="443" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="442" t="s">
+      <c r="C2" s="446" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="442" t="s">
+      <c r="D2" s="446" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="442" t="s">
+      <c r="E2" s="446" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="442" t="s">
+      <c r="F2" s="446" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="445" t="s">
+      <c r="G2" s="449" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="442" t="s">
+      <c r="H2" s="446" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="437" t="s">
+      <c r="I2" s="441" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="441" t="s">
+      <c r="J2" s="445" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="442"/>
-      <c r="L2" s="442"/>
-      <c r="M2" s="442"/>
-      <c r="N2" s="443"/>
+      <c r="K2" s="446"/>
+      <c r="L2" s="446"/>
+      <c r="M2" s="446"/>
+      <c r="N2" s="447"/>
     </row>
     <row r="3" spans="1:14" ht="36">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="440"/>
-      <c r="C3" s="444"/>
-      <c r="D3" s="444"/>
-      <c r="E3" s="444"/>
-      <c r="F3" s="444"/>
-      <c r="G3" s="446"/>
-      <c r="H3" s="444"/>
-      <c r="I3" s="438"/>
+      <c r="B3" s="444"/>
+      <c r="C3" s="448"/>
+      <c r="D3" s="448"/>
+      <c r="E3" s="448"/>
+      <c r="F3" s="448"/>
+      <c r="G3" s="450"/>
+      <c r="H3" s="448"/>
+      <c r="I3" s="442"/>
       <c r="J3" s="41" t="s">
         <v>160</v>
       </c>
@@ -49555,7 +49564,7 @@
       <c r="C68" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="D68" s="458" t="s">
+      <c r="D68" s="462" t="s">
         <v>26</v>
       </c>
       <c r="E68" s="28" t="s">
@@ -49593,7 +49602,7 @@
       <c r="C69" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D69" s="450"/>
+      <c r="D69" s="454"/>
       <c r="E69" s="29" t="s">
         <v>26</v>
       </c>
@@ -49629,7 +49638,7 @@
       <c r="C70" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="450"/>
+      <c r="D70" s="454"/>
       <c r="E70" s="29" t="s">
         <v>26</v>
       </c>
@@ -49665,7 +49674,7 @@
       <c r="C71" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D71" s="450"/>
+      <c r="D71" s="454"/>
       <c r="E71" s="29" t="s">
         <v>26</v>
       </c>
@@ -49701,7 +49710,7 @@
       <c r="C72" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D72" s="450"/>
+      <c r="D72" s="454"/>
       <c r="E72" s="29" t="s">
         <v>26</v>
       </c>
@@ -49737,7 +49746,7 @@
       <c r="C73" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D73" s="450"/>
+      <c r="D73" s="454"/>
       <c r="E73" s="123" t="s">
         <v>26</v>
       </c>
@@ -49767,7 +49776,7 @@
       <c r="C74" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="450"/>
+      <c r="D74" s="454"/>
       <c r="E74" s="123" t="s">
         <v>26</v>
       </c>
@@ -49797,7 +49806,7 @@
       <c r="C75" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="451"/>
+      <c r="D75" s="455"/>
       <c r="E75" s="123" t="s">
         <v>26</v>
       </c>
@@ -49827,7 +49836,7 @@
       <c r="C76" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="449" t="s">
+      <c r="D76" s="453" t="s">
         <v>35</v>
       </c>
       <c r="E76" s="29" t="s">
@@ -49865,7 +49874,7 @@
       <c r="C77" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D77" s="450"/>
+      <c r="D77" s="454"/>
       <c r="E77" s="31" t="s">
         <v>35</v>
       </c>
@@ -49895,7 +49904,7 @@
       <c r="C78" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D78" s="450"/>
+      <c r="D78" s="454"/>
       <c r="E78" s="29" t="s">
         <v>35</v>
       </c>
@@ -49931,7 +49940,7 @@
       <c r="C79" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="451"/>
+      <c r="D79" s="455"/>
       <c r="E79" s="29" t="s">
         <v>35</v>
       </c>
@@ -50043,7 +50052,7 @@
       <c r="C82" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D82" s="455" t="s">
+      <c r="D82" s="459" t="s">
         <v>41</v>
       </c>
       <c r="E82" s="157" t="s">
@@ -50075,7 +50084,7 @@
       <c r="C83" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D83" s="456"/>
+      <c r="D83" s="460"/>
       <c r="E83" s="157" t="s">
         <v>41</v>
       </c>
@@ -50105,7 +50114,7 @@
       <c r="C84" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D84" s="456"/>
+      <c r="D84" s="460"/>
       <c r="E84" s="157" t="s">
         <v>41</v>
       </c>
@@ -50137,7 +50146,7 @@
       <c r="C85" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D85" s="457"/>
+      <c r="D85" s="461"/>
       <c r="E85" s="157" t="s">
         <v>41</v>
       </c>
@@ -50167,7 +50176,7 @@
       <c r="C86" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D86" s="455" t="s">
+      <c r="D86" s="459" t="s">
         <v>45</v>
       </c>
       <c r="E86" s="157" t="s">
@@ -50199,7 +50208,7 @@
       <c r="C87" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D87" s="456"/>
+      <c r="D87" s="460"/>
       <c r="E87" s="157" t="s">
         <v>45</v>
       </c>
@@ -50229,7 +50238,7 @@
       <c r="C88" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D88" s="457"/>
+      <c r="D88" s="461"/>
       <c r="E88" s="157" t="s">
         <v>45</v>
       </c>
@@ -50259,7 +50268,7 @@
       <c r="C89" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="455" t="s">
+      <c r="D89" s="459" t="s">
         <v>48</v>
       </c>
       <c r="E89" s="31" t="s">
@@ -50291,7 +50300,7 @@
       <c r="C90" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D90" s="456"/>
+      <c r="D90" s="460"/>
       <c r="E90" s="31" t="s">
         <v>48</v>
       </c>
@@ -50321,7 +50330,7 @@
       <c r="C91" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D91" s="456"/>
+      <c r="D91" s="460"/>
       <c r="E91" s="31" t="s">
         <v>48</v>
       </c>
@@ -50351,7 +50360,7 @@
       <c r="C92" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D92" s="456"/>
+      <c r="D92" s="460"/>
       <c r="E92" s="31" t="s">
         <v>48</v>
       </c>
@@ -50381,7 +50390,7 @@
       <c r="C93" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D93" s="457"/>
+      <c r="D93" s="461"/>
       <c r="E93" s="31" t="s">
         <v>48</v>
       </c>
@@ -50441,7 +50450,7 @@
       <c r="C95" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="D95" s="461" t="s">
+      <c r="D95" s="465" t="s">
         <v>55</v>
       </c>
       <c r="E95" s="28" t="s">
@@ -50479,7 +50488,7 @@
       <c r="C96" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="448"/>
+      <c r="D96" s="452"/>
       <c r="E96" s="29" t="s">
         <v>229</v>
       </c>
@@ -50515,7 +50524,7 @@
       <c r="C97" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D97" s="448"/>
+      <c r="D97" s="452"/>
       <c r="E97" s="29" t="s">
         <v>230</v>
       </c>
@@ -50551,7 +50560,7 @@
       <c r="C98" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="452" t="s">
+      <c r="D98" s="456" t="s">
         <v>204</v>
       </c>
       <c r="E98" s="32" t="s">
@@ -50589,7 +50598,7 @@
       <c r="C99" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D99" s="453"/>
+      <c r="D99" s="457"/>
       <c r="E99" s="32" t="s">
         <v>209</v>
       </c>
@@ -50625,7 +50634,7 @@
       <c r="C100" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D100" s="453"/>
+      <c r="D100" s="457"/>
       <c r="E100" s="32" t="s">
         <v>210</v>
       </c>
@@ -50661,7 +50670,7 @@
       <c r="C101" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D101" s="453"/>
+      <c r="D101" s="457"/>
       <c r="E101" s="32" t="s">
         <v>210</v>
       </c>
@@ -50697,7 +50706,7 @@
       <c r="C102" s="29" t="s">
         <v>673</v>
       </c>
-      <c r="D102" s="453"/>
+      <c r="D102" s="457"/>
       <c r="E102" s="32" t="s">
         <v>210</v>
       </c>
@@ -50733,7 +50742,7 @@
       <c r="C103" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D103" s="453"/>
+      <c r="D103" s="457"/>
       <c r="E103" s="32" t="s">
         <v>210</v>
       </c>
@@ -50769,7 +50778,7 @@
       <c r="C104" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D104" s="453"/>
+      <c r="D104" s="457"/>
       <c r="E104" s="32" t="s">
         <v>266</v>
       </c>
@@ -50805,7 +50814,7 @@
       <c r="C105" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D105" s="454"/>
+      <c r="D105" s="458"/>
       <c r="E105" s="32" t="s">
         <v>223</v>
       </c>
@@ -50841,7 +50850,7 @@
       <c r="C106" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D106" s="449" t="s">
+      <c r="D106" s="453" t="s">
         <v>203</v>
       </c>
       <c r="E106" s="29" t="s">
@@ -50879,7 +50888,7 @@
       <c r="C107" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D107" s="450"/>
+      <c r="D107" s="454"/>
       <c r="E107" s="29" t="s">
         <v>212</v>
       </c>
@@ -50915,7 +50924,7 @@
       <c r="C108" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D108" s="450"/>
+      <c r="D108" s="454"/>
       <c r="E108" s="29" t="s">
         <v>212</v>
       </c>
@@ -50951,7 +50960,7 @@
       <c r="C109" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D109" s="451"/>
+      <c r="D109" s="455"/>
       <c r="E109" s="29" t="s">
         <v>71</v>
       </c>
@@ -51025,7 +51034,7 @@
       <c r="C111" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D111" s="448" t="s">
+      <c r="D111" s="452" t="s">
         <v>74</v>
       </c>
       <c r="E111" s="29" t="s">
@@ -51057,7 +51066,7 @@
       <c r="C112" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D112" s="448"/>
+      <c r="D112" s="452"/>
       <c r="E112" s="29" t="s">
         <v>75</v>
       </c>
@@ -51087,7 +51096,7 @@
       <c r="C113" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D113" s="448"/>
+      <c r="D113" s="452"/>
       <c r="E113" s="29" t="s">
         <v>75</v>
       </c>
@@ -51117,7 +51126,7 @@
       <c r="C114" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D114" s="448"/>
+      <c r="D114" s="452"/>
       <c r="E114" s="31" t="s">
         <v>75</v>
       </c>
@@ -51147,7 +51156,7 @@
       <c r="C115" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D115" s="448"/>
+      <c r="D115" s="452"/>
       <c r="E115" s="29" t="s">
         <v>75</v>
       </c>
@@ -51187,7 +51196,7 @@
       <c r="C116" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D116" s="448"/>
+      <c r="D116" s="452"/>
       <c r="E116" s="31" t="s">
         <v>75</v>
       </c>
@@ -51219,7 +51228,7 @@
       <c r="C117" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D117" s="448"/>
+      <c r="D117" s="452"/>
       <c r="E117" s="29" t="s">
         <v>75</v>
       </c>
@@ -51259,7 +51268,7 @@
       <c r="C118" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D118" s="448"/>
+      <c r="D118" s="452"/>
       <c r="E118" s="29" t="s">
         <v>75</v>
       </c>
@@ -51289,7 +51298,7 @@
       <c r="C119" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D119" s="448"/>
+      <c r="D119" s="452"/>
       <c r="E119" s="31" t="s">
         <v>76</v>
       </c>
@@ -51321,7 +51330,7 @@
       <c r="C120" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D120" s="448"/>
+      <c r="D120" s="452"/>
       <c r="E120" s="31" t="s">
         <v>213</v>
       </c>
@@ -51351,7 +51360,7 @@
       <c r="C121" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D121" s="448"/>
+      <c r="D121" s="452"/>
       <c r="E121" s="123" t="s">
         <v>78</v>
       </c>
@@ -51381,7 +51390,7 @@
       <c r="C122" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D122" s="448"/>
+      <c r="D122" s="452"/>
       <c r="E122" s="123" t="s">
         <v>78</v>
       </c>
@@ -51411,7 +51420,7 @@
       <c r="C123" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D123" s="448"/>
+      <c r="D123" s="452"/>
       <c r="E123" s="123" t="s">
         <v>78</v>
       </c>
@@ -51441,7 +51450,7 @@
       <c r="C124" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D124" s="448"/>
+      <c r="D124" s="452"/>
       <c r="E124" s="123" t="s">
         <v>78</v>
       </c>
@@ -51471,7 +51480,7 @@
       <c r="C125" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D125" s="448"/>
+      <c r="D125" s="452"/>
       <c r="E125" s="29" t="s">
         <v>231</v>
       </c>
@@ -51507,7 +51516,7 @@
       <c r="C126" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D126" s="448" t="s">
+      <c r="D126" s="452" t="s">
         <v>202</v>
       </c>
       <c r="E126" s="29" t="s">
@@ -51549,7 +51558,7 @@
       <c r="C127" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D127" s="448"/>
+      <c r="D127" s="452"/>
       <c r="E127" s="29" t="s">
         <v>82</v>
       </c>
@@ -51589,7 +51598,7 @@
       <c r="C128" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D128" s="448"/>
+      <c r="D128" s="452"/>
       <c r="E128" s="29" t="s">
         <v>84</v>
       </c>
@@ -51629,7 +51638,7 @@
       <c r="C129" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D129" s="449" t="s">
+      <c r="D129" s="453" t="s">
         <v>86</v>
       </c>
       <c r="E129" s="29" t="s">
@@ -51667,7 +51676,7 @@
       <c r="C130" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D130" s="450"/>
+      <c r="D130" s="454"/>
       <c r="E130" s="29" t="s">
         <v>87</v>
       </c>
@@ -51703,7 +51712,7 @@
       <c r="C131" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D131" s="450"/>
+      <c r="D131" s="454"/>
       <c r="E131" s="29" t="s">
         <v>87</v>
       </c>
@@ -51739,7 +51748,7 @@
       <c r="C132" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D132" s="450"/>
+      <c r="D132" s="454"/>
       <c r="E132" s="29" t="s">
         <v>87</v>
       </c>
@@ -51775,7 +51784,7 @@
       <c r="C133" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D133" s="450"/>
+      <c r="D133" s="454"/>
       <c r="E133" s="29" t="s">
         <v>87</v>
       </c>
@@ -51811,7 +51820,7 @@
       <c r="C134" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D134" s="450"/>
+      <c r="D134" s="454"/>
       <c r="E134" s="29" t="s">
         <v>185</v>
       </c>
@@ -51847,7 +51856,7 @@
       <c r="C135" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D135" s="450"/>
+      <c r="D135" s="454"/>
       <c r="E135" s="29" t="s">
         <v>185</v>
       </c>
@@ -51883,7 +51892,7 @@
       <c r="C136" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D136" s="450"/>
+      <c r="D136" s="454"/>
       <c r="E136" s="29" t="s">
         <v>185</v>
       </c>
@@ -51919,7 +51928,7 @@
       <c r="C137" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="450"/>
+      <c r="D137" s="454"/>
       <c r="E137" s="29" t="s">
         <v>215</v>
       </c>
@@ -51958,7 +51967,7 @@
       <c r="C138" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D138" s="450"/>
+      <c r="D138" s="454"/>
       <c r="E138" s="29" t="s">
         <v>215</v>
       </c>
@@ -51997,7 +52006,7 @@
       <c r="C139" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D139" s="451"/>
+      <c r="D139" s="455"/>
       <c r="E139" s="29" t="s">
         <v>215</v>
       </c>
@@ -52036,7 +52045,7 @@
       <c r="C140" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D140" s="459" t="s">
+      <c r="D140" s="463" t="s">
         <v>201</v>
       </c>
       <c r="E140" s="31" t="s">
@@ -52068,7 +52077,7 @@
       <c r="C141" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D141" s="459"/>
+      <c r="D141" s="463"/>
       <c r="E141" s="31" t="s">
         <v>217</v>
       </c>
@@ -52098,7 +52107,7 @@
       <c r="C142" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D142" s="459"/>
+      <c r="D142" s="463"/>
       <c r="E142" s="31" t="s">
         <v>217</v>
       </c>
@@ -52128,7 +52137,7 @@
       <c r="C143" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D143" s="459"/>
+      <c r="D143" s="463"/>
       <c r="E143" s="31" t="s">
         <v>218</v>
       </c>
@@ -52158,7 +52167,7 @@
       <c r="C144" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D144" s="459"/>
+      <c r="D144" s="463"/>
       <c r="E144" s="31" t="s">
         <v>218</v>
       </c>
@@ -52188,7 +52197,7 @@
       <c r="C145" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D145" s="459"/>
+      <c r="D145" s="463"/>
       <c r="E145" s="31" t="s">
         <v>218</v>
       </c>
@@ -52218,7 +52227,7 @@
       <c r="C146" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D146" s="459"/>
+      <c r="D146" s="463"/>
       <c r="E146" s="31" t="s">
         <v>219</v>
       </c>
@@ -52248,7 +52257,7 @@
       <c r="C147" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D147" s="459"/>
+      <c r="D147" s="463"/>
       <c r="E147" s="31" t="s">
         <v>219</v>
       </c>
@@ -52278,7 +52287,7 @@
       <c r="C148" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D148" s="459"/>
+      <c r="D148" s="463"/>
       <c r="E148" s="31" t="s">
         <v>219</v>
       </c>
@@ -52308,7 +52317,7 @@
       <c r="C149" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D149" s="460" t="s">
+      <c r="D149" s="464" t="s">
         <v>200</v>
       </c>
       <c r="E149" s="32" t="s">
@@ -52340,7 +52349,7 @@
       <c r="C150" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D150" s="460"/>
+      <c r="D150" s="464"/>
       <c r="E150" s="32" t="s">
         <v>221</v>
       </c>
@@ -52372,7 +52381,7 @@
       <c r="C151" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D151" s="460"/>
+      <c r="D151" s="464"/>
       <c r="E151" s="32" t="s">
         <v>221</v>
       </c>
@@ -52404,7 +52413,7 @@
       <c r="C152" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D152" s="460"/>
+      <c r="D152" s="464"/>
       <c r="E152" s="32" t="s">
         <v>221</v>
       </c>
@@ -52436,7 +52445,7 @@
       <c r="C153" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D153" s="455" t="s">
+      <c r="D153" s="459" t="s">
         <v>497</v>
       </c>
       <c r="E153" s="31" t="s">
@@ -52468,7 +52477,7 @@
       <c r="C154" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D154" s="457"/>
+      <c r="D154" s="461"/>
       <c r="E154" s="31" t="s">
         <v>499</v>
       </c>
@@ -52498,7 +52507,7 @@
       <c r="C155" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D155" s="449" t="s">
+      <c r="D155" s="453" t="s">
         <v>199</v>
       </c>
       <c r="E155" s="29" t="s">
@@ -52536,7 +52545,7 @@
       <c r="C156" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D156" s="450"/>
+      <c r="D156" s="454"/>
       <c r="E156" s="29" t="s">
         <v>199</v>
       </c>
@@ -52572,7 +52581,7 @@
       <c r="C157" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D157" s="450"/>
+      <c r="D157" s="454"/>
       <c r="E157" s="29" t="s">
         <v>199</v>
       </c>
@@ -52608,7 +52617,7 @@
       <c r="C158" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D158" s="462"/>
+      <c r="D158" s="466"/>
       <c r="E158" s="30" t="s">
         <v>233</v>
       </c>
@@ -53317,10 +53326,10 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A2" s="468" t="s">
+      <c r="A2" s="472" t="s">
         <v>955</v>
       </c>
-      <c r="B2" s="469"/>
+      <c r="B2" s="473"/>
       <c r="C2" s="276" t="s">
         <v>1910</v>
       </c>
@@ -53389,8 +53398,8 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="18" thickBot="1">
-      <c r="A3" s="470"/>
-      <c r="B3" s="471"/>
+      <c r="A3" s="474"/>
+      <c r="B3" s="475"/>
       <c r="C3" s="278" t="s">
         <v>1928</v>
       </c>
@@ -53459,50 +53468,50 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="472" t="s">
+      <c r="A4" s="476" t="s">
         <v>1950</v>
       </c>
-      <c r="B4" s="474" t="s">
+      <c r="B4" s="478" t="s">
         <v>1951</v>
       </c>
       <c r="C4" s="280" t="s">
         <v>1952</v>
       </c>
-      <c r="D4" s="474" t="s">
+      <c r="D4" s="478" t="s">
         <v>1953</v>
       </c>
-      <c r="E4" s="474"/>
-      <c r="F4" s="474"/>
-      <c r="G4" s="476"/>
-      <c r="H4" s="477" t="s">
+      <c r="E4" s="478"/>
+      <c r="F4" s="478"/>
+      <c r="G4" s="480"/>
+      <c r="H4" s="481" t="s">
         <v>1954</v>
       </c>
-      <c r="I4" s="477"/>
-      <c r="J4" s="477"/>
-      <c r="K4" s="478"/>
-      <c r="L4" s="479" t="s">
+      <c r="I4" s="481"/>
+      <c r="J4" s="481"/>
+      <c r="K4" s="482"/>
+      <c r="L4" s="483" t="s">
         <v>1955</v>
       </c>
-      <c r="M4" s="479"/>
-      <c r="N4" s="479"/>
-      <c r="O4" s="479"/>
-      <c r="P4" s="479"/>
-      <c r="Q4" s="463" t="s">
+      <c r="M4" s="483"/>
+      <c r="N4" s="483"/>
+      <c r="O4" s="483"/>
+      <c r="P4" s="483"/>
+      <c r="Q4" s="467" t="s">
         <v>1956</v>
       </c>
-      <c r="R4" s="464"/>
-      <c r="S4" s="464"/>
-      <c r="T4" s="465"/>
-      <c r="U4" s="466" t="s">
+      <c r="R4" s="468"/>
+      <c r="S4" s="468"/>
+      <c r="T4" s="469"/>
+      <c r="U4" s="470" t="s">
         <v>1957</v>
       </c>
-      <c r="V4" s="466"/>
-      <c r="W4" s="466"/>
-      <c r="X4" s="467"/>
+      <c r="V4" s="470"/>
+      <c r="W4" s="470"/>
+      <c r="X4" s="471"/>
     </row>
     <row r="5" spans="1:24" ht="20" customHeight="1">
-      <c r="A5" s="473"/>
-      <c r="B5" s="475"/>
+      <c r="A5" s="477"/>
+      <c r="B5" s="479"/>
       <c r="C5" s="281" t="s">
         <v>1958</v>
       </c>
@@ -53990,69 +53999,69 @@
     <row r="3" spans="1:22">
       <c r="L3" s="48">
         <f ca="1">TODAY()</f>
-        <v>45390</v>
+        <v>45395</v>
       </c>
       <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A4" s="426" t="s">
+      <c r="A4" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="426" t="s">
+      <c r="B4" s="430" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="426" t="s">
+      <c r="C4" s="430" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="426" t="s">
+      <c r="D4" s="430" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="431" t="s">
+      <c r="E4" s="435" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="496" t="s">
+      <c r="F4" s="500" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="496"/>
-      <c r="H4" s="497" t="s">
+      <c r="G4" s="500"/>
+      <c r="H4" s="501" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="498"/>
-      <c r="J4" s="494" t="s">
+      <c r="I4" s="502"/>
+      <c r="J4" s="498" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="495"/>
-      <c r="L4" s="426" t="s">
+      <c r="K4" s="499"/>
+      <c r="L4" s="430" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="487" t="s">
+      <c r="N4" s="491" t="s">
         <v>2042</v>
       </c>
-      <c r="O4" s="487" t="s">
+      <c r="O4" s="491" t="s">
         <v>2043</v>
       </c>
-      <c r="P4" s="488" t="s">
+      <c r="P4" s="492" t="s">
         <v>2044</v>
       </c>
-      <c r="Q4" s="489"/>
-      <c r="R4" s="488" t="s">
+      <c r="Q4" s="493"/>
+      <c r="R4" s="492" t="s">
         <v>2047</v>
       </c>
-      <c r="S4" s="489"/>
-      <c r="T4" s="488" t="s">
+      <c r="S4" s="493"/>
+      <c r="T4" s="492" t="s">
         <v>2050</v>
       </c>
-      <c r="U4" s="489"/>
-      <c r="V4" s="480" t="s">
+      <c r="U4" s="493"/>
+      <c r="V4" s="484" t="s">
         <v>2051</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A5" s="426"/>
-      <c r="B5" s="426"/>
-      <c r="C5" s="426"/>
-      <c r="D5" s="426"/>
-      <c r="E5" s="432"/>
+      <c r="A5" s="430"/>
+      <c r="B5" s="430"/>
+      <c r="C5" s="430"/>
+      <c r="D5" s="430"/>
+      <c r="E5" s="436"/>
       <c r="F5" s="49" t="s">
         <v>181</v>
       </c>
@@ -54071,9 +54080,9 @@
       <c r="K5" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="L5" s="426"/>
-      <c r="N5" s="487"/>
-      <c r="O5" s="487"/>
+      <c r="L5" s="430"/>
+      <c r="N5" s="491"/>
+      <c r="O5" s="491"/>
       <c r="P5" s="296" t="s">
         <v>2045</v>
       </c>
@@ -54092,10 +54101,10 @@
       <c r="U5" s="296" t="s">
         <v>2049</v>
       </c>
-      <c r="V5" s="481"/>
+      <c r="V5" s="485"/>
     </row>
     <row r="6" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A6" s="420" t="s">
+      <c r="A6" s="424" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="52" t="s">
@@ -54170,7 +54179,7 @@
       <c r="V6" s="259"/>
     </row>
     <row r="7" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A7" s="420"/>
+      <c r="A7" s="424"/>
       <c r="B7" s="52" t="s">
         <v>142</v>
       </c>
@@ -54243,7 +54252,7 @@
       <c r="V7" s="259"/>
     </row>
     <row r="8" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A8" s="420"/>
+      <c r="A8" s="424"/>
       <c r="B8" s="52" t="s">
         <v>509</v>
       </c>
@@ -54316,12 +54325,12 @@
       <c r="V8" s="259"/>
     </row>
     <row r="9" spans="1:22" ht="20" customHeight="1">
-      <c r="A9" s="418" t="s">
+      <c r="A9" s="422" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="419"/>
-      <c r="C9" s="419"/>
-      <c r="D9" s="493"/>
+      <c r="B9" s="423"/>
+      <c r="C9" s="423"/>
+      <c r="D9" s="497"/>
       <c r="E9" s="60">
         <f>SUM(E6:E8)</f>
         <v>42</v>
@@ -54362,10 +54371,10 @@
       <c r="V9" s="259"/>
     </row>
     <row r="10" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A10" s="420" t="s">
+      <c r="A10" s="424" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="420" t="s">
+      <c r="B10" s="424" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="52" t="s">
@@ -54437,8 +54446,8 @@
       <c r="V10" s="169"/>
     </row>
     <row r="11" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A11" s="420"/>
-      <c r="B11" s="420"/>
+      <c r="A11" s="424"/>
+      <c r="B11" s="424"/>
       <c r="C11" s="52" t="s">
         <v>547</v>
       </c>
@@ -54476,8 +54485,8 @@
       <c r="L11" s="58"/>
     </row>
     <row r="12" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A12" s="420"/>
-      <c r="B12" s="420"/>
+      <c r="A12" s="424"/>
+      <c r="B12" s="424"/>
       <c r="C12" s="52" t="s">
         <v>547</v>
       </c>
@@ -54515,8 +54524,8 @@
       <c r="L12" s="58"/>
     </row>
     <row r="13" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A13" s="420"/>
-      <c r="B13" s="420"/>
+      <c r="A13" s="424"/>
+      <c r="B13" s="424"/>
       <c r="C13" s="52" t="s">
         <v>547</v>
       </c>
@@ -54554,8 +54563,8 @@
       <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A14" s="420"/>
-      <c r="B14" s="420"/>
+      <c r="A14" s="424"/>
+      <c r="B14" s="424"/>
       <c r="C14" s="52" t="s">
         <v>547</v>
       </c>
@@ -54593,8 +54602,8 @@
       <c r="L14" s="58"/>
     </row>
     <row r="15" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A15" s="420"/>
-      <c r="B15" s="420"/>
+      <c r="A15" s="424"/>
+      <c r="B15" s="424"/>
       <c r="C15" s="52" t="s">
         <v>547</v>
       </c>
@@ -54632,7 +54641,7 @@
       <c r="L15" s="58"/>
     </row>
     <row r="16" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A16" s="420"/>
+      <c r="A16" s="424"/>
       <c r="B16" s="223" t="s">
         <v>193</v>
       </c>
@@ -54673,8 +54682,8 @@
       <c r="L16" s="63"/>
     </row>
     <row r="17" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A17" s="420"/>
-      <c r="B17" s="491" t="s">
+      <c r="A17" s="424"/>
+      <c r="B17" s="495" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="52" t="s">
@@ -54714,8 +54723,8 @@
       <c r="L17" s="63"/>
     </row>
     <row r="18" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A18" s="420"/>
-      <c r="B18" s="492"/>
+      <c r="A18" s="424"/>
+      <c r="B18" s="496"/>
       <c r="C18" s="57" t="s">
         <v>590</v>
       </c>
@@ -54753,12 +54762,12 @@
       <c r="L18" s="58"/>
     </row>
     <row r="19" spans="1:12" ht="20" customHeight="1" collapsed="1">
-      <c r="A19" s="418" t="s">
+      <c r="A19" s="422" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="419"/>
-      <c r="C19" s="419"/>
-      <c r="D19" s="493"/>
+      <c r="B19" s="423"/>
+      <c r="C19" s="423"/>
+      <c r="D19" s="497"/>
       <c r="E19" s="60">
         <f>SUM(E10:E18)</f>
         <v>15</v>
@@ -54790,7 +54799,7 @@
       <c r="L19" s="62"/>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A20" s="420" t="s">
+      <c r="A20" s="424" t="s">
         <v>189</v>
       </c>
       <c r="B20" s="68" t="s">
@@ -54833,7 +54842,7 @@
       <c r="L20" s="63"/>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A21" s="420"/>
+      <c r="A21" s="424"/>
       <c r="B21" s="68" t="s">
         <v>26</v>
       </c>
@@ -54874,7 +54883,7 @@
       <c r="L21" s="63"/>
     </row>
     <row r="22" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A22" s="420"/>
+      <c r="A22" s="424"/>
       <c r="B22" s="68" t="s">
         <v>26</v>
       </c>
@@ -54915,7 +54924,7 @@
       <c r="L22" s="63"/>
     </row>
     <row r="23" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A23" s="420"/>
+      <c r="A23" s="424"/>
       <c r="B23" s="68" t="s">
         <v>26</v>
       </c>
@@ -54956,7 +54965,7 @@
       <c r="L23" s="63"/>
     </row>
     <row r="24" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A24" s="420"/>
+      <c r="A24" s="424"/>
       <c r="B24" s="68" t="s">
         <v>26</v>
       </c>
@@ -54997,7 +55006,7 @@
       <c r="L24" s="63"/>
     </row>
     <row r="25" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A25" s="420"/>
+      <c r="A25" s="424"/>
       <c r="B25" s="68" t="s">
         <v>35</v>
       </c>
@@ -55038,7 +55047,7 @@
       <c r="L25" s="63"/>
     </row>
     <row r="26" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A26" s="420"/>
+      <c r="A26" s="424"/>
       <c r="B26" s="68" t="s">
         <v>35</v>
       </c>
@@ -55079,7 +55088,7 @@
       <c r="L26" s="63"/>
     </row>
     <row r="27" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A27" s="420"/>
+      <c r="A27" s="424"/>
       <c r="B27" s="68" t="s">
         <v>35</v>
       </c>
@@ -55120,7 +55129,7 @@
       <c r="L27" s="63"/>
     </row>
     <row r="28" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A28" s="420"/>
+      <c r="A28" s="424"/>
       <c r="B28" s="68" t="s">
         <v>39</v>
       </c>
@@ -55161,7 +55170,7 @@
       <c r="L28" s="63"/>
     </row>
     <row r="29" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A29" s="420"/>
+      <c r="A29" s="424"/>
       <c r="B29" s="68" t="s">
         <v>40</v>
       </c>
@@ -55202,12 +55211,12 @@
       <c r="L29" s="63"/>
     </row>
     <row r="30" spans="1:12" ht="20" customHeight="1">
-      <c r="A30" s="418" t="s">
+      <c r="A30" s="422" t="s">
         <v>234</v>
       </c>
-      <c r="B30" s="419"/>
-      <c r="C30" s="419"/>
-      <c r="D30" s="493"/>
+      <c r="B30" s="423"/>
+      <c r="C30" s="423"/>
+      <c r="D30" s="497"/>
       <c r="E30" s="60">
         <f>SUM(E20:E29)</f>
         <v>80</v>
@@ -55239,7 +55248,7 @@
       <c r="L30" s="62"/>
     </row>
     <row r="31" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A31" s="420" t="s">
+      <c r="A31" s="424" t="s">
         <v>191</v>
       </c>
       <c r="B31" s="68" t="s">
@@ -55282,7 +55291,7 @@
       <c r="L31" s="63"/>
     </row>
     <row r="32" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A32" s="420"/>
+      <c r="A32" s="424"/>
       <c r="B32" s="68" t="s">
         <v>55</v>
       </c>
@@ -55323,7 +55332,7 @@
       <c r="L32" s="63"/>
     </row>
     <row r="33" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A33" s="420"/>
+      <c r="A33" s="424"/>
       <c r="B33" s="68" t="s">
         <v>55</v>
       </c>
@@ -55364,7 +55373,7 @@
       <c r="L33" s="63"/>
     </row>
     <row r="34" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A34" s="420"/>
+      <c r="A34" s="424"/>
       <c r="B34" s="68" t="s">
         <v>204</v>
       </c>
@@ -55405,7 +55414,7 @@
       <c r="L34" s="63"/>
     </row>
     <row r="35" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A35" s="420"/>
+      <c r="A35" s="424"/>
       <c r="B35" s="68" t="s">
         <v>204</v>
       </c>
@@ -55446,7 +55455,7 @@
       <c r="L35" s="63"/>
     </row>
     <row r="36" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A36" s="420"/>
+      <c r="A36" s="424"/>
       <c r="B36" s="68" t="s">
         <v>204</v>
       </c>
@@ -55487,7 +55496,7 @@
       <c r="L36" s="63"/>
     </row>
     <row r="37" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A37" s="420"/>
+      <c r="A37" s="424"/>
       <c r="B37" s="68" t="s">
         <v>204</v>
       </c>
@@ -55528,7 +55537,7 @@
       <c r="L37" s="63"/>
     </row>
     <row r="38" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A38" s="420"/>
+      <c r="A38" s="424"/>
       <c r="B38" s="68" t="s">
         <v>204</v>
       </c>
@@ -55569,7 +55578,7 @@
       <c r="L38" s="63"/>
     </row>
     <row r="39" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A39" s="420"/>
+      <c r="A39" s="424"/>
       <c r="B39" s="68" t="s">
         <v>204</v>
       </c>
@@ -55610,7 +55619,7 @@
       <c r="L39" s="63"/>
     </row>
     <row r="40" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A40" s="420"/>
+      <c r="A40" s="424"/>
       <c r="B40" s="68" t="s">
         <v>204</v>
       </c>
@@ -55651,7 +55660,7 @@
       <c r="L40" s="63"/>
     </row>
     <row r="41" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A41" s="420"/>
+      <c r="A41" s="424"/>
       <c r="B41" s="68" t="s">
         <v>204</v>
       </c>
@@ -55692,7 +55701,7 @@
       <c r="L41" s="63"/>
     </row>
     <row r="42" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A42" s="420"/>
+      <c r="A42" s="424"/>
       <c r="B42" s="68" t="s">
         <v>203</v>
       </c>
@@ -55733,7 +55742,7 @@
       <c r="L42" s="59"/>
     </row>
     <row r="43" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A43" s="420"/>
+      <c r="A43" s="424"/>
       <c r="B43" s="68" t="s">
         <v>203</v>
       </c>
@@ -55774,7 +55783,7 @@
       <c r="L43" s="59"/>
     </row>
     <row r="44" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A44" s="420"/>
+      <c r="A44" s="424"/>
       <c r="B44" s="68" t="s">
         <v>203</v>
       </c>
@@ -55815,7 +55824,7 @@
       <c r="L44" s="59"/>
     </row>
     <row r="45" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A45" s="420"/>
+      <c r="A45" s="424"/>
       <c r="B45" s="68" t="s">
         <v>203</v>
       </c>
@@ -55856,7 +55865,7 @@
       <c r="L45" s="59"/>
     </row>
     <row r="46" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A46" s="420"/>
+      <c r="A46" s="424"/>
       <c r="B46" s="68" t="s">
         <v>789</v>
       </c>
@@ -55897,7 +55906,7 @@
       <c r="L46" s="63"/>
     </row>
     <row r="47" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A47" s="420"/>
+      <c r="A47" s="424"/>
       <c r="B47" s="68" t="s">
         <v>74</v>
       </c>
@@ -55938,7 +55947,7 @@
       <c r="L47" s="63"/>
     </row>
     <row r="48" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A48" s="420"/>
+      <c r="A48" s="424"/>
       <c r="B48" s="255" t="s">
         <v>202</v>
       </c>
@@ -55979,7 +55988,7 @@
       <c r="L48" s="254"/>
     </row>
     <row r="49" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A49" s="420"/>
+      <c r="A49" s="424"/>
       <c r="B49" s="255" t="s">
         <v>202</v>
       </c>
@@ -56020,7 +56029,7 @@
       <c r="L49" s="254"/>
     </row>
     <row r="50" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A50" s="420"/>
+      <c r="A50" s="424"/>
       <c r="B50" s="255" t="s">
         <v>202</v>
       </c>
@@ -56061,7 +56070,7 @@
       <c r="L50" s="254"/>
     </row>
     <row r="51" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A51" s="420"/>
+      <c r="A51" s="424"/>
       <c r="B51" s="68" t="s">
         <v>86</v>
       </c>
@@ -56102,7 +56111,7 @@
       <c r="L51" s="59"/>
     </row>
     <row r="52" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A52" s="420"/>
+      <c r="A52" s="424"/>
       <c r="B52" s="68" t="s">
         <v>86</v>
       </c>
@@ -56143,7 +56152,7 @@
       <c r="L52" s="59"/>
     </row>
     <row r="53" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A53" s="420"/>
+      <c r="A53" s="424"/>
       <c r="B53" s="68" t="s">
         <v>86</v>
       </c>
@@ -56184,7 +56193,7 @@
       <c r="L53" s="59"/>
     </row>
     <row r="54" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A54" s="420"/>
+      <c r="A54" s="424"/>
       <c r="B54" s="68" t="s">
         <v>86</v>
       </c>
@@ -56225,7 +56234,7 @@
       <c r="L54" s="59"/>
     </row>
     <row r="55" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A55" s="420"/>
+      <c r="A55" s="424"/>
       <c r="B55" s="68" t="s">
         <v>86</v>
       </c>
@@ -56266,7 +56275,7 @@
       <c r="L55" s="59"/>
     </row>
     <row r="56" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A56" s="420"/>
+      <c r="A56" s="424"/>
       <c r="B56" s="68" t="s">
         <v>86</v>
       </c>
@@ -56307,7 +56316,7 @@
       <c r="L56" s="59"/>
     </row>
     <row r="57" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A57" s="420"/>
+      <c r="A57" s="424"/>
       <c r="B57" s="68" t="s">
         <v>86</v>
       </c>
@@ -56348,7 +56357,7 @@
       <c r="L57" s="59"/>
     </row>
     <row r="58" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A58" s="420"/>
+      <c r="A58" s="424"/>
       <c r="B58" s="68" t="s">
         <v>86</v>
       </c>
@@ -56389,7 +56398,7 @@
       <c r="L58" s="59"/>
     </row>
     <row r="59" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A59" s="420"/>
+      <c r="A59" s="424"/>
       <c r="B59" s="255" t="s">
         <v>86</v>
       </c>
@@ -56430,7 +56439,7 @@
       <c r="L59" s="258"/>
     </row>
     <row r="60" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A60" s="420"/>
+      <c r="A60" s="424"/>
       <c r="B60" s="255" t="s">
         <v>86</v>
       </c>
@@ -56471,7 +56480,7 @@
       <c r="L60" s="258"/>
     </row>
     <row r="61" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A61" s="420"/>
+      <c r="A61" s="424"/>
       <c r="B61" s="255" t="s">
         <v>86</v>
       </c>
@@ -56512,7 +56521,7 @@
       <c r="L61" s="258"/>
     </row>
     <row r="62" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A62" s="420"/>
+      <c r="A62" s="424"/>
       <c r="B62" s="68" t="s">
         <v>200</v>
       </c>
@@ -56553,7 +56562,7 @@
       <c r="L62" s="59"/>
     </row>
     <row r="63" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A63" s="420"/>
+      <c r="A63" s="424"/>
       <c r="B63" s="68" t="s">
         <v>199</v>
       </c>
@@ -56594,7 +56603,7 @@
       <c r="L63" s="59"/>
     </row>
     <row r="64" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A64" s="420"/>
+      <c r="A64" s="424"/>
       <c r="B64" s="68" t="s">
         <v>199</v>
       </c>
@@ -56635,7 +56644,7 @@
       <c r="L64" s="59"/>
     </row>
     <row r="65" spans="1:14" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A65" s="420"/>
+      <c r="A65" s="424"/>
       <c r="B65" s="68" t="s">
         <v>199</v>
       </c>
@@ -56676,7 +56685,7 @@
       <c r="L65" s="59"/>
     </row>
     <row r="66" spans="1:14" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A66" s="420"/>
+      <c r="A66" s="424"/>
       <c r="B66" s="68" t="s">
         <v>199</v>
       </c>
@@ -56717,12 +56726,12 @@
       <c r="L66" s="63"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="418" t="s">
+      <c r="A67" s="422" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="419"/>
-      <c r="C67" s="419"/>
-      <c r="D67" s="493"/>
+      <c r="B67" s="423"/>
+      <c r="C67" s="423"/>
+      <c r="D67" s="497"/>
       <c r="E67" s="60">
         <f>SUM(E31:E66)</f>
         <v>238</v>
@@ -56754,12 +56763,12 @@
       <c r="L67" s="62"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="424" t="s">
+      <c r="A68" s="428" t="s">
         <v>236</v>
       </c>
-      <c r="B68" s="425"/>
-      <c r="C68" s="425"/>
-      <c r="D68" s="490"/>
+      <c r="B68" s="429"/>
+      <c r="C68" s="429"/>
+      <c r="D68" s="494"/>
       <c r="E68" s="64">
         <f t="shared" ref="E68:I68" si="38">SUM(E9+E19+E30+E67)</f>
         <v>375</v>
@@ -56794,7 +56803,7 @@
       <c r="N69" s="67"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="E70" s="480" t="s">
+      <c r="E70" s="484" t="s">
         <v>955</v>
       </c>
       <c r="F70" s="169">
@@ -56821,7 +56830,7 @@
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="E71" s="481"/>
+      <c r="E71" s="485"/>
       <c r="F71" s="169" t="s">
         <v>1011</v>
       </c>
@@ -57039,16 +57048,16 @@
       <c r="J81" s="274"/>
       <c r="K81" s="274"/>
       <c r="L81" s="274"/>
-      <c r="M81" s="485" t="s">
+      <c r="M81" s="489" t="s">
         <v>2160</v>
       </c>
-      <c r="N81" s="485"/>
-      <c r="O81" s="485"/>
-      <c r="P81" s="485"/>
-      <c r="Q81" s="485"/>
-      <c r="R81" s="485"/>
-      <c r="S81" s="485"/>
-      <c r="T81" s="485"/>
+      <c r="N81" s="489"/>
+      <c r="O81" s="489"/>
+      <c r="P81" s="489"/>
+      <c r="Q81" s="489"/>
+      <c r="R81" s="489"/>
+      <c r="S81" s="489"/>
+      <c r="T81" s="489"/>
     </row>
     <row r="82" spans="3:20">
       <c r="C82" t="s">
@@ -57074,14 +57083,14 @@
       <c r="J82" s="274"/>
       <c r="K82" s="274"/>
       <c r="L82" s="274"/>
-      <c r="M82" s="486"/>
-      <c r="N82" s="486"/>
-      <c r="O82" s="486"/>
-      <c r="P82" s="486"/>
-      <c r="Q82" s="486"/>
-      <c r="R82" s="486"/>
-      <c r="S82" s="486"/>
-      <c r="T82" s="486"/>
+      <c r="M82" s="490"/>
+      <c r="N82" s="490"/>
+      <c r="O82" s="490"/>
+      <c r="P82" s="490"/>
+      <c r="Q82" s="490"/>
+      <c r="R82" s="490"/>
+      <c r="S82" s="490"/>
+      <c r="T82" s="490"/>
     </row>
     <row r="83" spans="3:20">
       <c r="C83" t="s">
@@ -57107,10 +57116,10 @@
       <c r="J83" s="274"/>
       <c r="K83" s="274"/>
       <c r="L83" s="274"/>
-      <c r="M83" s="482" t="s">
+      <c r="M83" s="486" t="s">
         <v>1967</v>
       </c>
-      <c r="N83" s="484" t="s">
+      <c r="N83" s="488" t="s">
         <v>1962</v>
       </c>
       <c r="O83" s="366" t="s">
@@ -57128,7 +57137,7 @@
       <c r="S83" s="366" t="s">
         <v>1965</v>
       </c>
-      <c r="T83" s="484" t="s">
+      <c r="T83" s="488" t="s">
         <v>1964</v>
       </c>
     </row>
@@ -57156,8 +57165,8 @@
       <c r="J84" s="274"/>
       <c r="K84" s="274"/>
       <c r="L84" s="274"/>
-      <c r="M84" s="483"/>
-      <c r="N84" s="483"/>
+      <c r="M84" s="487"/>
+      <c r="N84" s="487"/>
       <c r="O84" s="366">
         <v>0</v>
       </c>
@@ -57174,7 +57183,7 @@
         <f>SUM(O84:R84)</f>
         <v>60</v>
       </c>
-      <c r="T84" s="483"/>
+      <c r="T84" s="487"/>
     </row>
     <row r="85" spans="3:20">
       <c r="C85" t="s">
@@ -57508,32 +57517,32 @@
       </c>
       <c r="H92" s="273"/>
       <c r="I92" s="273"/>
-      <c r="M92" s="485" t="s">
+      <c r="M92" s="489" t="s">
         <v>2129</v>
       </c>
-      <c r="N92" s="485"/>
-      <c r="O92" s="485"/>
-      <c r="P92" s="485"/>
-      <c r="Q92" s="485"/>
-      <c r="R92" s="485"/>
-      <c r="S92" s="485"/>
-      <c r="T92" s="485"/>
+      <c r="N92" s="489"/>
+      <c r="O92" s="489"/>
+      <c r="P92" s="489"/>
+      <c r="Q92" s="489"/>
+      <c r="R92" s="489"/>
+      <c r="S92" s="489"/>
+      <c r="T92" s="489"/>
     </row>
     <row r="93" spans="3:20">
-      <c r="M93" s="486"/>
-      <c r="N93" s="486"/>
-      <c r="O93" s="486"/>
-      <c r="P93" s="486"/>
-      <c r="Q93" s="486"/>
-      <c r="R93" s="486"/>
-      <c r="S93" s="486"/>
-      <c r="T93" s="486"/>
+      <c r="M93" s="490"/>
+      <c r="N93" s="490"/>
+      <c r="O93" s="490"/>
+      <c r="P93" s="490"/>
+      <c r="Q93" s="490"/>
+      <c r="R93" s="490"/>
+      <c r="S93" s="490"/>
+      <c r="T93" s="490"/>
     </row>
     <row r="94" spans="3:20">
-      <c r="M94" s="482" t="s">
+      <c r="M94" s="486" t="s">
         <v>955</v>
       </c>
-      <c r="N94" s="484" t="s">
+      <c r="N94" s="488" t="s">
         <v>1011</v>
       </c>
       <c r="O94" s="366" t="s">
@@ -57551,13 +57560,13 @@
       <c r="S94" s="366" t="s">
         <v>1965</v>
       </c>
-      <c r="T94" s="484" t="s">
+      <c r="T94" s="488" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="95" spans="3:20">
-      <c r="M95" s="483"/>
-      <c r="N95" s="483"/>
+      <c r="M95" s="487"/>
+      <c r="N95" s="487"/>
       <c r="O95" s="366">
         <v>24</v>
       </c>
@@ -57568,7 +57577,7 @@
         <f>SUM(O95:R95)</f>
         <v>24</v>
       </c>
-      <c r="T95" s="483"/>
+      <c r="T95" s="487"/>
     </row>
     <row r="96" spans="3:20">
       <c r="M96" s="365" t="s">
@@ -57919,9 +57928,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="117" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H3"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A1:XFD139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -57932,7 +57941,7 @@
     <col min="5" max="5" width="30.1640625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="103.5" style="385" customWidth="1"/>
+    <col min="8" max="8" width="112.6640625" style="385" customWidth="1"/>
     <col min="9" max="9" width="58.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -57940,76 +57949,76 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" thickBot="1"/>
     <row r="2" spans="1:17">
-      <c r="A2" s="505" t="s">
+      <c r="A2" s="509" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="505" t="s">
+      <c r="B2" s="509" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="501" t="s">
+      <c r="C2" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="501" t="s">
+      <c r="D2" s="505" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="501" t="s">
+      <c r="E2" s="505" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="507" t="s">
+      <c r="F2" s="511" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="507" t="s">
+      <c r="G2" s="511" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="507" t="s">
+      <c r="H2" s="511" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="501" t="s">
+      <c r="I2" s="505" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="501" t="s">
+      <c r="J2" s="505" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="499" t="s">
+      <c r="K2" s="503" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="500"/>
-      <c r="M2" s="501" t="s">
+      <c r="L2" s="504"/>
+      <c r="M2" s="505" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="499" t="s">
+      <c r="N2" s="503" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="500"/>
-      <c r="P2" s="503" t="s">
+      <c r="O2" s="504"/>
+      <c r="P2" s="507" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" hidden="1" thickBot="1">
-      <c r="A3" s="506"/>
-      <c r="B3" s="506"/>
-      <c r="C3" s="502"/>
-      <c r="D3" s="502"/>
-      <c r="E3" s="502"/>
-      <c r="F3" s="502"/>
-      <c r="G3" s="502"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="502"/>
-      <c r="J3" s="502"/>
+      <c r="A3" s="510"/>
+      <c r="B3" s="510"/>
+      <c r="C3" s="506"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="506"/>
+      <c r="F3" s="506"/>
+      <c r="G3" s="506"/>
+      <c r="H3" s="506"/>
+      <c r="I3" s="506"/>
+      <c r="J3" s="506"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="502"/>
+      <c r="M3" s="506"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="504"/>
+      <c r="P3" s="508"/>
     </row>
     <row r="4" spans="1:17" ht="48" hidden="1">
       <c r="A4" s="224">
@@ -58458,19 +58467,19 @@
       <c r="B13" s="267" t="s">
         <v>1883</v>
       </c>
-      <c r="C13" s="508" t="s">
+      <c r="C13" s="407" t="s">
         <v>1884</v>
       </c>
-      <c r="D13" s="508" t="s">
+      <c r="D13" s="407" t="s">
         <v>1884</v>
       </c>
-      <c r="E13" s="509" t="s">
+      <c r="E13" s="408" t="s">
         <v>1885</v>
       </c>
-      <c r="F13" s="509" t="s">
+      <c r="F13" s="408" t="s">
         <v>1157</v>
       </c>
-      <c r="G13" s="509" t="s">
+      <c r="G13" s="408" t="s">
         <v>1223</v>
       </c>
       <c r="H13" s="268" t="s">
@@ -59240,19 +59249,19 @@
       <c r="B29" s="267" t="s">
         <v>1883</v>
       </c>
-      <c r="C29" s="508" t="s">
+      <c r="C29" s="407" t="s">
         <v>1884</v>
       </c>
-      <c r="D29" s="508" t="s">
+      <c r="D29" s="407" t="s">
         <v>1884</v>
       </c>
-      <c r="E29" s="509" t="s">
+      <c r="E29" s="408" t="s">
         <v>1885</v>
       </c>
-      <c r="F29" s="509" t="s">
+      <c r="F29" s="408" t="s">
         <v>1157</v>
       </c>
-      <c r="G29" s="509" t="s">
+      <c r="G29" s="408" t="s">
         <v>1222</v>
       </c>
       <c r="H29" s="268" t="s">
@@ -62533,186 +62542,194 @@
         <v>오류수정.3.분석.132.04. 음영분석_2023.12.08 4페이지-음영분석 서비스 개선</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
-      <c r="A98" s="374">
+    <row r="98" spans="1:17" s="392" customFormat="1">
+      <c r="A98" s="512">
         <v>3</v>
       </c>
-      <c r="B98" s="225" t="s">
+      <c r="B98" s="388" t="s">
         <v>1084</v>
       </c>
-      <c r="C98" s="263" t="s">
+      <c r="C98" s="409" t="s">
         <v>192</v>
       </c>
-      <c r="D98" s="263" t="s">
+      <c r="D98" s="409" t="s">
         <v>192</v>
       </c>
-      <c r="E98" s="263" t="s">
+      <c r="E98" s="409" t="s">
         <v>192</v>
       </c>
-      <c r="F98" s="263" t="s">
+      <c r="F98" s="409" t="s">
         <v>1023</v>
       </c>
-      <c r="G98" s="263" t="s">
+      <c r="G98" s="409" t="s">
         <v>1587</v>
       </c>
-      <c r="H98" s="238" t="s">
+      <c r="H98" s="514" t="s">
         <v>1087</v>
       </c>
-      <c r="I98" s="225" t="s">
+      <c r="I98" s="388" t="s">
         <v>1088</v>
       </c>
-      <c r="J98" s="231" t="s">
+      <c r="J98" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K98" s="231" t="s">
+      <c r="K98" s="389" t="s">
         <v>1972</v>
       </c>
-      <c r="L98" s="231" t="s">
+      <c r="L98" s="389" t="s">
         <v>1972</v>
       </c>
-      <c r="M98" s="231"/>
-      <c r="N98" s="231"/>
-      <c r="O98" s="231"/>
-      <c r="P98" s="232"/>
-      <c r="Q98" s="400" t="str">
+      <c r="M98" s="390">
+        <v>45391</v>
+      </c>
+      <c r="N98" s="389"/>
+      <c r="O98" s="389"/>
+      <c r="P98" s="391"/>
+      <c r="Q98" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.1.공통.3.01. 공통_2024.01.05 3페이지-행정구역 설정 기능 개선</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
-      <c r="A99" s="229">
+    <row r="99" spans="1:17" s="392" customFormat="1">
+      <c r="A99" s="513">
         <v>138</v>
       </c>
-      <c r="B99" s="225" t="s">
+      <c r="B99" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C99" s="240" t="s">
+      <c r="C99" s="409" t="s">
         <v>1585</v>
       </c>
-      <c r="D99" s="240" t="s">
+      <c r="D99" s="409" t="s">
         <v>1585</v>
       </c>
-      <c r="E99" s="240" t="s">
+      <c r="E99" s="409" t="s">
         <v>1586</v>
       </c>
-      <c r="F99" s="240" t="s">
+      <c r="F99" s="409" t="s">
         <v>1378</v>
       </c>
-      <c r="G99" s="240" t="s">
+      <c r="G99" s="409" t="s">
         <v>1587</v>
       </c>
-      <c r="H99" s="230" t="s">
+      <c r="H99" s="393" t="s">
         <v>1588</v>
       </c>
-      <c r="I99" s="240" t="s">
+      <c r="I99" s="409" t="s">
         <v>1589</v>
       </c>
-      <c r="J99" s="231" t="s">
+      <c r="J99" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K99" s="231" t="s">
+      <c r="K99" s="389" t="s">
         <v>1972</v>
       </c>
-      <c r="L99" s="231" t="s">
+      <c r="L99" s="389" t="s">
         <v>1972</v>
       </c>
-      <c r="M99" s="231"/>
-      <c r="N99" s="231"/>
-      <c r="O99" s="231"/>
-      <c r="P99" s="232"/>
-      <c r="Q99" s="400" t="str">
+      <c r="M99" s="390">
+        <v>45391</v>
+      </c>
+      <c r="N99" s="389"/>
+      <c r="O99" s="389"/>
+      <c r="P99" s="391"/>
+      <c r="Q99" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.138.01. 건축인허가_2024.01.03 1페이지-지번검색 기능 개선</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
-      <c r="A100" s="224">
+    <row r="100" spans="1:17" s="392" customFormat="1">
+      <c r="A100" s="387">
         <v>139</v>
       </c>
-      <c r="B100" s="225" t="s">
+      <c r="B100" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C100" s="240" t="s">
+      <c r="C100" s="409" t="s">
         <v>1585</v>
       </c>
-      <c r="D100" s="240" t="s">
+      <c r="D100" s="409" t="s">
         <v>1585</v>
       </c>
-      <c r="E100" s="240" t="s">
+      <c r="E100" s="409" t="s">
         <v>1586</v>
       </c>
-      <c r="F100" s="240" t="s">
+      <c r="F100" s="409" t="s">
         <v>1378</v>
       </c>
-      <c r="G100" s="240" t="s">
+      <c r="G100" s="409" t="s">
         <v>1587</v>
       </c>
-      <c r="H100" s="230" t="s">
+      <c r="H100" s="393" t="s">
         <v>1590</v>
       </c>
-      <c r="I100" s="240" t="s">
+      <c r="I100" s="409" t="s">
         <v>1589</v>
       </c>
-      <c r="J100" s="231" t="s">
+      <c r="J100" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K100" s="231" t="s">
+      <c r="K100" s="389" t="s">
         <v>1972</v>
       </c>
-      <c r="L100" s="231" t="s">
+      <c r="L100" s="389" t="s">
         <v>1972</v>
       </c>
-      <c r="M100" s="231"/>
-      <c r="N100" s="231"/>
-      <c r="O100" s="231"/>
-      <c r="P100" s="232"/>
-      <c r="Q100" s="400" t="str">
+      <c r="M100" s="390">
+        <v>45391</v>
+      </c>
+      <c r="N100" s="389"/>
+      <c r="O100" s="389"/>
+      <c r="P100" s="391"/>
+      <c r="Q100" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.139.01. 건축인허가_2024.01.03 1페이지-지번검색 기능 개선</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
-      <c r="A101" s="374">
+    <row r="101" spans="1:17" s="392" customFormat="1">
+      <c r="A101" s="512">
         <v>141</v>
       </c>
-      <c r="B101" s="225" t="s">
+      <c r="B101" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C101" s="240" t="s">
+      <c r="C101" s="409" t="s">
         <v>1585</v>
       </c>
-      <c r="D101" s="240" t="s">
+      <c r="D101" s="409" t="s">
         <v>1585</v>
       </c>
-      <c r="E101" s="240" t="s">
+      <c r="E101" s="409" t="s">
         <v>1586</v>
       </c>
-      <c r="F101" s="240" t="s">
+      <c r="F101" s="409" t="s">
         <v>1378</v>
       </c>
-      <c r="G101" s="240" t="s">
+      <c r="G101" s="409" t="s">
         <v>1587</v>
       </c>
-      <c r="H101" s="230" t="s">
+      <c r="H101" s="393" t="s">
         <v>1593</v>
       </c>
-      <c r="I101" s="240" t="s">
+      <c r="I101" s="409" t="s">
         <v>1589</v>
       </c>
-      <c r="J101" s="231" t="s">
+      <c r="J101" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K101" s="231" t="s">
+      <c r="K101" s="389" t="s">
         <v>1972</v>
       </c>
-      <c r="L101" s="231" t="s">
+      <c r="L101" s="389" t="s">
         <v>1972</v>
       </c>
-      <c r="M101" s="231"/>
-      <c r="N101" s="231"/>
-      <c r="O101" s="231"/>
-      <c r="P101" s="232"/>
-      <c r="Q101" s="400" t="str">
+      <c r="M101" s="390">
+        <v>45391</v>
+      </c>
+      <c r="N101" s="389"/>
+      <c r="O101" s="389"/>
+      <c r="P101" s="391"/>
+      <c r="Q101" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.141.01. 건축인허가_2024.01.03 1페이지-지번검색 기능 개선</v>
       </c>
@@ -62861,140 +62878,146 @@
         <v>오류수정.4.서비스.195.02. 문화재공간분석_2024.01.03 8page-</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
-      <c r="A105" s="375">
+    <row r="105" spans="1:17" s="392" customFormat="1">
+      <c r="A105" s="394">
         <v>142</v>
       </c>
-      <c r="B105" s="225" t="s">
+      <c r="B105" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C105" s="240" t="s">
+      <c r="C105" s="409" t="s">
         <v>1585</v>
       </c>
-      <c r="D105" s="240" t="s">
+      <c r="D105" s="409" t="s">
         <v>1585</v>
       </c>
-      <c r="E105" s="230" t="s">
+      <c r="E105" s="393" t="s">
         <v>1586</v>
       </c>
-      <c r="F105" s="230" t="s">
+      <c r="F105" s="393" t="s">
         <v>1378</v>
       </c>
-      <c r="G105" s="230" t="s">
+      <c r="G105" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H105" s="230" t="s">
+      <c r="H105" s="393" t="s">
         <v>1594</v>
       </c>
-      <c r="I105" s="240" t="s">
+      <c r="I105" s="409" t="s">
         <v>1595</v>
       </c>
-      <c r="J105" s="231" t="s">
+      <c r="J105" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K105" s="231" t="s">
+      <c r="K105" s="389" t="s">
         <v>1973</v>
       </c>
-      <c r="L105" s="231" t="s">
+      <c r="L105" s="389" t="s">
         <v>1973</v>
       </c>
-      <c r="M105" s="231"/>
-      <c r="N105" s="231"/>
-      <c r="O105" s="231"/>
-      <c r="P105" s="232"/>
-      <c r="Q105" s="400" t="str">
+      <c r="M105" s="390">
+        <v>45391</v>
+      </c>
+      <c r="N105" s="389"/>
+      <c r="O105" s="389"/>
+      <c r="P105" s="391"/>
+      <c r="Q105" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.142.01. 건축인허가_2024.01.03 2페이지-지번검색 기능 개선</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
-      <c r="A106" s="224">
+    <row r="106" spans="1:17" s="392" customFormat="1">
+      <c r="A106" s="387">
         <v>143</v>
       </c>
-      <c r="B106" s="225" t="s">
+      <c r="B106" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C106" s="240" t="s">
+      <c r="C106" s="409" t="s">
         <v>1585</v>
       </c>
-      <c r="D106" s="240" t="s">
+      <c r="D106" s="409" t="s">
         <v>1585</v>
       </c>
-      <c r="E106" s="230" t="s">
+      <c r="E106" s="393" t="s">
         <v>1586</v>
       </c>
-      <c r="F106" s="230" t="s">
+      <c r="F106" s="393" t="s">
         <v>1378</v>
       </c>
-      <c r="G106" s="230" t="s">
+      <c r="G106" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H106" s="230" t="s">
+      <c r="H106" s="393" t="s">
         <v>1596</v>
       </c>
-      <c r="I106" s="240" t="s">
+      <c r="I106" s="409" t="s">
         <v>1595</v>
       </c>
-      <c r="J106" s="231" t="s">
+      <c r="J106" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K106" s="231" t="s">
+      <c r="K106" s="389" t="s">
         <v>1973</v>
       </c>
-      <c r="L106" s="231" t="s">
+      <c r="L106" s="389" t="s">
         <v>1973</v>
       </c>
-      <c r="M106" s="231"/>
-      <c r="N106" s="231"/>
-      <c r="O106" s="231"/>
-      <c r="P106" s="232"/>
-      <c r="Q106" s="400" t="str">
+      <c r="M106" s="390">
+        <v>45391</v>
+      </c>
+      <c r="N106" s="389"/>
+      <c r="O106" s="389"/>
+      <c r="P106" s="391"/>
+      <c r="Q106" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.143.01. 건축인허가_2024.01.03 2페이지-지번검색 기능 개선</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
-      <c r="A107" s="224">
+    <row r="107" spans="1:17" s="392" customFormat="1">
+      <c r="A107" s="387">
         <v>217</v>
       </c>
-      <c r="B107" s="225" t="s">
+      <c r="B107" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C107" s="240" t="s">
+      <c r="C107" s="409" t="s">
         <v>1710</v>
       </c>
-      <c r="D107" s="240" t="s">
+      <c r="D107" s="409" t="s">
         <v>743</v>
       </c>
-      <c r="E107" s="230" t="s">
+      <c r="E107" s="393" t="s">
         <v>1715</v>
       </c>
-      <c r="F107" s="230" t="s">
+      <c r="F107" s="393" t="s">
         <v>1716</v>
       </c>
-      <c r="G107" s="230" t="s">
+      <c r="G107" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H107" s="230" t="s">
+      <c r="H107" s="393" t="s">
         <v>1717</v>
       </c>
-      <c r="I107" s="240" t="s">
+      <c r="I107" s="409" t="s">
         <v>1718</v>
       </c>
-      <c r="J107" s="231" t="s">
+      <c r="J107" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K107" s="231" t="s">
+      <c r="K107" s="389" t="s">
         <v>1973</v>
       </c>
-      <c r="L107" s="231" t="s">
+      <c r="L107" s="389" t="s">
         <v>1973</v>
       </c>
-      <c r="M107" s="231"/>
-      <c r="N107" s="231"/>
-      <c r="O107" s="231"/>
-      <c r="P107" s="232"/>
-      <c r="Q107" s="400" t="str">
+      <c r="M107" s="390">
+        <v>45392</v>
+      </c>
+      <c r="N107" s="389"/>
+      <c r="O107" s="389"/>
+      <c r="P107" s="391"/>
+      <c r="Q107" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.217.03. 도로점용인허가_2024.01.09 7page-점용허가금지구간 가시화 기능 개선</v>
       </c>
@@ -63145,140 +63168,146 @@
         <v>오류수정.4.서비스.210.02. 문화재공간분석_2024.01.03 19page-</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
-      <c r="A111" s="229">
+    <row r="111" spans="1:17" s="392" customFormat="1">
+      <c r="A111" s="513">
         <v>234</v>
       </c>
-      <c r="B111" s="225" t="s">
+      <c r="B111" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C111" s="240" t="s">
+      <c r="C111" s="409" t="s">
         <v>1710</v>
       </c>
-      <c r="D111" s="240" t="s">
+      <c r="D111" s="409" t="s">
         <v>770</v>
       </c>
-      <c r="E111" s="230" t="s">
+      <c r="E111" s="393" t="s">
         <v>769</v>
       </c>
-      <c r="F111" s="230" t="s">
+      <c r="F111" s="393" t="s">
         <v>1428</v>
       </c>
-      <c r="G111" s="230" t="s">
+      <c r="G111" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H111" s="230" t="s">
+      <c r="H111" s="393" t="s">
         <v>1742</v>
       </c>
-      <c r="I111" s="240" t="s">
+      <c r="I111" s="409" t="s">
         <v>1743</v>
       </c>
-      <c r="J111" s="231" t="s">
+      <c r="J111" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K111" s="231" t="s">
+      <c r="K111" s="389" t="s">
         <v>1981</v>
       </c>
-      <c r="L111" s="231" t="s">
+      <c r="L111" s="389" t="s">
         <v>1981</v>
       </c>
-      <c r="M111" s="231"/>
-      <c r="N111" s="231"/>
-      <c r="O111" s="231"/>
-      <c r="P111" s="232"/>
-      <c r="Q111" s="400" t="str">
+      <c r="M111" s="390">
+        <v>45392</v>
+      </c>
+      <c r="N111" s="389"/>
+      <c r="O111" s="389"/>
+      <c r="P111" s="391"/>
+      <c r="Q111" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.234.03. 도로점용인허가_2024.01.09 13page-불법도로점용관리 기능 개선</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
-      <c r="A112" s="224">
+    <row r="112" spans="1:17" s="392" customFormat="1">
+      <c r="A112" s="387">
         <v>235</v>
       </c>
-      <c r="B112" s="225" t="s">
+      <c r="B112" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C112" s="240" t="s">
+      <c r="C112" s="409" t="s">
         <v>1710</v>
       </c>
-      <c r="D112" s="240" t="s">
+      <c r="D112" s="409" t="s">
         <v>770</v>
       </c>
-      <c r="E112" s="230" t="s">
+      <c r="E112" s="393" t="s">
         <v>769</v>
       </c>
-      <c r="F112" s="230" t="s">
+      <c r="F112" s="393" t="s">
         <v>1428</v>
       </c>
-      <c r="G112" s="230" t="s">
+      <c r="G112" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H112" s="230" t="s">
+      <c r="H112" s="393" t="s">
         <v>1744</v>
       </c>
-      <c r="I112" s="240" t="s">
+      <c r="I112" s="409" t="s">
         <v>1743</v>
       </c>
-      <c r="J112" s="231" t="s">
+      <c r="J112" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K112" s="231" t="s">
+      <c r="K112" s="389" t="s">
         <v>1981</v>
       </c>
-      <c r="L112" s="231" t="s">
+      <c r="L112" s="389" t="s">
         <v>1981</v>
       </c>
-      <c r="M112" s="231"/>
-      <c r="N112" s="231"/>
-      <c r="O112" s="231"/>
-      <c r="P112" s="232"/>
-      <c r="Q112" s="400" t="str">
+      <c r="M112" s="390">
+        <v>45392</v>
+      </c>
+      <c r="N112" s="389"/>
+      <c r="O112" s="389"/>
+      <c r="P112" s="391"/>
+      <c r="Q112" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.235.03. 도로점용인허가_2024.01.09 13page-불법도로점용관리 기능 개선</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
-      <c r="A113" s="224">
+    <row r="113" spans="1:17" s="392" customFormat="1">
+      <c r="A113" s="387">
         <v>236</v>
       </c>
-      <c r="B113" s="225" t="s">
+      <c r="B113" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C113" s="240" t="s">
+      <c r="C113" s="409" t="s">
         <v>1710</v>
       </c>
-      <c r="D113" s="240" t="s">
+      <c r="D113" s="409" t="s">
         <v>770</v>
       </c>
-      <c r="E113" s="230" t="s">
+      <c r="E113" s="393" t="s">
         <v>769</v>
       </c>
-      <c r="F113" s="230" t="s">
+      <c r="F113" s="393" t="s">
         <v>1428</v>
       </c>
-      <c r="G113" s="230" t="s">
+      <c r="G113" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H113" s="230" t="s">
+      <c r="H113" s="393" t="s">
         <v>1745</v>
       </c>
-      <c r="I113" s="240" t="s">
+      <c r="I113" s="409" t="s">
         <v>1743</v>
       </c>
-      <c r="J113" s="231" t="s">
+      <c r="J113" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K113" s="231" t="s">
+      <c r="K113" s="389" t="s">
         <v>1981</v>
       </c>
-      <c r="L113" s="231" t="s">
+      <c r="L113" s="389" t="s">
         <v>1981</v>
       </c>
-      <c r="M113" s="231"/>
-      <c r="N113" s="231"/>
-      <c r="O113" s="231"/>
-      <c r="P113" s="232"/>
-      <c r="Q113" s="400" t="str">
+      <c r="M113" s="390">
+        <v>45392</v>
+      </c>
+      <c r="N113" s="389"/>
+      <c r="O113" s="389"/>
+      <c r="P113" s="391"/>
+      <c r="Q113" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.236.03. 도로점용인허가_2024.01.09 13page-불법도로점용관리 기능 개선</v>
       </c>
@@ -63335,138 +63364,144 @@
         <v>오류수정.4.서비스.223.03. 도로점용인허가_2024.01.09 10page-점용허가금지구간 가시화 기능 개선</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
-      <c r="A115" s="224">
+    <row r="115" spans="1:17" s="392" customFormat="1">
+      <c r="A115" s="387">
         <v>274</v>
       </c>
-      <c r="B115" s="225" t="s">
+      <c r="B115" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C115" s="240" t="s">
+      <c r="C115" s="409" t="s">
         <v>1771</v>
       </c>
-      <c r="D115" s="240" t="s">
+      <c r="D115" s="409" t="s">
         <v>805</v>
       </c>
-      <c r="E115" s="230" t="s">
+      <c r="E115" s="393" t="s">
         <v>1773</v>
       </c>
-      <c r="F115" s="230" t="s">
+      <c r="F115" s="393" t="s">
         <v>1378</v>
       </c>
-      <c r="G115" s="230" t="s">
+      <c r="G115" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H115" s="230" t="s">
+      <c r="H115" s="393" t="s">
         <v>1774</v>
       </c>
-      <c r="I115" s="240" t="s">
+      <c r="I115" s="409" t="s">
         <v>1775</v>
       </c>
-      <c r="J115" s="231" t="s">
+      <c r="J115" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K115" s="231" t="s">
+      <c r="K115" s="389" t="s">
         <v>1974</v>
       </c>
-      <c r="L115" s="231" t="s">
+      <c r="L115" s="389" t="s">
         <v>1974</v>
       </c>
-      <c r="M115" s="231"/>
-      <c r="N115" s="231"/>
-      <c r="O115" s="231"/>
-      <c r="P115" s="232"/>
-      <c r="Q115" s="400" t="str">
+      <c r="M115" s="390">
+        <v>45393</v>
+      </c>
+      <c r="N115" s="389"/>
+      <c r="O115" s="389"/>
+      <c r="P115" s="391"/>
+      <c r="Q115" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.274.07. 도시환경분석(수목식재,대기질,가로등)_2024.01.02 3page-지번검색 기능 개선</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
-      <c r="A116" s="224">
+    <row r="116" spans="1:17" s="392" customFormat="1">
+      <c r="A116" s="387">
         <v>275</v>
       </c>
-      <c r="B116" s="225" t="s">
+      <c r="B116" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C116" s="240" t="s">
+      <c r="C116" s="409" t="s">
         <v>1771</v>
       </c>
-      <c r="D116" s="240" t="s">
+      <c r="D116" s="409" t="s">
         <v>805</v>
       </c>
-      <c r="E116" s="230" t="s">
+      <c r="E116" s="393" t="s">
         <v>1773</v>
       </c>
-      <c r="F116" s="230" t="s">
+      <c r="F116" s="393" t="s">
         <v>1378</v>
       </c>
-      <c r="G116" s="230" t="s">
+      <c r="G116" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H116" s="230" t="s">
+      <c r="H116" s="393" t="s">
         <v>1484</v>
       </c>
-      <c r="I116" s="240" t="s">
+      <c r="I116" s="409" t="s">
         <v>1775</v>
       </c>
-      <c r="J116" s="231" t="s">
+      <c r="J116" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K116" s="231" t="s">
+      <c r="K116" s="389" t="s">
         <v>1974</v>
       </c>
-      <c r="L116" s="231" t="s">
+      <c r="L116" s="389" t="s">
         <v>1974</v>
       </c>
-      <c r="M116" s="231"/>
-      <c r="N116" s="231"/>
-      <c r="O116" s="231"/>
-      <c r="P116" s="232"/>
-      <c r="Q116" s="400" t="str">
+      <c r="M116" s="390">
+        <v>45393</v>
+      </c>
+      <c r="N116" s="389"/>
+      <c r="O116" s="389"/>
+      <c r="P116" s="391"/>
+      <c r="Q116" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.275.07. 도시환경분석(수목식재,대기질,가로등)_2024.01.02 3page-지번검색 기능 개선</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
-      <c r="A117" s="375">
+    <row r="117" spans="1:17" s="392" customFormat="1">
+      <c r="A117" s="394">
         <v>284</v>
       </c>
-      <c r="B117" s="225" t="s">
+      <c r="B117" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C117" s="240" t="s">
+      <c r="C117" s="409" t="s">
         <v>1771</v>
       </c>
-      <c r="D117" s="240" t="s">
+      <c r="D117" s="409" t="s">
         <v>805</v>
       </c>
-      <c r="E117" s="230" t="s">
+      <c r="E117" s="393" t="s">
         <v>1781</v>
       </c>
-      <c r="F117" s="230"/>
-      <c r="G117" s="230" t="s">
+      <c r="F117" s="393"/>
+      <c r="G117" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H117" s="230" t="s">
+      <c r="H117" s="393" t="s">
         <v>1784</v>
       </c>
-      <c r="I117" s="240" t="s">
+      <c r="I117" s="409" t="s">
         <v>1783</v>
       </c>
-      <c r="J117" s="231" t="s">
+      <c r="J117" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K117" s="231" t="s">
+      <c r="K117" s="389" t="s">
         <v>1974</v>
       </c>
-      <c r="L117" s="231" t="s">
+      <c r="L117" s="389" t="s">
         <v>1974</v>
       </c>
-      <c r="M117" s="231"/>
-      <c r="N117" s="231"/>
-      <c r="O117" s="231"/>
-      <c r="P117" s="232"/>
-      <c r="Q117" s="400" t="str">
+      <c r="M117" s="390">
+        <v>45393</v>
+      </c>
+      <c r="N117" s="389"/>
+      <c r="O117" s="389"/>
+      <c r="P117" s="391"/>
+      <c r="Q117" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.284.07. 도시환경분석(수목식재,대기질,가로등)_2024.01.02 6page-</v>
       </c>
@@ -63571,90 +63606,94 @@
         <v>오류수정.4.서비스.279.07. 도시환경분석(수목식재,대기질,가로등)_2024.01.02 5page-식재현황 관리 기능 개선</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
-      <c r="A120" s="229">
+    <row r="120" spans="1:17" s="392" customFormat="1">
+      <c r="A120" s="513">
         <v>285</v>
       </c>
-      <c r="B120" s="225" t="s">
+      <c r="B120" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C120" s="240" t="s">
+      <c r="C120" s="409" t="s">
         <v>1771</v>
       </c>
-      <c r="D120" s="240" t="s">
+      <c r="D120" s="409" t="s">
         <v>805</v>
       </c>
-      <c r="E120" s="230" t="s">
+      <c r="E120" s="393" t="s">
         <v>1781</v>
       </c>
-      <c r="F120" s="230"/>
-      <c r="G120" s="230" t="s">
+      <c r="F120" s="393"/>
+      <c r="G120" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H120" s="230" t="s">
+      <c r="H120" s="393" t="s">
         <v>1785</v>
       </c>
-      <c r="I120" s="240" t="s">
+      <c r="I120" s="409" t="s">
         <v>1783</v>
       </c>
-      <c r="J120" s="231" t="s">
+      <c r="J120" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K120" s="231" t="s">
+      <c r="K120" s="389" t="s">
         <v>1975</v>
       </c>
-      <c r="L120" s="231" t="s">
+      <c r="L120" s="389" t="s">
         <v>1975</v>
       </c>
-      <c r="M120" s="231"/>
-      <c r="N120" s="231"/>
-      <c r="O120" s="231"/>
-      <c r="P120" s="232"/>
-      <c r="Q120" s="400" t="str">
+      <c r="M120" s="390">
+        <v>45393</v>
+      </c>
+      <c r="N120" s="389"/>
+      <c r="O120" s="389"/>
+      <c r="P120" s="391"/>
+      <c r="Q120" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.285.07. 도시환경분석(수목식재,대기질,가로등)_2024.01.02 6page-</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
-      <c r="A121" s="374">
+    <row r="121" spans="1:17" s="392" customFormat="1">
+      <c r="A121" s="512">
         <v>324</v>
       </c>
-      <c r="B121" s="225" t="s">
+      <c r="B121" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C121" s="240" t="s">
+      <c r="C121" s="409" t="s">
         <v>1822</v>
       </c>
-      <c r="D121" s="240" t="s">
+      <c r="D121" s="409" t="s">
         <v>857</v>
       </c>
-      <c r="E121" s="230" t="s">
+      <c r="E121" s="393" t="s">
         <v>857</v>
       </c>
-      <c r="F121" s="230"/>
-      <c r="G121" s="230" t="s">
+      <c r="F121" s="393"/>
+      <c r="G121" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H121" s="230" t="s">
+      <c r="H121" s="393" t="s">
         <v>1825</v>
       </c>
-      <c r="I121" s="240" t="s">
+      <c r="I121" s="409" t="s">
         <v>1826</v>
       </c>
-      <c r="J121" s="231" t="s">
+      <c r="J121" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K121" s="231" t="s">
+      <c r="K121" s="389" t="s">
         <v>1975</v>
       </c>
-      <c r="L121" s="231" t="s">
+      <c r="L121" s="389" t="s">
         <v>1975</v>
       </c>
-      <c r="M121" s="231"/>
-      <c r="N121" s="231"/>
-      <c r="O121" s="231"/>
-      <c r="P121" s="232"/>
-      <c r="Q121" s="400" t="str">
+      <c r="M121" s="390">
+        <v>45393</v>
+      </c>
+      <c r="N121" s="389"/>
+      <c r="O121" s="389"/>
+      <c r="P121" s="391"/>
+      <c r="Q121" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.324.10. 재난재해분석_2024.01.09 2page-</v>
       </c>
@@ -63805,136 +63844,142 @@
         <v>오류수정.4.서비스.297.07. 도시환경분석(수목식재,대기질,가로등)_2024.01.02 10page-</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
-      <c r="A125" s="224">
+    <row r="125" spans="1:17" s="392" customFormat="1">
+      <c r="A125" s="387">
         <v>325</v>
       </c>
-      <c r="B125" s="225" t="s">
+      <c r="B125" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C125" s="240" t="s">
+      <c r="C125" s="409" t="s">
         <v>1822</v>
       </c>
-      <c r="D125" s="240" t="s">
+      <c r="D125" s="409" t="s">
         <v>857</v>
       </c>
-      <c r="E125" s="230" t="s">
+      <c r="E125" s="393" t="s">
         <v>857</v>
       </c>
-      <c r="F125" s="230" t="s">
+      <c r="F125" s="393" t="s">
         <v>1558</v>
       </c>
-      <c r="G125" s="230" t="s">
+      <c r="G125" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H125" s="230" t="s">
+      <c r="H125" s="393" t="s">
         <v>1538</v>
       </c>
-      <c r="I125" s="240" t="s">
+      <c r="I125" s="409" t="s">
         <v>1826</v>
       </c>
-      <c r="J125" s="231" t="s">
+      <c r="J125" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K125" s="231" t="s">
+      <c r="K125" s="389" t="s">
         <v>1976</v>
       </c>
-      <c r="L125" s="231" t="s">
+      <c r="L125" s="389" t="s">
         <v>1976</v>
       </c>
-      <c r="M125" s="231"/>
-      <c r="N125" s="231"/>
-      <c r="O125" s="231"/>
-      <c r="P125" s="232"/>
-      <c r="Q125" s="400" t="str">
+      <c r="M125" s="390">
+        <v>45393</v>
+      </c>
+      <c r="N125" s="389"/>
+      <c r="O125" s="389"/>
+      <c r="P125" s="391"/>
+      <c r="Q125" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.325.10. 재난재해분석_2024.01.09 2page-(침수흔적) 시군구 검색 기능 개선</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
-      <c r="A126" s="375">
+    <row r="126" spans="1:17" s="392" customFormat="1">
+      <c r="A126" s="394">
         <v>329</v>
       </c>
-      <c r="B126" s="225" t="s">
+      <c r="B126" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C126" s="240" t="s">
+      <c r="C126" s="409" t="s">
         <v>1822</v>
       </c>
-      <c r="D126" s="240" t="s">
+      <c r="D126" s="409" t="s">
         <v>857</v>
       </c>
-      <c r="E126" s="230" t="s">
+      <c r="E126" s="393" t="s">
         <v>857</v>
       </c>
-      <c r="F126" s="230"/>
-      <c r="G126" s="230" t="s">
+      <c r="F126" s="393"/>
+      <c r="G126" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H126" s="230" t="s">
+      <c r="H126" s="393" t="s">
         <v>1830</v>
       </c>
-      <c r="I126" s="240" t="s">
+      <c r="I126" s="409" t="s">
         <v>1831</v>
       </c>
-      <c r="J126" s="231" t="s">
+      <c r="J126" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K126" s="231" t="s">
+      <c r="K126" s="389" t="s">
         <v>1976</v>
       </c>
-      <c r="L126" s="231" t="s">
+      <c r="L126" s="389" t="s">
         <v>1976</v>
       </c>
-      <c r="M126" s="231"/>
-      <c r="N126" s="231"/>
-      <c r="O126" s="231"/>
-      <c r="P126" s="232"/>
-      <c r="Q126" s="400" t="str">
+      <c r="M126" s="390">
+        <v>45394</v>
+      </c>
+      <c r="N126" s="389"/>
+      <c r="O126" s="389"/>
+      <c r="P126" s="391"/>
+      <c r="Q126" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.329.10. 재난재해분석_2024.01.09 4page-</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
-      <c r="A127" s="224">
+    <row r="127" spans="1:17" s="392" customFormat="1">
+      <c r="A127" s="387">
         <v>331</v>
       </c>
-      <c r="B127" s="225" t="s">
+      <c r="B127" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C127" s="240" t="s">
+      <c r="C127" s="409" t="s">
         <v>1822</v>
       </c>
-      <c r="D127" s="240" t="s">
+      <c r="D127" s="409" t="s">
         <v>857</v>
       </c>
-      <c r="E127" s="230" t="s">
+      <c r="E127" s="393" t="s">
         <v>857</v>
       </c>
-      <c r="F127" s="230"/>
-      <c r="G127" s="230" t="s">
+      <c r="F127" s="393"/>
+      <c r="G127" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H127" s="230" t="s">
+      <c r="H127" s="393" t="s">
         <v>1833</v>
       </c>
-      <c r="I127" s="240" t="s">
+      <c r="I127" s="409" t="s">
         <v>1831</v>
       </c>
-      <c r="J127" s="231" t="s">
+      <c r="J127" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K127" s="231" t="s">
+      <c r="K127" s="389" t="s">
         <v>1976</v>
       </c>
-      <c r="L127" s="231" t="s">
+      <c r="L127" s="389" t="s">
         <v>1976</v>
       </c>
-      <c r="M127" s="231"/>
-      <c r="N127" s="231"/>
-      <c r="O127" s="231"/>
-      <c r="P127" s="232"/>
-      <c r="Q127" s="400" t="str">
+      <c r="M127" s="390">
+        <v>45394</v>
+      </c>
+      <c r="N127" s="389"/>
+      <c r="O127" s="389"/>
+      <c r="P127" s="391"/>
+      <c r="Q127" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.331.10. 재난재해분석_2024.01.09 4page-</v>
       </c>
@@ -64044,10 +64089,10 @@
       <c r="B130" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C130" s="510" t="s">
+      <c r="C130" s="409" t="s">
         <v>1822</v>
       </c>
-      <c r="D130" s="510" t="s">
+      <c r="D130" s="409" t="s">
         <v>857</v>
       </c>
       <c r="E130" s="393" t="s">
@@ -64060,7 +64105,7 @@
       <c r="H130" s="393" t="s">
         <v>1845</v>
       </c>
-      <c r="I130" s="510" t="s">
+      <c r="I130" s="409" t="s">
         <v>1844</v>
       </c>
       <c r="J130" s="389" t="s">
@@ -64085,134 +64130,140 @@
         <v>오류수정.4.서비스.341.10. 재난재해분석_2024.01.09 8page-</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
-      <c r="A131" s="224">
+    <row r="131" spans="1:17" s="392" customFormat="1">
+      <c r="A131" s="387">
         <v>334</v>
       </c>
-      <c r="B131" s="225" t="s">
+      <c r="B131" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C131" s="240" t="s">
+      <c r="C131" s="409" t="s">
         <v>1822</v>
       </c>
-      <c r="D131" s="240" t="s">
+      <c r="D131" s="409" t="s">
         <v>857</v>
       </c>
-      <c r="E131" s="230" t="s">
+      <c r="E131" s="393" t="s">
         <v>1837</v>
       </c>
-      <c r="F131" s="230"/>
-      <c r="G131" s="230" t="s">
+      <c r="F131" s="393"/>
+      <c r="G131" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H131" s="230" t="s">
+      <c r="H131" s="393" t="s">
         <v>1838</v>
       </c>
-      <c r="I131" s="240" t="s">
+      <c r="I131" s="409" t="s">
         <v>1839</v>
       </c>
-      <c r="J131" s="231" t="s">
+      <c r="J131" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K131" s="231" t="s">
+      <c r="K131" s="389" t="s">
         <v>1977</v>
       </c>
-      <c r="L131" s="231" t="s">
+      <c r="L131" s="389" t="s">
         <v>1977</v>
       </c>
-      <c r="M131" s="231"/>
-      <c r="N131" s="231"/>
-      <c r="O131" s="231"/>
-      <c r="P131" s="232"/>
-      <c r="Q131" s="400" t="str">
+      <c r="M131" s="390">
+        <v>45394</v>
+      </c>
+      <c r="N131" s="389"/>
+      <c r="O131" s="389"/>
+      <c r="P131" s="391"/>
+      <c r="Q131" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.334.10. 재난재해분석_2024.01.09 6page-</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
-      <c r="A132" s="375">
+    <row r="132" spans="1:17" s="392" customFormat="1">
+      <c r="A132" s="394">
         <v>335</v>
       </c>
-      <c r="B132" s="225" t="s">
+      <c r="B132" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C132" s="240" t="s">
+      <c r="C132" s="409" t="s">
         <v>1822</v>
       </c>
-      <c r="D132" s="240" t="s">
+      <c r="D132" s="409" t="s">
         <v>857</v>
       </c>
-      <c r="E132" s="230" t="s">
+      <c r="E132" s="393" t="s">
         <v>1837</v>
       </c>
-      <c r="F132" s="230"/>
-      <c r="G132" s="230" t="s">
+      <c r="F132" s="393"/>
+      <c r="G132" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H132" s="230" t="s">
+      <c r="H132" s="393" t="s">
         <v>1840</v>
       </c>
-      <c r="I132" s="240" t="s">
+      <c r="I132" s="409" t="s">
         <v>1839</v>
       </c>
-      <c r="J132" s="231" t="s">
+      <c r="J132" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K132" s="231" t="s">
+      <c r="K132" s="389" t="s">
         <v>1977</v>
       </c>
-      <c r="L132" s="231" t="s">
+      <c r="L132" s="389" t="s">
         <v>1977</v>
       </c>
-      <c r="M132" s="231"/>
-      <c r="N132" s="231"/>
-      <c r="O132" s="231"/>
-      <c r="P132" s="232"/>
-      <c r="Q132" s="400" t="str">
+      <c r="M132" s="390">
+        <v>45394</v>
+      </c>
+      <c r="N132" s="389"/>
+      <c r="O132" s="389"/>
+      <c r="P132" s="391"/>
+      <c r="Q132" s="392" t="str">
         <f t="shared" si="1"/>
         <v>오류수정.4.서비스.335.10. 재난재해분석_2024.01.09 6page-</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
-      <c r="A133" s="224">
+    <row r="133" spans="1:17" s="392" customFormat="1">
+      <c r="A133" s="387">
         <v>349</v>
       </c>
-      <c r="B133" s="225" t="s">
+      <c r="B133" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C133" s="240" t="s">
+      <c r="C133" s="409" t="s">
         <v>1822</v>
       </c>
-      <c r="D133" s="240" t="s">
+      <c r="D133" s="409" t="s">
         <v>857</v>
       </c>
-      <c r="E133" s="230" t="s">
+      <c r="E133" s="393" t="s">
         <v>1850</v>
       </c>
-      <c r="F133" s="230"/>
-      <c r="G133" s="230" t="s">
+      <c r="F133" s="393"/>
+      <c r="G133" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H133" s="230" t="s">
+      <c r="H133" s="393" t="s">
         <v>1838</v>
       </c>
-      <c r="I133" s="240" t="s">
+      <c r="I133" s="409" t="s">
         <v>1853</v>
       </c>
-      <c r="J133" s="231" t="s">
+      <c r="J133" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K133" s="231" t="s">
+      <c r="K133" s="389" t="s">
         <v>1977</v>
       </c>
-      <c r="L133" s="231" t="s">
+      <c r="L133" s="389" t="s">
         <v>1977</v>
       </c>
-      <c r="M133" s="231"/>
-      <c r="N133" s="231"/>
-      <c r="O133" s="231"/>
-      <c r="P133" s="232"/>
-      <c r="Q133" s="400" t="str">
+      <c r="M133" s="390">
+        <v>45394</v>
+      </c>
+      <c r="N133" s="389"/>
+      <c r="O133" s="389"/>
+      <c r="P133" s="391"/>
+      <c r="Q133" s="392" t="str">
         <f t="shared" ref="Q133:Q196" si="2">"오류수정."&amp;B133&amp;"."&amp;A133&amp;"."&amp;I133 &amp;"-" &amp;F133</f>
         <v>오류수정.4.서비스.349.10. 재난재해분석_2024.01.09 12page-</v>
       </c>
@@ -64411,92 +64462,96 @@
         <v>오류수정.4.서비스.356.10. 재난재해분석_2024.01.09 13page-산사태피해 예측 결과 개선</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
-      <c r="A138" s="375">
+    <row r="138" spans="1:17" s="392" customFormat="1">
+      <c r="A138" s="394">
         <v>350</v>
       </c>
-      <c r="B138" s="225" t="s">
+      <c r="B138" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C138" s="230" t="s">
+      <c r="C138" s="393" t="s">
         <v>1822</v>
       </c>
-      <c r="D138" s="230" t="s">
+      <c r="D138" s="393" t="s">
         <v>857</v>
       </c>
-      <c r="E138" s="230" t="s">
+      <c r="E138" s="393" t="s">
         <v>1850</v>
       </c>
-      <c r="F138" s="230" t="s">
+      <c r="F138" s="393" t="s">
         <v>1378</v>
       </c>
-      <c r="G138" s="230" t="s">
+      <c r="G138" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H138" s="230" t="s">
+      <c r="H138" s="393" t="s">
         <v>1840</v>
       </c>
-      <c r="I138" s="230" t="s">
+      <c r="I138" s="393" t="s">
         <v>1853</v>
       </c>
-      <c r="J138" s="231" t="s">
+      <c r="J138" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K138" s="231" t="s">
+      <c r="K138" s="389" t="s">
         <v>1978</v>
       </c>
-      <c r="L138" s="231" t="s">
+      <c r="L138" s="389" t="s">
         <v>1978</v>
       </c>
-      <c r="M138" s="231"/>
-      <c r="N138" s="231"/>
-      <c r="O138" s="231"/>
-      <c r="P138" s="232"/>
-      <c r="Q138" s="400" t="str">
+      <c r="M138" s="390">
+        <v>45394</v>
+      </c>
+      <c r="N138" s="389"/>
+      <c r="O138" s="389"/>
+      <c r="P138" s="391"/>
+      <c r="Q138" s="392" t="str">
         <f t="shared" si="2"/>
         <v>오류수정.4.서비스.350.10. 재난재해분석_2024.01.09 12page-지번검색 기능 개선</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
-      <c r="A139" s="374">
+    <row r="139" spans="1:17" s="392" customFormat="1">
+      <c r="A139" s="512">
         <v>351</v>
       </c>
-      <c r="B139" s="225" t="s">
+      <c r="B139" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="C139" s="230" t="s">
+      <c r="C139" s="393" t="s">
         <v>1822</v>
       </c>
-      <c r="D139" s="230" t="s">
+      <c r="D139" s="393" t="s">
         <v>857</v>
       </c>
-      <c r="E139" s="230" t="s">
+      <c r="E139" s="393" t="s">
         <v>1850</v>
       </c>
-      <c r="F139" s="230"/>
-      <c r="G139" s="230" t="s">
+      <c r="F139" s="393"/>
+      <c r="G139" s="393" t="s">
         <v>1587</v>
       </c>
-      <c r="H139" s="230" t="s">
+      <c r="H139" s="393" t="s">
         <v>1854</v>
       </c>
-      <c r="I139" s="230" t="s">
+      <c r="I139" s="393" t="s">
         <v>1853</v>
       </c>
-      <c r="J139" s="231" t="s">
+      <c r="J139" s="389" t="s">
         <v>1979</v>
       </c>
-      <c r="K139" s="231" t="s">
+      <c r="K139" s="389" t="s">
         <v>1978</v>
       </c>
-      <c r="L139" s="231" t="s">
+      <c r="L139" s="389" t="s">
         <v>1978</v>
       </c>
-      <c r="M139" s="231"/>
-      <c r="N139" s="231"/>
-      <c r="O139" s="231"/>
-      <c r="P139" s="232"/>
-      <c r="Q139" s="400" t="str">
+      <c r="M139" s="390">
+        <v>45394</v>
+      </c>
+      <c r="N139" s="389"/>
+      <c r="O139" s="389"/>
+      <c r="P139" s="391"/>
+      <c r="Q139" s="392" t="str">
         <f t="shared" si="2"/>
         <v>오류수정.4.서비스.351.10. 재난재해분석_2024.01.09 12page-</v>
       </c>
@@ -64600,19 +64655,19 @@
       <c r="B142" s="267" t="s">
         <v>1883</v>
       </c>
-      <c r="C142" s="508" t="s">
+      <c r="C142" s="407" t="s">
         <v>1884</v>
       </c>
-      <c r="D142" s="508" t="s">
+      <c r="D142" s="407" t="s">
         <v>1884</v>
       </c>
-      <c r="E142" s="509" t="s">
+      <c r="E142" s="408" t="s">
         <v>1885</v>
       </c>
-      <c r="F142" s="509" t="s">
+      <c r="F142" s="408" t="s">
         <v>1157</v>
       </c>
-      <c r="G142" s="509" t="s">
+      <c r="G142" s="408" t="s">
         <v>1082</v>
       </c>
       <c r="H142" s="268" t="s">
@@ -64646,19 +64701,19 @@
       <c r="B143" s="267" t="s">
         <v>1883</v>
       </c>
-      <c r="C143" s="508" t="s">
+      <c r="C143" s="407" t="s">
         <v>1884</v>
       </c>
-      <c r="D143" s="508" t="s">
+      <c r="D143" s="407" t="s">
         <v>1884</v>
       </c>
-      <c r="E143" s="509" t="s">
+      <c r="E143" s="408" t="s">
         <v>1885</v>
       </c>
-      <c r="F143" s="509" t="s">
+      <c r="F143" s="408" t="s">
         <v>1157</v>
       </c>
-      <c r="G143" s="509" t="s">
+      <c r="G143" s="408" t="s">
         <v>1082</v>
       </c>
       <c r="H143" s="268" t="s">
@@ -64784,19 +64839,19 @@
       <c r="B146" s="267" t="s">
         <v>1883</v>
       </c>
-      <c r="C146" s="508" t="s">
+      <c r="C146" s="407" t="s">
         <v>1884</v>
       </c>
-      <c r="D146" s="508" t="s">
+      <c r="D146" s="407" t="s">
         <v>1884</v>
       </c>
-      <c r="E146" s="509" t="s">
+      <c r="E146" s="408" t="s">
         <v>1885</v>
       </c>
-      <c r="F146" s="509" t="s">
+      <c r="F146" s="408" t="s">
         <v>1157</v>
       </c>
-      <c r="G146" s="509" t="s">
+      <c r="G146" s="408" t="s">
         <v>1082</v>
       </c>
       <c r="H146" s="268" t="s">
@@ -64830,19 +64885,19 @@
       <c r="B147" s="267" t="s">
         <v>1883</v>
       </c>
-      <c r="C147" s="508" t="s">
+      <c r="C147" s="407" t="s">
         <v>1884</v>
       </c>
-      <c r="D147" s="508" t="s">
+      <c r="D147" s="407" t="s">
         <v>1884</v>
       </c>
-      <c r="E147" s="509" t="s">
+      <c r="E147" s="408" t="s">
         <v>1885</v>
       </c>
-      <c r="F147" s="509" t="s">
+      <c r="F147" s="408" t="s">
         <v>1157</v>
       </c>
-      <c r="G147" s="509" t="s">
+      <c r="G147" s="408" t="s">
         <v>1082</v>
       </c>
       <c r="H147" s="268" t="s">
@@ -74385,7 +74440,7 @@
       <c r="G357" s="226" t="s">
         <v>1080</v>
       </c>
-      <c r="H357" s="511" t="s">
+      <c r="H357" s="410" t="s">
         <v>2168</v>
       </c>
       <c r="I357" s="406"/>

--- a/2024.01.02.김경수부장/LXDTP_플랫폼1차_개선 현황표_2024.03.11(월).xlsx
+++ b/2024.01.02.김경수부장/LXDTP_플랫폼1차_개선 현황표_2024.03.11(월).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/softm/Work/onpoom/2024.01.02.김경수부장/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAA78D9-D291-874B-AF51-89D94189DD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C115DA56-BB86-EB45-946F-2AA1593FD1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="680" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10831" uniqueCount="2216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10834" uniqueCount="2217">
   <si>
     <t>IND</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8426,6 +8426,10 @@
   </si>
   <si>
     <t>이미.적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위도경도 검색 API 문서 가이드 필요함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9994,7 +9998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="515">
+  <cellXfs count="516">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11247,6 +11251,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -11276,31 +11289,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11333,6 +11325,75 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11362,54 +11423,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11462,11 +11475,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11477,31 +11490,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11519,22 +11511,25 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11544,16 +11539,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -11609,6 +11616,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -11624,6 +11666,13 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11651,7 +11700,28 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11665,70 +11735,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -14734,13 +14741,13 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-">
-                  <c:v>77</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15349,7 +15356,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -15361,7 +15368,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15499,7 +15506,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>0.11904761904761904</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.26666666666666666</c:v>
@@ -15511,7 +15518,7 @@
                   <c:v>0.21848739495798319</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20533333333333334</c:v>
+                  <c:v>0.21066666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16196,13 +16203,13 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-">
-                  <c:v>77</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16376,13 +16383,13 @@
                   <c:v>0.72222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>8.9686098654708519E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20533333333333334</c:v>
+                  <c:v>0.21066666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21434,15 +21441,15 @@
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
-      <c r="E1" s="412"/>
-      <c r="F1" s="412"/>
-      <c r="G1" s="412"/>
-      <c r="H1" s="412"/>
-      <c r="I1" s="412"/>
-      <c r="J1" s="412"/>
-      <c r="K1" s="412"/>
-      <c r="L1" s="412"/>
-      <c r="M1" s="412"/>
+      <c r="E1" s="415"/>
+      <c r="F1" s="415"/>
+      <c r="G1" s="415"/>
+      <c r="H1" s="415"/>
+      <c r="I1" s="415"/>
+      <c r="J1" s="415"/>
+      <c r="K1" s="415"/>
+      <c r="L1" s="415"/>
+      <c r="M1" s="415"/>
       <c r="N1" s="76"/>
       <c r="O1" s="76"/>
       <c r="P1" s="76"/>
@@ -21473,15 +21480,15 @@
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
-      <c r="E2" s="412"/>
-      <c r="F2" s="412"/>
-      <c r="G2" s="412"/>
-      <c r="H2" s="412"/>
-      <c r="I2" s="412"/>
-      <c r="J2" s="412"/>
-      <c r="K2" s="412"/>
-      <c r="L2" s="412"/>
-      <c r="M2" s="412"/>
+      <c r="E2" s="415"/>
+      <c r="F2" s="415"/>
+      <c r="G2" s="415"/>
+      <c r="H2" s="415"/>
+      <c r="I2" s="415"/>
+      <c r="J2" s="415"/>
+      <c r="K2" s="415"/>
+      <c r="L2" s="415"/>
+      <c r="M2" s="415"/>
       <c r="N2" s="76"/>
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
@@ -21512,15 +21519,15 @@
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
       <c r="D3" s="76"/>
-      <c r="E3" s="412"/>
-      <c r="F3" s="412"/>
-      <c r="G3" s="412"/>
-      <c r="H3" s="412"/>
-      <c r="I3" s="412"/>
-      <c r="J3" s="412"/>
-      <c r="K3" s="412"/>
-      <c r="L3" s="412"/>
-      <c r="M3" s="412"/>
+      <c r="E3" s="415"/>
+      <c r="F3" s="415"/>
+      <c r="G3" s="415"/>
+      <c r="H3" s="415"/>
+      <c r="I3" s="415"/>
+      <c r="J3" s="415"/>
+      <c r="K3" s="415"/>
+      <c r="L3" s="415"/>
+      <c r="M3" s="415"/>
       <c r="N3" s="76"/>
       <c r="O3" s="76"/>
       <c r="P3" s="76"/>
@@ -21551,15 +21558,15 @@
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
-      <c r="E4" s="412"/>
-      <c r="F4" s="412"/>
-      <c r="G4" s="412"/>
-      <c r="H4" s="412"/>
-      <c r="I4" s="412"/>
-      <c r="J4" s="412"/>
-      <c r="K4" s="412"/>
-      <c r="L4" s="412"/>
-      <c r="M4" s="412"/>
+      <c r="E4" s="415"/>
+      <c r="F4" s="415"/>
+      <c r="G4" s="415"/>
+      <c r="H4" s="415"/>
+      <c r="I4" s="415"/>
+      <c r="J4" s="415"/>
+      <c r="K4" s="415"/>
+      <c r="L4" s="415"/>
+      <c r="M4" s="415"/>
       <c r="N4" s="76"/>
       <c r="O4" s="76"/>
       <c r="P4" s="76"/>
@@ -21590,15 +21597,15 @@
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
       <c r="D5" s="76"/>
-      <c r="E5" s="412"/>
-      <c r="F5" s="412"/>
-      <c r="G5" s="412"/>
-      <c r="H5" s="412"/>
-      <c r="I5" s="412"/>
-      <c r="J5" s="412"/>
-      <c r="K5" s="412"/>
-      <c r="L5" s="412"/>
-      <c r="M5" s="412"/>
+      <c r="E5" s="415"/>
+      <c r="F5" s="415"/>
+      <c r="G5" s="415"/>
+      <c r="H5" s="415"/>
+      <c r="I5" s="415"/>
+      <c r="J5" s="415"/>
+      <c r="K5" s="415"/>
+      <c r="L5" s="415"/>
+      <c r="M5" s="415"/>
       <c r="N5" s="76"/>
       <c r="O5" s="76"/>
       <c r="P5" s="76"/>
@@ -21629,15 +21636,15 @@
       <c r="B6" s="76"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
-      <c r="E6" s="412"/>
-      <c r="F6" s="412"/>
-      <c r="G6" s="412"/>
-      <c r="H6" s="412"/>
-      <c r="I6" s="412"/>
-      <c r="J6" s="412"/>
-      <c r="K6" s="412"/>
-      <c r="L6" s="412"/>
-      <c r="M6" s="412"/>
+      <c r="E6" s="415"/>
+      <c r="F6" s="415"/>
+      <c r="G6" s="415"/>
+      <c r="H6" s="415"/>
+      <c r="I6" s="415"/>
+      <c r="J6" s="415"/>
+      <c r="K6" s="415"/>
+      <c r="L6" s="415"/>
+      <c r="M6" s="415"/>
       <c r="N6" s="76"/>
       <c r="O6" s="76"/>
       <c r="P6" s="76"/>
@@ -21668,15 +21675,15 @@
       <c r="B7" s="79"/>
       <c r="C7" s="79"/>
       <c r="D7" s="79"/>
-      <c r="E7" s="412"/>
-      <c r="F7" s="412"/>
-      <c r="G7" s="412"/>
-      <c r="H7" s="412"/>
-      <c r="I7" s="412"/>
-      <c r="J7" s="412"/>
-      <c r="K7" s="412"/>
-      <c r="L7" s="412"/>
-      <c r="M7" s="412"/>
+      <c r="E7" s="415"/>
+      <c r="F7" s="415"/>
+      <c r="G7" s="415"/>
+      <c r="H7" s="415"/>
+      <c r="I7" s="415"/>
+      <c r="J7" s="415"/>
+      <c r="K7" s="415"/>
+      <c r="L7" s="415"/>
+      <c r="M7" s="415"/>
       <c r="N7" s="79"/>
       <c r="O7" s="79"/>
       <c r="P7" s="79"/>
@@ -21748,15 +21755,15 @@
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
       <c r="D9" s="76"/>
-      <c r="E9" s="412"/>
-      <c r="F9" s="412"/>
-      <c r="G9" s="412"/>
-      <c r="H9" s="412"/>
-      <c r="I9" s="412"/>
-      <c r="J9" s="412"/>
-      <c r="K9" s="412"/>
-      <c r="L9" s="412"/>
-      <c r="M9" s="412"/>
+      <c r="E9" s="415"/>
+      <c r="F9" s="415"/>
+      <c r="G9" s="415"/>
+      <c r="H9" s="415"/>
+      <c r="I9" s="415"/>
+      <c r="J9" s="415"/>
+      <c r="K9" s="415"/>
+      <c r="L9" s="415"/>
+      <c r="M9" s="415"/>
       <c r="N9" s="76"/>
       <c r="O9" s="76"/>
       <c r="P9" s="76"/>
@@ -22071,27 +22078,27 @@
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
       <c r="K17" s="76"/>
-      <c r="L17" s="411"/>
-      <c r="M17" s="411"/>
-      <c r="N17" s="411"/>
-      <c r="O17" s="411"/>
-      <c r="P17" s="411"/>
-      <c r="Q17" s="411"/>
-      <c r="R17" s="411"/>
-      <c r="S17" s="411"/>
-      <c r="T17" s="411"/>
-      <c r="U17" s="411"/>
-      <c r="V17" s="411"/>
-      <c r="W17" s="411"/>
-      <c r="X17" s="411"/>
-      <c r="Y17" s="411"/>
-      <c r="Z17" s="411"/>
-      <c r="AA17" s="411"/>
-      <c r="AB17" s="411"/>
-      <c r="AC17" s="411"/>
-      <c r="AD17" s="411"/>
-      <c r="AE17" s="411"/>
-      <c r="AF17" s="411"/>
+      <c r="L17" s="414"/>
+      <c r="M17" s="414"/>
+      <c r="N17" s="414"/>
+      <c r="O17" s="414"/>
+      <c r="P17" s="414"/>
+      <c r="Q17" s="414"/>
+      <c r="R17" s="414"/>
+      <c r="S17" s="414"/>
+      <c r="T17" s="414"/>
+      <c r="U17" s="414"/>
+      <c r="V17" s="414"/>
+      <c r="W17" s="414"/>
+      <c r="X17" s="414"/>
+      <c r="Y17" s="414"/>
+      <c r="Z17" s="414"/>
+      <c r="AA17" s="414"/>
+      <c r="AB17" s="414"/>
+      <c r="AC17" s="414"/>
+      <c r="AD17" s="414"/>
+      <c r="AE17" s="414"/>
+      <c r="AF17" s="414"/>
       <c r="AG17" s="76"/>
       <c r="AH17" s="76"/>
       <c r="AI17" s="76"/>
@@ -22110,27 +22117,27 @@
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
       <c r="K18" s="76"/>
-      <c r="L18" s="411"/>
-      <c r="M18" s="411"/>
-      <c r="N18" s="411"/>
-      <c r="O18" s="411"/>
-      <c r="P18" s="411"/>
-      <c r="Q18" s="411"/>
-      <c r="R18" s="411"/>
-      <c r="S18" s="411"/>
-      <c r="T18" s="411"/>
-      <c r="U18" s="411"/>
-      <c r="V18" s="411"/>
-      <c r="W18" s="411"/>
-      <c r="X18" s="411"/>
-      <c r="Y18" s="411"/>
-      <c r="Z18" s="411"/>
-      <c r="AA18" s="411"/>
-      <c r="AB18" s="411"/>
-      <c r="AC18" s="411"/>
-      <c r="AD18" s="411"/>
-      <c r="AE18" s="411"/>
-      <c r="AF18" s="411"/>
+      <c r="L18" s="414"/>
+      <c r="M18" s="414"/>
+      <c r="N18" s="414"/>
+      <c r="O18" s="414"/>
+      <c r="P18" s="414"/>
+      <c r="Q18" s="414"/>
+      <c r="R18" s="414"/>
+      <c r="S18" s="414"/>
+      <c r="T18" s="414"/>
+      <c r="U18" s="414"/>
+      <c r="V18" s="414"/>
+      <c r="W18" s="414"/>
+      <c r="X18" s="414"/>
+      <c r="Y18" s="414"/>
+      <c r="Z18" s="414"/>
+      <c r="AA18" s="414"/>
+      <c r="AB18" s="414"/>
+      <c r="AC18" s="414"/>
+      <c r="AD18" s="414"/>
+      <c r="AE18" s="414"/>
+      <c r="AF18" s="414"/>
       <c r="AG18" s="76"/>
       <c r="AH18" s="76"/>
       <c r="AI18" s="76"/>
@@ -22153,14 +22160,14 @@
       <c r="M19" s="88"/>
       <c r="N19" s="88"/>
       <c r="O19" s="89"/>
-      <c r="P19" s="413"/>
-      <c r="Q19" s="413"/>
-      <c r="R19" s="413"/>
-      <c r="S19" s="413"/>
-      <c r="T19" s="413"/>
-      <c r="U19" s="413"/>
-      <c r="V19" s="413"/>
-      <c r="W19" s="413"/>
+      <c r="P19" s="416"/>
+      <c r="Q19" s="416"/>
+      <c r="R19" s="416"/>
+      <c r="S19" s="416"/>
+      <c r="T19" s="416"/>
+      <c r="U19" s="416"/>
+      <c r="V19" s="416"/>
+      <c r="W19" s="416"/>
       <c r="X19" s="89"/>
       <c r="Y19" s="89"/>
       <c r="Z19" s="89"/>
@@ -22192,16 +22199,16 @@
       <c r="M20" s="76"/>
       <c r="N20" s="76"/>
       <c r="O20" s="76"/>
-      <c r="P20" s="411"/>
-      <c r="Q20" s="411"/>
-      <c r="R20" s="411"/>
-      <c r="S20" s="411"/>
-      <c r="T20" s="411"/>
-      <c r="U20" s="411"/>
-      <c r="V20" s="411"/>
-      <c r="W20" s="411"/>
-      <c r="X20" s="411"/>
-      <c r="Y20" s="411"/>
+      <c r="P20" s="414"/>
+      <c r="Q20" s="414"/>
+      <c r="R20" s="414"/>
+      <c r="S20" s="414"/>
+      <c r="T20" s="414"/>
+      <c r="U20" s="414"/>
+      <c r="V20" s="414"/>
+      <c r="W20" s="414"/>
+      <c r="X20" s="414"/>
+      <c r="Y20" s="414"/>
       <c r="Z20" s="76"/>
       <c r="AA20" s="76"/>
       <c r="AB20" s="76"/>
@@ -22231,16 +22238,16 @@
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
       <c r="O21" s="76"/>
-      <c r="P21" s="411"/>
-      <c r="Q21" s="411"/>
-      <c r="R21" s="411"/>
-      <c r="S21" s="411"/>
-      <c r="T21" s="411"/>
-      <c r="U21" s="411"/>
-      <c r="V21" s="411"/>
-      <c r="W21" s="411"/>
-      <c r="X21" s="411"/>
-      <c r="Y21" s="411"/>
+      <c r="P21" s="414"/>
+      <c r="Q21" s="414"/>
+      <c r="R21" s="414"/>
+      <c r="S21" s="414"/>
+      <c r="T21" s="414"/>
+      <c r="U21" s="414"/>
+      <c r="V21" s="414"/>
+      <c r="W21" s="414"/>
+      <c r="X21" s="414"/>
+      <c r="Y21" s="414"/>
       <c r="Z21" s="76"/>
       <c r="AA21" s="76"/>
       <c r="AB21" s="76"/>
@@ -22270,16 +22277,16 @@
       <c r="M22" s="76"/>
       <c r="N22" s="76"/>
       <c r="O22" s="76"/>
-      <c r="P22" s="411"/>
-      <c r="Q22" s="411"/>
-      <c r="R22" s="411"/>
-      <c r="S22" s="411"/>
-      <c r="T22" s="411"/>
-      <c r="U22" s="411"/>
-      <c r="V22" s="411"/>
-      <c r="W22" s="411"/>
-      <c r="X22" s="411"/>
-      <c r="Y22" s="411"/>
+      <c r="P22" s="414"/>
+      <c r="Q22" s="414"/>
+      <c r="R22" s="414"/>
+      <c r="S22" s="414"/>
+      <c r="T22" s="414"/>
+      <c r="U22" s="414"/>
+      <c r="V22" s="414"/>
+      <c r="W22" s="414"/>
+      <c r="X22" s="414"/>
+      <c r="Y22" s="414"/>
       <c r="Z22" s="76"/>
       <c r="AA22" s="76"/>
       <c r="AB22" s="76"/>
@@ -22309,16 +22316,16 @@
       <c r="M23" s="76"/>
       <c r="N23" s="76"/>
       <c r="O23" s="76"/>
-      <c r="P23" s="411"/>
-      <c r="Q23" s="411"/>
-      <c r="R23" s="411"/>
-      <c r="S23" s="411"/>
-      <c r="T23" s="411"/>
-      <c r="U23" s="411"/>
-      <c r="V23" s="411"/>
-      <c r="W23" s="411"/>
-      <c r="X23" s="411"/>
-      <c r="Y23" s="411"/>
+      <c r="P23" s="414"/>
+      <c r="Q23" s="414"/>
+      <c r="R23" s="414"/>
+      <c r="S23" s="414"/>
+      <c r="T23" s="414"/>
+      <c r="U23" s="414"/>
+      <c r="V23" s="414"/>
+      <c r="W23" s="414"/>
+      <c r="X23" s="414"/>
+      <c r="Y23" s="414"/>
       <c r="Z23" s="76"/>
       <c r="AA23" s="76"/>
       <c r="AB23" s="76"/>
@@ -22878,76 +22885,76 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="506" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="509" t="s">
+      <c r="B2" s="506" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="505" t="s">
+      <c r="C2" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="505" t="s">
+      <c r="D2" s="508" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="505" t="s">
+      <c r="E2" s="508" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="511" t="s">
+      <c r="F2" s="510" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="511" t="s">
+      <c r="G2" s="510" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="505" t="s">
+      <c r="H2" s="508" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="505" t="s">
+      <c r="I2" s="508" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="505" t="s">
+      <c r="J2" s="508" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="503" t="s">
+      <c r="K2" s="511" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="504"/>
-      <c r="M2" s="505" t="s">
+      <c r="L2" s="512"/>
+      <c r="M2" s="508" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="503" t="s">
+      <c r="N2" s="511" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="504"/>
-      <c r="P2" s="507" t="s">
+      <c r="O2" s="512"/>
+      <c r="P2" s="513" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
-      <c r="A3" s="510"/>
-      <c r="B3" s="510"/>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="506"/>
-      <c r="J3" s="506"/>
+      <c r="A3" s="507"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="509"/>
+      <c r="D3" s="509"/>
+      <c r="E3" s="509"/>
+      <c r="F3" s="509"/>
+      <c r="G3" s="509"/>
+      <c r="H3" s="509"/>
+      <c r="I3" s="509"/>
+      <c r="J3" s="509"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="506"/>
+      <c r="M3" s="509"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="508"/>
+      <c r="P3" s="514"/>
     </row>
     <row r="4" spans="1:16" ht="32">
       <c r="A4" s="229">
@@ -25275,11 +25282,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:O2"/>
@@ -25289,6 +25291,11 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25317,76 +25324,76 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="506" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="509" t="s">
+      <c r="B2" s="506" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="505" t="s">
+      <c r="C2" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="505" t="s">
+      <c r="D2" s="508" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="505" t="s">
+      <c r="E2" s="508" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="511" t="s">
+      <c r="F2" s="510" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="511" t="s">
+      <c r="G2" s="510" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="505" t="s">
+      <c r="H2" s="508" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="505" t="s">
+      <c r="I2" s="508" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="505" t="s">
+      <c r="J2" s="508" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="503" t="s">
+      <c r="K2" s="511" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="504"/>
-      <c r="M2" s="505" t="s">
+      <c r="L2" s="512"/>
+      <c r="M2" s="508" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="503" t="s">
+      <c r="N2" s="511" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="504"/>
-      <c r="P2" s="507" t="s">
+      <c r="O2" s="512"/>
+      <c r="P2" s="513" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
-      <c r="A3" s="510"/>
-      <c r="B3" s="510"/>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="506"/>
-      <c r="J3" s="506"/>
+      <c r="A3" s="507"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="509"/>
+      <c r="D3" s="509"/>
+      <c r="E3" s="509"/>
+      <c r="F3" s="509"/>
+      <c r="G3" s="509"/>
+      <c r="H3" s="509"/>
+      <c r="I3" s="509"/>
+      <c r="J3" s="509"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="506"/>
+      <c r="M3" s="509"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="508"/>
+      <c r="P3" s="514"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="229">
@@ -27324,11 +27331,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:O2"/>
@@ -27338,6 +27340,11 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27368,76 +27375,76 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="506" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="505" t="s">
+      <c r="B2" s="508" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="505" t="s">
+      <c r="C2" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="505" t="s">
+      <c r="D2" s="508" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="505" t="s">
+      <c r="E2" s="508" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="511" t="s">
+      <c r="F2" s="510" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="511" t="s">
+      <c r="G2" s="510" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="505" t="s">
+      <c r="H2" s="508" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="505" t="s">
+      <c r="I2" s="508" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="505" t="s">
+      <c r="J2" s="508" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="503" t="s">
+      <c r="K2" s="511" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="504"/>
-      <c r="M2" s="505" t="s">
+      <c r="L2" s="512"/>
+      <c r="M2" s="508" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="503" t="s">
+      <c r="N2" s="511" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="504"/>
-      <c r="P2" s="507" t="s">
+      <c r="O2" s="512"/>
+      <c r="P2" s="513" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
-      <c r="A3" s="510"/>
-      <c r="B3" s="506"/>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="506"/>
-      <c r="J3" s="506"/>
+      <c r="A3" s="507"/>
+      <c r="B3" s="509"/>
+      <c r="C3" s="509"/>
+      <c r="D3" s="509"/>
+      <c r="E3" s="509"/>
+      <c r="F3" s="509"/>
+      <c r="G3" s="509"/>
+      <c r="H3" s="509"/>
+      <c r="I3" s="509"/>
+      <c r="J3" s="509"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="506"/>
+      <c r="M3" s="509"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="508"/>
+      <c r="P3" s="514"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="224">
@@ -30859,11 +30866,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:O2"/>
@@ -30873,6 +30875,11 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30906,76 +30913,76 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1"/>
     <row r="2" spans="1:16">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="506" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="509" t="s">
+      <c r="B2" s="506" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="505" t="s">
+      <c r="C2" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="505" t="s">
+      <c r="D2" s="508" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="505" t="s">
+      <c r="E2" s="508" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="511" t="s">
+      <c r="F2" s="510" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="511" t="s">
+      <c r="G2" s="510" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="505" t="s">
+      <c r="H2" s="508" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="505" t="s">
+      <c r="I2" s="508" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="505" t="s">
+      <c r="J2" s="508" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="503" t="s">
+      <c r="K2" s="511" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="504"/>
-      <c r="M2" s="505" t="s">
+      <c r="L2" s="512"/>
+      <c r="M2" s="508" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="503" t="s">
+      <c r="N2" s="511" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="504"/>
-      <c r="P2" s="507" t="s">
+      <c r="O2" s="512"/>
+      <c r="P2" s="513" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" hidden="1" thickBot="1">
-      <c r="A3" s="510"/>
-      <c r="B3" s="510"/>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="506"/>
-      <c r="J3" s="506"/>
+      <c r="A3" s="507"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="509"/>
+      <c r="D3" s="509"/>
+      <c r="E3" s="509"/>
+      <c r="F3" s="509"/>
+      <c r="G3" s="509"/>
+      <c r="H3" s="509"/>
+      <c r="I3" s="509"/>
+      <c r="J3" s="509"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="506"/>
+      <c r="M3" s="509"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="508"/>
+      <c r="P3" s="514"/>
     </row>
     <row r="4" spans="1:16" hidden="1">
       <c r="A4" s="224">
@@ -40983,11 +40990,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
@@ -40997,6 +40999,11 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41030,7 +41037,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" thickTop="1">
-      <c r="A4" s="414" t="s">
+      <c r="A4" s="417" t="s">
         <v>243</v>
       </c>
       <c r="B4" s="95" t="s">
@@ -41039,22 +41046,22 @@
       <c r="C4" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="D4" s="416" t="s">
+      <c r="D4" s="419" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" thickBot="1">
-      <c r="A5" s="415"/>
+      <c r="A5" s="418"/>
       <c r="B5" s="96" t="s">
         <v>2210</v>
       </c>
       <c r="C5" s="96" t="s">
         <v>2211</v>
       </c>
-      <c r="D5" s="417"/>
+      <c r="D5" s="420"/>
     </row>
     <row r="6" spans="1:4" ht="115" thickTop="1">
-      <c r="A6" s="418" t="s">
+      <c r="A6" s="421" t="s">
         <v>957</v>
       </c>
       <c r="B6" s="97" t="s">
@@ -41068,7 +41075,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="96">
-      <c r="A7" s="419"/>
+      <c r="A7" s="422"/>
       <c r="B7" s="99" t="s">
         <v>2175</v>
       </c>
@@ -41078,31 +41085,31 @@
       <c r="D7" s="100"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="419"/>
+      <c r="A8" s="422"/>
       <c r="B8" s="101"/>
       <c r="C8" s="102"/>
       <c r="D8" s="100"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="419"/>
+      <c r="A9" s="422"/>
       <c r="B9" s="101"/>
       <c r="C9" s="101"/>
       <c r="D9" s="100"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="419"/>
+      <c r="A10" s="422"/>
       <c r="B10" s="101"/>
       <c r="C10" s="103"/>
       <c r="D10" s="100"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="419"/>
+      <c r="A11" s="422"/>
       <c r="B11" s="104"/>
       <c r="C11" s="102"/>
       <c r="D11" s="100"/>
     </row>
     <row r="12" spans="1:4" ht="128">
-      <c r="A12" s="419"/>
+      <c r="A12" s="422"/>
       <c r="B12" s="120" t="s">
         <v>2186</v>
       </c>
@@ -41112,7 +41119,7 @@
       <c r="D12" s="100"/>
     </row>
     <row r="13" spans="1:4" ht="48">
-      <c r="A13" s="419"/>
+      <c r="A13" s="422"/>
       <c r="B13" s="101" t="s">
         <v>256</v>
       </c>
@@ -41120,24 +41127,24 @@
       <c r="D13" s="100"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="419"/>
+      <c r="A14" s="422"/>
       <c r="C14" s="101"/>
       <c r="D14" s="100"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="419"/>
+      <c r="A15" s="422"/>
       <c r="B15" s="106"/>
       <c r="C15" s="101"/>
       <c r="D15" s="100"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="419"/>
+      <c r="A16" s="422"/>
       <c r="B16" s="106"/>
       <c r="C16" s="101"/>
       <c r="D16" s="100"/>
     </row>
     <row r="17" spans="1:4" ht="144">
-      <c r="A17" s="419"/>
+      <c r="A17" s="422"/>
       <c r="B17" s="120" t="s">
         <v>2188</v>
       </c>
@@ -41147,7 +41154,7 @@
       <c r="D17" s="100"/>
     </row>
     <row r="18" spans="1:4" ht="32">
-      <c r="A18" s="419"/>
+      <c r="A18" s="422"/>
       <c r="B18" s="101" t="s">
         <v>248</v>
       </c>
@@ -41155,25 +41162,25 @@
       <c r="D18" s="100"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="419"/>
+      <c r="A19" s="422"/>
       <c r="B19" s="103"/>
       <c r="C19" s="103"/>
       <c r="D19" s="100"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="419"/>
+      <c r="A20" s="422"/>
       <c r="B20" s="103"/>
       <c r="C20" s="103"/>
       <c r="D20" s="100"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="419"/>
+      <c r="A21" s="422"/>
       <c r="B21" s="99"/>
       <c r="C21" s="99"/>
       <c r="D21" s="100"/>
     </row>
     <row r="22" spans="1:4" ht="256">
-      <c r="A22" s="419"/>
+      <c r="A22" s="422"/>
       <c r="B22" s="99" t="s">
         <v>2196</v>
       </c>
@@ -41183,31 +41190,31 @@
       <c r="D22" s="100"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="419"/>
+      <c r="A23" s="422"/>
       <c r="B23" s="101"/>
       <c r="C23" s="103"/>
       <c r="D23" s="100"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="419"/>
+      <c r="A24" s="422"/>
       <c r="B24" s="103"/>
       <c r="C24" s="103"/>
       <c r="D24" s="100"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="419"/>
+      <c r="A25" s="422"/>
       <c r="B25" s="103"/>
       <c r="C25" s="103"/>
       <c r="D25" s="100"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="419"/>
+      <c r="A26" s="422"/>
       <c r="B26" s="103"/>
       <c r="C26" s="103"/>
       <c r="D26" s="100"/>
     </row>
     <row r="27" spans="1:4" ht="18">
-      <c r="A27" s="419"/>
+      <c r="A27" s="422"/>
       <c r="B27" s="97" t="s">
         <v>249</v>
       </c>
@@ -41217,7 +41224,7 @@
       <c r="D27" s="100"/>
     </row>
     <row r="28" spans="1:4" ht="32">
-      <c r="A28" s="419"/>
+      <c r="A28" s="422"/>
       <c r="B28" s="103"/>
       <c r="C28" s="103" t="s">
         <v>255</v>
@@ -41225,31 +41232,31 @@
       <c r="D28" s="100"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="419"/>
+      <c r="A29" s="422"/>
       <c r="B29" s="103"/>
       <c r="C29" s="103"/>
       <c r="D29" s="100"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="419"/>
+      <c r="A30" s="422"/>
       <c r="B30" s="103"/>
       <c r="C30" s="103"/>
       <c r="D30" s="100"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="419"/>
+      <c r="A31" s="422"/>
       <c r="B31" s="103"/>
       <c r="C31" s="103"/>
       <c r="D31" s="100"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="419"/>
+      <c r="A32" s="422"/>
       <c r="B32" s="107"/>
       <c r="C32" s="108"/>
       <c r="D32" s="109"/>
     </row>
     <row r="33" spans="1:4" ht="18">
-      <c r="A33" s="420"/>
+      <c r="A33" s="423"/>
       <c r="B33" s="97" t="s">
         <v>956</v>
       </c>
@@ -41259,25 +41266,25 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="419"/>
+      <c r="A34" s="422"/>
       <c r="B34" s="111"/>
       <c r="C34" s="111"/>
       <c r="D34" s="100"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="419"/>
+      <c r="A35" s="422"/>
       <c r="B35" s="103"/>
       <c r="C35" s="103"/>
       <c r="D35" s="100"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="419"/>
+      <c r="A36" s="422"/>
       <c r="B36" s="112"/>
       <c r="C36" s="113"/>
       <c r="D36" s="100"/>
     </row>
     <row r="37" spans="1:4" ht="18" thickBot="1">
-      <c r="A37" s="421"/>
+      <c r="A37" s="424"/>
       <c r="B37" s="114"/>
       <c r="C37" s="115"/>
       <c r="D37" s="116"/>
@@ -45250,13 +45257,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3:C10 C23:C26 C88:C118">
-    <cfRule type="expression" dxfId="23" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="39" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="38" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="37" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45264,10 +45271,10 @@
     <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45283,10 +45290,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C87">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
@@ -45294,10 +45301,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:D31">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
@@ -45305,13 +45312,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F11">
-    <cfRule type="expression" dxfId="8" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="29" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="30" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="28" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45347,52 +45354,52 @@
     <row r="3" spans="1:10">
       <c r="I3" s="48">
         <f ca="1">TODAY()</f>
-        <v>45395</v>
+        <v>45397</v>
       </c>
       <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A4" s="430" t="s">
+      <c r="A4" s="425" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="430" t="s">
+      <c r="B4" s="425" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="430" t="s">
+      <c r="C4" s="425" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="435" t="s">
+      <c r="D4" s="431" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="433" t="s">
+      <c r="E4" s="429" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="431" t="s">
+      <c r="F4" s="427" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="437" t="s">
+      <c r="G4" s="433" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="439" t="s">
+      <c r="H4" s="435" t="s">
         <v>228</v>
       </c>
-      <c r="I4" s="430" t="s">
+      <c r="I4" s="425" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A5" s="430"/>
-      <c r="B5" s="430"/>
-      <c r="C5" s="430"/>
-      <c r="D5" s="436"/>
-      <c r="E5" s="434"/>
-      <c r="F5" s="432"/>
-      <c r="G5" s="438"/>
-      <c r="H5" s="440"/>
-      <c r="I5" s="430"/>
+      <c r="A5" s="425"/>
+      <c r="B5" s="425"/>
+      <c r="C5" s="425"/>
+      <c r="D5" s="432"/>
+      <c r="E5" s="430"/>
+      <c r="F5" s="428"/>
+      <c r="G5" s="434"/>
+      <c r="H5" s="436"/>
+      <c r="I5" s="425"/>
     </row>
     <row r="6" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A6" s="424" t="s">
+      <c r="A6" s="426" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="70" t="s">
@@ -45424,7 +45431,7 @@
       <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A7" s="424"/>
+      <c r="A7" s="426"/>
       <c r="B7" s="70" t="s">
         <v>142</v>
       </c>
@@ -45454,7 +45461,7 @@
       <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A8" s="424"/>
+      <c r="A8" s="426"/>
       <c r="B8" s="70" t="s">
         <v>509</v>
       </c>
@@ -45484,7 +45491,7 @@
       <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A9" s="424"/>
+      <c r="A9" s="426"/>
       <c r="B9" s="70" t="s">
         <v>509</v>
       </c>
@@ -45514,7 +45521,7 @@
       <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A10" s="424"/>
+      <c r="A10" s="426"/>
       <c r="B10" s="70" t="s">
         <v>509</v>
       </c>
@@ -45544,7 +45551,7 @@
       <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A11" s="424"/>
+      <c r="A11" s="426"/>
       <c r="B11" s="70" t="s">
         <v>509</v>
       </c>
@@ -45574,7 +45581,7 @@
       <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A12" s="424"/>
+      <c r="A12" s="426"/>
       <c r="B12" s="70" t="s">
         <v>509</v>
       </c>
@@ -45604,7 +45611,7 @@
       <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A13" s="424"/>
+      <c r="A13" s="426"/>
       <c r="B13" s="70" t="s">
         <v>509</v>
       </c>
@@ -45634,7 +45641,7 @@
       <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A14" s="424"/>
+      <c r="A14" s="426"/>
       <c r="B14" s="70" t="s">
         <v>509</v>
       </c>
@@ -45664,11 +45671,11 @@
       <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:10" ht="23" customHeight="1">
-      <c r="A15" s="422" t="s">
+      <c r="A15" s="437" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="423"/>
-      <c r="C15" s="423"/>
+      <c r="B15" s="438"/>
+      <c r="C15" s="438"/>
       <c r="D15" s="60">
         <f>SUM(D6:D14)</f>
         <v>13</v>
@@ -45692,7 +45699,7 @@
       <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:10" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A16" s="424" t="s">
+      <c r="A16" s="426" t="s">
         <v>188</v>
       </c>
       <c r="B16" s="70" t="s">
@@ -45724,7 +45731,7 @@
       <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A17" s="424"/>
+      <c r="A17" s="426"/>
       <c r="B17" s="71" t="s">
         <v>193</v>
       </c>
@@ -45754,7 +45761,7 @@
       <c r="I17" s="63"/>
     </row>
     <row r="18" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A18" s="424"/>
+      <c r="A18" s="426"/>
       <c r="B18" s="71" t="s">
         <v>18</v>
       </c>
@@ -45786,7 +45793,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A19" s="424"/>
+      <c r="A19" s="426"/>
       <c r="B19" s="71" t="s">
         <v>19</v>
       </c>
@@ -45816,7 +45823,7 @@
       <c r="I19" s="63"/>
     </row>
     <row r="20" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A20" s="424"/>
+      <c r="A20" s="426"/>
       <c r="B20" s="71" t="s">
         <v>194</v>
       </c>
@@ -45846,7 +45853,7 @@
       <c r="I20" s="63"/>
     </row>
     <row r="21" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A21" s="424"/>
+      <c r="A21" s="426"/>
       <c r="B21" s="71" t="s">
         <v>23</v>
       </c>
@@ -45878,11 +45885,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="23" customHeight="1">
-      <c r="A22" s="422" t="s">
+      <c r="A22" s="437" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="423"/>
-      <c r="C22" s="423"/>
+      <c r="B22" s="438"/>
+      <c r="C22" s="438"/>
       <c r="D22" s="60">
         <f>SUM(D16:D21)</f>
         <v>10</v>
@@ -45906,7 +45913,7 @@
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A23" s="424" t="s">
+      <c r="A23" s="426" t="s">
         <v>189</v>
       </c>
       <c r="B23" s="68" t="s">
@@ -45938,7 +45945,7 @@
       <c r="I23" s="63"/>
     </row>
     <row r="24" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A24" s="424"/>
+      <c r="A24" s="426"/>
       <c r="B24" s="68" t="s">
         <v>35</v>
       </c>
@@ -45970,7 +45977,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A25" s="424"/>
+      <c r="A25" s="426"/>
       <c r="B25" s="68" t="s">
         <v>39</v>
       </c>
@@ -46000,7 +46007,7 @@
       <c r="I25" s="63"/>
     </row>
     <row r="26" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A26" s="424"/>
+      <c r="A26" s="426"/>
       <c r="B26" s="68" t="s">
         <v>197</v>
       </c>
@@ -46030,7 +46037,7 @@
       <c r="I26" s="63"/>
     </row>
     <row r="27" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A27" s="424"/>
+      <c r="A27" s="426"/>
       <c r="B27" s="68" t="s">
         <v>41</v>
       </c>
@@ -46062,7 +46069,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A28" s="424"/>
+      <c r="A28" s="426"/>
       <c r="B28" s="68" t="s">
         <v>45</v>
       </c>
@@ -46094,7 +46101,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A29" s="424"/>
+      <c r="A29" s="426"/>
       <c r="B29" s="68" t="s">
         <v>48</v>
       </c>
@@ -46126,7 +46133,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A30" s="424"/>
+      <c r="A30" s="426"/>
       <c r="B30" s="52" t="s">
         <v>198</v>
       </c>
@@ -46158,11 +46165,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="23" customHeight="1">
-      <c r="A31" s="422" t="s">
+      <c r="A31" s="437" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="423"/>
-      <c r="C31" s="423"/>
+      <c r="B31" s="438"/>
+      <c r="C31" s="438"/>
       <c r="D31" s="60">
         <f t="shared" ref="D31:G31" si="8">SUM(D23:D30)</f>
         <v>10</v>
@@ -46186,10 +46193,10 @@
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A32" s="424" t="s">
+      <c r="A32" s="426" t="s">
         <v>191</v>
       </c>
-      <c r="B32" s="425" t="s">
+      <c r="B32" s="441" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="72" t="s">
@@ -46218,8 +46225,8 @@
       <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A33" s="424"/>
-      <c r="B33" s="426"/>
+      <c r="A33" s="426"/>
+      <c r="B33" s="442"/>
       <c r="C33" s="70" t="s">
         <v>229</v>
       </c>
@@ -46246,8 +46253,8 @@
       <c r="I33" s="63"/>
     </row>
     <row r="34" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A34" s="424"/>
-      <c r="B34" s="427"/>
+      <c r="A34" s="426"/>
+      <c r="B34" s="443"/>
       <c r="C34" s="70" t="s">
         <v>230</v>
       </c>
@@ -46274,8 +46281,8 @@
       <c r="I34" s="63"/>
     </row>
     <row r="35" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A35" s="424"/>
-      <c r="B35" s="425" t="s">
+      <c r="A35" s="426"/>
+      <c r="B35" s="441" t="s">
         <v>204</v>
       </c>
       <c r="C35" s="70" t="s">
@@ -46304,8 +46311,8 @@
       <c r="I35" s="63"/>
     </row>
     <row r="36" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A36" s="424"/>
-      <c r="B36" s="426"/>
+      <c r="A36" s="426"/>
+      <c r="B36" s="442"/>
       <c r="C36" s="70" t="s">
         <v>210</v>
       </c>
@@ -46332,8 +46339,8 @@
       <c r="I36" s="63"/>
     </row>
     <row r="37" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A37" s="424"/>
-      <c r="B37" s="426"/>
+      <c r="A37" s="426"/>
+      <c r="B37" s="442"/>
       <c r="C37" s="70" t="s">
         <v>266</v>
       </c>
@@ -46360,8 +46367,8 @@
       <c r="I37" s="63"/>
     </row>
     <row r="38" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A38" s="424"/>
-      <c r="B38" s="427"/>
+      <c r="A38" s="426"/>
+      <c r="B38" s="443"/>
       <c r="C38" s="70" t="s">
         <v>223</v>
       </c>
@@ -46388,8 +46395,8 @@
       <c r="I38" s="63"/>
     </row>
     <row r="39" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A39" s="424"/>
-      <c r="B39" s="425" t="s">
+      <c r="A39" s="426"/>
+      <c r="B39" s="441" t="s">
         <v>203</v>
       </c>
       <c r="C39" s="70" t="s">
@@ -46418,8 +46425,8 @@
       <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A40" s="424"/>
-      <c r="B40" s="426"/>
+      <c r="A40" s="426"/>
+      <c r="B40" s="442"/>
       <c r="C40" s="70" t="s">
         <v>212</v>
       </c>
@@ -46446,8 +46453,8 @@
       <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A41" s="424"/>
-      <c r="B41" s="427"/>
+      <c r="A41" s="426"/>
+      <c r="B41" s="443"/>
       <c r="C41" s="70" t="s">
         <v>71</v>
       </c>
@@ -46474,7 +46481,7 @@
       <c r="I41" s="59"/>
     </row>
     <row r="42" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A42" s="424"/>
+      <c r="A42" s="426"/>
       <c r="B42" s="72" t="s">
         <v>72</v>
       </c>
@@ -46504,8 +46511,8 @@
       <c r="I42" s="63"/>
     </row>
     <row r="43" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A43" s="424"/>
-      <c r="B43" s="425" t="s">
+      <c r="A43" s="426"/>
+      <c r="B43" s="441" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="70" t="s">
@@ -46536,8 +46543,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A44" s="424"/>
-      <c r="B44" s="426"/>
+      <c r="A44" s="426"/>
+      <c r="B44" s="442"/>
       <c r="C44" s="70" t="s">
         <v>76</v>
       </c>
@@ -46566,8 +46573,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A45" s="424"/>
-      <c r="B45" s="426"/>
+      <c r="A45" s="426"/>
+      <c r="B45" s="442"/>
       <c r="C45" s="70" t="s">
         <v>213</v>
       </c>
@@ -46596,8 +46603,8 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A46" s="424"/>
-      <c r="B46" s="426"/>
+      <c r="A46" s="426"/>
+      <c r="B46" s="442"/>
       <c r="C46" s="70" t="s">
         <v>78</v>
       </c>
@@ -46626,8 +46633,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A47" s="424"/>
-      <c r="B47" s="427"/>
+      <c r="A47" s="426"/>
+      <c r="B47" s="443"/>
       <c r="C47" s="70" t="s">
         <v>231</v>
       </c>
@@ -46654,8 +46661,8 @@
       <c r="I47" s="63"/>
     </row>
     <row r="48" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A48" s="424"/>
-      <c r="B48" s="425" t="s">
+      <c r="A48" s="426"/>
+      <c r="B48" s="441" t="s">
         <v>202</v>
       </c>
       <c r="C48" s="70" t="s">
@@ -46684,8 +46691,8 @@
       <c r="I48" s="63"/>
     </row>
     <row r="49" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A49" s="424"/>
-      <c r="B49" s="426"/>
+      <c r="A49" s="426"/>
+      <c r="B49" s="442"/>
       <c r="C49" s="70" t="s">
         <v>82</v>
       </c>
@@ -46712,8 +46719,8 @@
       <c r="I49" s="63"/>
     </row>
     <row r="50" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A50" s="424"/>
-      <c r="B50" s="427"/>
+      <c r="A50" s="426"/>
+      <c r="B50" s="443"/>
       <c r="C50" s="70" t="s">
         <v>84</v>
       </c>
@@ -46740,8 +46747,8 @@
       <c r="I50" s="63"/>
     </row>
     <row r="51" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A51" s="424"/>
-      <c r="B51" s="425" t="s">
+      <c r="A51" s="426"/>
+      <c r="B51" s="441" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="70" t="s">
@@ -46770,8 +46777,8 @@
       <c r="I51" s="59"/>
     </row>
     <row r="52" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A52" s="424"/>
-      <c r="B52" s="426"/>
+      <c r="A52" s="426"/>
+      <c r="B52" s="442"/>
       <c r="C52" s="70" t="s">
         <v>185</v>
       </c>
@@ -46798,8 +46805,8 @@
       <c r="I52" s="59"/>
     </row>
     <row r="53" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A53" s="424"/>
-      <c r="B53" s="427"/>
+      <c r="A53" s="426"/>
+      <c r="B53" s="443"/>
       <c r="C53" s="70" t="s">
         <v>215</v>
       </c>
@@ -46826,8 +46833,8 @@
       <c r="I53" s="59"/>
     </row>
     <row r="54" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A54" s="424"/>
-      <c r="B54" s="425" t="s">
+      <c r="A54" s="426"/>
+      <c r="B54" s="441" t="s">
         <v>201</v>
       </c>
       <c r="C54" s="70" t="s">
@@ -46858,8 +46865,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A55" s="424"/>
-      <c r="B55" s="426"/>
+      <c r="A55" s="426"/>
+      <c r="B55" s="442"/>
       <c r="C55" s="70" t="s">
         <v>217</v>
       </c>
@@ -46888,8 +46895,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A56" s="424"/>
-      <c r="B56" s="426"/>
+      <c r="A56" s="426"/>
+      <c r="B56" s="442"/>
       <c r="C56" s="70" t="s">
         <v>218</v>
       </c>
@@ -46918,8 +46925,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A57" s="424"/>
-      <c r="B57" s="427"/>
+      <c r="A57" s="426"/>
+      <c r="B57" s="443"/>
       <c r="C57" s="70" t="s">
         <v>219</v>
       </c>
@@ -46948,8 +46955,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A58" s="424"/>
-      <c r="B58" s="425" t="s">
+      <c r="A58" s="426"/>
+      <c r="B58" s="441" t="s">
         <v>200</v>
       </c>
       <c r="C58" s="70" t="s">
@@ -46980,8 +46987,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A59" s="424"/>
-      <c r="B59" s="427"/>
+      <c r="A59" s="426"/>
+      <c r="B59" s="443"/>
       <c r="C59" s="70" t="s">
         <v>221</v>
       </c>
@@ -47010,8 +47017,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A60" s="424"/>
-      <c r="B60" s="425" t="s">
+      <c r="A60" s="426"/>
+      <c r="B60" s="441" t="s">
         <v>497</v>
       </c>
       <c r="C60" s="70" t="s">
@@ -47042,8 +47049,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A61" s="424"/>
-      <c r="B61" s="427"/>
+      <c r="A61" s="426"/>
+      <c r="B61" s="443"/>
       <c r="C61" s="70" t="s">
         <v>522</v>
       </c>
@@ -47072,8 +47079,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A62" s="424"/>
-      <c r="B62" s="425" t="s">
+      <c r="A62" s="426"/>
+      <c r="B62" s="441" t="s">
         <v>199</v>
       </c>
       <c r="C62" s="70" t="s">
@@ -47102,8 +47109,8 @@
       <c r="I62" s="63"/>
     </row>
     <row r="63" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A63" s="424"/>
-      <c r="B63" s="426"/>
+      <c r="A63" s="426"/>
+      <c r="B63" s="442"/>
       <c r="C63" s="70" t="s">
         <v>199</v>
       </c>
@@ -47130,8 +47137,8 @@
       <c r="I63" s="63"/>
     </row>
     <row r="64" spans="1:9" ht="23" customHeight="1" outlineLevel="1">
-      <c r="A64" s="424"/>
-      <c r="B64" s="427"/>
+      <c r="A64" s="426"/>
+      <c r="B64" s="443"/>
       <c r="C64" s="70" t="s">
         <v>233</v>
       </c>
@@ -47158,11 +47165,11 @@
       <c r="I64" s="63"/>
     </row>
     <row r="65" spans="1:11" ht="23" customHeight="1">
-      <c r="A65" s="422" t="s">
+      <c r="A65" s="437" t="s">
         <v>235</v>
       </c>
-      <c r="B65" s="423"/>
-      <c r="C65" s="423"/>
+      <c r="B65" s="438"/>
+      <c r="C65" s="438"/>
       <c r="D65" s="60">
         <f>SUM(D32:D64)</f>
         <v>36</v>
@@ -47186,11 +47193,11 @@
       <c r="I65" s="62"/>
     </row>
     <row r="66" spans="1:11" ht="23" customHeight="1">
-      <c r="A66" s="428" t="s">
+      <c r="A66" s="439" t="s">
         <v>236</v>
       </c>
-      <c r="B66" s="429"/>
-      <c r="C66" s="429"/>
+      <c r="B66" s="440"/>
+      <c r="C66" s="440"/>
       <c r="D66" s="64">
         <f>SUM(D65,D31,D22,D15)</f>
         <v>69</v>
@@ -47218,6 +47225,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:A64"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B64"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="F4:F5"/>
@@ -47228,24 +47253,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:A64"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47285,61 +47292,61 @@
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" thickBot="1">
       <c r="C1" s="26"/>
-      <c r="D1" s="451" t="s">
+      <c r="D1" s="454" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
+      <c r="E1" s="454"/>
+      <c r="F1" s="454"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="443" t="s">
+      <c r="B2" s="462" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="446" t="s">
+      <c r="C2" s="465" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="446" t="s">
+      <c r="D2" s="465" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="446" t="s">
+      <c r="E2" s="465" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="446" t="s">
+      <c r="F2" s="465" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="449" t="s">
+      <c r="G2" s="468" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="446" t="s">
+      <c r="H2" s="465" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="441" t="s">
+      <c r="I2" s="460" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="445" t="s">
+      <c r="J2" s="464" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="446"/>
-      <c r="L2" s="446"/>
-      <c r="M2" s="446"/>
-      <c r="N2" s="447"/>
+      <c r="K2" s="465"/>
+      <c r="L2" s="465"/>
+      <c r="M2" s="465"/>
+      <c r="N2" s="466"/>
     </row>
     <row r="3" spans="1:14" ht="36">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="444"/>
-      <c r="C3" s="448"/>
-      <c r="D3" s="448"/>
-      <c r="E3" s="448"/>
-      <c r="F3" s="448"/>
-      <c r="G3" s="450"/>
-      <c r="H3" s="448"/>
-      <c r="I3" s="442"/>
+      <c r="B3" s="463"/>
+      <c r="C3" s="467"/>
+      <c r="D3" s="467"/>
+      <c r="E3" s="467"/>
+      <c r="F3" s="467"/>
+      <c r="G3" s="469"/>
+      <c r="H3" s="467"/>
+      <c r="I3" s="461"/>
       <c r="J3" s="41" t="s">
         <v>160</v>
       </c>
@@ -49564,7 +49571,7 @@
       <c r="C68" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="D68" s="462" t="s">
+      <c r="D68" s="459" t="s">
         <v>26</v>
       </c>
       <c r="E68" s="28" t="s">
@@ -49602,7 +49609,7 @@
       <c r="C69" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D69" s="454"/>
+      <c r="D69" s="449"/>
       <c r="E69" s="29" t="s">
         <v>26</v>
       </c>
@@ -49638,7 +49645,7 @@
       <c r="C70" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="454"/>
+      <c r="D70" s="449"/>
       <c r="E70" s="29" t="s">
         <v>26</v>
       </c>
@@ -49674,7 +49681,7 @@
       <c r="C71" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D71" s="454"/>
+      <c r="D71" s="449"/>
       <c r="E71" s="29" t="s">
         <v>26</v>
       </c>
@@ -49710,7 +49717,7 @@
       <c r="C72" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D72" s="454"/>
+      <c r="D72" s="449"/>
       <c r="E72" s="29" t="s">
         <v>26</v>
       </c>
@@ -49746,7 +49753,7 @@
       <c r="C73" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D73" s="454"/>
+      <c r="D73" s="449"/>
       <c r="E73" s="123" t="s">
         <v>26</v>
       </c>
@@ -49776,7 +49783,7 @@
       <c r="C74" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="454"/>
+      <c r="D74" s="449"/>
       <c r="E74" s="123" t="s">
         <v>26</v>
       </c>
@@ -49806,7 +49813,7 @@
       <c r="C75" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="455"/>
+      <c r="D75" s="453"/>
       <c r="E75" s="123" t="s">
         <v>26</v>
       </c>
@@ -49836,7 +49843,7 @@
       <c r="C76" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="453" t="s">
+      <c r="D76" s="448" t="s">
         <v>35</v>
       </c>
       <c r="E76" s="29" t="s">
@@ -49874,7 +49881,7 @@
       <c r="C77" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D77" s="454"/>
+      <c r="D77" s="449"/>
       <c r="E77" s="31" t="s">
         <v>35</v>
       </c>
@@ -49904,7 +49911,7 @@
       <c r="C78" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D78" s="454"/>
+      <c r="D78" s="449"/>
       <c r="E78" s="29" t="s">
         <v>35</v>
       </c>
@@ -49940,7 +49947,7 @@
       <c r="C79" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="455"/>
+      <c r="D79" s="453"/>
       <c r="E79" s="29" t="s">
         <v>35</v>
       </c>
@@ -50052,7 +50059,7 @@
       <c r="C82" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D82" s="459" t="s">
+      <c r="D82" s="451" t="s">
         <v>41</v>
       </c>
       <c r="E82" s="157" t="s">
@@ -50084,7 +50091,7 @@
       <c r="C83" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D83" s="460"/>
+      <c r="D83" s="458"/>
       <c r="E83" s="157" t="s">
         <v>41</v>
       </c>
@@ -50114,7 +50121,7 @@
       <c r="C84" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D84" s="460"/>
+      <c r="D84" s="458"/>
       <c r="E84" s="157" t="s">
         <v>41</v>
       </c>
@@ -50146,7 +50153,7 @@
       <c r="C85" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D85" s="461"/>
+      <c r="D85" s="452"/>
       <c r="E85" s="157" t="s">
         <v>41</v>
       </c>
@@ -50176,7 +50183,7 @@
       <c r="C86" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D86" s="459" t="s">
+      <c r="D86" s="451" t="s">
         <v>45</v>
       </c>
       <c r="E86" s="157" t="s">
@@ -50208,7 +50215,7 @@
       <c r="C87" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D87" s="460"/>
+      <c r="D87" s="458"/>
       <c r="E87" s="157" t="s">
         <v>45</v>
       </c>
@@ -50238,7 +50245,7 @@
       <c r="C88" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D88" s="461"/>
+      <c r="D88" s="452"/>
       <c r="E88" s="157" t="s">
         <v>45</v>
       </c>
@@ -50268,7 +50275,7 @@
       <c r="C89" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="459" t="s">
+      <c r="D89" s="451" t="s">
         <v>48</v>
       </c>
       <c r="E89" s="31" t="s">
@@ -50300,7 +50307,7 @@
       <c r="C90" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D90" s="460"/>
+      <c r="D90" s="458"/>
       <c r="E90" s="31" t="s">
         <v>48</v>
       </c>
@@ -50330,7 +50337,7 @@
       <c r="C91" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D91" s="460"/>
+      <c r="D91" s="458"/>
       <c r="E91" s="31" t="s">
         <v>48</v>
       </c>
@@ -50360,7 +50367,7 @@
       <c r="C92" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D92" s="460"/>
+      <c r="D92" s="458"/>
       <c r="E92" s="31" t="s">
         <v>48</v>
       </c>
@@ -50390,7 +50397,7 @@
       <c r="C93" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D93" s="461"/>
+      <c r="D93" s="452"/>
       <c r="E93" s="31" t="s">
         <v>48</v>
       </c>
@@ -50450,7 +50457,7 @@
       <c r="C95" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="D95" s="465" t="s">
+      <c r="D95" s="446" t="s">
         <v>55</v>
       </c>
       <c r="E95" s="28" t="s">
@@ -50488,7 +50495,7 @@
       <c r="C96" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="452"/>
+      <c r="D96" s="447"/>
       <c r="E96" s="29" t="s">
         <v>229</v>
       </c>
@@ -50524,7 +50531,7 @@
       <c r="C97" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D97" s="452"/>
+      <c r="D97" s="447"/>
       <c r="E97" s="29" t="s">
         <v>230</v>
       </c>
@@ -50560,7 +50567,7 @@
       <c r="C98" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="456" t="s">
+      <c r="D98" s="455" t="s">
         <v>204</v>
       </c>
       <c r="E98" s="32" t="s">
@@ -50598,7 +50605,7 @@
       <c r="C99" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D99" s="457"/>
+      <c r="D99" s="456"/>
       <c r="E99" s="32" t="s">
         <v>209</v>
       </c>
@@ -50634,7 +50641,7 @@
       <c r="C100" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D100" s="457"/>
+      <c r="D100" s="456"/>
       <c r="E100" s="32" t="s">
         <v>210</v>
       </c>
@@ -50670,7 +50677,7 @@
       <c r="C101" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D101" s="457"/>
+      <c r="D101" s="456"/>
       <c r="E101" s="32" t="s">
         <v>210</v>
       </c>
@@ -50706,7 +50713,7 @@
       <c r="C102" s="29" t="s">
         <v>673</v>
       </c>
-      <c r="D102" s="457"/>
+      <c r="D102" s="456"/>
       <c r="E102" s="32" t="s">
         <v>210</v>
       </c>
@@ -50742,7 +50749,7 @@
       <c r="C103" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D103" s="457"/>
+      <c r="D103" s="456"/>
       <c r="E103" s="32" t="s">
         <v>210</v>
       </c>
@@ -50778,7 +50785,7 @@
       <c r="C104" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D104" s="457"/>
+      <c r="D104" s="456"/>
       <c r="E104" s="32" t="s">
         <v>266</v>
       </c>
@@ -50814,7 +50821,7 @@
       <c r="C105" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D105" s="458"/>
+      <c r="D105" s="457"/>
       <c r="E105" s="32" t="s">
         <v>223</v>
       </c>
@@ -50850,7 +50857,7 @@
       <c r="C106" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D106" s="453" t="s">
+      <c r="D106" s="448" t="s">
         <v>203</v>
       </c>
       <c r="E106" s="29" t="s">
@@ -50888,7 +50895,7 @@
       <c r="C107" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D107" s="454"/>
+      <c r="D107" s="449"/>
       <c r="E107" s="29" t="s">
         <v>212</v>
       </c>
@@ -50924,7 +50931,7 @@
       <c r="C108" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D108" s="454"/>
+      <c r="D108" s="449"/>
       <c r="E108" s="29" t="s">
         <v>212</v>
       </c>
@@ -50960,7 +50967,7 @@
       <c r="C109" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D109" s="455"/>
+      <c r="D109" s="453"/>
       <c r="E109" s="29" t="s">
         <v>71</v>
       </c>
@@ -51034,7 +51041,7 @@
       <c r="C111" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D111" s="452" t="s">
+      <c r="D111" s="447" t="s">
         <v>74</v>
       </c>
       <c r="E111" s="29" t="s">
@@ -51066,7 +51073,7 @@
       <c r="C112" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D112" s="452"/>
+      <c r="D112" s="447"/>
       <c r="E112" s="29" t="s">
         <v>75</v>
       </c>
@@ -51096,7 +51103,7 @@
       <c r="C113" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D113" s="452"/>
+      <c r="D113" s="447"/>
       <c r="E113" s="29" t="s">
         <v>75</v>
       </c>
@@ -51126,7 +51133,7 @@
       <c r="C114" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D114" s="452"/>
+      <c r="D114" s="447"/>
       <c r="E114" s="31" t="s">
         <v>75</v>
       </c>
@@ -51156,7 +51163,7 @@
       <c r="C115" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D115" s="452"/>
+      <c r="D115" s="447"/>
       <c r="E115" s="29" t="s">
         <v>75</v>
       </c>
@@ -51196,7 +51203,7 @@
       <c r="C116" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D116" s="452"/>
+      <c r="D116" s="447"/>
       <c r="E116" s="31" t="s">
         <v>75</v>
       </c>
@@ -51228,7 +51235,7 @@
       <c r="C117" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D117" s="452"/>
+      <c r="D117" s="447"/>
       <c r="E117" s="29" t="s">
         <v>75</v>
       </c>
@@ -51268,7 +51275,7 @@
       <c r="C118" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D118" s="452"/>
+      <c r="D118" s="447"/>
       <c r="E118" s="29" t="s">
         <v>75</v>
       </c>
@@ -51298,7 +51305,7 @@
       <c r="C119" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D119" s="452"/>
+      <c r="D119" s="447"/>
       <c r="E119" s="31" t="s">
         <v>76</v>
       </c>
@@ -51330,7 +51337,7 @@
       <c r="C120" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D120" s="452"/>
+      <c r="D120" s="447"/>
       <c r="E120" s="31" t="s">
         <v>213</v>
       </c>
@@ -51360,7 +51367,7 @@
       <c r="C121" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D121" s="452"/>
+      <c r="D121" s="447"/>
       <c r="E121" s="123" t="s">
         <v>78</v>
       </c>
@@ -51390,7 +51397,7 @@
       <c r="C122" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D122" s="452"/>
+      <c r="D122" s="447"/>
       <c r="E122" s="123" t="s">
         <v>78</v>
       </c>
@@ -51420,7 +51427,7 @@
       <c r="C123" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D123" s="452"/>
+      <c r="D123" s="447"/>
       <c r="E123" s="123" t="s">
         <v>78</v>
       </c>
@@ -51450,7 +51457,7 @@
       <c r="C124" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D124" s="452"/>
+      <c r="D124" s="447"/>
       <c r="E124" s="123" t="s">
         <v>78</v>
       </c>
@@ -51480,7 +51487,7 @@
       <c r="C125" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D125" s="452"/>
+      <c r="D125" s="447"/>
       <c r="E125" s="29" t="s">
         <v>231</v>
       </c>
@@ -51516,7 +51523,7 @@
       <c r="C126" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D126" s="452" t="s">
+      <c r="D126" s="447" t="s">
         <v>202</v>
       </c>
       <c r="E126" s="29" t="s">
@@ -51558,7 +51565,7 @@
       <c r="C127" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D127" s="452"/>
+      <c r="D127" s="447"/>
       <c r="E127" s="29" t="s">
         <v>82</v>
       </c>
@@ -51598,7 +51605,7 @@
       <c r="C128" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D128" s="452"/>
+      <c r="D128" s="447"/>
       <c r="E128" s="29" t="s">
         <v>84</v>
       </c>
@@ -51638,7 +51645,7 @@
       <c r="C129" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D129" s="453" t="s">
+      <c r="D129" s="448" t="s">
         <v>86</v>
       </c>
       <c r="E129" s="29" t="s">
@@ -51676,7 +51683,7 @@
       <c r="C130" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D130" s="454"/>
+      <c r="D130" s="449"/>
       <c r="E130" s="29" t="s">
         <v>87</v>
       </c>
@@ -51712,7 +51719,7 @@
       <c r="C131" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D131" s="454"/>
+      <c r="D131" s="449"/>
       <c r="E131" s="29" t="s">
         <v>87</v>
       </c>
@@ -51748,7 +51755,7 @@
       <c r="C132" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D132" s="454"/>
+      <c r="D132" s="449"/>
       <c r="E132" s="29" t="s">
         <v>87</v>
       </c>
@@ -51784,7 +51791,7 @@
       <c r="C133" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D133" s="454"/>
+      <c r="D133" s="449"/>
       <c r="E133" s="29" t="s">
         <v>87</v>
       </c>
@@ -51820,7 +51827,7 @@
       <c r="C134" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D134" s="454"/>
+      <c r="D134" s="449"/>
       <c r="E134" s="29" t="s">
         <v>185</v>
       </c>
@@ -51856,7 +51863,7 @@
       <c r="C135" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D135" s="454"/>
+      <c r="D135" s="449"/>
       <c r="E135" s="29" t="s">
         <v>185</v>
       </c>
@@ -51892,7 +51899,7 @@
       <c r="C136" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D136" s="454"/>
+      <c r="D136" s="449"/>
       <c r="E136" s="29" t="s">
         <v>185</v>
       </c>
@@ -51928,7 +51935,7 @@
       <c r="C137" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="454"/>
+      <c r="D137" s="449"/>
       <c r="E137" s="29" t="s">
         <v>215</v>
       </c>
@@ -51967,7 +51974,7 @@
       <c r="C138" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D138" s="454"/>
+      <c r="D138" s="449"/>
       <c r="E138" s="29" t="s">
         <v>215</v>
       </c>
@@ -52006,7 +52013,7 @@
       <c r="C139" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D139" s="455"/>
+      <c r="D139" s="453"/>
       <c r="E139" s="29" t="s">
         <v>215</v>
       </c>
@@ -52045,7 +52052,7 @@
       <c r="C140" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D140" s="463" t="s">
+      <c r="D140" s="444" t="s">
         <v>201</v>
       </c>
       <c r="E140" s="31" t="s">
@@ -52077,7 +52084,7 @@
       <c r="C141" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D141" s="463"/>
+      <c r="D141" s="444"/>
       <c r="E141" s="31" t="s">
         <v>217</v>
       </c>
@@ -52107,7 +52114,7 @@
       <c r="C142" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D142" s="463"/>
+      <c r="D142" s="444"/>
       <c r="E142" s="31" t="s">
         <v>217</v>
       </c>
@@ -52137,7 +52144,7 @@
       <c r="C143" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D143" s="463"/>
+      <c r="D143" s="444"/>
       <c r="E143" s="31" t="s">
         <v>218</v>
       </c>
@@ -52167,7 +52174,7 @@
       <c r="C144" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D144" s="463"/>
+      <c r="D144" s="444"/>
       <c r="E144" s="31" t="s">
         <v>218</v>
       </c>
@@ -52197,7 +52204,7 @@
       <c r="C145" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D145" s="463"/>
+      <c r="D145" s="444"/>
       <c r="E145" s="31" t="s">
         <v>218</v>
       </c>
@@ -52227,7 +52234,7 @@
       <c r="C146" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D146" s="463"/>
+      <c r="D146" s="444"/>
       <c r="E146" s="31" t="s">
         <v>219</v>
       </c>
@@ -52257,7 +52264,7 @@
       <c r="C147" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D147" s="463"/>
+      <c r="D147" s="444"/>
       <c r="E147" s="31" t="s">
         <v>219</v>
       </c>
@@ -52287,7 +52294,7 @@
       <c r="C148" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D148" s="463"/>
+      <c r="D148" s="444"/>
       <c r="E148" s="31" t="s">
         <v>219</v>
       </c>
@@ -52317,7 +52324,7 @@
       <c r="C149" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D149" s="464" t="s">
+      <c r="D149" s="445" t="s">
         <v>200</v>
       </c>
       <c r="E149" s="32" t="s">
@@ -52349,7 +52356,7 @@
       <c r="C150" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D150" s="464"/>
+      <c r="D150" s="445"/>
       <c r="E150" s="32" t="s">
         <v>221</v>
       </c>
@@ -52381,7 +52388,7 @@
       <c r="C151" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D151" s="464"/>
+      <c r="D151" s="445"/>
       <c r="E151" s="32" t="s">
         <v>221</v>
       </c>
@@ -52413,7 +52420,7 @@
       <c r="C152" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D152" s="464"/>
+      <c r="D152" s="445"/>
       <c r="E152" s="32" t="s">
         <v>221</v>
       </c>
@@ -52445,7 +52452,7 @@
       <c r="C153" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D153" s="459" t="s">
+      <c r="D153" s="451" t="s">
         <v>497</v>
       </c>
       <c r="E153" s="31" t="s">
@@ -52477,7 +52484,7 @@
       <c r="C154" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D154" s="461"/>
+      <c r="D154" s="452"/>
       <c r="E154" s="31" t="s">
         <v>499</v>
       </c>
@@ -52507,7 +52514,7 @@
       <c r="C155" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D155" s="453" t="s">
+      <c r="D155" s="448" t="s">
         <v>199</v>
       </c>
       <c r="E155" s="29" t="s">
@@ -52545,7 +52552,7 @@
       <c r="C156" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D156" s="454"/>
+      <c r="D156" s="449"/>
       <c r="E156" s="29" t="s">
         <v>199</v>
       </c>
@@ -52581,7 +52588,7 @@
       <c r="C157" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D157" s="454"/>
+      <c r="D157" s="449"/>
       <c r="E157" s="29" t="s">
         <v>199</v>
       </c>
@@ -52617,7 +52624,7 @@
       <c r="C158" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D158" s="466"/>
+      <c r="D158" s="450"/>
       <c r="E158" s="30" t="s">
         <v>233</v>
       </c>
@@ -53228,12 +53235,15 @@
   </sheetData>
   <autoFilter ref="C3:I158" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="25">
-    <mergeCell ref="D140:D148"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="D155:D158"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="D129:D139"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D111:D125"/>
     <mergeCell ref="D126:D128"/>
@@ -53244,15 +53254,12 @@
     <mergeCell ref="D76:D79"/>
     <mergeCell ref="D68:D75"/>
     <mergeCell ref="D82:D85"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="D140:D148"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="D155:D158"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D129:D139"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F36">
@@ -53326,10 +53333,10 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A2" s="472" t="s">
+      <c r="A2" s="475" t="s">
         <v>955</v>
       </c>
-      <c r="B2" s="473"/>
+      <c r="B2" s="476"/>
       <c r="C2" s="276" t="s">
         <v>1910</v>
       </c>
@@ -53398,8 +53405,8 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="18" thickBot="1">
-      <c r="A3" s="474"/>
-      <c r="B3" s="475"/>
+      <c r="A3" s="477"/>
+      <c r="B3" s="478"/>
       <c r="C3" s="278" t="s">
         <v>1928</v>
       </c>
@@ -53468,50 +53475,50 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="476" t="s">
+      <c r="A4" s="479" t="s">
         <v>1950</v>
       </c>
-      <c r="B4" s="478" t="s">
+      <c r="B4" s="481" t="s">
         <v>1951</v>
       </c>
       <c r="C4" s="280" t="s">
         <v>1952</v>
       </c>
-      <c r="D4" s="478" t="s">
+      <c r="D4" s="481" t="s">
         <v>1953</v>
       </c>
-      <c r="E4" s="478"/>
-      <c r="F4" s="478"/>
-      <c r="G4" s="480"/>
-      <c r="H4" s="481" t="s">
+      <c r="E4" s="481"/>
+      <c r="F4" s="481"/>
+      <c r="G4" s="483"/>
+      <c r="H4" s="484" t="s">
         <v>1954</v>
       </c>
-      <c r="I4" s="481"/>
-      <c r="J4" s="481"/>
-      <c r="K4" s="482"/>
-      <c r="L4" s="483" t="s">
+      <c r="I4" s="484"/>
+      <c r="J4" s="484"/>
+      <c r="K4" s="485"/>
+      <c r="L4" s="486" t="s">
         <v>1955</v>
       </c>
-      <c r="M4" s="483"/>
-      <c r="N4" s="483"/>
-      <c r="O4" s="483"/>
-      <c r="P4" s="483"/>
-      <c r="Q4" s="467" t="s">
+      <c r="M4" s="486"/>
+      <c r="N4" s="486"/>
+      <c r="O4" s="486"/>
+      <c r="P4" s="486"/>
+      <c r="Q4" s="470" t="s">
         <v>1956</v>
       </c>
-      <c r="R4" s="468"/>
-      <c r="S4" s="468"/>
-      <c r="T4" s="469"/>
-      <c r="U4" s="470" t="s">
+      <c r="R4" s="471"/>
+      <c r="S4" s="471"/>
+      <c r="T4" s="472"/>
+      <c r="U4" s="473" t="s">
         <v>1957</v>
       </c>
-      <c r="V4" s="470"/>
-      <c r="W4" s="470"/>
-      <c r="X4" s="471"/>
+      <c r="V4" s="473"/>
+      <c r="W4" s="473"/>
+      <c r="X4" s="474"/>
     </row>
     <row r="5" spans="1:24" ht="20" customHeight="1">
-      <c r="A5" s="477"/>
-      <c r="B5" s="479"/>
+      <c r="A5" s="480"/>
+      <c r="B5" s="482"/>
       <c r="C5" s="281" t="s">
         <v>1958</v>
       </c>
@@ -53999,69 +54006,69 @@
     <row r="3" spans="1:22">
       <c r="L3" s="48">
         <f ca="1">TODAY()</f>
-        <v>45395</v>
+        <v>45397</v>
       </c>
       <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A4" s="430" t="s">
+      <c r="A4" s="425" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="430" t="s">
+      <c r="B4" s="425" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="430" t="s">
+      <c r="C4" s="425" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="430" t="s">
+      <c r="D4" s="425" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="435" t="s">
+      <c r="E4" s="431" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="500" t="s">
+      <c r="F4" s="496" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="500"/>
-      <c r="H4" s="501" t="s">
+      <c r="G4" s="496"/>
+      <c r="H4" s="497" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="502"/>
-      <c r="J4" s="498" t="s">
+      <c r="I4" s="498"/>
+      <c r="J4" s="494" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="499"/>
-      <c r="L4" s="430" t="s">
+      <c r="K4" s="495"/>
+      <c r="L4" s="425" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="491" t="s">
+      <c r="N4" s="503" t="s">
         <v>2042</v>
       </c>
-      <c r="O4" s="491" t="s">
+      <c r="O4" s="503" t="s">
         <v>2043</v>
       </c>
-      <c r="P4" s="492" t="s">
+      <c r="P4" s="504" t="s">
         <v>2044</v>
       </c>
-      <c r="Q4" s="493"/>
-      <c r="R4" s="492" t="s">
+      <c r="Q4" s="505"/>
+      <c r="R4" s="504" t="s">
         <v>2047</v>
       </c>
-      <c r="S4" s="493"/>
-      <c r="T4" s="492" t="s">
+      <c r="S4" s="505"/>
+      <c r="T4" s="504" t="s">
         <v>2050</v>
       </c>
-      <c r="U4" s="493"/>
-      <c r="V4" s="484" t="s">
+      <c r="U4" s="505"/>
+      <c r="V4" s="492" t="s">
         <v>2051</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A5" s="430"/>
-      <c r="B5" s="430"/>
-      <c r="C5" s="430"/>
-      <c r="D5" s="430"/>
-      <c r="E5" s="436"/>
+      <c r="A5" s="425"/>
+      <c r="B5" s="425"/>
+      <c r="C5" s="425"/>
+      <c r="D5" s="425"/>
+      <c r="E5" s="432"/>
       <c r="F5" s="49" t="s">
         <v>181</v>
       </c>
@@ -54080,9 +54087,9 @@
       <c r="K5" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="L5" s="430"/>
-      <c r="N5" s="491"/>
-      <c r="O5" s="491"/>
+      <c r="L5" s="425"/>
+      <c r="N5" s="503"/>
+      <c r="O5" s="503"/>
       <c r="P5" s="296" t="s">
         <v>2045</v>
       </c>
@@ -54101,10 +54108,10 @@
       <c r="U5" s="296" t="s">
         <v>2049</v>
       </c>
-      <c r="V5" s="485"/>
+      <c r="V5" s="493"/>
     </row>
     <row r="6" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A6" s="424" t="s">
+      <c r="A6" s="426" t="s">
         <v>187</v>
       </c>
       <c r="B6" s="52" t="s">
@@ -54122,7 +54129,7 @@
       </c>
       <c r="F6" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A6,'0.전체'!E4:E463,'0.수행관리'!D6,'0.전체'!N4:N463,"O")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" s="53">
         <f>COUNTIFS('0.전체'!B4:B463,'0.수행관리'!A6,'0.전체'!E4:E463,'0.수행관리'!D6,'0.전체'!O4:O463,"O")</f>
@@ -54130,7 +54137,7 @@
       </c>
       <c r="H6" s="54">
         <f t="shared" ref="H6" si="0">E6-F6</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I6" s="54">
         <f t="shared" ref="I6" si="1">E6-G6</f>
@@ -54138,7 +54145,7 @@
       </c>
       <c r="J6" s="55">
         <f t="shared" ref="J6:J29" si="2">F6/E6</f>
-        <v>0.10526315789473684</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="K6" s="55">
         <f t="shared" ref="K6:K29" si="3">G6/E6</f>
@@ -54154,7 +54161,7 @@
       </c>
       <c r="P6" s="259">
         <f>COUNTIFS('0.전체'!J4:J463,'0.수행관리'!N6,'0.전체'!N4:N463,"O")</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="259">
         <f>COUNTIFS('0.전체'!J4:J463,'0.수행관리'!N6,'0.전체'!O4:O463,"O")</f>
@@ -54162,7 +54169,7 @@
       </c>
       <c r="R6" s="259">
         <f>O6-P6</f>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S6" s="259">
         <f>O6-Q6</f>
@@ -54170,7 +54177,7 @@
       </c>
       <c r="T6" s="370">
         <f>P6/O6</f>
-        <v>0.31791907514450868</v>
+        <v>0.32947976878612717</v>
       </c>
       <c r="U6" s="370">
         <f>Q6/O6</f>
@@ -54179,7 +54186,7 @@
       <c r="V6" s="259"/>
     </row>
     <row r="7" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A7" s="424"/>
+      <c r="A7" s="426"/>
       <c r="B7" s="52" t="s">
         <v>142</v>
       </c>
@@ -54252,7 +54259,7 @@
       <c r="V7" s="259"/>
     </row>
     <row r="8" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A8" s="424"/>
+      <c r="A8" s="426"/>
       <c r="B8" s="52" t="s">
         <v>509</v>
       </c>
@@ -54325,19 +54332,19 @@
       <c r="V8" s="259"/>
     </row>
     <row r="9" spans="1:22" ht="20" customHeight="1">
-      <c r="A9" s="422" t="s">
+      <c r="A9" s="437" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="423"/>
-      <c r="C9" s="423"/>
-      <c r="D9" s="497"/>
+      <c r="B9" s="438"/>
+      <c r="C9" s="438"/>
+      <c r="D9" s="502"/>
       <c r="E9" s="60">
         <f>SUM(E6:E8)</f>
         <v>42</v>
       </c>
       <c r="F9" s="60">
         <f>SUM(F6:F8)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9" s="60">
         <f>SUM(G6:G8)</f>
@@ -54345,7 +54352,7 @@
       </c>
       <c r="H9" s="60">
         <f>SUM(H6:H8)</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" s="60">
         <f>SUM(I6:I8)</f>
@@ -54353,7 +54360,7 @@
       </c>
       <c r="J9" s="61">
         <f t="shared" si="2"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="K9" s="61">
         <f t="shared" si="3"/>
@@ -54371,10 +54378,10 @@
       <c r="V9" s="259"/>
     </row>
     <row r="10" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A10" s="424" t="s">
+      <c r="A10" s="426" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="424" t="s">
+      <c r="B10" s="426" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="52" t="s">
@@ -54421,7 +54428,7 @@
       </c>
       <c r="P10" s="169">
         <f t="shared" ref="P10:S10" si="16">SUM(P6:P9)</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="169">
         <f t="shared" si="16"/>
@@ -54429,7 +54436,7 @@
       </c>
       <c r="R10" s="169">
         <f t="shared" si="16"/>
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="S10" s="169">
         <f t="shared" si="16"/>
@@ -54437,7 +54444,7 @@
       </c>
       <c r="T10" s="371">
         <f t="shared" ref="T10" si="17">P10/O10</f>
-        <v>0.20533333333333334</v>
+        <v>0.21066666666666667</v>
       </c>
       <c r="U10" s="371">
         <f t="shared" ref="U10" si="18">Q10/O10</f>
@@ -54446,8 +54453,8 @@
       <c r="V10" s="169"/>
     </row>
     <row r="11" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A11" s="424"/>
-      <c r="B11" s="424"/>
+      <c r="A11" s="426"/>
+      <c r="B11" s="426"/>
       <c r="C11" s="52" t="s">
         <v>547</v>
       </c>
@@ -54485,8 +54492,8 @@
       <c r="L11" s="58"/>
     </row>
     <row r="12" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A12" s="424"/>
-      <c r="B12" s="424"/>
+      <c r="A12" s="426"/>
+      <c r="B12" s="426"/>
       <c r="C12" s="52" t="s">
         <v>547</v>
       </c>
@@ -54524,8 +54531,8 @@
       <c r="L12" s="58"/>
     </row>
     <row r="13" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A13" s="424"/>
-      <c r="B13" s="424"/>
+      <c r="A13" s="426"/>
+      <c r="B13" s="426"/>
       <c r="C13" s="52" t="s">
         <v>547</v>
       </c>
@@ -54563,8 +54570,8 @@
       <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A14" s="424"/>
-      <c r="B14" s="424"/>
+      <c r="A14" s="426"/>
+      <c r="B14" s="426"/>
       <c r="C14" s="52" t="s">
         <v>547</v>
       </c>
@@ -54602,8 +54609,8 @@
       <c r="L14" s="58"/>
     </row>
     <row r="15" spans="1:22" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A15" s="424"/>
-      <c r="B15" s="424"/>
+      <c r="A15" s="426"/>
+      <c r="B15" s="426"/>
       <c r="C15" s="52" t="s">
         <v>547</v>
       </c>
@@ -54641,7 +54648,7 @@
       <c r="L15" s="58"/>
     </row>
     <row r="16" spans="1:22" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A16" s="424"/>
+      <c r="A16" s="426"/>
       <c r="B16" s="223" t="s">
         <v>193</v>
       </c>
@@ -54682,8 +54689,8 @@
       <c r="L16" s="63"/>
     </row>
     <row r="17" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A17" s="424"/>
-      <c r="B17" s="495" t="s">
+      <c r="A17" s="426"/>
+      <c r="B17" s="500" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="52" t="s">
@@ -54723,8 +54730,8 @@
       <c r="L17" s="63"/>
     </row>
     <row r="18" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A18" s="424"/>
-      <c r="B18" s="496"/>
+      <c r="A18" s="426"/>
+      <c r="B18" s="501"/>
       <c r="C18" s="57" t="s">
         <v>590</v>
       </c>
@@ -54762,12 +54769,12 @@
       <c r="L18" s="58"/>
     </row>
     <row r="19" spans="1:12" ht="20" customHeight="1" collapsed="1">
-      <c r="A19" s="422" t="s">
+      <c r="A19" s="437" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="423"/>
-      <c r="C19" s="423"/>
-      <c r="D19" s="497"/>
+      <c r="B19" s="438"/>
+      <c r="C19" s="438"/>
+      <c r="D19" s="502"/>
       <c r="E19" s="60">
         <f>SUM(E10:E18)</f>
         <v>15</v>
@@ -54799,7 +54806,7 @@
       <c r="L19" s="62"/>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A20" s="424" t="s">
+      <c r="A20" s="426" t="s">
         <v>189</v>
       </c>
       <c r="B20" s="68" t="s">
@@ -54842,7 +54849,7 @@
       <c r="L20" s="63"/>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A21" s="424"/>
+      <c r="A21" s="426"/>
       <c r="B21" s="68" t="s">
         <v>26</v>
       </c>
@@ -54883,7 +54890,7 @@
       <c r="L21" s="63"/>
     </row>
     <row r="22" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A22" s="424"/>
+      <c r="A22" s="426"/>
       <c r="B22" s="68" t="s">
         <v>26</v>
       </c>
@@ -54924,7 +54931,7 @@
       <c r="L22" s="63"/>
     </row>
     <row r="23" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A23" s="424"/>
+      <c r="A23" s="426"/>
       <c r="B23" s="68" t="s">
         <v>26</v>
       </c>
@@ -54965,7 +54972,7 @@
       <c r="L23" s="63"/>
     </row>
     <row r="24" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A24" s="424"/>
+      <c r="A24" s="426"/>
       <c r="B24" s="68" t="s">
         <v>26</v>
       </c>
@@ -55006,7 +55013,7 @@
       <c r="L24" s="63"/>
     </row>
     <row r="25" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A25" s="424"/>
+      <c r="A25" s="426"/>
       <c r="B25" s="68" t="s">
         <v>35</v>
       </c>
@@ -55047,7 +55054,7 @@
       <c r="L25" s="63"/>
     </row>
     <row r="26" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A26" s="424"/>
+      <c r="A26" s="426"/>
       <c r="B26" s="68" t="s">
         <v>35</v>
       </c>
@@ -55088,7 +55095,7 @@
       <c r="L26" s="63"/>
     </row>
     <row r="27" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A27" s="424"/>
+      <c r="A27" s="426"/>
       <c r="B27" s="68" t="s">
         <v>35</v>
       </c>
@@ -55129,7 +55136,7 @@
       <c r="L27" s="63"/>
     </row>
     <row r="28" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A28" s="424"/>
+      <c r="A28" s="426"/>
       <c r="B28" s="68" t="s">
         <v>39</v>
       </c>
@@ -55170,7 +55177,7 @@
       <c r="L28" s="63"/>
     </row>
     <row r="29" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A29" s="424"/>
+      <c r="A29" s="426"/>
       <c r="B29" s="68" t="s">
         <v>40</v>
       </c>
@@ -55211,12 +55218,12 @@
       <c r="L29" s="63"/>
     </row>
     <row r="30" spans="1:12" ht="20" customHeight="1">
-      <c r="A30" s="422" t="s">
+      <c r="A30" s="437" t="s">
         <v>234</v>
       </c>
-      <c r="B30" s="423"/>
-      <c r="C30" s="423"/>
-      <c r="D30" s="497"/>
+      <c r="B30" s="438"/>
+      <c r="C30" s="438"/>
+      <c r="D30" s="502"/>
       <c r="E30" s="60">
         <f>SUM(E20:E29)</f>
         <v>80</v>
@@ -55248,7 +55255,7 @@
       <c r="L30" s="62"/>
     </row>
     <row r="31" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A31" s="424" t="s">
+      <c r="A31" s="426" t="s">
         <v>191</v>
       </c>
       <c r="B31" s="68" t="s">
@@ -55291,7 +55298,7 @@
       <c r="L31" s="63"/>
     </row>
     <row r="32" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A32" s="424"/>
+      <c r="A32" s="426"/>
       <c r="B32" s="68" t="s">
         <v>55</v>
       </c>
@@ -55332,7 +55339,7 @@
       <c r="L32" s="63"/>
     </row>
     <row r="33" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A33" s="424"/>
+      <c r="A33" s="426"/>
       <c r="B33" s="68" t="s">
         <v>55</v>
       </c>
@@ -55373,7 +55380,7 @@
       <c r="L33" s="63"/>
     </row>
     <row r="34" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A34" s="424"/>
+      <c r="A34" s="426"/>
       <c r="B34" s="68" t="s">
         <v>204</v>
       </c>
@@ -55414,7 +55421,7 @@
       <c r="L34" s="63"/>
     </row>
     <row r="35" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A35" s="424"/>
+      <c r="A35" s="426"/>
       <c r="B35" s="68" t="s">
         <v>204</v>
       </c>
@@ -55455,7 +55462,7 @@
       <c r="L35" s="63"/>
     </row>
     <row r="36" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A36" s="424"/>
+      <c r="A36" s="426"/>
       <c r="B36" s="68" t="s">
         <v>204</v>
       </c>
@@ -55496,7 +55503,7 @@
       <c r="L36" s="63"/>
     </row>
     <row r="37" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A37" s="424"/>
+      <c r="A37" s="426"/>
       <c r="B37" s="68" t="s">
         <v>204</v>
       </c>
@@ -55537,7 +55544,7 @@
       <c r="L37" s="63"/>
     </row>
     <row r="38" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A38" s="424"/>
+      <c r="A38" s="426"/>
       <c r="B38" s="68" t="s">
         <v>204</v>
       </c>
@@ -55578,7 +55585,7 @@
       <c r="L38" s="63"/>
     </row>
     <row r="39" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A39" s="424"/>
+      <c r="A39" s="426"/>
       <c r="B39" s="68" t="s">
         <v>204</v>
       </c>
@@ -55619,7 +55626,7 @@
       <c r="L39" s="63"/>
     </row>
     <row r="40" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A40" s="424"/>
+      <c r="A40" s="426"/>
       <c r="B40" s="68" t="s">
         <v>204</v>
       </c>
@@ -55660,7 +55667,7 @@
       <c r="L40" s="63"/>
     </row>
     <row r="41" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A41" s="424"/>
+      <c r="A41" s="426"/>
       <c r="B41" s="68" t="s">
         <v>204</v>
       </c>
@@ -55701,7 +55708,7 @@
       <c r="L41" s="63"/>
     </row>
     <row r="42" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A42" s="424"/>
+      <c r="A42" s="426"/>
       <c r="B42" s="68" t="s">
         <v>203</v>
       </c>
@@ -55742,7 +55749,7 @@
       <c r="L42" s="59"/>
     </row>
     <row r="43" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A43" s="424"/>
+      <c r="A43" s="426"/>
       <c r="B43" s="68" t="s">
         <v>203</v>
       </c>
@@ -55783,7 +55790,7 @@
       <c r="L43" s="59"/>
     </row>
     <row r="44" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A44" s="424"/>
+      <c r="A44" s="426"/>
       <c r="B44" s="68" t="s">
         <v>203</v>
       </c>
@@ -55824,7 +55831,7 @@
       <c r="L44" s="59"/>
     </row>
     <row r="45" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A45" s="424"/>
+      <c r="A45" s="426"/>
       <c r="B45" s="68" t="s">
         <v>203</v>
       </c>
@@ -55865,7 +55872,7 @@
       <c r="L45" s="59"/>
     </row>
     <row r="46" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A46" s="424"/>
+      <c r="A46" s="426"/>
       <c r="B46" s="68" t="s">
         <v>789</v>
       </c>
@@ -55906,7 +55913,7 @@
       <c r="L46" s="63"/>
     </row>
     <row r="47" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A47" s="424"/>
+      <c r="A47" s="426"/>
       <c r="B47" s="68" t="s">
         <v>74</v>
       </c>
@@ -55947,7 +55954,7 @@
       <c r="L47" s="63"/>
     </row>
     <row r="48" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A48" s="424"/>
+      <c r="A48" s="426"/>
       <c r="B48" s="255" t="s">
         <v>202</v>
       </c>
@@ -55988,7 +55995,7 @@
       <c r="L48" s="254"/>
     </row>
     <row r="49" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A49" s="424"/>
+      <c r="A49" s="426"/>
       <c r="B49" s="255" t="s">
         <v>202</v>
       </c>
@@ -56029,7 +56036,7 @@
       <c r="L49" s="254"/>
     </row>
     <row r="50" spans="1:12" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A50" s="424"/>
+      <c r="A50" s="426"/>
       <c r="B50" s="255" t="s">
         <v>202</v>
       </c>
@@ -56070,7 +56077,7 @@
       <c r="L50" s="254"/>
     </row>
     <row r="51" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A51" s="424"/>
+      <c r="A51" s="426"/>
       <c r="B51" s="68" t="s">
         <v>86</v>
       </c>
@@ -56111,7 +56118,7 @@
       <c r="L51" s="59"/>
     </row>
     <row r="52" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A52" s="424"/>
+      <c r="A52" s="426"/>
       <c r="B52" s="68" t="s">
         <v>86</v>
       </c>
@@ -56152,7 +56159,7 @@
       <c r="L52" s="59"/>
     </row>
     <row r="53" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A53" s="424"/>
+      <c r="A53" s="426"/>
       <c r="B53" s="68" t="s">
         <v>86</v>
       </c>
@@ -56193,7 +56200,7 @@
       <c r="L53" s="59"/>
     </row>
     <row r="54" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A54" s="424"/>
+      <c r="A54" s="426"/>
       <c r="B54" s="68" t="s">
         <v>86</v>
       </c>
@@ -56234,7 +56241,7 @@
       <c r="L54" s="59"/>
     </row>
     <row r="55" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A55" s="424"/>
+      <c r="A55" s="426"/>
       <c r="B55" s="68" t="s">
         <v>86</v>
       </c>
@@ -56275,7 +56282,7 @@
       <c r="L55" s="59"/>
     </row>
     <row r="56" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A56" s="424"/>
+      <c r="A56" s="426"/>
       <c r="B56" s="68" t="s">
         <v>86</v>
       </c>
@@ -56316,7 +56323,7 @@
       <c r="L56" s="59"/>
     </row>
     <row r="57" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A57" s="424"/>
+      <c r="A57" s="426"/>
       <c r="B57" s="68" t="s">
         <v>86</v>
       </c>
@@ -56357,7 +56364,7 @@
       <c r="L57" s="59"/>
     </row>
     <row r="58" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A58" s="424"/>
+      <c r="A58" s="426"/>
       <c r="B58" s="68" t="s">
         <v>86</v>
       </c>
@@ -56398,7 +56405,7 @@
       <c r="L58" s="59"/>
     </row>
     <row r="59" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A59" s="424"/>
+      <c r="A59" s="426"/>
       <c r="B59" s="255" t="s">
         <v>86</v>
       </c>
@@ -56439,7 +56446,7 @@
       <c r="L59" s="258"/>
     </row>
     <row r="60" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A60" s="424"/>
+      <c r="A60" s="426"/>
       <c r="B60" s="255" t="s">
         <v>86</v>
       </c>
@@ -56480,7 +56487,7 @@
       <c r="L60" s="258"/>
     </row>
     <row r="61" spans="1:12" ht="20" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A61" s="424"/>
+      <c r="A61" s="426"/>
       <c r="B61" s="255" t="s">
         <v>86</v>
       </c>
@@ -56521,7 +56528,7 @@
       <c r="L61" s="258"/>
     </row>
     <row r="62" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A62" s="424"/>
+      <c r="A62" s="426"/>
       <c r="B62" s="68" t="s">
         <v>200</v>
       </c>
@@ -56562,7 +56569,7 @@
       <c r="L62" s="59"/>
     </row>
     <row r="63" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A63" s="424"/>
+      <c r="A63" s="426"/>
       <c r="B63" s="68" t="s">
         <v>199</v>
       </c>
@@ -56603,7 +56610,7 @@
       <c r="L63" s="59"/>
     </row>
     <row r="64" spans="1:12" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A64" s="424"/>
+      <c r="A64" s="426"/>
       <c r="B64" s="68" t="s">
         <v>199</v>
       </c>
@@ -56644,7 +56651,7 @@
       <c r="L64" s="59"/>
     </row>
     <row r="65" spans="1:14" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A65" s="424"/>
+      <c r="A65" s="426"/>
       <c r="B65" s="68" t="s">
         <v>199</v>
       </c>
@@ -56685,7 +56692,7 @@
       <c r="L65" s="59"/>
     </row>
     <row r="66" spans="1:14" ht="20" customHeight="1" outlineLevel="1">
-      <c r="A66" s="424"/>
+      <c r="A66" s="426"/>
       <c r="B66" s="68" t="s">
         <v>199</v>
       </c>
@@ -56726,12 +56733,12 @@
       <c r="L66" s="63"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="422" t="s">
+      <c r="A67" s="437" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="423"/>
-      <c r="C67" s="423"/>
-      <c r="D67" s="497"/>
+      <c r="B67" s="438"/>
+      <c r="C67" s="438"/>
+      <c r="D67" s="502"/>
       <c r="E67" s="60">
         <f>SUM(E31:E66)</f>
         <v>238</v>
@@ -56763,19 +56770,19 @@
       <c r="L67" s="62"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="428" t="s">
+      <c r="A68" s="439" t="s">
         <v>236</v>
       </c>
-      <c r="B68" s="429"/>
-      <c r="C68" s="429"/>
-      <c r="D68" s="494"/>
+      <c r="B68" s="440"/>
+      <c r="C68" s="440"/>
+      <c r="D68" s="499"/>
       <c r="E68" s="64">
         <f t="shared" ref="E68:I68" si="38">SUM(E9+E19+E30+E67)</f>
         <v>375</v>
       </c>
       <c r="F68" s="64">
         <f t="shared" si="38"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G68" s="64">
         <f t="shared" si="38"/>
@@ -56783,7 +56790,7 @@
       </c>
       <c r="H68" s="64">
         <f t="shared" si="38"/>
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I68" s="64">
         <f t="shared" si="38"/>
@@ -56791,7 +56798,7 @@
       </c>
       <c r="J68" s="65">
         <f t="shared" si="27"/>
-        <v>0.20533333333333334</v>
+        <v>0.21066666666666667</v>
       </c>
       <c r="K68" s="65">
         <f t="shared" si="28"/>
@@ -56803,7 +56810,7 @@
       <c r="N69" s="67"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="E70" s="484" t="s">
+      <c r="E70" s="492" t="s">
         <v>955</v>
       </c>
       <c r="F70" s="169">
@@ -56830,7 +56837,7 @@
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="E71" s="485"/>
+      <c r="E71" s="493"/>
       <c r="F71" s="169" t="s">
         <v>1011</v>
       </c>
@@ -57048,16 +57055,16 @@
       <c r="J81" s="274"/>
       <c r="K81" s="274"/>
       <c r="L81" s="274"/>
-      <c r="M81" s="489" t="s">
+      <c r="M81" s="487" t="s">
         <v>2160</v>
       </c>
-      <c r="N81" s="489"/>
-      <c r="O81" s="489"/>
-      <c r="P81" s="489"/>
-      <c r="Q81" s="489"/>
-      <c r="R81" s="489"/>
-      <c r="S81" s="489"/>
-      <c r="T81" s="489"/>
+      <c r="N81" s="487"/>
+      <c r="O81" s="487"/>
+      <c r="P81" s="487"/>
+      <c r="Q81" s="487"/>
+      <c r="R81" s="487"/>
+      <c r="S81" s="487"/>
+      <c r="T81" s="487"/>
     </row>
     <row r="82" spans="3:20">
       <c r="C82" t="s">
@@ -57083,14 +57090,14 @@
       <c r="J82" s="274"/>
       <c r="K82" s="274"/>
       <c r="L82" s="274"/>
-      <c r="M82" s="490"/>
-      <c r="N82" s="490"/>
-      <c r="O82" s="490"/>
-      <c r="P82" s="490"/>
-      <c r="Q82" s="490"/>
-      <c r="R82" s="490"/>
-      <c r="S82" s="490"/>
-      <c r="T82" s="490"/>
+      <c r="M82" s="488"/>
+      <c r="N82" s="488"/>
+      <c r="O82" s="488"/>
+      <c r="P82" s="488"/>
+      <c r="Q82" s="488"/>
+      <c r="R82" s="488"/>
+      <c r="S82" s="488"/>
+      <c r="T82" s="488"/>
     </row>
     <row r="83" spans="3:20">
       <c r="C83" t="s">
@@ -57116,10 +57123,10 @@
       <c r="J83" s="274"/>
       <c r="K83" s="274"/>
       <c r="L83" s="274"/>
-      <c r="M83" s="486" t="s">
+      <c r="M83" s="489" t="s">
         <v>1967</v>
       </c>
-      <c r="N83" s="488" t="s">
+      <c r="N83" s="491" t="s">
         <v>1962</v>
       </c>
       <c r="O83" s="366" t="s">
@@ -57137,7 +57144,7 @@
       <c r="S83" s="366" t="s">
         <v>1965</v>
       </c>
-      <c r="T83" s="488" t="s">
+      <c r="T83" s="491" t="s">
         <v>1964</v>
       </c>
     </row>
@@ -57165,8 +57172,8 @@
       <c r="J84" s="274"/>
       <c r="K84" s="274"/>
       <c r="L84" s="274"/>
-      <c r="M84" s="487"/>
-      <c r="N84" s="487"/>
+      <c r="M84" s="490"/>
+      <c r="N84" s="490"/>
       <c r="O84" s="366">
         <v>0</v>
       </c>
@@ -57183,7 +57190,7 @@
         <f>SUM(O84:R84)</f>
         <v>60</v>
       </c>
-      <c r="T84" s="487"/>
+      <c r="T84" s="490"/>
     </row>
     <row r="85" spans="3:20">
       <c r="C85" t="s">
@@ -57465,11 +57472,11 @@
       </c>
       <c r="F90" s="274">
         <f>COUNTIFS('0.전체'!G4:G463,'0.수행관리'!D90,'0.전체'!N4:N463,"O")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G90" s="372">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>8.9686098654708519E-3</v>
       </c>
       <c r="H90" s="273"/>
       <c r="I90" s="273"/>
@@ -57509,40 +57516,40 @@
       </c>
       <c r="F92" s="273">
         <f>SUM(F81:F91)</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G92" s="372">
         <f t="shared" si="40"/>
-        <v>0.20533333333333334</v>
+        <v>0.21066666666666667</v>
       </c>
       <c r="H92" s="273"/>
       <c r="I92" s="273"/>
-      <c r="M92" s="489" t="s">
+      <c r="M92" s="487" t="s">
         <v>2129</v>
       </c>
-      <c r="N92" s="489"/>
-      <c r="O92" s="489"/>
-      <c r="P92" s="489"/>
-      <c r="Q92" s="489"/>
-      <c r="R92" s="489"/>
-      <c r="S92" s="489"/>
-      <c r="T92" s="489"/>
+      <c r="N92" s="487"/>
+      <c r="O92" s="487"/>
+      <c r="P92" s="487"/>
+      <c r="Q92" s="487"/>
+      <c r="R92" s="487"/>
+      <c r="S92" s="487"/>
+      <c r="T92" s="487"/>
     </row>
     <row r="93" spans="3:20">
-      <c r="M93" s="490"/>
-      <c r="N93" s="490"/>
-      <c r="O93" s="490"/>
-      <c r="P93" s="490"/>
-      <c r="Q93" s="490"/>
-      <c r="R93" s="490"/>
-      <c r="S93" s="490"/>
-      <c r="T93" s="490"/>
+      <c r="M93" s="488"/>
+      <c r="N93" s="488"/>
+      <c r="O93" s="488"/>
+      <c r="P93" s="488"/>
+      <c r="Q93" s="488"/>
+      <c r="R93" s="488"/>
+      <c r="S93" s="488"/>
+      <c r="T93" s="488"/>
     </row>
     <row r="94" spans="3:20">
-      <c r="M94" s="486" t="s">
+      <c r="M94" s="489" t="s">
         <v>955</v>
       </c>
-      <c r="N94" s="488" t="s">
+      <c r="N94" s="491" t="s">
         <v>1011</v>
       </c>
       <c r="O94" s="366" t="s">
@@ -57560,13 +57567,13 @@
       <c r="S94" s="366" t="s">
         <v>1965</v>
       </c>
-      <c r="T94" s="488" t="s">
+      <c r="T94" s="491" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="95" spans="3:20">
-      <c r="M95" s="487"/>
-      <c r="N95" s="487"/>
+      <c r="M95" s="490"/>
+      <c r="N95" s="490"/>
       <c r="O95" s="366">
         <v>24</v>
       </c>
@@ -57577,7 +57584,7 @@
         <f>SUM(O95:R95)</f>
         <v>24</v>
       </c>
-      <c r="T95" s="487"/>
+      <c r="T95" s="490"/>
     </row>
     <row r="96" spans="3:20">
       <c r="M96" s="365" t="s">
@@ -57804,11 +57811,11 @@
       </c>
       <c r="F126">
         <f>F9</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G126" s="373">
         <f>J9</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.11904761904761904</v>
       </c>
     </row>
     <row r="127" spans="4:7">
@@ -57872,29 +57879,25 @@
       </c>
       <c r="F130">
         <f>F68</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G130" s="373">
         <f>J68</f>
-        <v>0.20533333333333334</v>
+        <v>0.21066666666666667</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M92:T93"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="N94:N95"/>
-    <mergeCell ref="T94:T95"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="T83:T84"/>
+    <mergeCell ref="M81:T82"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B17:B18"/>
@@ -57906,16 +57909,20 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:A29"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="T83:T84"/>
-    <mergeCell ref="M81:T82"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M92:T93"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="N94:N95"/>
+    <mergeCell ref="T94:T95"/>
+    <mergeCell ref="E70:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -57930,7 +57937,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A139" sqref="A1:XFD139"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -57945,82 +57952,83 @@
     <col min="9" max="9" width="58.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" thickBot="1"/>
     <row r="2" spans="1:17">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="506" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="509" t="s">
+      <c r="B2" s="506" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="505" t="s">
+      <c r="C2" s="508" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="505" t="s">
+      <c r="D2" s="508" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="505" t="s">
+      <c r="E2" s="508" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="511" t="s">
+      <c r="F2" s="510" t="s">
         <v>1015</v>
       </c>
-      <c r="G2" s="511" t="s">
+      <c r="G2" s="510" t="s">
         <v>1016</v>
       </c>
-      <c r="H2" s="511" t="s">
+      <c r="H2" s="510" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="505" t="s">
+      <c r="I2" s="508" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="505" t="s">
+      <c r="J2" s="508" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="503" t="s">
+      <c r="K2" s="511" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="504"/>
-      <c r="M2" s="505" t="s">
+      <c r="L2" s="512"/>
+      <c r="M2" s="508" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="503" t="s">
+      <c r="N2" s="511" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="504"/>
-      <c r="P2" s="507" t="s">
+      <c r="O2" s="512"/>
+      <c r="P2" s="513" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" hidden="1" thickBot="1">
-      <c r="A3" s="510"/>
-      <c r="B3" s="510"/>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="506"/>
-      <c r="J3" s="506"/>
+      <c r="A3" s="507"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="509"/>
+      <c r="D3" s="509"/>
+      <c r="E3" s="509"/>
+      <c r="F3" s="509"/>
+      <c r="G3" s="509"/>
+      <c r="H3" s="509"/>
+      <c r="I3" s="509"/>
+      <c r="J3" s="509"/>
       <c r="K3" s="45" t="s">
         <v>160</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="506"/>
+      <c r="M3" s="509"/>
       <c r="N3" s="45" t="s">
         <v>174</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="508"/>
-    </row>
-    <row r="4" spans="1:17" ht="48" hidden="1">
+      <c r="P3" s="514"/>
+    </row>
+    <row r="4" spans="1:17" ht="32" hidden="1">
       <c r="A4" s="224">
         <v>1</v>
       </c>
@@ -59192,7 +59200,7 @@
         <v>오류수정.4.서비스.211.02. 문화재공간분석_2024.01.03 19page-</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="32" hidden="1">
+    <row r="28" spans="1:17" hidden="1">
       <c r="A28" s="224">
         <v>212</v>
       </c>
@@ -62543,7 +62551,7 @@
       </c>
     </row>
     <row r="98" spans="1:17" s="392" customFormat="1">
-      <c r="A98" s="512">
+      <c r="A98" s="411">
         <v>3</v>
       </c>
       <c r="B98" s="388" t="s">
@@ -62564,7 +62572,7 @@
       <c r="G98" s="409" t="s">
         <v>1587</v>
       </c>
-      <c r="H98" s="514" t="s">
+      <c r="H98" s="413" t="s">
         <v>1087</v>
       </c>
       <c r="I98" s="388" t="s">
@@ -62591,7 +62599,7 @@
       </c>
     </row>
     <row r="99" spans="1:17" s="392" customFormat="1">
-      <c r="A99" s="513">
+      <c r="A99" s="412">
         <v>138</v>
       </c>
       <c r="B99" s="388" t="s">
@@ -62687,7 +62695,7 @@
       </c>
     </row>
     <row r="101" spans="1:17" s="392" customFormat="1">
-      <c r="A101" s="512">
+      <c r="A101" s="411">
         <v>141</v>
       </c>
       <c r="B101" s="388" t="s">
@@ -63169,7 +63177,7 @@
       </c>
     </row>
     <row r="111" spans="1:17" s="392" customFormat="1">
-      <c r="A111" s="513">
+      <c r="A111" s="412">
         <v>234</v>
       </c>
       <c r="B111" s="388" t="s">
@@ -63607,7 +63615,7 @@
       </c>
     </row>
     <row r="120" spans="1:17" s="392" customFormat="1">
-      <c r="A120" s="513">
+      <c r="A120" s="412">
         <v>285</v>
       </c>
       <c r="B120" s="388" t="s">
@@ -63653,7 +63661,7 @@
       </c>
     </row>
     <row r="121" spans="1:17" s="392" customFormat="1">
-      <c r="A121" s="512">
+      <c r="A121" s="411">
         <v>324</v>
       </c>
       <c r="B121" s="388" t="s">
@@ -64511,7 +64519,7 @@
       </c>
     </row>
     <row r="139" spans="1:17" s="392" customFormat="1">
-      <c r="A139" s="512">
+      <c r="A139" s="411">
         <v>351</v>
       </c>
       <c r="B139" s="388" t="s">
@@ -64593,8 +64601,12 @@
       <c r="L140" s="231" t="s">
         <v>1982</v>
       </c>
-      <c r="M140" s="231"/>
-      <c r="N140" s="231"/>
+      <c r="M140" s="390">
+        <v>45397</v>
+      </c>
+      <c r="N140" s="389" t="s">
+        <v>2162</v>
+      </c>
       <c r="O140" s="231"/>
       <c r="P140" s="232"/>
       <c r="Q140" s="400" t="str">
@@ -64639,10 +64651,16 @@
       <c r="L141" s="231" t="s">
         <v>1982</v>
       </c>
-      <c r="M141" s="231"/>
-      <c r="N141" s="231"/>
+      <c r="M141" s="390">
+        <v>45397</v>
+      </c>
+      <c r="N141" s="389" t="s">
+        <v>2162</v>
+      </c>
       <c r="O141" s="231"/>
-      <c r="P141" s="232"/>
+      <c r="P141" s="515" t="s">
+        <v>2216</v>
+      </c>
       <c r="Q141" s="400" t="str">
         <f t="shared" si="2"/>
         <v>오류수정.1.공통.7.01. 공통_2024.01.05 6페이지-통합검색 기능 개선</v>
@@ -65844,7 +65862,7 @@
         <v>오류수정.1.공통.24.02. 기타도구_2024.01.08 5페이지-그리기 도구 기능 개선</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="224" hidden="1">
+    <row r="168" spans="1:17" ht="192" hidden="1">
       <c r="A168" s="375">
         <v>25</v>
       </c>
@@ -77124,21 +77142,15 @@
     <filterColumn colId="9">
       <filters>
         <filter val="권오재"/>
-        <filter val="김지훈"/>
       </filters>
     </filterColumn>
     <filterColumn colId="10" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:P378">
-      <sortCondition ref="K2:K456"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:P375">
+      <sortCondition ref="J2:J456"/>
     </sortState>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:O2"/>
@@ -77148,6 +77160,11 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
